--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Помещение</t>
   </si>
@@ -79,6 +79,21 @@
   </si>
   <si>
     <t>Смеситель</t>
+  </si>
+  <si>
+    <t>Высота потолка</t>
+  </si>
+  <si>
+    <t>Цена кафеля</t>
+  </si>
+  <si>
+    <t>Работа(полы:ванна)</t>
+  </si>
+  <si>
+    <t>Всего:</t>
+  </si>
+  <si>
+    <t>Итого Sпола:</t>
   </si>
 </sst>
 </file>
@@ -444,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,38 +571,48 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>8.56</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3">
-        <v>8.57</v>
+        <f>3.05*B15</f>
+        <v>8.3874999999999993</v>
       </c>
       <c r="D6" s="3">
-        <v>5.9</v>
+        <f>2.63*B15-1.15*1.4</f>
+        <v>5.6225000000000005</v>
       </c>
       <c r="E6" s="3">
-        <v>6.9</v>
+        <f>2.46*B15</f>
+        <v>6.7649999999999997</v>
       </c>
       <c r="F6" s="3">
-        <v>5</v>
+        <f>1.74*B15</f>
+        <v>4.7850000000000001</v>
       </c>
       <c r="G6" s="3">
-        <v>1.7</v>
+        <f>0.6*B15</f>
+        <v>1.65</v>
       </c>
       <c r="H6" s="3">
-        <v>1.6</v>
+        <f>0.89*B15-2*0.7</f>
+        <v>1.0475000000000003</v>
       </c>
       <c r="I6" s="3">
-        <v>5</v>
+        <f>1*2*B15+0.2*B15</f>
+        <v>6.05</v>
       </c>
       <c r="J6" s="3">
         <f>SUM(B6:I6)</f>
-        <v>43.230000000000004</v>
+        <v>41.307499999999997</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
       <c r="B7" s="3">
         <f>SUM(B2:B6)</f>
-        <v>70.16</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -612,13 +637,16 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>35000</v>
+        <f>B7*C16</f>
+        <v>34300</v>
       </c>
       <c r="C10">
-        <v>56000</v>
+        <f>B7*B17</f>
+        <v>41160</v>
       </c>
       <c r="D10">
-        <v>91000</v>
+        <f>B10+C10</f>
+        <v>75460</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -626,13 +654,16 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>21000</v>
+        <f>J6*B16</f>
+        <v>12392.25</v>
       </c>
       <c r="C11">
-        <v>35000</v>
+        <f>J6*B17</f>
+        <v>24784.5</v>
       </c>
       <c r="D11">
-        <v>56000</v>
+        <f>B11+C11</f>
+        <v>37176.75</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -641,7 +672,7 @@
       </c>
       <c r="D12">
         <f>SUM(D10:D11)</f>
-        <v>147000</v>
+        <v>112636.75</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -658,6 +689,42 @@
       </c>
       <c r="B14">
         <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>300</v>
+      </c>
+      <c r="C16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <f>D12+B13+B14</f>
+        <v>122636.75</v>
       </c>
     </row>
   </sheetData>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="22995" windowHeight="12600"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="22995" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="План помещений" sheetId="1" r:id="rId1"/>
+    <sheet name="Расходы" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Помещение</t>
   </si>
@@ -94,13 +94,55 @@
   </si>
   <si>
     <t>Итого Sпола:</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>Оплачено</t>
+  </si>
+  <si>
+    <t>Задаток</t>
+  </si>
+  <si>
+    <t>Крыльцо+веранда</t>
+  </si>
+  <si>
+    <t>Всего</t>
+  </si>
+  <si>
+    <t>Трап и гофра</t>
+  </si>
+  <si>
+    <t>Кафель в ванную</t>
+  </si>
+  <si>
+    <t>Клей плиточный (8м)+ грунтовка</t>
+  </si>
+  <si>
+    <t>Кафель в комнаты</t>
+  </si>
+  <si>
+    <t>Электрика</t>
+  </si>
+  <si>
+    <t>Долг</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,16 +160,38 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -144,12 +208,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -157,9 +232,20 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Акцент1" xfId="3" builtinId="29"/>
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="2" builtinId="17"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -461,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,35 +661,35 @@
       </c>
       <c r="C6" s="3">
         <f>3.05*B15</f>
-        <v>8.3874999999999993</v>
+        <v>7.93</v>
       </c>
       <c r="D6" s="3">
         <f>2.63*B15-1.15*1.4</f>
-        <v>5.6225000000000005</v>
+        <v>5.2279999999999998</v>
       </c>
       <c r="E6" s="3">
         <f>2.46*B15</f>
-        <v>6.7649999999999997</v>
+        <v>6.3959999999999999</v>
       </c>
       <c r="F6" s="3">
         <f>1.74*B15</f>
-        <v>4.7850000000000001</v>
+        <v>4.524</v>
       </c>
       <c r="G6" s="3">
         <f>0.6*B15</f>
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="H6" s="3">
         <f>0.89*B15-2*0.7</f>
-        <v>1.0475000000000003</v>
+        <v>0.91400000000000015</v>
       </c>
       <c r="I6" s="3">
-        <f>1*2*B15+0.2*B15</f>
-        <v>6.05</v>
+        <f>1*2*2+0.2*2</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J6" s="3">
-        <f>SUM(B6:I6)</f>
-        <v>41.307499999999997</v>
+        <f>SUM(C6:I7)</f>
+        <v>30.951999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -655,15 +741,15 @@
       </c>
       <c r="B11">
         <f>J6*B16</f>
-        <v>12392.25</v>
+        <v>9285.5999999999985</v>
       </c>
       <c r="C11">
         <f>J6*B17</f>
-        <v>24784.5</v>
+        <v>18571.199999999997</v>
       </c>
       <c r="D11">
         <f>B11+C11</f>
-        <v>37176.75</v>
+        <v>27856.799999999996</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -672,7 +758,7 @@
       </c>
       <c r="D12">
         <f>SUM(D10:D11)</f>
-        <v>112636.75</v>
+        <v>103316.79999999999</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -696,7 +782,7 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -724,7 +810,7 @@
       </c>
       <c r="B18">
         <f>D12+B13+B14</f>
-        <v>122636.75</v>
+        <v>113316.79999999999</v>
       </c>
     </row>
   </sheetData>
@@ -735,13 +821,187 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>43003</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="8">
+        <v>20000</v>
+      </c>
+      <c r="D2" s="8">
+        <v>20000</v>
+      </c>
+      <c r="E2" s="8">
+        <f>C2-D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>43022</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="8">
+        <v>70536</v>
+      </c>
+      <c r="D3" s="8">
+        <v>50000</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" ref="E3:E8" si="0">C3-D3</f>
+        <v>20536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>43026</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="8">
+        <v>604</v>
+      </c>
+      <c r="D4" s="8">
+        <v>604</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>43030</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="8">
+        <v>22505</v>
+      </c>
+      <c r="D5" s="8">
+        <v>22505</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>43030</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="8">
+        <f>240*7+709</f>
+        <v>2389</v>
+      </c>
+      <c r="D6" s="8">
+        <f>240*7+709</f>
+        <v>2389</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>43031</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="8">
+        <v>36610</v>
+      </c>
+      <c r="D7" s="8">
+        <v>18000</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>18610</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>43031</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="8">
+        <f>5600+4500</f>
+        <v>10100</v>
+      </c>
+      <c r="D8" s="8">
+        <v>5600</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11">
+        <f>SUM(C2:C7)</f>
+        <v>152644</v>
+      </c>
+      <c r="D9" s="11">
+        <f>SUM(D2:D8)</f>
+        <v>119098</v>
+      </c>
+      <c r="E9" s="11">
+        <f>SUM(E2:E8)</f>
+        <v>43646</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="22995" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="19440" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="План помещений" sheetId="1" r:id="rId1"/>
@@ -824,7 +824,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,11 +881,12 @@
         <v>70536</v>
       </c>
       <c r="D3" s="8">
-        <v>50000</v>
+        <f>50000+20536</f>
+        <v>70536</v>
       </c>
       <c r="E3" s="8">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
-        <v>20536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -992,11 +993,11 @@
       </c>
       <c r="D9" s="11">
         <f>SUM(D2:D8)</f>
-        <v>119098</v>
+        <v>139634</v>
       </c>
       <c r="E9" s="11">
         <f>SUM(E2:E8)</f>
-        <v>43646</v>
+        <v>23110</v>
       </c>
     </row>
   </sheetData>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Помещение</t>
   </si>
@@ -126,13 +126,16 @@
     <t>Клей плиточный (8м)+ грунтовка</t>
   </si>
   <si>
-    <t>Кафель в комнаты</t>
-  </si>
-  <si>
-    <t>Электрика</t>
-  </si>
-  <si>
     <t>Долг</t>
+  </si>
+  <si>
+    <t>Электрика+400р.перенос автомата</t>
+  </si>
+  <si>
+    <t>Кафель в ванной (работа)</t>
+  </si>
+  <si>
+    <t>Кафель на пол в комнаты</t>
   </si>
 </sst>
 </file>
@@ -821,10 +824,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +852,7 @@
         <v>29</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -885,7 +888,7 @@
         <v>70536</v>
       </c>
       <c r="E3" s="8">
-        <f t="shared" ref="E3:E8" si="0">C3-D3</f>
+        <f t="shared" ref="E3:E9" si="0">C3-D3</f>
         <v>0</v>
       </c>
     </row>
@@ -950,7 +953,7 @@
         <v>43031</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" s="8">
         <v>36610</v>
@@ -963,41 +966,56 @@
         <v>18610</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43031</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="8">
-        <f>5600+4500</f>
-        <v>10100</v>
+        <f>5600+4500+400</f>
+        <v>10500</v>
       </c>
       <c r="D8" s="8">
         <v>5600</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" si="0"/>
-        <v>4500</v>
+        <f>C8-D8</f>
+        <v>4900</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="8">
+        <v>20000</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <f>C9-D9</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11">
         <f>SUM(C2:C7)</f>
         <v>152644</v>
       </c>
-      <c r="D9" s="11">
-        <f>SUM(D2:D8)</f>
+      <c r="D10" s="11">
+        <f>SUM(D2:D9)</f>
         <v>139634</v>
       </c>
-      <c r="E9" s="11">
-        <f>SUM(E2:E8)</f>
-        <v>23110</v>
+      <c r="E10" s="11">
+        <f>SUM(E2:E9)</f>
+        <v>43510</v>
       </c>
     </row>
   </sheetData>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Помещение</t>
   </si>
@@ -132,10 +132,28 @@
     <t>Электрика+400р.перенос автомата</t>
   </si>
   <si>
-    <t>Кафель в ванной (работа)</t>
-  </si>
-  <si>
     <t>Кафель на пол в комнаты</t>
+  </si>
+  <si>
+    <t>Охранная система (установка)</t>
+  </si>
+  <si>
+    <t>Стоимость дома</t>
+  </si>
+  <si>
+    <t>Осталось за дом</t>
+  </si>
+  <si>
+    <t>Унитаз с душем</t>
+  </si>
+  <si>
+    <t>Гидроизоляция и затирка</t>
+  </si>
+  <si>
+    <t>Работа кафель в ванной + перегородка</t>
+  </si>
+  <si>
+    <t>ПОЛНАЯ СТОИМОСТЬ ДОМА</t>
   </si>
 </sst>
 </file>
@@ -145,7 +163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,8 +198,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +218,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -221,13 +259,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -242,11 +282,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="5" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="60% - Акцент4" xfId="5" builtinId="44"/>
     <cellStyle name="Акцент1" xfId="3" builtinId="29"/>
+    <cellStyle name="Акцент3" xfId="4" builtinId="37"/>
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
     <cellStyle name="Заголовок 2" xfId="2" builtinId="17"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -824,16 +868,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
     <col min="3" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
   </cols>
@@ -888,7 +932,7 @@
         <v>70536</v>
       </c>
       <c r="E3" s="8">
-        <f t="shared" ref="E3:E9" si="0">C3-D3</f>
+        <f t="shared" ref="E3:E7" si="0">C3-D3</f>
         <v>0</v>
       </c>
     </row>
@@ -928,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43030</v>
       </c>
@@ -953,7 +997,7 @@
         <v>43031</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="8">
         <v>36610</v>
@@ -966,7 +1010,7 @@
         <v>18610</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43031</v>
       </c>
@@ -986,36 +1030,133 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>38</v>
+      <c r="A9" s="6">
+        <v>43038</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="C9" s="8">
-        <v>20000</v>
+        <v>1050</v>
       </c>
       <c r="D9" s="8">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="E9" s="8">
         <f>C9-D9</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="8">
+        <f>20000+3000</f>
+        <v>23000</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <f>C10-D10</f>
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="8">
+        <v>12500</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <f>C11-D11</f>
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="8">
+        <f>5000+6000</f>
+        <v>11000</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <f>C12-D12</f>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11">
-        <f>SUM(C2:C7)</f>
-        <v>152644</v>
-      </c>
-      <c r="D10" s="11">
-        <f>SUM(D2:D9)</f>
-        <v>139634</v>
-      </c>
-      <c r="E10" s="11">
-        <f>SUM(E2:E9)</f>
-        <v>43510</v>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12">
+        <f>SUM(C2:C12)</f>
+        <v>210694</v>
+      </c>
+      <c r="D13" s="12">
+        <f>SUM(D2:D12)</f>
+        <v>140684</v>
+      </c>
+      <c r="E13" s="12">
+        <f>SUM(E2:E12)</f>
+        <v>70010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2750000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="10">
+        <f>C21-C2</f>
+        <v>2730000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="13">
+        <f>C21+C13</f>
+        <v>2960694</v>
       </c>
     </row>
   </sheetData>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Помещение</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>ПОЛНАЯ СТОИМОСТЬ ДОМА</t>
+  </si>
+  <si>
+    <t>Работа кафель в комнатах</t>
   </si>
 </sst>
 </file>
@@ -868,10 +871,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,25 +1098,37 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="B13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="8">
+        <v>30000</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <f>C13-D13</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12">
-        <f>SUM(C2:C12)</f>
-        <v>210694</v>
-      </c>
-      <c r="D13" s="12">
-        <f>SUM(D2:D12)</f>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12">
+        <f>SUM(C2:C13)</f>
+        <v>240694</v>
+      </c>
+      <c r="D14" s="12">
+        <f>SUM(D2:D13)</f>
         <v>140684</v>
       </c>
-      <c r="E13" s="12">
-        <f>SUM(E2:E12)</f>
-        <v>70010</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="8"/>
+      <c r="E14" s="12">
+        <f>SUM(E2:E13)</f>
+        <v>100010</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
@@ -1134,29 +1149,32 @@
       <c r="C20" s="8"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="8">
-        <v>2750000</v>
-      </c>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="10">
-        <f>C21-C2</f>
-        <v>2730000</v>
+        <v>40</v>
+      </c>
+      <c r="C22" s="8">
+        <v>2750000</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="10">
+        <f>C22-C2</f>
+        <v>2730000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="13">
-        <f>C21+C13</f>
-        <v>2960694</v>
+      <c r="C24" s="13">
+        <f>C22+C14</f>
+        <v>2990694</v>
       </c>
     </row>
   </sheetData>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Помещение</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Работа кафель в комнатах</t>
+  </si>
+  <si>
+    <t>Клей плиточный 7 м</t>
   </si>
 </sst>
 </file>
@@ -871,10 +874,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,11 +1009,12 @@
         <v>36610</v>
       </c>
       <c r="D7" s="8">
-        <v>18000</v>
+        <f>18000+18610</f>
+        <v>36610</v>
       </c>
       <c r="E7" s="8">
         <f t="shared" si="0"/>
-        <v>18610</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,7 +1032,7 @@
         <v>5600</v>
       </c>
       <c r="E8" s="8">
-        <f>C8-D8</f>
+        <f t="shared" ref="E8:E14" si="1">C8-D8</f>
         <v>4900</v>
       </c>
     </row>
@@ -1046,92 +1050,107 @@
         <v>1050</v>
       </c>
       <c r="E9" s="8">
-        <f>C9-D9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>43040</v>
+      </c>
       <c r="B10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1820</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1820</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C11" s="8">
         <f>20000+3000</f>
         <v>23000</v>
       </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <f>C10-D10</f>
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="8">
-        <v>12500</v>
-      </c>
       <c r="D11" s="8">
         <v>0</v>
       </c>
       <c r="E11" s="8">
-        <f>C11-D11</f>
-        <v>12500</v>
+        <f t="shared" si="1"/>
+        <v>23000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="8">
+        <v>12500</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C13" s="8">
         <f>5000+6000</f>
         <v>11000</v>
       </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <f>C12-D12</f>
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="8">
-        <v>30000</v>
-      </c>
       <c r="D13" s="8">
         <v>0</v>
       </c>
       <c r="E13" s="8">
-        <f>C13-D13</f>
+        <f t="shared" si="1"/>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="8">
         <v>30000</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12">
-        <f>SUM(C2:C13)</f>
-        <v>240694</v>
-      </c>
-      <c r="D14" s="12">
-        <f>SUM(D2:D13)</f>
-        <v>140684</v>
-      </c>
-      <c r="E14" s="12">
-        <f>SUM(E2:E13)</f>
-        <v>100010</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="8"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12">
+        <f>SUM(C2:C14)</f>
+        <v>242514</v>
+      </c>
+      <c r="D15" s="12">
+        <f>SUM(D2:D14)</f>
+        <v>161114</v>
+      </c>
+      <c r="E15" s="12">
+        <f>SUM(E2:E14)</f>
+        <v>81400</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
@@ -1152,29 +1171,32 @@
       <c r="C21" s="8"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="8">
-        <v>2750000</v>
-      </c>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="10">
-        <f>C22-C2</f>
-        <v>2730000</v>
+        <v>40</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2750000</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="10">
+        <f>C23-C2</f>
+        <v>2730000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="13">
-        <f>C22+C14</f>
-        <v>2990694</v>
+      <c r="C25" s="13">
+        <f>C23+C15</f>
+        <v>2992514</v>
       </c>
     </row>
   </sheetData>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Помещение</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Крыльцо+веранда</t>
   </si>
   <si>
-    <t>Всего</t>
-  </si>
-  <si>
     <t>Трап и гофра</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>Осталось за дом</t>
   </si>
   <si>
-    <t>Унитаз с душем</t>
-  </si>
-  <si>
     <t>Гидроизоляция и затирка</t>
   </si>
   <si>
@@ -160,6 +154,15 @@
   </si>
   <si>
     <t>Клей плиточный 7 м</t>
+  </si>
+  <si>
+    <t>Смеситель и душ в ванной</t>
+  </si>
+  <si>
+    <t>Кухонный гарнитур</t>
+  </si>
+  <si>
+    <t>ВСЕГО:</t>
   </si>
 </sst>
 </file>
@@ -874,10 +877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,7 +905,7 @@
         <v>29</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -947,7 +950,7 @@
         <v>43026</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="8">
         <v>604</v>
@@ -965,7 +968,7 @@
         <v>43030</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="8">
         <v>22505</v>
@@ -983,7 +986,7 @@
         <v>43030</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="8">
         <f>240*7+709</f>
@@ -1003,7 +1006,7 @@
         <v>43031</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="8">
         <v>36610</v>
@@ -1022,7 +1025,7 @@
         <v>43031</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="8">
         <f>5600+4500+400</f>
@@ -1032,7 +1035,7 @@
         <v>5600</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" ref="E8:E14" si="1">C8-D8</f>
+        <f t="shared" ref="E8:E16" si="1">C8-D8</f>
         <v>4900</v>
       </c>
     </row>
@@ -1041,7 +1044,7 @@
         <v>43038</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="8">
         <v>1050</v>
@@ -1059,7 +1062,7 @@
         <v>43040</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="8">
         <v>1820</v>
@@ -1072,131 +1075,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>43044</v>
+      </c>
       <c r="B11" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" s="8">
+        <v>4818</v>
+      </c>
+      <c r="D11" s="8">
+        <v>4818</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="8">
         <f>20000+3000</f>
         <v>23000</v>
       </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
         <f t="shared" si="1"/>
         <v>23000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="8">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="8">
         <v>12500</v>
       </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
         <f t="shared" si="1"/>
         <v>12500</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="8">
-        <f>5000+6000</f>
-        <v>11000</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
-        <f t="shared" si="1"/>
-        <v>11000</v>
-      </c>
-    </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C14" s="8">
-        <v>30000</v>
+        <f>7101</f>
+        <v>7101</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" si="1"/>
+        <v>7101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="8">
+        <v>87000</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="1"/>
+        <v>87000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="8">
         <v>30000</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12">
-        <f>SUM(C2:C14)</f>
-        <v>242514</v>
-      </c>
-      <c r="D15" s="12">
-        <f>SUM(D2:D14)</f>
-        <v>161114</v>
-      </c>
-      <c r="E15" s="12">
-        <f>SUM(E2:E14)</f>
-        <v>81400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12">
+        <f>SUM(C2:C16)</f>
+        <v>330433</v>
+      </c>
+      <c r="D17" s="12">
+        <f>SUM(D2:D16)</f>
+        <v>165932</v>
+      </c>
+      <c r="E17" s="12">
+        <f>SUM(E2:E16)</f>
+        <v>164501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="8">
+        <v>2750000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="8">
-        <v>2750000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="10">
-        <f>C23-C2</f>
+      <c r="C26" s="10">
+        <f>C25-C2</f>
         <v>2730000</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="13">
-        <f>C23+C15</f>
-        <v>2992514</v>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="13">
+        <f>C25+C17</f>
+        <v>3080433</v>
       </c>
     </row>
   </sheetData>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -880,7 +880,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,14 +1145,15 @@
         <v>47</v>
       </c>
       <c r="C15" s="8">
-        <v>87000</v>
+        <f>75906+12670</f>
+        <v>88576</v>
       </c>
       <c r="D15" s="8">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="E15" s="8">
         <f t="shared" si="1"/>
-        <v>87000</v>
+        <v>83076</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1177,15 +1178,15 @@
       <c r="B17" s="11"/>
       <c r="C17" s="12">
         <f>SUM(C2:C16)</f>
-        <v>330433</v>
+        <v>332009</v>
       </c>
       <c r="D17" s="12">
         <f>SUM(D2:D16)</f>
-        <v>165932</v>
+        <v>171432</v>
       </c>
       <c r="E17" s="12">
         <f>SUM(E2:E16)</f>
-        <v>164501</v>
+        <v>160577</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1232,7 +1233,7 @@
       </c>
       <c r="C27" s="13">
         <f>C25+C17</f>
-        <v>3080433</v>
+        <v>3082009</v>
       </c>
     </row>
   </sheetData>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -880,7 +880,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,15 +1098,15 @@
         <v>42</v>
       </c>
       <c r="C12" s="8">
-        <f>20000+3000</f>
-        <v>23000</v>
+        <f>20000+1500</f>
+        <v>21500</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
       </c>
       <c r="E12" s="8">
         <f t="shared" si="1"/>
-        <v>23000</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1178,7 +1178,7 @@
       <c r="B17" s="11"/>
       <c r="C17" s="12">
         <f>SUM(C2:C16)</f>
-        <v>332009</v>
+        <v>330509</v>
       </c>
       <c r="D17" s="12">
         <f>SUM(D2:D16)</f>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="E17" s="12">
         <f>SUM(E2:E16)</f>
-        <v>160577</v>
+        <v>159077</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C27" s="13">
         <f>C25+C17</f>
-        <v>3082009</v>
+        <v>3080509</v>
       </c>
     </row>
   </sheetData>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Помещение</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>ВСЕГО:</t>
+  </si>
+  <si>
+    <t>Клей плиточный 14м + грунтовка</t>
   </si>
 </sst>
 </file>
@@ -877,10 +880,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,11 +1012,12 @@
         <v>37</v>
       </c>
       <c r="C7" s="8">
-        <v>36610</v>
+        <f>36610+500</f>
+        <v>37110</v>
       </c>
       <c r="D7" s="8">
-        <f>18000+18610</f>
-        <v>36610</v>
+        <f>18000+18610+500</f>
+        <v>37110</v>
       </c>
       <c r="E7" s="8">
         <f t="shared" si="0"/>
@@ -1035,7 +1039,7 @@
         <v>5600</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" ref="E8:E16" si="1">C8-D8</f>
+        <f t="shared" ref="E8:E17" si="1">C8-D8</f>
         <v>4900</v>
       </c>
     </row>
@@ -1094,6 +1098,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>43050</v>
+      </c>
       <c r="B12" s="9" t="s">
         <v>42</v>
       </c>
@@ -1102,11 +1109,11 @@
         <v>21500</v>
       </c>
       <c r="D12" s="8">
-        <v>0</v>
+        <v>21500</v>
       </c>
       <c r="E12" s="8">
         <f t="shared" si="1"/>
-        <v>21500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1133,14 +1140,17 @@
         <v>7101</v>
       </c>
       <c r="D14" s="8">
-        <v>0</v>
+        <v>7101</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" si="1"/>
-        <v>7101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>43047</v>
+      </c>
       <c r="B15" s="9" t="s">
         <v>47</v>
       </c>
@@ -1172,25 +1182,38 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="B17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="8">
+        <f>240*14+500</f>
+        <v>3860</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="1"/>
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12">
-        <f>SUM(C2:C16)</f>
-        <v>330509</v>
-      </c>
-      <c r="D17" s="12">
-        <f>SUM(D2:D16)</f>
-        <v>171432</v>
-      </c>
-      <c r="E17" s="12">
-        <f>SUM(E2:E16)</f>
-        <v>159077</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="8"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12">
+        <f>SUM(C2:C17)</f>
+        <v>334869</v>
+      </c>
+      <c r="D18" s="12">
+        <f>SUM(D2:D17)</f>
+        <v>200533</v>
+      </c>
+      <c r="E18" s="12">
+        <f>SUM(E2:E17)</f>
+        <v>134336</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
@@ -1211,29 +1234,32 @@
       <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="8">
-        <v>2750000</v>
-      </c>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="10">
-        <f>C25-C2</f>
-        <v>2730000</v>
+        <v>39</v>
+      </c>
+      <c r="C26" s="8">
+        <v>2750000</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="10">
+        <f>C26-C2</f>
+        <v>2730000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="13">
-        <f>C25+C17</f>
-        <v>3080509</v>
+      <c r="C28" s="13">
+        <f>C26+C18</f>
+        <v>3084869</v>
       </c>
     </row>
   </sheetData>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -165,7 +165,7 @@
     <t>ВСЕГО:</t>
   </si>
   <si>
-    <t>Клей плиточный 14м + грунтовка</t>
+    <t>Клей плиточный 6м + грунтовка</t>
   </si>
 </sst>
 </file>
@@ -883,7 +883,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,15 +1032,15 @@
         <v>36</v>
       </c>
       <c r="C8" s="8">
-        <f>5600+4500+400</f>
-        <v>10500</v>
+        <f>5600+4500+400+600</f>
+        <v>11100</v>
       </c>
       <c r="D8" s="8">
         <v>5600</v>
       </c>
       <c r="E8" s="8">
         <f t="shared" ref="E8:E17" si="1">C8-D8</f>
-        <v>4900</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1132,6 +1132,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>43050</v>
+      </c>
       <c r="B14" s="9" t="s">
         <v>19</v>
       </c>
@@ -1159,11 +1162,12 @@
         <v>88576</v>
       </c>
       <c r="D15" s="8">
-        <v>5500</v>
+        <f>38000+5500</f>
+        <v>43500</v>
       </c>
       <c r="E15" s="8">
         <f t="shared" si="1"/>
-        <v>83076</v>
+        <v>45076</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1182,19 +1186,23 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>43051</v>
+      </c>
       <c r="B17" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="8">
-        <f>240*14+500</f>
-        <v>3860</v>
+        <f>260*6+549</f>
+        <v>2109</v>
       </c>
       <c r="D17" s="8">
-        <v>0</v>
+        <f>1560+549</f>
+        <v>2109</v>
       </c>
       <c r="E17" s="8">
         <f t="shared" si="1"/>
-        <v>3860</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1204,15 +1212,15 @@
       <c r="B18" s="11"/>
       <c r="C18" s="12">
         <f>SUM(C2:C17)</f>
-        <v>334869</v>
+        <v>333718</v>
       </c>
       <c r="D18" s="12">
         <f>SUM(D2:D17)</f>
-        <v>200533</v>
+        <v>240642</v>
       </c>
       <c r="E18" s="12">
         <f>SUM(E2:E17)</f>
-        <v>134336</v>
+        <v>93076</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1259,7 +1267,7 @@
       </c>
       <c r="C28" s="13">
         <f>C26+C18</f>
-        <v>3084869</v>
+        <v>3083718</v>
       </c>
     </row>
   </sheetData>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Помещение</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Клей плиточный 6м + грунтовка</t>
+  </si>
+  <si>
+    <t>Электрика на кухне</t>
   </si>
 </sst>
 </file>
@@ -880,10 +883,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,11 +1039,12 @@
         <v>11100</v>
       </c>
       <c r="D8" s="8">
-        <v>5600</v>
+        <f>5600+5500</f>
+        <v>11100</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" ref="E8:E17" si="1">C8-D8</f>
-        <v>5500</v>
+        <f t="shared" ref="E8:E18" si="1">C8-D8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1171,60 +1175,73 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
       <c r="B16" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C16" s="8">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="8">
         <v>30000</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>43051</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B18" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C18" s="8">
         <f>260*6+549</f>
         <v>2109</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="8">
         <f>1560+549</f>
         <v>2109</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E18" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12">
-        <f>SUM(C2:C17)</f>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12">
+        <f>SUM(C2:C18)</f>
         <v>333718</v>
       </c>
-      <c r="D18" s="12">
-        <f>SUM(D2:D17)</f>
-        <v>240642</v>
-      </c>
-      <c r="E18" s="12">
-        <f>SUM(E2:E17)</f>
-        <v>93076</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="8"/>
+      <c r="D19" s="12">
+        <f>SUM(D2:D18)</f>
+        <v>246142</v>
+      </c>
+      <c r="E19" s="12">
+        <f>SUM(E2:E18)</f>
+        <v>87576</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
@@ -1245,28 +1262,31 @@
       <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="8">
-        <v>2750000</v>
-      </c>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="10">
-        <f>C26-C2</f>
-        <v>2730000</v>
+        <v>39</v>
+      </c>
+      <c r="C27" s="8">
+        <v>2750000</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="10">
+        <f>C27-C2</f>
+        <v>2730000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="13">
-        <f>C26+C18</f>
+      <c r="C29" s="13">
+        <f>C27+C19</f>
         <v>3083718</v>
       </c>
     </row>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>Помещение</t>
   </si>
@@ -169,16 +169,62 @@
   </si>
   <si>
     <t>Электрика на кухне</t>
+  </si>
+  <si>
+    <t>Встраеваемая техника</t>
+  </si>
+  <si>
+    <t>Договор КП нотариус</t>
+  </si>
+  <si>
+    <t>Сопровождение сделки(ЧИБ)</t>
+  </si>
+  <si>
+    <t>Ипотека (требуемая сумма)</t>
+  </si>
+  <si>
+    <t>Продажа квартиры</t>
+  </si>
+  <si>
+    <t>Со счета</t>
+  </si>
+  <si>
+    <t>Ипотека графики</t>
+  </si>
+  <si>
+    <t>Аннуитет</t>
+  </si>
+  <si>
+    <t>В месяц</t>
+  </si>
+  <si>
+    <t>Переплата</t>
+  </si>
+  <si>
+    <t>Полная стоимость, %годовых</t>
+  </si>
+  <si>
+    <t>Чистая</t>
+  </si>
+  <si>
+    <t>С тек.затратами</t>
+  </si>
+  <si>
+    <t>С затратами</t>
+  </si>
+  <si>
+    <t>Диф(макс.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,8 +268,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,6 +297,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -274,15 +352,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -301,8 +383,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="9" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="10">
+    <cellStyle name="20% - Акцент1" xfId="6" builtinId="30"/>
+    <cellStyle name="20% - Акцент6" xfId="9" builtinId="50"/>
+    <cellStyle name="60% - Акцент2" xfId="7" builtinId="36"/>
+    <cellStyle name="60% - Акцент3" xfId="8" builtinId="40"/>
     <cellStyle name="60% - Акцент4" xfId="5" builtinId="44"/>
     <cellStyle name="Акцент1" xfId="3" builtinId="29"/>
     <cellStyle name="Акцент3" xfId="4" builtinId="37"/>
@@ -883,10 +979,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,6 +991,7 @@
     <col min="2" max="2" width="34.5703125" customWidth="1"/>
     <col min="3" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1043,7 +1140,7 @@
         <v>11100</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" ref="E8:E18" si="1">C8-D8</f>
+        <f t="shared" ref="E8:E21" si="1">C8-D8</f>
         <v>0</v>
       </c>
     </row>
@@ -1177,80 +1274,125 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="8">
-        <v>0</v>
+        <f>20000+10000</f>
+        <v>30000</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
       <c r="B17" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C17" s="8">
-        <v>30000</v>
+        <f>2500+3000</f>
+        <v>5500</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
       </c>
       <c r="E17" s="8">
         <f t="shared" si="1"/>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="8">
         <v>30000</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>43063</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="8">
+        <v>13500</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="1"/>
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>43070</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="8">
+        <v>12000</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>43051</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C21" s="8">
         <f>260*6+549</f>
         <v>2109</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D21" s="8">
         <f>1560+549</f>
         <v>2109</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E21" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12">
-        <f>SUM(C2:C18)</f>
-        <v>333718</v>
-      </c>
-      <c r="D19" s="12">
-        <f>SUM(D2:D18)</f>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12">
+        <f>SUM(C2:C21)</f>
+        <v>394718</v>
+      </c>
+      <c r="D22" s="12">
+        <f>SUM(D2:D21)</f>
         <v>246142</v>
       </c>
-      <c r="E19" s="12">
-        <f>SUM(E2:E18)</f>
-        <v>87576</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="8"/>
+      <c r="E22" s="12">
+        <f>SUM(E2:E21)</f>
+        <v>148576</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="8"/>
@@ -1259,38 +1401,154 @@
       <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="8"/>
+      <c r="C25" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="8"/>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="14">
+        <f>C30-C2-C27-C28+E22</f>
+        <v>678576</v>
+      </c>
+      <c r="D26" s="14">
+        <f>C30-C2-C27-C28</f>
+        <v>530000</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C27" s="8">
-        <v>2750000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="8">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="8">
+        <v>2750000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="10">
-        <f>C27-C2</f>
+      <c r="C31" s="10">
+        <f>C30-C2</f>
         <v>2730000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="13">
-        <f>C27+C19</f>
-        <v>3083718</v>
+      <c r="C32" s="13">
+        <f>C30+C22</f>
+        <v>3144718</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="20"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="15">
+        <v>7500</v>
+      </c>
+      <c r="D35" s="15">
+        <v>9800</v>
+      </c>
+      <c r="E35" s="15">
+        <v>5900</v>
+      </c>
+      <c r="F35" s="15">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="15">
+        <v>674000</v>
+      </c>
+      <c r="D36" s="15">
+        <v>544000</v>
+      </c>
+      <c r="E36" s="15">
+        <v>525000</v>
+      </c>
+      <c r="F36" s="15">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37">
+        <v>10.996</v>
+      </c>
+      <c r="D37">
+        <v>10.962999999999999</v>
+      </c>
+      <c r="E37">
+        <v>10.996</v>
+      </c>
+      <c r="F37">
+        <v>10.962999999999999</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -389,10 +389,10 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="9" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="20% - Акцент1" xfId="6" builtinId="30"/>
@@ -981,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,14 +1328,14 @@
         <v>52</v>
       </c>
       <c r="C19" s="8">
-        <v>13500</v>
+        <v>15670</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
       </c>
       <c r="E19" s="8">
         <f t="shared" si="1"/>
-        <v>13500</v>
+        <v>15670</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1383,7 +1383,7 @@
       <c r="B22" s="11"/>
       <c r="C22" s="12">
         <f>SUM(C2:C21)</f>
-        <v>394718</v>
+        <v>396888</v>
       </c>
       <c r="D22" s="12">
         <f>SUM(D2:D21)</f>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="E22" s="12">
         <f>SUM(E2:E21)</f>
-        <v>148576</v>
+        <v>150746</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="C26" s="14">
         <f>C30-C2-C27-C28+E22</f>
-        <v>678576</v>
+        <v>680746</v>
       </c>
       <c r="D26" s="14">
         <f>C30-C2-C27-C28</f>
@@ -1463,18 +1463,18 @@
       </c>
       <c r="C32" s="13">
         <f>C30+C22</f>
-        <v>3144718</v>
+        <v>3146888</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20" t="s">
+      <c r="D33" s="21"/>
+      <c r="E33" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="20"/>
+      <c r="F33" s="21"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
@@ -1483,13 +1483,13 @@
       <c r="C34" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="20" t="s">
         <v>65</v>
       </c>
       <c r="E34" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="20" t="s">
         <v>65</v>
       </c>
     </row>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>Помещение</t>
   </si>
@@ -214,6 +214,24 @@
   </si>
   <si>
     <t>Диф(макс.)</t>
+  </si>
+  <si>
+    <t>Кафель в кухню</t>
+  </si>
+  <si>
+    <t>Входная дверь</t>
+  </si>
+  <si>
+    <t>Вычеты</t>
+  </si>
+  <si>
+    <t>Потолок</t>
+  </si>
+  <si>
+    <t>Всего вычетов</t>
+  </si>
+  <si>
+    <t>Дверь</t>
   </si>
 </sst>
 </file>
@@ -277,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +342,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -352,7 +376,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -363,8 +387,9 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -393,10 +418,12 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="10"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="20% - Акцент1" xfId="6" builtinId="30"/>
     <cellStyle name="20% - Акцент6" xfId="9" builtinId="50"/>
+    <cellStyle name="40% - Акцент1" xfId="10" builtinId="31"/>
     <cellStyle name="60% - Акцент2" xfId="7" builtinId="36"/>
     <cellStyle name="60% - Акцент3" xfId="8" builtinId="40"/>
     <cellStyle name="60% - Акцент4" xfId="5" builtinId="44"/>
@@ -979,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,6 +1019,9 @@
     <col min="3" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1140,7 +1170,7 @@
         <v>11100</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" ref="E8:E21" si="1">C8-D8</f>
+        <f t="shared" ref="E8:E23" si="1">C8-D8</f>
         <v>0</v>
       </c>
     </row>
@@ -1288,7 +1318,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="9" t="s">
         <v>50</v>
@@ -1305,7 +1335,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>44</v>
       </c>
@@ -1320,7 +1350,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43063</v>
       </c>
@@ -1338,7 +1368,7 @@
         <v>15670</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43070</v>
       </c>
@@ -1356,198 +1386,259 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
+        <v>43057</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1596</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1596</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>43057</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="8">
+        <f>24000+2500</f>
+        <v>26500</v>
+      </c>
+      <c r="D22" s="8">
+        <v>14000</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="1"/>
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>43051</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B23" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C23" s="8">
         <f>260*6+549</f>
         <v>2109</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D23" s="8">
         <f>1560+549</f>
         <v>2109</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E23" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12">
-        <f>SUM(C2:C21)</f>
-        <v>396888</v>
-      </c>
-      <c r="D22" s="12">
-        <f>SUM(D2:D21)</f>
-        <v>246142</v>
-      </c>
-      <c r="E22" s="12">
-        <f>SUM(E2:E21)</f>
-        <v>150746</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="16" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="12">
+        <f>SUM(C2:C23)</f>
+        <v>424984</v>
+      </c>
+      <c r="D24" s="12">
+        <f>SUM(D2:D23)</f>
+        <v>261738</v>
+      </c>
+      <c r="E24" s="12">
+        <f>SUM(E2:E23)</f>
+        <v>163246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D27" s="17" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="H27" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="14">
-        <f>C30-C2-C27-C28+E22</f>
-        <v>680746</v>
-      </c>
-      <c r="D26" s="14">
-        <f>C30-C2-C27-C28</f>
-        <v>530000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="C28" s="14">
+        <f>C32-C2-C29-C30+E24</f>
+        <v>693246</v>
+      </c>
+      <c r="D28" s="14">
+        <f>C33-C29-C30</f>
+        <v>495000</v>
+      </c>
+      <c r="H28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" s="8">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C29" s="8">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="H29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I29" s="8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C30" s="8">
         <v>200000</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="8"/>
+      <c r="H31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="8">
+        <f>SUM(I28:I30)</f>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C32" s="8">
         <v>2750000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="10">
-        <f>C30-C2</f>
-        <v>2730000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="19" t="s">
+      <c r="C33" s="10">
+        <f>C32-C2-I31</f>
+        <v>2695000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="13">
-        <f>C30+C22</f>
-        <v>3146888</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="21" t="s">
+      <c r="C34" s="13">
+        <f>C32+C24</f>
+        <v>3174984</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21" t="s">
+      <c r="D35" s="21"/>
+      <c r="E35" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="15">
-        <v>7500</v>
-      </c>
-      <c r="D35" s="15">
-        <v>9800</v>
-      </c>
-      <c r="E35" s="15">
-        <v>5900</v>
-      </c>
-      <c r="F35" s="15">
-        <v>7700</v>
-      </c>
+      <c r="F35" s="21"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="15">
-        <v>674000</v>
-      </c>
-      <c r="D36" s="15">
-        <v>544000</v>
-      </c>
-      <c r="E36" s="15">
-        <v>525000</v>
-      </c>
-      <c r="F36" s="15">
-        <v>420000</v>
+        <v>57</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="15">
+        <v>7500</v>
+      </c>
+      <c r="D37" s="15">
+        <v>9800</v>
+      </c>
+      <c r="E37" s="15">
+        <v>5900</v>
+      </c>
+      <c r="F37" s="15">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="15">
+        <v>674000</v>
+      </c>
+      <c r="D38" s="15">
+        <v>544000</v>
+      </c>
+      <c r="E38" s="15">
+        <v>525000</v>
+      </c>
+      <c r="F38" s="15">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>61</v>
       </c>
-      <c r="C37">
+      <c r="C39">
         <v>10.996</v>
       </c>
-      <c r="D37">
+      <c r="D39">
         <v>10.962999999999999</v>
       </c>
-      <c r="E37">
+      <c r="E39">
         <v>10.996</v>
       </c>
-      <c r="F37">
+      <c r="F39">
         <v>10.962999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -415,10 +415,10 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="10"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Акцент1" xfId="6" builtinId="30"/>
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,32 +1307,34 @@
         <v>51</v>
       </c>
       <c r="C16" s="8">
-        <f>20000+10000</f>
-        <v>30000</v>
+        <f>20000+15000</f>
+        <v>35000</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+      <c r="A17" s="6">
+        <v>43057</v>
+      </c>
       <c r="B17" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="8">
-        <f>2500+3000</f>
-        <v>5500</v>
+        <f>2500+2250</f>
+        <v>4750</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
       </c>
       <c r="E17" s="8">
         <f t="shared" si="1"/>
-        <v>5500</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1450,7 +1452,7 @@
       <c r="B24" s="11"/>
       <c r="C24" s="12">
         <f>SUM(C2:C23)</f>
-        <v>424984</v>
+        <v>429234</v>
       </c>
       <c r="D24" s="12">
         <f>SUM(D2:D23)</f>
@@ -1458,7 +1460,7 @@
       </c>
       <c r="E24" s="12">
         <f>SUM(E2:E23)</f>
-        <v>163246</v>
+        <v>167496</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1474,10 +1476,10 @@
       <c r="D27" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I27" s="22"/>
+      <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
@@ -1485,7 +1487,7 @@
       </c>
       <c r="C28" s="14">
         <f>C32-C2-C29-C30+E24</f>
-        <v>693246</v>
+        <v>697496</v>
       </c>
       <c r="D28" s="14">
         <f>C33-C29-C30</f>
@@ -1554,18 +1556,18 @@
       </c>
       <c r="C34" s="13">
         <f>C32+C24</f>
-        <v>3174984</v>
+        <v>3179234</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="21"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
   <si>
     <t>Помещение</t>
   </si>
@@ -232,6 +232,27 @@
   </si>
   <si>
     <t>Дверь</t>
+  </si>
+  <si>
+    <t>Клей плиточный 8 м</t>
+  </si>
+  <si>
+    <t>От Жени с Пашей</t>
+  </si>
+  <si>
+    <t>Всего своих средств</t>
+  </si>
+  <si>
+    <t>Остаток долга</t>
+  </si>
+  <si>
+    <t>Изменение</t>
+  </si>
+  <si>
+    <t>Проценты</t>
+  </si>
+  <si>
+    <t>От Жени с Пашей (расчет 8 %годовых)</t>
   </si>
 </sst>
 </file>
@@ -242,7 +263,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,8 +315,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,11 +335,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
       </patternFill>
     </fill>
     <fill>
@@ -348,6 +373,17 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -376,20 +412,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -404,31 +441,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="6"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="10"/>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="11"/>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="11" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
-    <cellStyle name="20% - Акцент1" xfId="6" builtinId="30"/>
-    <cellStyle name="20% - Акцент6" xfId="9" builtinId="50"/>
-    <cellStyle name="40% - Акцент1" xfId="10" builtinId="31"/>
-    <cellStyle name="60% - Акцент2" xfId="7" builtinId="36"/>
-    <cellStyle name="60% - Акцент3" xfId="8" builtinId="40"/>
-    <cellStyle name="60% - Акцент4" xfId="5" builtinId="44"/>
+  <cellStyles count="12">
+    <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
+    <cellStyle name="20% - Акцент3" xfId="11" builtinId="38"/>
+    <cellStyle name="20% - Акцент6" xfId="8" builtinId="50"/>
+    <cellStyle name="40% - Акцент1" xfId="9" builtinId="31"/>
+    <cellStyle name="60% - Акцент2" xfId="6" builtinId="36"/>
+    <cellStyle name="60% - Акцент3" xfId="7" builtinId="40"/>
+    <cellStyle name="60% - Акцент4" xfId="4" builtinId="44"/>
     <cellStyle name="Акцент1" xfId="3" builtinId="29"/>
-    <cellStyle name="Акцент3" xfId="4" builtinId="37"/>
+    <cellStyle name="Акцент2" xfId="10" builtinId="33"/>
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
     <cellStyle name="Заголовок 2" xfId="2" builtinId="17"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1006,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,9 +1065,11 @@
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1040,8 +1085,14 @@
       <c r="E1" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>43003</v>
       </c>
@@ -1058,8 +1109,20 @@
         <f>C2-D2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43022</v>
       </c>
@@ -1077,8 +1140,17 @@
         <f t="shared" ref="E3:E7" si="0">C3-D3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I3" s="6">
+        <v>43059</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43026</v>
       </c>
@@ -1095,8 +1167,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>43030</v>
       </c>
@@ -1113,8 +1187,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43030</v>
       </c>
@@ -1133,8 +1209,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43031</v>
       </c>
@@ -1154,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43031</v>
       </c>
@@ -1170,11 +1248,11 @@
         <v>11100</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" ref="E8:E23" si="1">C8-D8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E8:E24" si="1">C8-D8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>43038</v>
       </c>
@@ -1192,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>43040</v>
       </c>
@@ -1210,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>43044</v>
       </c>
@@ -1228,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>43050</v>
       </c>
@@ -1247,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>38</v>
       </c>
@@ -1262,7 +1340,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>43050</v>
       </c>
@@ -1281,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>43047</v>
       </c>
@@ -1301,7 +1379,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="9" t="s">
         <v>51</v>
@@ -1446,201 +1524,234 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="6">
+        <v>43058</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1820</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1820</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12">
-        <f>SUM(C2:C23)</f>
-        <v>429234</v>
-      </c>
-      <c r="D24" s="12">
-        <f>SUM(D2:D23)</f>
-        <v>261738</v>
-      </c>
-      <c r="E24" s="12">
+      <c r="B25" s="10"/>
+      <c r="C25" s="11">
+        <f>SUM(C2:C24)</f>
+        <v>431054</v>
+      </c>
+      <c r="D25" s="11">
+        <f>SUM(D2:D24)</f>
+        <v>263558</v>
+      </c>
+      <c r="E25" s="11">
         <f>SUM(E2:E23)</f>
         <v>167496</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="8"/>
-    </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D29" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="H29" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I27" s="21"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="14">
-        <f>C32-C2-C29-C30+E24</f>
-        <v>697496</v>
-      </c>
-      <c r="D28" s="14">
-        <f>C33-C29-C30</f>
-        <v>495000</v>
-      </c>
-      <c r="H28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I28" s="8">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="8">
-        <v>2000000</v>
-      </c>
-      <c r="H29" t="s">
-        <v>71</v>
-      </c>
-      <c r="I29" s="8">
-        <v>15000</v>
-      </c>
+      <c r="I29" s="20"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="8">
-        <v>200000</v>
-      </c>
-      <c r="I30" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="C30" s="13">
+        <f>C36-C34+E25</f>
+        <v>462496</v>
+      </c>
+      <c r="D30" s="13">
+        <f>C36-C34</f>
+        <v>295000</v>
+      </c>
+      <c r="H30" t="s">
+        <v>69</v>
+      </c>
+      <c r="I30" s="8">
+        <v>20000</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="8"/>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="8">
+        <v>2000000</v>
+      </c>
       <c r="H31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I31" s="8">
-        <f>SUM(I28:I30)</f>
-        <v>35000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="8">
+        <v>200000</v>
+      </c>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="8">
+        <v>200000</v>
+      </c>
+      <c r="H33" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="8">
+        <f>SUM(I30:I32)</f>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="25">
+        <f>SUM(C31:C33)</f>
+        <v>2400000</v>
+      </c>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C35" s="8">
         <v>2750000</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="10">
-        <f>C32-C2-I31</f>
+      <c r="C36" s="23">
+        <f>C35-C2-I33</f>
         <v>2695000</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="19" t="s">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="13">
-        <f>C32+C24</f>
-        <v>3179234</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="22" t="s">
+      <c r="C37" s="12">
+        <f>C35+C25</f>
+        <v>3181054</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22" t="s">
+      <c r="D39" s="21"/>
+      <c r="E39" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="22"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C40" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D40" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E40" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F40" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C41" s="14">
         <v>7500</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D41" s="14">
         <v>9800</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E41" s="14">
         <v>5900</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F41" s="14">
         <v>7700</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C42" s="14">
         <v>674000</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D42" s="14">
         <v>544000</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E42" s="14">
         <v>525000</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F42" s="14">
         <v>420000</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>61</v>
       </c>
-      <c r="C39">
+      <c r="C43">
         <v>10.996</v>
       </c>
-      <c r="D39">
+      <c r="D43">
         <v>10.962999999999999</v>
       </c>
-      <c r="E39">
+      <c r="E43">
         <v>10.996</v>
       </c>
-      <c r="F39">
+      <c r="F43">
         <v>10.962999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
   <si>
     <t>Помещение</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Электрика на кухне</t>
   </si>
   <si>
-    <t>Встраеваемая техника</t>
-  </si>
-  <si>
     <t>Договор КП нотариус</t>
   </si>
   <si>
@@ -243,16 +240,38 @@
     <t>Всего своих средств</t>
   </si>
   <si>
-    <t>Остаток долга</t>
-  </si>
-  <si>
     <t>Изменение</t>
   </si>
   <si>
     <t>Проценты</t>
   </si>
   <si>
-    <t>От Жени с Пашей (расчет 8 %годовых)</t>
+    <t>Духовка</t>
+  </si>
+  <si>
+    <t>Газовая панель</t>
+  </si>
+  <si>
+    <t>Дней</t>
+  </si>
+  <si>
+    <t>От Жени с Пашей (расчет процентов)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ставка </t>
+  </si>
+  <si>
+    <t>Остаток
+долга</t>
+  </si>
+  <si>
+    <t>Штукатурка в зал</t>
+  </si>
+  <si>
+    <t>Обои в зал</t>
+  </si>
+  <si>
+    <t>Грунтовка зал</t>
   </si>
 </sst>
 </file>
@@ -412,7 +431,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -425,8 +444,9 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -452,17 +472,22 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="10"/>
     <xf numFmtId="164" fontId="3" fillId="9" borderId="0" xfId="10" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="11"/>
     <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="11" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="12" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
     <cellStyle name="20% - Акцент3" xfId="11" builtinId="38"/>
     <cellStyle name="20% - Акцент6" xfId="8" builtinId="50"/>
@@ -475,6 +500,7 @@
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
     <cellStyle name="Заголовок 2" xfId="2" builtinId="17"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="12" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1049,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,11 +1091,12 @@
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="10" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1085,14 +1112,19 @@
       <c r="E1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>43003</v>
       </c>
@@ -1109,20 +1141,23 @@
         <f>C2-D2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="27" t="s">
+      <c r="H2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43022</v>
       </c>
@@ -1140,17 +1175,24 @@
         <f t="shared" ref="E3:E7" si="0">C3-D3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="6">
+      <c r="G3" s="6">
         <v>43059</v>
       </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="29">
+        <v>365</v>
+      </c>
       <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
         <v>200000</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K3" s="14">
+        <f>J3*K1/365*I3</f>
+        <v>14000.000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43026</v>
       </c>
@@ -1169,8 +1211,9 @@
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>43030</v>
       </c>
@@ -1189,8 +1232,9 @@
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43030</v>
       </c>
@@ -1211,8 +1255,9 @@
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43031</v>
       </c>
@@ -1232,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43031</v>
       </c>
@@ -1248,11 +1293,11 @@
         <v>11100</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" ref="E8:E24" si="1">C8-D8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E8:E28" si="1">C8-D8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>43038</v>
       </c>
@@ -1270,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>43040</v>
       </c>
@@ -1288,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>43044</v>
       </c>
@@ -1306,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>43050</v>
       </c>
@@ -1325,22 +1370,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="8">
-        <v>12500</v>
+        <v>11900</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
       </c>
       <c r="E13" s="8">
         <f t="shared" si="1"/>
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>43050</v>
       </c>
@@ -1359,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>43047</v>
       </c>
@@ -1379,379 +1424,423 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="9" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C16" s="8">
-        <f>20000+15000</f>
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" si="1"/>
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
+        <v>43061</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="8">
+        <v>12790</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="1"/>
+        <v>12790</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>43057</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C18" s="8">
         <f>2500+2250</f>
         <v>4750</v>
       </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8">
-        <f t="shared" si="1"/>
+      <c r="D18" s="8">
         <v>4750</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="8">
-        <v>30000</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
       </c>
       <c r="E18" s="8">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="8">
         <v>30000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>43063</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="8">
-        <v>15670</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
       </c>
       <c r="E19" s="8">
         <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>43063</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="8">
         <v>15670</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>43070</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="8">
-        <v>12000</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
       </c>
       <c r="E20" s="8">
         <f t="shared" si="1"/>
+        <v>15670</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>43070</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="8">
         <v>12000</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>43057</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="8">
-        <v>1596</v>
-      </c>
       <c r="D21" s="8">
-        <v>1596</v>
+        <v>0</v>
       </c>
       <c r="E21" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43057</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C22" s="8">
+        <v>1596</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1596</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>43057</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="8">
         <f>24000+2500</f>
         <v>26500</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D23" s="8">
         <v>14000</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E23" s="8">
         <f t="shared" si="1"/>
         <v>12500</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <v>43051</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C24" s="8">
         <f>260*6+549</f>
         <v>2109</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="8">
         <f>1560+549</f>
         <v>2109</v>
       </c>
-      <c r="E23" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>43058</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1820</v>
-      </c>
-      <c r="D24" s="8">
-        <v>1820</v>
-      </c>
       <c r="E24" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>43058</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1820</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1820</v>
+      </c>
+      <c r="E28" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11">
-        <f>SUM(C2:C24)</f>
-        <v>431054</v>
-      </c>
-      <c r="D25" s="11">
-        <f>SUM(D2:D24)</f>
-        <v>263558</v>
-      </c>
-      <c r="E25" s="11">
-        <f>SUM(E2:E23)</f>
-        <v>167496</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="16" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11">
+        <f>SUM(C2:C28)</f>
+        <v>433244</v>
+      </c>
+      <c r="D29" s="11">
+        <f>SUM(D2:D28)</f>
+        <v>268308</v>
+      </c>
+      <c r="E29" s="11">
+        <f>SUM(E2:E24)</f>
+        <v>164936</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="D33" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I33" s="20"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="13">
+        <f>C40-C38+E29</f>
+        <v>459936</v>
+      </c>
+      <c r="D34" s="13">
+        <f>C40-C38</f>
+        <v>295000</v>
+      </c>
+      <c r="H34" t="s">
         <v>68</v>
       </c>
-      <c r="I29" s="20"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="13">
-        <f>C36-C34+E25</f>
-        <v>462496</v>
-      </c>
-      <c r="D30" s="13">
-        <f>C36-C34</f>
-        <v>295000</v>
-      </c>
-      <c r="H30" t="s">
-        <v>69</v>
-      </c>
-      <c r="I30" s="8">
+      <c r="I34" s="8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="8">
-        <v>2000000</v>
-      </c>
-      <c r="H31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I31" s="8">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="8">
-        <v>200000</v>
-      </c>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="8">
-        <v>200000</v>
-      </c>
-      <c r="H33" t="s">
-        <v>70</v>
-      </c>
-      <c r="I33" s="8">
-        <f>SUM(I30:I32)</f>
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="25">
-        <f>SUM(C31:C33)</f>
-        <v>2400000</v>
-      </c>
-      <c r="I34" s="8"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="H35" t="s">
+        <v>70</v>
+      </c>
+      <c r="I35" s="8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="8">
+        <v>200000</v>
+      </c>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="8">
+        <v>200000</v>
+      </c>
+      <c r="H37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I37" s="8">
+        <f>SUM(I34:I36)</f>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="24">
+        <f>SUM(C35:C37)</f>
+        <v>2400000</v>
+      </c>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C39" s="8">
         <v>2750000</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="22" t="s">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="23">
-        <f>C35-C2-I33</f>
+      <c r="C40" s="22">
+        <f>C39-C2-I37</f>
         <v>2695000</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="18" t="s">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="12">
-        <f>C35+C25</f>
-        <v>3181054</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="21" t="s">
+      <c r="C41" s="12">
+        <f>C39+C29</f>
+        <v>3183244</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="30"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="E44" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="F44" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="C45" s="14">
+        <v>7500</v>
+      </c>
+      <c r="D45" s="14">
+        <v>9800</v>
+      </c>
+      <c r="E45" s="14">
+        <v>5900</v>
+      </c>
+      <c r="F45" s="14">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="14">
-        <v>7500</v>
-      </c>
-      <c r="D41" s="14">
-        <v>9800</v>
-      </c>
-      <c r="E41" s="14">
-        <v>5900</v>
-      </c>
-      <c r="F41" s="14">
-        <v>7700</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="C46" s="14">
+        <v>674000</v>
+      </c>
+      <c r="D46" s="14">
+        <v>544000</v>
+      </c>
+      <c r="E46" s="14">
+        <v>525000</v>
+      </c>
+      <c r="F46" s="14">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="14">
-        <v>674000</v>
-      </c>
-      <c r="D42" s="14">
-        <v>544000</v>
-      </c>
-      <c r="E42" s="14">
-        <v>525000</v>
-      </c>
-      <c r="F42" s="14">
-        <v>420000</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43">
+      <c r="C47">
         <v>10.996</v>
       </c>
-      <c r="D43">
+      <c r="D47">
         <v>10.962999999999999</v>
       </c>
-      <c r="E43">
+      <c r="E47">
         <v>10.996</v>
       </c>
-      <c r="F43">
+      <c r="F47">
         <v>10.962999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,14 +1182,15 @@
         <v>0</v>
       </c>
       <c r="I3" s="29">
-        <v>365</v>
+        <f ca="1">TODAY()-G3</f>
+        <v>0</v>
       </c>
       <c r="J3" s="8">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
-        <f>J3*K1/365*I3</f>
-        <v>14000.000000000002</v>
+        <f ca="1">J3*K1/365*I3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -1077,9 +1077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1673,11 +1671,11 @@
       </c>
       <c r="C34" s="13">
         <f>C40-C38+E29</f>
-        <v>459936</v>
+        <v>462936</v>
       </c>
       <c r="D34" s="13">
         <f>C40-C38</f>
-        <v>295000</v>
+        <v>298000</v>
       </c>
       <c r="H34" t="s">
         <v>68</v>
@@ -1697,7 +1695,7 @@
         <v>70</v>
       </c>
       <c r="I35" s="8">
-        <v>15000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -1721,7 +1719,7 @@
       </c>
       <c r="I37" s="8">
         <f>SUM(I34:I36)</f>
-        <v>35000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -1748,7 +1746,7 @@
       </c>
       <c r="C40" s="22">
         <f>C39-C2-I37</f>
-        <v>2695000</v>
+        <v>2698000</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
   <si>
     <t>Помещение</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Грунтовка зал</t>
+  </si>
+  <si>
+    <t>Клей плиточный 6 м</t>
   </si>
 </sst>
 </file>
@@ -1075,9 +1078,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1181,14 +1186,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="8">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>0</v>
+        <v>38.356164383561648</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1630,216 +1635,234 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="6">
+        <v>43060</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1560</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1560</v>
+      </c>
+      <c r="E29" s="8">
+        <f t="shared" ref="E29" si="2">C29-D29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11">
         <f>SUM(C2:C28)</f>
         <v>433244</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D30" s="11">
         <f>SUM(D2:D28)</f>
         <v>268308</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E30" s="11">
         <f>SUM(E2:E24)</f>
         <v>164936</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="8"/>
-    </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C32" s="8"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D34" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="H34" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="20"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="13">
-        <f>C40-C38+E29</f>
-        <v>462936</v>
-      </c>
-      <c r="D34" s="13">
-        <f>C40-C38</f>
-        <v>298000</v>
-      </c>
-      <c r="H34" t="s">
-        <v>68</v>
-      </c>
-      <c r="I34" s="8">
-        <v>20000</v>
-      </c>
+      <c r="I34" s="20"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="8">
-        <v>2000000</v>
+        <v>53</v>
+      </c>
+      <c r="C35" s="13">
+        <f>C41-C39+E30</f>
+        <v>462936</v>
+      </c>
+      <c r="D35" s="13">
+        <f>C41-C39</f>
+        <v>298000</v>
       </c>
       <c r="H35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I35" s="8">
-        <v>12000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="8">
-        <v>200000</v>
-      </c>
-      <c r="I36" s="8"/>
+        <v>2000000</v>
+      </c>
+      <c r="H36" t="s">
+        <v>70</v>
+      </c>
+      <c r="I36" s="8">
+        <v>12000</v>
+      </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C37" s="8">
         <v>200000</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="8">
+        <v>200000</v>
+      </c>
+      <c r="H38" t="s">
         <v>69</v>
       </c>
-      <c r="I37" s="8">
-        <f>SUM(I34:I36)</f>
+      <c r="I38" s="8">
+        <f>SUM(I35:I37)</f>
         <v>32000</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="23" t="s">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="24">
-        <f>SUM(C35:C37)</f>
+      <c r="C39" s="24">
+        <f>SUM(C36:C38)</f>
         <v>2400000</v>
       </c>
-      <c r="I38" s="8"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C40" s="8">
         <v>2750000</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="21" t="s">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="22">
-        <f>C39-C2-I37</f>
+      <c r="C41" s="22">
+        <f>C40-C2-I38</f>
         <v>2698000</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="18" t="s">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="12">
-        <f>C39+C29</f>
+      <c r="C42" s="12">
+        <f>C40+C30</f>
         <v>3183244</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="30" t="s">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30" t="s">
+      <c r="D44" s="30"/>
+      <c r="E44" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="30"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>64</v>
-      </c>
+      <c r="F44" s="30"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="14">
-        <v>7500</v>
-      </c>
-      <c r="D45" s="14">
-        <v>9800</v>
-      </c>
-      <c r="E45" s="14">
-        <v>5900</v>
-      </c>
-      <c r="F45" s="14">
-        <v>7700</v>
+        <v>56</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="14">
-        <v>674000</v>
+        <v>7500</v>
       </c>
       <c r="D46" s="14">
-        <v>544000</v>
+        <v>9800</v>
       </c>
       <c r="E46" s="14">
-        <v>525000</v>
+        <v>5900</v>
       </c>
       <c r="F46" s="14">
-        <v>420000</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="14">
+        <v>674000</v>
+      </c>
+      <c r="D47" s="14">
+        <v>544000</v>
+      </c>
+      <c r="E47" s="14">
+        <v>525000</v>
+      </c>
+      <c r="F47" s="14">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>60</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <v>10.996</v>
       </c>
-      <c r="D47">
+      <c r="D48">
         <v>10.962999999999999</v>
       </c>
-      <c r="E47">
+      <c r="E48">
         <v>10.996</v>
       </c>
-      <c r="F47">
+      <c r="F48">
         <v>10.962999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -144,9 +144,6 @@
     <t>Гидроизоляция и затирка</t>
   </si>
   <si>
-    <t>Работа кафель в ванной + перегородка</t>
-  </si>
-  <si>
     <t>ПОЛНАЯ СТОИМОСТЬ ДОМА</t>
   </si>
   <si>
@@ -275,6 +272,9 @@
   </si>
   <si>
     <t>Клей плиточный 6 м</t>
+  </si>
+  <si>
+    <t>Работа кафель в ванной/перегородка</t>
   </si>
 </sst>
 </file>
@@ -1080,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,12 +1116,12 @@
         <v>35</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
       <c r="J1" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K1" s="27">
         <v>7.0000000000000007E-2</v>
@@ -1148,16 +1148,16 @@
         <v>26</v>
       </c>
       <c r="H2" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="26" t="s">
         <v>74</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1186,14 +1186,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="8">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>38.356164383561648</v>
+        <v>76.712328767123296</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1324,7 +1324,7 @@
         <v>43040</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="8">
         <v>1820</v>
@@ -1342,7 +1342,7 @@
         <v>43044</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="8">
         <v>4818</v>
@@ -1360,7 +1360,7 @@
         <v>43050</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C12" s="8">
         <f>20000+1500</f>
@@ -1413,7 +1413,7 @@
         <v>43047</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="8">
         <f>75906+12670</f>
@@ -1429,19 +1429,21 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="6">
+        <v>43064</v>
+      </c>
       <c r="B16" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="8">
-        <v>25000</v>
+        <v>30776</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" si="1"/>
-        <v>25000</v>
+        <v>30776</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1449,7 +1451,7 @@
         <v>43061</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="8">
         <v>12790</v>
@@ -1467,7 +1469,7 @@
         <v>43057</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="8">
         <f>2500+2250</f>
@@ -1483,7 +1485,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="8">
         <v>30000</v>
@@ -1501,7 +1503,7 @@
         <v>43063</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="8">
         <v>15670</v>
@@ -1519,7 +1521,7 @@
         <v>43070</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="8">
         <v>12000</v>
@@ -1537,7 +1539,7 @@
         <v>43057</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="8">
         <v>1596</v>
@@ -1555,7 +1557,7 @@
         <v>43057</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="8">
         <f>24000+2500</f>
@@ -1574,7 +1576,7 @@
         <v>43051</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="8">
         <f>260*6+549</f>
@@ -1592,7 +1594,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1601,7 +1603,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1610,7 +1612,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -1621,7 +1623,7 @@
         <v>43058</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="8">
         <v>1820</v>
@@ -1639,7 +1641,7 @@
         <v>43060</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="8">
         <v>1560</v>
@@ -1654,12 +1656,12 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="11">
         <f>SUM(C2:C28)</f>
-        <v>433244</v>
+        <v>439020</v>
       </c>
       <c r="D30" s="11">
         <f>SUM(D2:D28)</f>
@@ -1667,7 +1669,7 @@
       </c>
       <c r="E30" s="11">
         <f>SUM(E2:E24)</f>
-        <v>164936</v>
+        <v>170712</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1678,30 +1680,30 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C34" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I34" s="20"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="13">
         <f>C41-C39+E30</f>
-        <v>462936</v>
+        <v>468712</v>
       </c>
       <c r="D35" s="13">
         <f>C41-C39</f>
         <v>298000</v>
       </c>
       <c r="H35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I35" s="8">
         <v>20000</v>
@@ -1709,13 +1711,13 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="8">
         <v>2000000</v>
       </c>
       <c r="H36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I36" s="8">
         <v>12000</v>
@@ -1723,7 +1725,7 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="8">
         <v>200000</v>
@@ -1732,13 +1734,13 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="8">
         <v>200000</v>
       </c>
       <c r="H38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I38" s="8">
         <f>SUM(I35:I37)</f>
@@ -1747,7 +1749,7 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="24">
         <f>SUM(C36:C38)</f>
@@ -1774,43 +1776,43 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="12">
         <f>C40+C30</f>
-        <v>3183244</v>
+        <v>3189020</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C44" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F44" s="30"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="17" t="s">
-        <v>57</v>
-      </c>
       <c r="D45" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" s="14">
         <v>7500</v>
@@ -1827,7 +1829,7 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47" s="14">
         <v>674000</v>
@@ -1844,7 +1846,7 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48">
         <v>10.996</v>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
   <si>
     <t>Помещение</t>
   </si>
@@ -262,19 +262,16 @@
 долга</t>
   </si>
   <si>
-    <t>Штукатурка в зал</t>
-  </si>
-  <si>
     <t>Обои в зал</t>
   </si>
   <si>
-    <t>Грунтовка зал</t>
-  </si>
-  <si>
     <t>Клей плиточный 6 м</t>
   </si>
   <si>
     <t>Работа кафель в ванной/перегородка</t>
+  </si>
+  <si>
+    <t>Грунтовка,штукатурка,затирка</t>
   </si>
 </sst>
 </file>
@@ -1078,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,14 +1183,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="8">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>76.712328767123296</v>
+        <v>153.42465753424659</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1297,7 +1294,7 @@
         <v>11100</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" ref="E8:E28" si="1">C8-D8</f>
+        <f t="shared" ref="E8:E27" si="1">C8-D8</f>
         <v>0</v>
       </c>
     </row>
@@ -1360,7 +1357,7 @@
         <v>43050</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" s="8">
         <f>20000+1500</f>
@@ -1592,279 +1589,282 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
+      <c r="A25" s="6">
+        <v>43062</v>
+      </c>
       <c r="B25" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+        <v>84</v>
+      </c>
+      <c r="C25" s="8">
+        <v>2080</v>
+      </c>
+      <c r="D25" s="8">
+        <v>2080</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="E26" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
+      <c r="A27" s="6">
+        <v>43058</v>
+      </c>
       <c r="B27" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1820</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1820</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>43058</v>
+        <v>43060</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C28" s="8">
-        <v>1820</v>
+        <v>1560</v>
       </c>
       <c r="D28" s="8">
-        <v>1820</v>
+        <v>1560</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E28" si="2">C28-D28</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>43060</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="8">
-        <v>1560</v>
-      </c>
-      <c r="D29" s="8">
-        <v>1560</v>
-      </c>
-      <c r="E29" s="8">
-        <f t="shared" ref="E29" si="2">C29-D29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A29" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11">
-        <f>SUM(C2:C28)</f>
-        <v>439020</v>
-      </c>
-      <c r="D30" s="11">
-        <f>SUM(D2:D28)</f>
-        <v>268308</v>
-      </c>
-      <c r="E30" s="11">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11">
+        <f>SUM(C2:C27)</f>
+        <v>441100</v>
+      </c>
+      <c r="D29" s="11">
+        <f>SUM(D2:D27)</f>
+        <v>270388</v>
+      </c>
+      <c r="E29" s="11">
         <f>SUM(E2:E24)</f>
         <v>170712</v>
       </c>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="8"/>
+    </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C32" s="8"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="8"/>
+      <c r="C33" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" s="20"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I34" s="20"/>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="13">
+        <f>C40-C38+E29</f>
+        <v>468712</v>
+      </c>
+      <c r="D34" s="13">
+        <f>C40-C38</f>
+        <v>298000</v>
+      </c>
+      <c r="H34" t="s">
+        <v>67</v>
+      </c>
+      <c r="I34" s="8">
+        <v>20000</v>
+      </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="13">
-        <f>C41-C39+E30</f>
-        <v>468712</v>
-      </c>
-      <c r="D35" s="13">
-        <f>C41-C39</f>
-        <v>298000</v>
+        <v>53</v>
+      </c>
+      <c r="C35" s="8">
+        <v>2000000</v>
       </c>
       <c r="H35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I35" s="8">
-        <v>20000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" s="8">
-        <v>2000000</v>
-      </c>
-      <c r="H36" t="s">
-        <v>69</v>
-      </c>
-      <c r="I36" s="8">
-        <v>12000</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C37" s="8">
         <v>200000</v>
       </c>
-      <c r="I37" s="8"/>
+      <c r="H37" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37" s="8">
+        <f>SUM(I34:I36)</f>
+        <v>32000</v>
+      </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="8">
-        <v>200000</v>
-      </c>
-      <c r="H38" t="s">
-        <v>68</v>
-      </c>
-      <c r="I38" s="8">
-        <f>SUM(I35:I37)</f>
-        <v>32000</v>
-      </c>
+      <c r="B38" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="24">
+        <f>SUM(C35:C37)</f>
+        <v>2400000</v>
+      </c>
+      <c r="I38" s="8"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="24">
-        <f>SUM(C36:C38)</f>
-        <v>2400000</v>
-      </c>
-      <c r="I39" s="8"/>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="8">
+        <v>2750000</v>
+      </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="8">
-        <v>2750000</v>
+      <c r="B40" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="22">
+        <f>C39-C2-I37</f>
+        <v>2698000</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="22">
-        <f>C40-C2-I38</f>
-        <v>2698000</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="18" t="s">
+      <c r="B41" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="12">
-        <f>C40+C30</f>
-        <v>3189020</v>
-      </c>
+      <c r="C41" s="12">
+        <f>C39+C29</f>
+        <v>3191100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="F44" s="30"/>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+      <c r="C45" s="14">
+        <v>7500</v>
+      </c>
+      <c r="D45" s="14">
+        <v>9800</v>
+      </c>
+      <c r="E45" s="14">
+        <v>5900</v>
+      </c>
+      <c r="F45" s="14">
+        <v>7700</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46" s="14">
-        <v>7500</v>
+        <v>674000</v>
       </c>
       <c r="D46" s="14">
-        <v>9800</v>
+        <v>544000</v>
       </c>
       <c r="E46" s="14">
-        <v>5900</v>
+        <v>525000</v>
       </c>
       <c r="F46" s="14">
-        <v>7700</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="14">
-        <v>674000</v>
-      </c>
-      <c r="D47" s="14">
-        <v>544000</v>
-      </c>
-      <c r="E47" s="14">
-        <v>525000</v>
-      </c>
-      <c r="F47" s="14">
-        <v>420000</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
         <v>59</v>
       </c>
-      <c r="C48">
+      <c r="C47">
         <v>10.996</v>
       </c>
-      <c r="D48">
+      <c r="D47">
         <v>10.962999999999999</v>
       </c>
-      <c r="E48">
+      <c r="E47">
         <v>10.996</v>
       </c>
-      <c r="F48">
+      <c r="F47">
         <v>10.962999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
   <si>
     <t>Помещение</t>
   </si>
@@ -1075,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,7 +1294,7 @@
         <v>11100</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" ref="E8:E27" si="1">C8-D8</f>
+        <f t="shared" ref="E8:E28" si="1">C8-D8</f>
         <v>0</v>
       </c>
     </row>
@@ -1503,14 +1503,15 @@
         <v>50</v>
       </c>
       <c r="C20" s="8">
-        <v>15670</v>
+        <f>15670+410</f>
+        <v>16080</v>
       </c>
       <c r="D20" s="8">
-        <v>0</v>
+        <v>16080</v>
       </c>
       <c r="E20" s="8">
         <f t="shared" si="1"/>
-        <v>15670</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1650,221 +1651,239 @@
         <v>1560</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" ref="E28" si="2">C28-D28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="6">
+        <v>43063</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1560</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1560</v>
+      </c>
+      <c r="E29" s="8">
+        <f t="shared" ref="E29" si="2">C29-D29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11">
         <f>SUM(C2:C27)</f>
-        <v>441100</v>
-      </c>
-      <c r="D29" s="11">
+        <v>441510</v>
+      </c>
+      <c r="D30" s="11">
         <f>SUM(D2:D27)</f>
-        <v>270388</v>
-      </c>
-      <c r="E29" s="11">
+        <v>286468</v>
+      </c>
+      <c r="E30" s="11">
         <f>SUM(E2:E24)</f>
-        <v>170712</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="8"/>
+        <v>155042</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C32" s="8"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D34" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="H34" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="20"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="13">
-        <f>C40-C38+E29</f>
-        <v>468712</v>
-      </c>
-      <c r="D34" s="13">
-        <f>C40-C38</f>
-        <v>298000</v>
-      </c>
-      <c r="H34" t="s">
-        <v>67</v>
-      </c>
-      <c r="I34" s="8">
-        <v>20000</v>
-      </c>
+      <c r="I34" s="20"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="8">
-        <v>2000000</v>
+        <v>52</v>
+      </c>
+      <c r="C35" s="13">
+        <f>C41-C39+E30</f>
+        <v>453042</v>
+      </c>
+      <c r="D35" s="13">
+        <f>C41-C39</f>
+        <v>298000</v>
       </c>
       <c r="H35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I35" s="8">
-        <v>12000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="8">
-        <v>200000</v>
-      </c>
-      <c r="I36" s="8"/>
+        <v>2000000</v>
+      </c>
+      <c r="H36" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" s="8">
+        <v>12000</v>
+      </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C37" s="8">
         <v>200000</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="8">
+        <v>200000</v>
+      </c>
+      <c r="H38" t="s">
         <v>68</v>
       </c>
-      <c r="I37" s="8">
-        <f>SUM(I34:I36)</f>
+      <c r="I38" s="8">
+        <f>SUM(I35:I37)</f>
         <v>32000</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="23" t="s">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="24">
-        <f>SUM(C35:C37)</f>
+      <c r="C39" s="24">
+        <f>SUM(C36:C38)</f>
         <v>2400000</v>
       </c>
-      <c r="I38" s="8"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C40" s="8">
         <v>2750000</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="21" t="s">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="22">
-        <f>C39-C2-I37</f>
+      <c r="C41" s="22">
+        <f>C40-C2-I38</f>
         <v>2698000</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="18" t="s">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="12">
-        <f>C39+C29</f>
-        <v>3191100</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="30" t="s">
+      <c r="C42" s="12">
+        <f>C40+C30</f>
+        <v>3191510</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30" t="s">
+      <c r="D44" s="30"/>
+      <c r="E44" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="30"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>63</v>
-      </c>
+      <c r="F44" s="30"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="14">
-        <v>7500</v>
-      </c>
-      <c r="D45" s="14">
-        <v>9800</v>
-      </c>
-      <c r="E45" s="14">
-        <v>5900</v>
-      </c>
-      <c r="F45" s="14">
-        <v>7700</v>
+        <v>55</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" s="14">
-        <v>674000</v>
+        <v>7500</v>
       </c>
       <c r="D46" s="14">
-        <v>544000</v>
+        <v>9800</v>
       </c>
       <c r="E46" s="14">
-        <v>525000</v>
+        <v>5900</v>
       </c>
       <c r="F46" s="14">
-        <v>420000</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="14">
+        <v>674000</v>
+      </c>
+      <c r="D47" s="14">
+        <v>544000</v>
+      </c>
+      <c r="E47" s="14">
+        <v>525000</v>
+      </c>
+      <c r="F47" s="14">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>59</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <v>10.996</v>
       </c>
-      <c r="D47">
+      <c r="D48">
         <v>10.962999999999999</v>
       </c>
-      <c r="E47">
+      <c r="E48">
         <v>10.996</v>
       </c>
-      <c r="F47">
+      <c r="F48">
         <v>10.962999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="19440" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="19440" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="План помещений" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>Зал+Кухня</t>
   </si>
   <si>
-    <t>Холл</t>
-  </si>
-  <si>
     <t>Санузел+Котельная</t>
   </si>
   <si>
@@ -272,6 +269,9 @@
   </si>
   <si>
     <t>Грунтовка,штукатурка,затирка</t>
+  </si>
+  <si>
+    <t>Коридор</t>
   </si>
 </sst>
 </file>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,31 +823,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -885,57 +885,104 @@
       <c r="B4" s="3">
         <v>27.33</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="C4" s="3">
+        <f>4.38*B15-1.45*1.4</f>
+        <v>10.015000000000001</v>
+      </c>
+      <c r="D4" s="3">
+        <f>6.24*B15-1.15*1.4</f>
+        <v>15.55</v>
+      </c>
+      <c r="E4" s="3">
+        <f>3.2*B15-2</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="F4" s="3">
+        <f>6.28*B15-0.9*2*2</f>
+        <v>13.67</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <f>SUM(C4:I4)</f>
+        <v>46.035000000000004</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="B5" s="3">
         <v>6.22</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <f>1.14*B15-0.7*2</f>
+        <v>1.7349999999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <f>0.6*B15</f>
+        <v>1.65</v>
+      </c>
+      <c r="F5" s="3">
+        <f>1.56*B15</f>
+        <v>4.29</v>
+      </c>
+      <c r="G5" s="3">
+        <f>1.8*B15-1*2</f>
+        <v>2.95</v>
+      </c>
+      <c r="H5" s="3">
+        <f>2.7*B15</f>
+        <v>7.4250000000000007</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <f>SUM(C5:I5)</f>
+        <v>18.05</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>7</v>
       </c>
       <c r="C6" s="3">
         <f>3.05*B15</f>
-        <v>7.93</v>
+        <v>8.3874999999999993</v>
       </c>
       <c r="D6" s="3">
         <f>2.63*B15-1.15*1.4</f>
-        <v>5.2279999999999998</v>
+        <v>5.6225000000000005</v>
       </c>
       <c r="E6" s="3">
         <f>2.46*B15</f>
-        <v>6.3959999999999999</v>
+        <v>6.7649999999999997</v>
       </c>
       <c r="F6" s="3">
         <f>1.74*B15</f>
-        <v>4.524</v>
+        <v>4.7850000000000001</v>
       </c>
       <c r="G6" s="3">
         <f>0.6*B15</f>
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="H6" s="3">
         <f>0.89*B15-2*0.7</f>
-        <v>0.91400000000000015</v>
+        <v>1.0475000000000003</v>
       </c>
       <c r="I6" s="3">
         <f>1*2*2+0.2*2</f>
@@ -943,12 +990,12 @@
       </c>
       <c r="J6" s="3">
         <f>SUM(C6:I7)</f>
-        <v>30.951999999999998</v>
+        <v>32.657499999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3">
         <f>SUM(B2:B6)</f>
@@ -963,18 +1010,18 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <f>B7*C16</f>
@@ -991,33 +1038,33 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <f>J6*B16</f>
-        <v>9285.5999999999985</v>
+        <v>9797.25</v>
       </c>
       <c r="C11">
         <f>J6*B17</f>
-        <v>18571.199999999997</v>
+        <v>19594.5</v>
       </c>
       <c r="D11">
         <f>B11+C11</f>
-        <v>27856.799999999996</v>
+        <v>29391.75</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <f>SUM(D10:D11)</f>
-        <v>103316.79999999999</v>
+        <v>104851.75</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>5000</v>
@@ -1025,7 +1072,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>5000</v>
@@ -1033,15 +1080,15 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>300</v>
@@ -1052,7 +1099,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>600</v>
@@ -1060,11 +1107,11 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <f>D12+B13+B14</f>
-        <v>113316.79999999999</v>
+        <v>114851.75</v>
       </c>
     </row>
   </sheetData>
@@ -1077,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,27 +1145,27 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
       <c r="J1" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K1" s="27">
         <v>7.0000000000000007E-2</v>
@@ -1129,7 +1176,7 @@
         <v>43003</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="8">
         <v>20000</v>
@@ -1142,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="26" t="s">
         <v>73</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1162,7 +1209,7 @@
         <v>43022</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="8">
         <v>70536</v>
@@ -1198,7 +1245,7 @@
         <v>43026</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="8">
         <v>604</v>
@@ -1219,7 +1266,7 @@
         <v>43030</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="8">
         <v>22505</v>
@@ -1240,7 +1287,7 @@
         <v>43030</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="8">
         <f>240*7+709</f>
@@ -1263,7 +1310,7 @@
         <v>43031</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="8">
         <f>36610+500</f>
@@ -1283,7 +1330,7 @@
         <v>43031</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="8">
         <f>5600+4500+400+600</f>
@@ -1303,7 +1350,7 @@
         <v>43038</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="8">
         <v>1050</v>
@@ -1321,7 +1368,7 @@
         <v>43040</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="8">
         <v>1820</v>
@@ -1339,7 +1386,7 @@
         <v>43044</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="8">
         <v>4818</v>
@@ -1357,7 +1404,7 @@
         <v>43050</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="8">
         <f>20000+1500</f>
@@ -1373,7 +1420,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="8">
         <v>11900</v>
@@ -1391,7 +1438,7 @@
         <v>43050</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="8">
         <f>7101</f>
@@ -1410,7 +1457,7 @@
         <v>43047</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="8">
         <f>75906+12670</f>
@@ -1430,7 +1477,7 @@
         <v>43064</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="8">
         <v>30776</v>
@@ -1448,7 +1495,7 @@
         <v>43061</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="8">
         <v>12790</v>
@@ -1466,7 +1513,7 @@
         <v>43057</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="8">
         <f>2500+2250</f>
@@ -1482,7 +1529,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="8">
         <v>30000</v>
@@ -1500,7 +1547,7 @@
         <v>43063</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="8">
         <f>15670+410</f>
@@ -1519,7 +1566,7 @@
         <v>43070</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="8">
         <v>12000</v>
@@ -1537,7 +1584,7 @@
         <v>43057</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="8">
         <v>1596</v>
@@ -1555,7 +1602,7 @@
         <v>43057</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="8">
         <f>24000+2500</f>
@@ -1574,7 +1621,7 @@
         <v>43051</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="8">
         <f>260*6+549</f>
@@ -1594,7 +1641,7 @@
         <v>43062</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="8">
         <v>2080</v>
@@ -1610,13 +1657,17 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="C26" s="8">
+        <v>15000</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
       <c r="E26" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1624,7 +1675,7 @@
         <v>43058</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" s="8">
         <v>1820</v>
@@ -1642,7 +1693,7 @@
         <v>43060</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="8">
         <v>1560</v>
@@ -1660,7 +1711,7 @@
         <v>43063</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="8">
         <v>1560</v>
@@ -1675,12 +1726,12 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="11">
         <f>SUM(C2:C27)</f>
-        <v>441510</v>
+        <v>456510</v>
       </c>
       <c r="D30" s="11">
         <f>SUM(D2:D27)</f>
@@ -1699,30 +1750,30 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C34" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I34" s="20"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="13">
         <f>C41-C39+E30</f>
-        <v>453042</v>
+        <v>553042</v>
       </c>
       <c r="D35" s="13">
         <f>C41-C39</f>
-        <v>298000</v>
+        <v>398000</v>
       </c>
       <c r="H35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I35" s="8">
         <v>20000</v>
@@ -1730,13 +1781,13 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="8">
         <v>2000000</v>
       </c>
       <c r="H36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I36" s="8">
         <v>12000</v>
@@ -1744,22 +1795,22 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37" s="8">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" s="8">
         <v>200000</v>
       </c>
       <c r="H38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I38" s="8">
         <f>SUM(I35:I37)</f>
@@ -1768,17 +1819,17 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C39" s="24">
         <f>SUM(C36:C38)</f>
-        <v>2400000</v>
+        <v>2300000</v>
       </c>
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="8">
         <v>2750000</v>
@@ -1786,7 +1837,7 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="22">
         <f>C40-C2-I38</f>
@@ -1795,43 +1846,43 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="12">
         <f>C40+C30</f>
-        <v>3191510</v>
+        <v>3206510</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C44" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F44" s="30"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="17" t="s">
-        <v>56</v>
-      </c>
       <c r="D45" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" s="14">
         <v>7500</v>
@@ -1848,7 +1899,7 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" s="14">
         <v>674000</v>
@@ -1865,7 +1916,7 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48">
         <v>10.996</v>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="19440" windowHeight="12600"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="19440" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="План помещений" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>Помещение</t>
   </si>
@@ -259,9 +259,6 @@
 долга</t>
   </si>
   <si>
-    <t>Обои в зал</t>
-  </si>
-  <si>
     <t>Клей плиточный 6 м</t>
   </si>
   <si>
@@ -272,6 +269,12 @@
   </si>
   <si>
     <t>Коридор</t>
+  </si>
+  <si>
+    <t>Обои в зал и коридор</t>
+  </si>
+  <si>
+    <t>ИПОТЕКА</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -430,6 +433,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -446,7 +475,7 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -484,6 +513,12 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -801,7 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -917,7 +952,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="3">
         <v>6.22</v>
@@ -1124,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,7 +1439,7 @@
         <v>43050</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="8">
         <f>20000+1500</f>
@@ -1641,7 +1676,7 @@
         <v>43062</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="8">
         <v>2080</v>
@@ -1655,19 +1690,21 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+      <c r="A26" s="6">
+        <v>43063</v>
+      </c>
       <c r="B26" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C26" s="8">
-        <v>15000</v>
+        <v>11851</v>
       </c>
       <c r="D26" s="8">
-        <v>0</v>
+        <v>11851</v>
       </c>
       <c r="E26" s="8">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1693,7 +1730,7 @@
         <v>43060</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="8">
         <v>1560</v>
@@ -1711,7 +1748,7 @@
         <v>43063</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="8">
         <v>1560</v>
@@ -1731,11 +1768,11 @@
       <c r="B30" s="10"/>
       <c r="C30" s="11">
         <f>SUM(C2:C27)</f>
-        <v>456510</v>
+        <v>453361</v>
       </c>
       <c r="D30" s="11">
         <f>SUM(D2:D27)</f>
-        <v>286468</v>
+        <v>298319</v>
       </c>
       <c r="E30" s="11">
         <f>SUM(E2:E24)</f>
@@ -1746,7 +1783,10 @@
       <c r="C32" s="8"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="8"/>
+      <c r="C33" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="32"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C34" s="15" t="s">
@@ -1850,7 +1890,7 @@
       </c>
       <c r="C42" s="12">
         <f>C40+C30</f>
-        <v>3206510</v>
+        <v>3203361</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
@@ -1932,9 +1972,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C33:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
   <si>
     <t>Помещение</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>ИПОТЕКА</t>
+  </si>
+  <si>
+    <t>Бетон-контакт,ограничитель 4 шт.</t>
   </si>
 </sst>
 </file>
@@ -1157,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,14 +1268,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="8">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>153.42465753424659</v>
+        <v>191.78082191780823</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1518,11 +1521,11 @@
         <v>30776</v>
       </c>
       <c r="D16" s="8">
-        <v>0</v>
+        <v>30776</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" si="1"/>
-        <v>30776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1536,11 +1539,11 @@
         <v>12790</v>
       </c>
       <c r="D17" s="8">
-        <v>0</v>
+        <v>12790</v>
       </c>
       <c r="E17" s="8">
         <f t="shared" si="1"/>
-        <v>12790</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1640,15 +1643,16 @@
         <v>64</v>
       </c>
       <c r="C23" s="8">
-        <f>24000+2500</f>
-        <v>26500</v>
+        <f>24000+3000</f>
+        <v>27000</v>
       </c>
       <c r="D23" s="8">
-        <v>14000</v>
+        <f>14000+3000</f>
+        <v>17000</v>
       </c>
       <c r="E23" s="8">
         <f t="shared" si="1"/>
-        <v>12500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1757,225 +1761,243 @@
         <v>1560</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" ref="E29" si="2">C29-D29</f>
+        <f t="shared" ref="E29:E30" si="2">C29-D29</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="6">
+        <v>43064</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="8">
+        <v>390</v>
+      </c>
+      <c r="D30" s="8">
+        <v>390</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11">
+      <c r="B31" s="10"/>
+      <c r="C31" s="11">
         <f>SUM(C2:C27)</f>
-        <v>453361</v>
-      </c>
-      <c r="D30" s="11">
+        <v>453861</v>
+      </c>
+      <c r="D31" s="11">
         <f>SUM(D2:D27)</f>
-        <v>298319</v>
-      </c>
-      <c r="E30" s="11">
+        <v>344885</v>
+      </c>
+      <c r="E31" s="11">
         <f>SUM(E2:E24)</f>
-        <v>155042</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="8"/>
+        <v>108976</v>
+      </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="32"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="15" t="s">
+      <c r="D34" s="32"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D35" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H34" s="20" t="s">
+      <c r="H35" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I34" s="20"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="13">
-        <f>C41-C39+E30</f>
-        <v>553042</v>
-      </c>
-      <c r="D35" s="13">
-        <f>C41-C39</f>
-        <v>398000</v>
-      </c>
-      <c r="H35" t="s">
-        <v>66</v>
-      </c>
-      <c r="I35" s="8">
-        <v>20000</v>
-      </c>
+      <c r="I35" s="20"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="8">
-        <v>2000000</v>
+        <v>51</v>
+      </c>
+      <c r="C36" s="13">
+        <f>C42-C40+E31</f>
+        <v>506976</v>
+      </c>
+      <c r="D36" s="13">
+        <f>C42-C40</f>
+        <v>398000</v>
       </c>
       <c r="H36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I36" s="8">
-        <v>12000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="8">
-        <v>100000</v>
-      </c>
-      <c r="I37" s="8"/>
+        <v>2000000</v>
+      </c>
+      <c r="H37" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37" s="8">
+        <v>12000</v>
+      </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="8">
+        <v>100000</v>
+      </c>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C39" s="8">
         <v>200000</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H39" t="s">
         <v>67</v>
       </c>
-      <c r="I38" s="8">
-        <f>SUM(I35:I37)</f>
+      <c r="I39" s="8">
+        <f>SUM(I36:I38)</f>
         <v>32000</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="24">
-        <f>SUM(C36:C38)</f>
+      <c r="C40" s="24">
+        <f>SUM(C37:C39)</f>
         <v>2300000</v>
       </c>
-      <c r="I39" s="8"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C41" s="8">
         <v>2750000</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="22">
-        <f>C40-C2-I38</f>
+      <c r="C42" s="22">
+        <f>C41-C2-I39</f>
         <v>2698000</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="18" t="s">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="12">
-        <f>C40+C30</f>
-        <v>3203361</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="30" t="s">
+      <c r="C43" s="12">
+        <f>C41+C31</f>
+        <v>3203861</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30" t="s">
+      <c r="D45" s="30"/>
+      <c r="E45" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="F44" s="30"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>62</v>
-      </c>
+      <c r="F45" s="30"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="14">
-        <v>7500</v>
-      </c>
-      <c r="D46" s="14">
-        <v>9800</v>
-      </c>
-      <c r="E46" s="14">
-        <v>5900</v>
-      </c>
-      <c r="F46" s="14">
-        <v>7700</v>
+        <v>54</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" s="14">
-        <v>674000</v>
+        <v>7500</v>
       </c>
       <c r="D47" s="14">
-        <v>544000</v>
+        <v>9800</v>
       </c>
       <c r="E47" s="14">
-        <v>525000</v>
+        <v>5900</v>
       </c>
       <c r="F47" s="14">
-        <v>420000</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="14">
+        <v>674000</v>
+      </c>
+      <c r="D48" s="14">
+        <v>544000</v>
+      </c>
+      <c r="E48" s="14">
+        <v>525000</v>
+      </c>
+      <c r="F48" s="14">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>58</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <v>10.996</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <v>10.962999999999999</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <v>10.996</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <v>10.962999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>Помещение</t>
   </si>
@@ -278,6 +278,15 @@
   </si>
   <si>
     <t>Бетон-контакт,ограничитель 4 шт.</t>
+  </si>
+  <si>
+    <t>Плитка на пол докупили</t>
+  </si>
+  <si>
+    <t>Уголок в ванную и клей</t>
+  </si>
+  <si>
+    <t>Аванс</t>
   </si>
 </sst>
 </file>
@@ -350,7 +359,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,6 +418,11 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -463,7 +477,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -477,8 +491,9 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -524,8 +539,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="13"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="13" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
     <cellStyle name="20% - Акцент3" xfId="11" builtinId="38"/>
     <cellStyle name="20% - Акцент6" xfId="8" builtinId="50"/>
@@ -535,6 +552,7 @@
     <cellStyle name="60% - Акцент4" xfId="4" builtinId="44"/>
     <cellStyle name="Акцент1" xfId="3" builtinId="29"/>
     <cellStyle name="Акцент2" xfId="10" builtinId="33"/>
+    <cellStyle name="Акцент3" xfId="13" builtinId="37"/>
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
     <cellStyle name="Заголовок 2" xfId="2" builtinId="17"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1160,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="C36" sqref="C36:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,14 +1286,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="8">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>191.78082191780823</v>
+        <v>230.13698630136989</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1761,7 +1779,7 @@
         <v>1560</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" ref="E29:E30" si="2">C29-D29</f>
+        <f t="shared" ref="E29:E32" si="2">C29-D29</f>
         <v>0</v>
       </c>
     </row>
@@ -1784,220 +1802,261 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="6">
+        <v>43065</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1490</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1490</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>43065</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="8">
+        <v>430</v>
+      </c>
+      <c r="D32" s="8">
+        <v>430</v>
+      </c>
+      <c r="E32" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11">
+      <c r="B33" s="10"/>
+      <c r="C33" s="11">
         <f>SUM(C2:C27)</f>
         <v>453861</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D33" s="11">
         <f>SUM(D2:D27)</f>
         <v>344885</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E33" s="11">
         <f>SUM(E2:E24)</f>
         <v>108976</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="31" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="32"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="15" t="s">
+      <c r="D36" s="32"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D37" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H35" s="20" t="s">
+      <c r="H37" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I35" s="20"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="I37" s="20"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="13">
-        <f>C42-C40+E31</f>
+      <c r="C38" s="13">
+        <f>C44-C42+E33</f>
         <v>506976</v>
       </c>
-      <c r="D36" s="13">
-        <f>C42-C40</f>
+      <c r="D38" s="13">
+        <f>C44-C42</f>
         <v>398000</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H38" t="s">
         <v>66</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I38" s="8">
         <v>20000</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C39" s="8">
         <v>2000000</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H39" t="s">
         <v>68</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I39" s="8">
         <v>12000</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C40" s="8">
         <v>100000</v>
       </c>
-      <c r="I38" s="8"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="H40" t="s">
+        <v>89</v>
+      </c>
+      <c r="I40" s="8">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C41" s="8">
         <v>200000</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H41" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="I39" s="8">
-        <f>SUM(I36:I38)</f>
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="23" t="s">
+      <c r="I41" s="34">
+        <f>SUM(I38:I40)</f>
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="24">
-        <f>SUM(C37:C39)</f>
+      <c r="C42" s="24">
+        <f>SUM(C39:C41)</f>
         <v>2300000</v>
       </c>
-      <c r="I40" s="8"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C43" s="8">
         <v>2750000</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="22">
-        <f>C41-C2-I39</f>
+      <c r="C44" s="22">
+        <f>C43-I41</f>
         <v>2698000</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="18" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="12">
-        <f>C41+C31</f>
+      <c r="C45" s="12">
+        <f>C43+C33</f>
         <v>3203861</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="30" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30" t="s">
+      <c r="D47" s="30"/>
+      <c r="E47" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="F45" s="30"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="F47" s="30"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C48" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D48" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E48" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F48" s="19" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="14">
-        <v>7500</v>
-      </c>
-      <c r="D47" s="14">
-        <v>9800</v>
-      </c>
-      <c r="E47" s="14">
-        <v>5900</v>
-      </c>
-      <c r="F47" s="14">
-        <v>7700</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="14">
-        <v>674000</v>
-      </c>
-      <c r="D48" s="14">
-        <v>544000</v>
-      </c>
-      <c r="E48" s="14">
-        <v>525000</v>
-      </c>
-      <c r="F48" s="14">
-        <v>420000</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="14">
+        <v>7500</v>
+      </c>
+      <c r="D49" s="14">
+        <v>9800</v>
+      </c>
+      <c r="E49" s="14">
+        <v>5900</v>
+      </c>
+      <c r="F49" s="14">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="14">
+        <v>674000</v>
+      </c>
+      <c r="D50" s="14">
+        <v>544000</v>
+      </c>
+      <c r="E50" s="14">
+        <v>525000</v>
+      </c>
+      <c r="F50" s="14">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>58</v>
       </c>
-      <c r="C49">
+      <c r="C51">
         <v>10.996</v>
       </c>
-      <c r="D49">
+      <c r="D51">
         <v>10.962999999999999</v>
       </c>
-      <c r="E49">
+      <c r="E51">
         <v>10.996</v>
       </c>
-      <c r="F49">
+      <c r="F51">
         <v>10.962999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -530,6 +530,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="13"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="13" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -539,8 +541,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="13"/>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="13" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
@@ -1181,7 +1181,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:D36"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,14 +1286,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3" s="8">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>230.13698630136989</v>
+        <v>268.49315068493155</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1859,10 +1859,10 @@
       <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="32"/>
+      <c r="D36" s="34"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C37" s="15" t="s">
@@ -1930,10 +1930,10 @@
       <c r="C41" s="8">
         <v>200000</v>
       </c>
-      <c r="H41" s="33" t="s">
+      <c r="H41" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="I41" s="34">
+      <c r="I41" s="31">
         <f>SUM(I38:I40)</f>
         <v>52000</v>
       </c>
@@ -1975,14 +1975,14 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30" t="s">
+      <c r="D47" s="32"/>
+      <c r="E47" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="F47" s="30"/>
+      <c r="F47" s="32"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -1180,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,6 +1475,9 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>43067</v>
+      </c>
       <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
@@ -1482,11 +1485,11 @@
         <v>11900</v>
       </c>
       <c r="D13" s="8">
-        <v>0</v>
+        <v>11900</v>
       </c>
       <c r="E13" s="8">
         <f t="shared" si="1"/>
-        <v>11900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1584,18 +1587,21 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>43067</v>
+      </c>
       <c r="B19" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="8">
-        <v>30000</v>
+        <v>31500</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
       </c>
       <c r="E19" s="8">
         <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>31500</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1844,15 +1850,15 @@
       <c r="B33" s="10"/>
       <c r="C33" s="11">
         <f>SUM(C2:C27)</f>
-        <v>453861</v>
+        <v>455361</v>
       </c>
       <c r="D33" s="11">
         <f>SUM(D2:D27)</f>
-        <v>344885</v>
+        <v>356785</v>
       </c>
       <c r="E33" s="11">
         <f>SUM(E2:E24)</f>
-        <v>108976</v>
+        <v>98576</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1882,7 +1888,7 @@
       </c>
       <c r="C38" s="13">
         <f>C44-C42+E33</f>
-        <v>506976</v>
+        <v>496576</v>
       </c>
       <c r="D38" s="13">
         <f>C44-C42</f>
@@ -1971,7 +1977,7 @@
       </c>
       <c r="C45" s="12">
         <f>C43+C33</f>
-        <v>3203861</v>
+        <v>3205361</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
   <si>
     <t>Помещение</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>Аванс</t>
+  </si>
+  <si>
+    <t>Затирка 1б</t>
   </si>
 </sst>
 </file>
@@ -1178,11 +1181,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1785,7 +1786,7 @@
         <v>1560</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" ref="E29:E32" si="2">C29-D29</f>
+        <f t="shared" ref="E29:E33" si="2">C29-D29</f>
         <v>0</v>
       </c>
     </row>
@@ -1844,225 +1845,243 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="6">
+        <v>43066</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="8">
+        <v>320</v>
+      </c>
+      <c r="D33" s="8">
+        <v>320</v>
+      </c>
+      <c r="E33" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11">
+      <c r="B34" s="10"/>
+      <c r="C34" s="11">
         <f>SUM(C2:C27)</f>
         <v>455361</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <f>SUM(D2:D27)</f>
         <v>356785</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E34" s="11">
         <f>SUM(E2:E24)</f>
         <v>98576</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="8"/>
-    </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="34"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="15" t="s">
+      <c r="D37" s="34"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D38" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H37" s="20" t="s">
+      <c r="H38" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I37" s="20"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="13">
-        <f>C44-C42+E33</f>
-        <v>496576</v>
-      </c>
-      <c r="D38" s="13">
-        <f>C44-C42</f>
-        <v>398000</v>
-      </c>
-      <c r="H38" t="s">
-        <v>66</v>
-      </c>
-      <c r="I38" s="8">
-        <v>20000</v>
-      </c>
+      <c r="I38" s="20"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="8">
-        <v>2000000</v>
+        <v>51</v>
+      </c>
+      <c r="C39" s="13">
+        <f>C45-C43+E34</f>
+        <v>496576</v>
+      </c>
+      <c r="D39" s="13">
+        <f>C45-C43</f>
+        <v>398000</v>
       </c>
       <c r="H39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I39" s="8">
-        <v>12000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="8">
-        <v>100000</v>
+        <v>2000000</v>
       </c>
       <c r="H40" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="I40" s="8">
-        <v>20000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="8">
+        <v>100000</v>
+      </c>
+      <c r="H41" t="s">
+        <v>89</v>
+      </c>
+      <c r="I41" s="8">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C42" s="8">
         <v>200000</v>
       </c>
-      <c r="H41" s="30" t="s">
+      <c r="H42" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="I41" s="31">
-        <f>SUM(I38:I40)</f>
+      <c r="I42" s="31">
+        <f>SUM(I39:I41)</f>
         <v>52000</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="23" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="24">
-        <f>SUM(C39:C41)</f>
+      <c r="C43" s="24">
+        <f>SUM(C40:C42)</f>
         <v>2300000</v>
       </c>
-      <c r="I42" s="8"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C44" s="8">
         <v>2750000</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="21" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="22">
-        <f>C43-I41</f>
+      <c r="C45" s="22">
+        <f>C44-I42</f>
         <v>2698000</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="18" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="12">
-        <f>C43+C33</f>
+      <c r="C46" s="12">
+        <f>C44+C34</f>
         <v>3205361</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="32" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32" t="s">
+      <c r="D48" s="32"/>
+      <c r="E48" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="F47" s="32"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>62</v>
-      </c>
+      <c r="F48" s="32"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="14">
-        <v>7500</v>
-      </c>
-      <c r="D49" s="14">
-        <v>9800</v>
-      </c>
-      <c r="E49" s="14">
-        <v>5900</v>
-      </c>
-      <c r="F49" s="14">
-        <v>7700</v>
+        <v>54</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" s="14">
-        <v>674000</v>
+        <v>7500</v>
       </c>
       <c r="D50" s="14">
-        <v>544000</v>
+        <v>9800</v>
       </c>
       <c r="E50" s="14">
-        <v>525000</v>
+        <v>5900</v>
       </c>
       <c r="F50" s="14">
-        <v>420000</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="14">
+        <v>674000</v>
+      </c>
+      <c r="D51" s="14">
+        <v>544000</v>
+      </c>
+      <c r="E51" s="14">
+        <v>525000</v>
+      </c>
+      <c r="F51" s="14">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>58</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>10.996</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <v>10.962999999999999</v>
       </c>
-      <c r="E51">
+      <c r="E52">
         <v>10.996</v>
       </c>
-      <c r="F51">
+      <c r="F52">
         <v>10.962999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>Помещение</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>Кафель в кухню</t>
-  </si>
-  <si>
-    <t>Входная дверь</t>
   </si>
   <si>
     <t>Вычеты</t>
@@ -289,7 +286,13 @@
     <t>Аванс</t>
   </si>
   <si>
-    <t>Затирка 1б</t>
+    <t>Входная дверь (плат. 18.12 и 18.01)</t>
+  </si>
+  <si>
+    <t>Затирка 1б.</t>
+  </si>
+  <si>
+    <t>Регистрация в РосРеестре</t>
   </si>
 </sst>
 </file>
@@ -976,7 +979,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="3">
         <v>6.22</v>
@@ -1181,7 +1184,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1217,12 +1220,12 @@
         <v>34</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
       <c r="J1" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K1" s="27">
         <v>7.0000000000000007E-2</v>
@@ -1249,16 +1252,16 @@
         <v>25</v>
       </c>
       <c r="H2" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="26" t="s">
         <v>72</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1287,14 +1290,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J3" s="8">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>268.49315068493155</v>
+        <v>306.84931506849318</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1398,7 +1401,7 @@
         <v>11100</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" ref="E8:E28" si="1">C8-D8</f>
+        <f t="shared" ref="E8:E29" si="1">C8-D8</f>
         <v>0</v>
       </c>
     </row>
@@ -1461,7 +1464,7 @@
         <v>43050</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="8">
         <f>20000+1500</f>
@@ -1537,7 +1540,7 @@
         <v>43064</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="8">
         <v>30776</v>
@@ -1555,7 +1558,7 @@
         <v>43061</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="8">
         <v>12790</v>
@@ -1598,11 +1601,11 @@
         <v>31500</v>
       </c>
       <c r="D19" s="8">
-        <v>0</v>
+        <v>31500</v>
       </c>
       <c r="E19" s="8">
         <f t="shared" si="1"/>
-        <v>31500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1625,39 +1628,38 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>43070</v>
-      </c>
+      <c r="A21" s="6"/>
       <c r="B21" s="9" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C21" s="8">
-        <v>12000</v>
+        <f>2000+2000</f>
+        <v>4000</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
       </c>
       <c r="E21" s="8">
         <f t="shared" si="1"/>
-        <v>12000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>43057</v>
+        <v>43070</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C22" s="8">
-        <v>1596</v>
+        <v>12000</v>
       </c>
       <c r="D22" s="8">
-        <v>1596</v>
+        <v>0</v>
       </c>
       <c r="E22" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1665,54 +1667,54 @@
         <v>43057</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="8">
+        <v>1596</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1596</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>43057</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="8">
         <f>24000+3000</f>
         <v>27000</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="8">
         <f>14000+3000</f>
         <v>17000</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E24" s="8">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>43051</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C25" s="8">
         <f>260*6+549</f>
         <v>2109</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D25" s="8">
         <f>1560+549</f>
         <v>2109</v>
       </c>
-      <c r="E24" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>43062</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="8">
-        <v>2080</v>
-      </c>
-      <c r="D25" s="8">
-        <v>2080</v>
-      </c>
       <c r="E25" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1720,16 +1722,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>43063</v>
+        <v>43062</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C26" s="8">
-        <v>11851</v>
+        <v>2080</v>
       </c>
       <c r="D26" s="8">
-        <v>11851</v>
+        <v>2080</v>
       </c>
       <c r="E26" s="8">
         <f t="shared" si="1"/>
@@ -1738,16 +1740,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>43058</v>
+        <v>43063</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C27" s="8">
-        <v>1820</v>
+        <v>11851</v>
       </c>
       <c r="D27" s="8">
-        <v>1820</v>
+        <v>11851</v>
       </c>
       <c r="E27" s="8">
         <f t="shared" si="1"/>
@@ -1756,16 +1758,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>43060</v>
+        <v>43058</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C28" s="8">
-        <v>1560</v>
+        <v>1820</v>
       </c>
       <c r="D28" s="8">
-        <v>1560</v>
+        <v>1820</v>
       </c>
       <c r="E28" s="8">
         <f t="shared" si="1"/>
@@ -1774,10 +1776,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>43063</v>
+        <v>43060</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" s="8">
         <v>1560</v>
@@ -1786,40 +1788,40 @@
         <v>1560</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" ref="E29:E33" si="2">C29-D29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>43064</v>
+        <v>43063</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C30" s="8">
-        <v>390</v>
+        <v>1560</v>
       </c>
       <c r="D30" s="8">
-        <v>390</v>
+        <v>1560</v>
       </c>
       <c r="E30" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E30:E34" si="2">C30-D30</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>43065</v>
+        <v>43064</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C31" s="8">
-        <v>1490</v>
+        <v>390</v>
       </c>
       <c r="D31" s="8">
-        <v>1490</v>
+        <v>390</v>
       </c>
       <c r="E31" s="8">
         <f t="shared" si="2"/>
@@ -1831,13 +1833,13 @@
         <v>43065</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C32" s="8">
-        <v>430</v>
+        <v>1490</v>
       </c>
       <c r="D32" s="8">
-        <v>430</v>
+        <v>1490</v>
       </c>
       <c r="E32" s="8">
         <f t="shared" si="2"/>
@@ -1846,16 +1848,16 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>43066</v>
+        <v>43065</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C33" s="8">
-        <v>320</v>
+        <v>430</v>
       </c>
       <c r="D33" s="8">
-        <v>320</v>
+        <v>430</v>
       </c>
       <c r="E33" s="8">
         <f t="shared" si="2"/>
@@ -1863,225 +1865,243 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="6">
+        <v>43066</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="8">
+        <v>320</v>
+      </c>
+      <c r="D34" s="8">
+        <v>320</v>
+      </c>
+      <c r="E34" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11">
-        <f>SUM(C2:C27)</f>
-        <v>455361</v>
-      </c>
-      <c r="D34" s="11">
-        <f>SUM(D2:D27)</f>
-        <v>356785</v>
-      </c>
-      <c r="E34" s="11">
-        <f>SUM(E2:E24)</f>
-        <v>98576</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="8"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11">
+        <f>SUM(C2:C28)</f>
+        <v>459361</v>
+      </c>
+      <c r="D35" s="11">
+        <f>SUM(D2:D28)</f>
+        <v>388285</v>
+      </c>
+      <c r="E35" s="11">
+        <f>SUM(E2:E25)</f>
+        <v>71076</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="34"/>
+      <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="34"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D39" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="I38" s="20"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="13">
-        <f>C45-C43+E34</f>
-        <v>496576</v>
-      </c>
-      <c r="D39" s="13">
-        <f>C45-C43</f>
-        <v>398000</v>
-      </c>
-      <c r="H39" t="s">
-        <v>66</v>
-      </c>
-      <c r="I39" s="8">
-        <v>20000</v>
-      </c>
+      <c r="H39" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="20"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="8">
-        <v>2000000</v>
+        <v>51</v>
+      </c>
+      <c r="C40" s="13">
+        <f>C46-C44+E35</f>
+        <v>469076</v>
+      </c>
+      <c r="D40" s="13">
+        <f>C46-C44</f>
+        <v>398000</v>
       </c>
       <c r="H40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I40" s="8">
-        <v>12000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="8">
-        <v>100000</v>
+        <v>2000000</v>
       </c>
       <c r="H41" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="I41" s="8">
-        <v>20000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="8">
+        <v>100000</v>
+      </c>
+      <c r="H42" t="s">
+        <v>88</v>
+      </c>
+      <c r="I42" s="8">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="8">
+        <v>200000</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I43" s="31">
+        <f>SUM(I40:I42)</f>
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="8">
-        <v>200000</v>
-      </c>
-      <c r="H42" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="I42" s="31">
-        <f>SUM(I39:I41)</f>
-        <v>52000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="24">
-        <f>SUM(C40:C42)</f>
+      <c r="C44" s="24">
+        <f>SUM(C41:C43)</f>
         <v>2300000</v>
       </c>
-      <c r="I43" s="8"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C45" s="8">
         <v>2750000</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="21" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="22">
-        <f>C44-I42</f>
+      <c r="C46" s="22">
+        <f>C45-I43</f>
         <v>2698000</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="18" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="12">
-        <f>C44+C34</f>
-        <v>3205361</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="32" t="s">
+      <c r="C47" s="12">
+        <f>C45+C35</f>
+        <v>3209361</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32" t="s">
+      <c r="D49" s="32"/>
+      <c r="E49" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="F48" s="32"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>62</v>
-      </c>
+      <c r="F49" s="32"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="14">
-        <v>7500</v>
-      </c>
-      <c r="D50" s="14">
-        <v>9800</v>
-      </c>
-      <c r="E50" s="14">
-        <v>5900</v>
-      </c>
-      <c r="F50" s="14">
-        <v>7700</v>
+        <v>54</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" s="14">
-        <v>674000</v>
+        <v>7500</v>
       </c>
       <c r="D51" s="14">
-        <v>544000</v>
+        <v>9800</v>
       </c>
       <c r="E51" s="14">
-        <v>525000</v>
+        <v>5900</v>
       </c>
       <c r="F51" s="14">
-        <v>420000</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="14">
+        <v>674000</v>
+      </c>
+      <c r="D52" s="14">
+        <v>544000</v>
+      </c>
+      <c r="E52" s="14">
+        <v>525000</v>
+      </c>
+      <c r="F52" s="14">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>58</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>10.996</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <v>10.962999999999999</v>
       </c>
-      <c r="E52">
+      <c r="E53">
         <v>10.996</v>
       </c>
-      <c r="F52">
+      <c r="F53">
         <v>10.962999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
   <si>
     <t>Помещение</t>
   </si>
@@ -293,6 +293,18 @@
   </si>
   <si>
     <t>Регистрация в РосРеестре</t>
+  </si>
+  <si>
+    <t>Электрокотел</t>
+  </si>
+  <si>
+    <t>Сумма договора</t>
+  </si>
+  <si>
+    <t>Первоначалка</t>
+  </si>
+  <si>
+    <t>Ипотека</t>
   </si>
 </sst>
 </file>
@@ -365,7 +377,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,6 +441,12 @@
         <fgColor theme="6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -483,7 +501,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -498,8 +516,9 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -547,12 +566,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="14"/>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="15">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
     <cellStyle name="20% - Акцент3" xfId="11" builtinId="38"/>
     <cellStyle name="20% - Акцент6" xfId="8" builtinId="50"/>
     <cellStyle name="40% - Акцент1" xfId="9" builtinId="31"/>
+    <cellStyle name="40% - Акцент2" xfId="14" builtinId="35"/>
     <cellStyle name="60% - Акцент2" xfId="6" builtinId="36"/>
     <cellStyle name="60% - Акцент3" xfId="7" builtinId="40"/>
     <cellStyle name="60% - Акцент4" xfId="4" builtinId="44"/>
@@ -1186,7 +1207,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1197,7 +1220,7 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="15.5703125" customWidth="1"/>
     <col min="12" max="12" width="14.140625" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -1290,14 +1313,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="8">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>306.84931506849318</v>
+        <v>345.20547945205482</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1927,11 +1950,11 @@
       </c>
       <c r="C40" s="13">
         <f>C46-C44+E35</f>
-        <v>469076</v>
+        <v>539376</v>
       </c>
       <c r="D40" s="13">
         <f>C46-C44</f>
-        <v>398000</v>
+        <v>468300</v>
       </c>
       <c r="H40" t="s">
         <v>65</v>
@@ -1959,7 +1982,7 @@
         <v>53</v>
       </c>
       <c r="C42" s="8">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H42" t="s">
         <v>88</v>
@@ -1975,12 +1998,11 @@
       <c r="C43" s="8">
         <v>200000</v>
       </c>
-      <c r="H43" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I43" s="31">
-        <f>SUM(I40:I42)</f>
-        <v>52000</v>
+      <c r="H43" t="s">
+        <v>92</v>
+      </c>
+      <c r="I43" s="8">
+        <v>-20300</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1989,9 +2011,15 @@
       </c>
       <c r="C44" s="24">
         <f>SUM(C41:C43)</f>
-        <v>2300000</v>
-      </c>
-      <c r="I44" s="8"/>
+        <v>2250000</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I44" s="31">
+        <f>SUM(I40:I43)</f>
+        <v>31700</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -2000,14 +2028,15 @@
       <c r="C45" s="8">
         <v>2750000</v>
       </c>
+      <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="21" t="s">
         <v>39</v>
       </c>
       <c r="C46" s="22">
-        <f>C45-I43</f>
-        <v>2698000</v>
+        <f>C45-I44</f>
+        <v>2718300</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2019,7 +2048,7 @@
         <v>3209361</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C49" s="32" t="s">
         <v>61</v>
       </c>
@@ -2028,8 +2057,15 @@
         <v>59</v>
       </c>
       <c r="F49" s="32"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I49" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="J49" s="17"/>
+      <c r="K49" s="14">
+        <v>2738000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>54</v>
       </c>
@@ -2045,8 +2081,16 @@
       <c r="F50" s="19" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I50" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="J50" s="17"/>
+      <c r="K50" s="14">
+        <f>2270000-E35</f>
+        <v>2198924</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>56</v>
       </c>
@@ -2062,8 +2106,16 @@
       <c r="F51" s="14">
         <v>7700</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I51" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="J51" s="35"/>
+      <c r="K51" s="14">
+        <f>K49-K50</f>
+        <v>539076</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>57</v>
       </c>
@@ -2080,7 +2132,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>58</v>
       </c>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
   <si>
     <t>Помещение</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>Стоимость дома</t>
-  </si>
-  <si>
-    <t>Осталось за дом</t>
   </si>
   <si>
     <t>Гидроизоляция и затирка</t>
@@ -305,6 +302,12 @@
   </si>
   <si>
     <t>Ипотека</t>
+  </si>
+  <si>
+    <t>Осталось за дом (сумма в договор КП)</t>
+  </si>
+  <si>
+    <t>Резерв</t>
   </si>
 </sst>
 </file>
@@ -557,6 +560,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="13"/>
     <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="13" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="14"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -566,7 +570,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="14"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
@@ -1000,7 +1003,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="3">
         <v>6.22</v>
@@ -1207,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,12 +1246,12 @@
         <v>34</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
       <c r="J1" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K1" s="27">
         <v>7.0000000000000007E-2</v>
@@ -1275,16 +1278,16 @@
         <v>25</v>
       </c>
       <c r="H2" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="26" t="s">
         <v>71</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1313,14 +1316,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J3" s="8">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>345.20547945205482</v>
+        <v>383.56164383561645</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1433,7 +1436,7 @@
         <v>43038</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="8">
         <v>1050</v>
@@ -1451,7 +1454,7 @@
         <v>43040</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="8">
         <v>1820</v>
@@ -1469,7 +1472,7 @@
         <v>43044</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="8">
         <v>4818</v>
@@ -1487,7 +1490,7 @@
         <v>43050</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="8">
         <f>20000+1500</f>
@@ -1543,7 +1546,7 @@
         <v>43047</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="8">
         <f>75906+12670</f>
@@ -1563,7 +1566,7 @@
         <v>43064</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="8">
         <v>30776</v>
@@ -1581,7 +1584,7 @@
         <v>43061</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="8">
         <v>12790</v>
@@ -1599,7 +1602,7 @@
         <v>43057</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="8">
         <f>2500+2250</f>
@@ -1618,7 +1621,7 @@
         <v>43067</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="8">
         <v>31500</v>
@@ -1636,7 +1639,7 @@
         <v>43063</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="8">
         <f>15670+410</f>
@@ -1653,7 +1656,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="8">
         <f>2000+2000</f>
@@ -1672,7 +1675,7 @@
         <v>43070</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="8">
         <v>12000</v>
@@ -1690,7 +1693,7 @@
         <v>43057</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="8">
         <v>1596</v>
@@ -1708,7 +1711,7 @@
         <v>43057</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="8">
         <f>24000+3000</f>
@@ -1728,7 +1731,7 @@
         <v>43051</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="8">
         <f>260*6+549</f>
@@ -1748,7 +1751,7 @@
         <v>43062</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="8">
         <v>2080</v>
@@ -1766,7 +1769,7 @@
         <v>43063</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="8">
         <v>11851</v>
@@ -1784,7 +1787,7 @@
         <v>43058</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="8">
         <v>1820</v>
@@ -1802,7 +1805,7 @@
         <v>43060</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" s="8">
         <v>1560</v>
@@ -1820,7 +1823,7 @@
         <v>43063</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" s="8">
         <v>1560</v>
@@ -1838,7 +1841,7 @@
         <v>43064</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" s="8">
         <v>390</v>
@@ -1856,7 +1859,7 @@
         <v>43065</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="8">
         <v>1490</v>
@@ -1874,7 +1877,7 @@
         <v>43065</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" s="8">
         <v>430</v>
@@ -1892,7 +1895,7 @@
         <v>43066</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="8">
         <v>320</v>
@@ -1907,7 +1910,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="11">
@@ -1927,37 +1930,37 @@
       <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="34"/>
+      <c r="C38" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="35"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C39" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I39" s="20"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40" s="13">
         <f>C46-C44+E35</f>
-        <v>539376</v>
+        <v>557876</v>
       </c>
       <c r="D40" s="13">
         <f>C46-C44</f>
-        <v>468300</v>
+        <v>486800</v>
       </c>
       <c r="H40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I40" s="8">
         <v>20000</v>
@@ -1965,13 +1968,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="8">
         <v>2000000</v>
       </c>
       <c r="H41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I41" s="8">
         <v>12000</v>
@@ -1979,46 +1982,46 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C42" s="8">
         <v>50000</v>
       </c>
       <c r="H42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I42" s="8">
-        <v>20000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" s="8">
         <v>200000</v>
       </c>
       <c r="H43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I43" s="8">
-        <v>-20300</v>
+        <v>-18800</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" s="24">
         <f>SUM(C41:C43)</f>
         <v>2250000</v>
       </c>
       <c r="H44" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I44" s="31">
         <f>SUM(I40:I43)</f>
-        <v>31700</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2026,22 +2029,23 @@
         <v>38</v>
       </c>
       <c r="C45" s="8">
+        <f>2750000</f>
         <v>2750000</v>
       </c>
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="21" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="C46" s="22">
         <f>C45-I44</f>
-        <v>2718300</v>
+        <v>2736800</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47" s="12">
         <f>C45+C35</f>
@@ -2049,50 +2053,50 @@
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="F49" s="32"/>
+      <c r="C49" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="33"/>
       <c r="I49" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J49" s="17"/>
       <c r="K49" s="14">
-        <v>2738000</v>
+        <v>2736800</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="17" t="s">
-        <v>55</v>
-      </c>
       <c r="D50" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I50" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J50" s="17"/>
       <c r="K50" s="14">
-        <f>2270000-E35</f>
-        <v>2198924</v>
+        <f>C44-E35-K51</f>
+        <v>2120000</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" s="14">
         <v>7500</v>
@@ -2106,18 +2110,17 @@
       <c r="F51" s="14">
         <v>7700</v>
       </c>
-      <c r="I51" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="J51" s="35"/>
+      <c r="I51" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="J51" s="17"/>
       <c r="K51" s="14">
-        <f>K49-K50</f>
-        <v>539076</v>
+        <v>58924</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" s="14">
         <v>674000</v>
@@ -2131,10 +2134,18 @@
       <c r="F52" s="14">
         <v>420000</v>
       </c>
+      <c r="I52" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="J52" s="32"/>
+      <c r="K52" s="14">
+        <f>K49-K50</f>
+        <v>616800</v>
+      </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53">
         <v>10.996</v>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -1210,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -1211,7 +1211,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
   <si>
     <t>Помещение</t>
   </si>
@@ -308,6 +308,12 @@
   </si>
   <si>
     <t>Резерв</t>
+  </si>
+  <si>
+    <t>Смеситель на кухню</t>
+  </si>
+  <si>
+    <t>Ручки для кухонного гарнитура</t>
   </si>
 </sst>
 </file>
@@ -1208,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,14 +1322,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J3" s="8">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>383.56164383561645</v>
+        <v>498.63013698630141</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1832,7 +1838,7 @@
         <v>1560</v>
       </c>
       <c r="E30" s="8">
-        <f t="shared" ref="E30:E34" si="2">C30-D30</f>
+        <f t="shared" ref="E30:E36" si="2">C30-D30</f>
         <v>0</v>
       </c>
     </row>
@@ -1909,262 +1915,298 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="6">
+        <v>43072</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="8">
+        <v>2970</v>
+      </c>
+      <c r="D35" s="8">
+        <v>2970</v>
+      </c>
+      <c r="E35" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>43072</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="8">
+        <v>3800</v>
+      </c>
+      <c r="D36" s="8">
+        <v>3800</v>
+      </c>
+      <c r="E36" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11">
         <f>SUM(C2:C28)</f>
         <v>459361</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D37" s="11">
         <f>SUM(D2:D28)</f>
         <v>388285</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E37" s="11">
         <f>SUM(E2:E25)</f>
         <v>71076</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="8"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="34" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="35"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="15" t="s">
+      <c r="D40" s="35"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D41" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H39" s="20" t="s">
+      <c r="H41" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="I39" s="20"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="13">
-        <f>C46-C44+E35</f>
-        <v>557876</v>
-      </c>
-      <c r="D40" s="13">
-        <f>C46-C44</f>
-        <v>486800</v>
-      </c>
-      <c r="H40" t="s">
-        <v>64</v>
-      </c>
-      <c r="I40" s="8">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="8">
-        <v>2000000</v>
-      </c>
-      <c r="H41" t="s">
-        <v>66</v>
-      </c>
-      <c r="I41" s="8">
-        <v>12000</v>
-      </c>
+      <c r="I41" s="20"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="8">
-        <v>50000</v>
+        <v>50</v>
+      </c>
+      <c r="C42" s="13">
+        <f>C48-C46+E37</f>
+        <v>507876</v>
+      </c>
+      <c r="D42" s="13">
+        <f>C48-C46</f>
+        <v>436800</v>
       </c>
       <c r="H42" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="I42" s="8">
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C43" s="8">
-        <v>200000</v>
+        <v>2000000</v>
       </c>
       <c r="H43" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="I43" s="8">
-        <v>-18800</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="24">
-        <f>SUM(C41:C43)</f>
-        <v>2250000</v>
-      </c>
-      <c r="H44" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="I44" s="31">
-        <f>SUM(I40:I43)</f>
-        <v>13200</v>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="8">
+        <v>100000</v>
+      </c>
+      <c r="H44" t="s">
+        <v>87</v>
+      </c>
+      <c r="I44" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="8">
+        <v>200000</v>
+      </c>
+      <c r="H45" t="s">
+        <v>91</v>
+      </c>
+      <c r="I45" s="8">
+        <v>-18800</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="24">
+        <f>SUM(C43:C45)</f>
+        <v>2300000</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" s="31">
+        <f>SUM(I42:I45)</f>
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C47" s="8">
         <f>2750000</f>
         <v>2750000</v>
       </c>
-      <c r="I45" s="8"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="21" t="s">
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="22">
-        <f>C45-I44</f>
+      <c r="C48" s="22">
+        <f>C47-I46</f>
         <v>2736800</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="18" t="s">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="12">
-        <f>C45+C35</f>
+      <c r="C49" s="12">
+        <f>C47+C37</f>
         <v>3209361</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="33" t="s">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C51" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33" t="s">
+      <c r="D51" s="33"/>
+      <c r="E51" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="33"/>
-      <c r="I49" s="17" t="s">
+      <c r="F51" s="33"/>
+      <c r="I51" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="J49" s="17"/>
-      <c r="K49" s="14">
-        <v>2736800</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="I50" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="J50" s="17"/>
-      <c r="K50" s="14">
-        <f>C44-E35-K51</f>
-        <v>2120000</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="14">
-        <v>7500</v>
-      </c>
-      <c r="D51" s="14">
-        <v>9800</v>
-      </c>
-      <c r="E51" s="14">
-        <v>5900</v>
-      </c>
-      <c r="F51" s="14">
-        <v>7700</v>
-      </c>
-      <c r="I51" s="19" t="s">
-        <v>96</v>
       </c>
       <c r="J51" s="17"/>
       <c r="K51" s="14">
-        <v>58924</v>
+        <v>2736800</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="14">
-        <v>674000</v>
-      </c>
-      <c r="D52" s="14">
-        <v>544000</v>
-      </c>
-      <c r="E52" s="14">
-        <v>525000</v>
-      </c>
-      <c r="F52" s="14">
-        <v>420000</v>
-      </c>
-      <c r="I52" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="J52" s="32"/>
+        <v>53</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I52" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="J52" s="17"/>
       <c r="K52" s="14">
-        <f>K49-K50</f>
-        <v>616800</v>
+        <f>C46-E37-K53</f>
+        <v>2170000</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="14">
+        <v>7500</v>
+      </c>
+      <c r="D53" s="14">
+        <v>9800</v>
+      </c>
+      <c r="E53" s="14">
+        <v>5900</v>
+      </c>
+      <c r="F53" s="14">
+        <v>7700</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="J53" s="17"/>
+      <c r="K53" s="14">
+        <v>58924</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="14">
+        <v>674000</v>
+      </c>
+      <c r="D54" s="14">
+        <v>544000</v>
+      </c>
+      <c r="E54" s="14">
+        <v>525000</v>
+      </c>
+      <c r="F54" s="14">
+        <v>420000</v>
+      </c>
+      <c r="I54" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="J54" s="32"/>
+      <c r="K54" s="14">
+        <f>K51-K52</f>
+        <v>566800</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>57</v>
       </c>
-      <c r="C53">
+      <c r="C55">
         <v>10.996</v>
       </c>
-      <c r="D53">
+      <c r="D55">
         <v>10.962999999999999</v>
       </c>
-      <c r="E53">
+      <c r="E55">
         <v>10.996</v>
       </c>
-      <c r="F53">
+      <c r="F55">
         <v>10.962999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C40:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -1216,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,14 +1322,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J3" s="8">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>498.63013698630141</v>
+        <v>536.9863013698631</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1956,15 +1956,15 @@
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="11">
-        <f>SUM(C2:C28)</f>
-        <v>459361</v>
+        <f>SUM(C2:C36)</f>
+        <v>471881</v>
       </c>
       <c r="D37" s="11">
-        <f>SUM(D2:D28)</f>
-        <v>388285</v>
+        <f>SUM(D2:D36)</f>
+        <v>400805</v>
       </c>
       <c r="E37" s="11">
-        <f>SUM(E2:E25)</f>
+        <f>SUM(E2:E36)</f>
         <v>71076</v>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C49" s="12">
         <f>C47+C37</f>
-        <v>3209361</v>
+        <v>3221881</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="100">
   <si>
     <t>Помещение</t>
   </si>
@@ -31,27 +31,6 @@
   </si>
   <si>
     <t>Санузел+Котельная</t>
-  </si>
-  <si>
-    <t>S пола</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S стены 1 </t>
-  </si>
-  <si>
-    <t>S стены 2</t>
-  </si>
-  <si>
-    <t>S стены 3</t>
-  </si>
-  <si>
-    <t>S стены 4</t>
-  </si>
-  <si>
-    <t>S стены 5</t>
-  </si>
-  <si>
-    <t>S стены 6</t>
   </si>
   <si>
     <t xml:space="preserve">Работа </t>
@@ -314,6 +293,30 @@
   </si>
   <si>
     <t>Ручки для кухонного гарнитура</t>
+  </si>
+  <si>
+    <t>Итого Sстен</t>
+  </si>
+  <si>
+    <t>Sстены 6</t>
+  </si>
+  <si>
+    <t>Sстены 5</t>
+  </si>
+  <si>
+    <t>Sстены 4</t>
+  </si>
+  <si>
+    <t>Sстены 3</t>
+  </si>
+  <si>
+    <t>Sстены 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sстены 1 </t>
+  </si>
+  <si>
+    <t>Sпола</t>
   </si>
 </sst>
 </file>
@@ -894,7 +897,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,6 +911,7 @@
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -915,31 +919,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1009,7 +1013,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B5" s="3">
         <v>6.22</v>
@@ -1087,7 +1091,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3">
         <f>SUM(B2:B6)</f>
@@ -1102,18 +1106,18 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <f>B7*C16</f>
@@ -1130,7 +1134,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <f>J6*B16</f>
@@ -1147,7 +1151,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <f>SUM(D10:D11)</f>
@@ -1156,7 +1160,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>5000</v>
@@ -1164,7 +1168,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>5000</v>
@@ -1172,7 +1176,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>2.75</v>
@@ -1180,7 +1184,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>300</v>
@@ -1191,7 +1195,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>600</v>
@@ -1199,7 +1203,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <f>D12+B13+B14</f>
@@ -1216,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,27 +1241,27 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="G1" s="25" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
       <c r="J1" s="25" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K1" s="27">
         <v>7.0000000000000007E-2</v>
@@ -1268,7 +1272,7 @@
         <v>43003</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C2" s="8">
         <v>20000</v>
@@ -1281,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H2" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>77</v>
-      </c>
       <c r="K2" s="26" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1301,7 +1305,7 @@
         <v>43022</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C3" s="8">
         <v>70536</v>
@@ -1322,14 +1326,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J3" s="8">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>536.9863013698631</v>
+        <v>920.54794520547955</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1337,7 +1341,7 @@
         <v>43026</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C4" s="8">
         <v>604</v>
@@ -1358,7 +1362,7 @@
         <v>43030</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C5" s="8">
         <v>22505</v>
@@ -1379,7 +1383,7 @@
         <v>43030</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C6" s="8">
         <f>240*7+709</f>
@@ -1402,7 +1406,7 @@
         <v>43031</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C7" s="8">
         <f>36610+500</f>
@@ -1422,7 +1426,7 @@
         <v>43031</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C8" s="8">
         <f>5600+4500+400+600</f>
@@ -1442,7 +1446,7 @@
         <v>43038</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C9" s="8">
         <v>1050</v>
@@ -1460,7 +1464,7 @@
         <v>43040</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C10" s="8">
         <v>1820</v>
@@ -1478,7 +1482,7 @@
         <v>43044</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C11" s="8">
         <v>4818</v>
@@ -1496,7 +1500,7 @@
         <v>43050</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C12" s="8">
         <f>20000+1500</f>
@@ -1515,7 +1519,7 @@
         <v>43067</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C13" s="8">
         <v>11900</v>
@@ -1533,7 +1537,7 @@
         <v>43050</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C14" s="8">
         <f>7101</f>
@@ -1552,7 +1556,7 @@
         <v>43047</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C15" s="8">
         <f>75906+12670</f>
@@ -1572,7 +1576,7 @@
         <v>43064</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C16" s="8">
         <v>30776</v>
@@ -1590,7 +1594,7 @@
         <v>43061</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C17" s="8">
         <v>12790</v>
@@ -1608,7 +1612,7 @@
         <v>43057</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C18" s="8">
         <f>2500+2250</f>
@@ -1627,7 +1631,7 @@
         <v>43067</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C19" s="8">
         <v>31500</v>
@@ -1645,7 +1649,7 @@
         <v>43063</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C20" s="8">
         <f>15670+410</f>
@@ -1662,7 +1666,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C21" s="8">
         <f>2000+2000</f>
@@ -1681,7 +1685,7 @@
         <v>43070</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C22" s="8">
         <v>12000</v>
@@ -1699,7 +1703,7 @@
         <v>43057</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C23" s="8">
         <v>1596</v>
@@ -1717,7 +1721,7 @@
         <v>43057</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C24" s="8">
         <f>24000+3000</f>
@@ -1737,7 +1741,7 @@
         <v>43051</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C25" s="8">
         <f>260*6+549</f>
@@ -1757,7 +1761,7 @@
         <v>43062</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C26" s="8">
         <v>2080</v>
@@ -1775,7 +1779,7 @@
         <v>43063</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C27" s="8">
         <v>11851</v>
@@ -1793,7 +1797,7 @@
         <v>43058</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C28" s="8">
         <v>1820</v>
@@ -1811,7 +1815,7 @@
         <v>43060</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C29" s="8">
         <v>1560</v>
@@ -1829,7 +1833,7 @@
         <v>43063</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C30" s="8">
         <v>1560</v>
@@ -1847,7 +1851,7 @@
         <v>43064</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C31" s="8">
         <v>390</v>
@@ -1865,7 +1869,7 @@
         <v>43065</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C32" s="8">
         <v>1490</v>
@@ -1883,7 +1887,7 @@
         <v>43065</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C33" s="8">
         <v>430</v>
@@ -1901,7 +1905,7 @@
         <v>43066</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C34" s="8">
         <v>320</v>
@@ -1919,7 +1923,7 @@
         <v>43072</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C35" s="8">
         <v>2970</v>
@@ -1937,7 +1941,7 @@
         <v>43072</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C36" s="8">
         <v>3800</v>
@@ -1952,7 +1956,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="11">
@@ -1973,25 +1977,25 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C40" s="34" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D40" s="35"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C41" s="15" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I41" s="20"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C42" s="13">
         <f>C48-C46+E37</f>
@@ -2002,7 +2006,7 @@
         <v>436800</v>
       </c>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I42" s="8">
         <v>20000</v>
@@ -2010,13 +2014,13 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C43" s="8">
         <v>2000000</v>
       </c>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I43" s="8">
         <v>12000</v>
@@ -2024,13 +2028,13 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C44" s="8">
         <v>100000</v>
       </c>
       <c r="H44" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I44" s="8">
         <v>0</v>
@@ -2038,13 +2042,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C45" s="8">
         <v>200000</v>
       </c>
       <c r="H45" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I45" s="8">
         <v>-18800</v>
@@ -2052,14 +2056,14 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="23" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C46" s="24">
         <f>SUM(C43:C45)</f>
         <v>2300000</v>
       </c>
       <c r="H46" s="30" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I46" s="31">
         <f>SUM(I42:I45)</f>
@@ -2068,7 +2072,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C47" s="8">
         <f>2750000</f>
@@ -2078,7 +2082,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" s="21" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C48" s="22">
         <f>C47-I46</f>
@@ -2087,7 +2091,7 @@
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C49" s="12">
         <f>C47+C37</f>
@@ -2096,15 +2100,15 @@
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C51" s="33" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D51" s="33"/>
       <c r="E51" s="33" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F51" s="33"/>
       <c r="I51" s="17" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J51" s="17"/>
       <c r="K51" s="14">
@@ -2113,22 +2117,22 @@
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C52" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="19" t="s">
-        <v>61</v>
-      </c>
       <c r="E52" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F52" s="19" t="s">
-        <v>61</v>
-      </c>
       <c r="I52" s="17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J52" s="17"/>
       <c r="K52" s="14">
@@ -2138,7 +2142,7 @@
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C53" s="14">
         <v>7500</v>
@@ -2153,7 +2157,7 @@
         <v>7700</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J53" s="17"/>
       <c r="K53" s="14">
@@ -2162,7 +2166,7 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C54" s="14">
         <v>674000</v>
@@ -2177,7 +2181,7 @@
         <v>420000</v>
       </c>
       <c r="I54" s="32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J54" s="32"/>
       <c r="K54" s="14">
@@ -2187,7 +2191,7 @@
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C55">
         <v>10.996</v>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="102">
   <si>
     <t>Помещение</t>
   </si>
@@ -317,6 +317,12 @@
   </si>
   <si>
     <t>Sпола</t>
+  </si>
+  <si>
+    <t>Натяжной потолок зал+ванная</t>
+  </si>
+  <si>
+    <t>Оценка для Сбера</t>
   </si>
 </sst>
 </file>
@@ -1218,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,14 +1332,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J3" s="8">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>920.54794520547955</v>
+        <v>1112.3287671232879</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1728,12 +1734,12 @@
         <v>27000</v>
       </c>
       <c r="D24" s="8">
-        <f>14000+3000</f>
-        <v>17000</v>
+        <f>14000+3000+5000</f>
+        <v>22000</v>
       </c>
       <c r="E24" s="8">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1842,7 +1848,7 @@
         <v>1560</v>
       </c>
       <c r="E30" s="8">
-        <f t="shared" ref="E30:E36" si="2">C30-D30</f>
+        <f t="shared" ref="E30:E38" si="2">C30-D30</f>
         <v>0</v>
       </c>
     </row>
@@ -1955,262 +1961,299 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="6">
+        <v>43086</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="8">
+        <v>17500</v>
+      </c>
+      <c r="D37" s="8">
+        <f>9000</f>
+        <v>9000</v>
+      </c>
+      <c r="E37" s="8">
+        <f t="shared" si="2"/>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>43077</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="8">
+        <v>3000</v>
+      </c>
+      <c r="D38" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11">
-        <f>SUM(C2:C36)</f>
-        <v>471881</v>
-      </c>
-      <c r="D37" s="11">
-        <f>SUM(D2:D36)</f>
-        <v>400805</v>
-      </c>
-      <c r="E37" s="11">
-        <f>SUM(E2:E36)</f>
-        <v>71076</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="8"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="34" t="s">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11">
+        <f>SUM(C2:C38)</f>
+        <v>492381</v>
+      </c>
+      <c r="D39" s="11">
+        <f>SUM(D2:D38)</f>
+        <v>417805</v>
+      </c>
+      <c r="E39" s="11">
+        <f>SUM(E3:E38)</f>
+        <v>74576</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="35"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="15" t="s">
+      <c r="D42" s="35"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D43" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H41" s="20" t="s">
+      <c r="H43" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I41" s="20"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="13">
-        <f>C48-C46+E37</f>
-        <v>507876</v>
-      </c>
-      <c r="D42" s="13">
-        <f>C48-C46</f>
-        <v>436800</v>
-      </c>
-      <c r="H42" t="s">
-        <v>57</v>
-      </c>
-      <c r="I42" s="8">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="8">
-        <v>2000000</v>
-      </c>
-      <c r="H43" t="s">
-        <v>59</v>
-      </c>
-      <c r="I43" s="8">
-        <v>12000</v>
-      </c>
+      <c r="I43" s="20"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="8">
-        <v>100000</v>
+        <v>43</v>
+      </c>
+      <c r="C44" s="13">
+        <f>C50-C48+E39</f>
+        <v>511376</v>
+      </c>
+      <c r="D44" s="13">
+        <f>C50-C48</f>
+        <v>436800</v>
       </c>
       <c r="H44" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I44" s="8">
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C45" s="8">
-        <v>200000</v>
+        <v>2000000</v>
       </c>
       <c r="H45" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="I45" s="8">
-        <v>-18800</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="24">
-        <f>SUM(C43:C45)</f>
-        <v>2300000</v>
-      </c>
-      <c r="H46" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I46" s="31">
-        <f>SUM(I42:I45)</f>
-        <v>13200</v>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="8">
+        <v>100000</v>
+      </c>
+      <c r="H46" t="s">
+        <v>80</v>
+      </c>
+      <c r="I46" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="8">
+        <v>200000</v>
+      </c>
+      <c r="H47" t="s">
+        <v>84</v>
+      </c>
+      <c r="I47" s="8">
+        <v>-18800</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="24">
+        <f>SUM(C45:C47)</f>
+        <v>2300000</v>
+      </c>
+      <c r="H48" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I48" s="31">
+        <f>SUM(I44:I47)</f>
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C49" s="8">
         <f>2750000</f>
         <v>2750000</v>
       </c>
-      <c r="I47" s="8"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="21" t="s">
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="22">
-        <f>C47-I46</f>
+      <c r="C50" s="22">
+        <f>C49-I48</f>
         <v>2736800</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="18" t="s">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="12">
-        <f>C47+C37</f>
-        <v>3221881</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="12">
+        <f>C49+C39</f>
+        <v>3242381</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C53" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33" t="s">
+      <c r="D53" s="33"/>
+      <c r="E53" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="F51" s="33"/>
-      <c r="I51" s="17" t="s">
+      <c r="F53" s="33"/>
+      <c r="I53" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="J51" s="17"/>
-      <c r="K51" s="14">
-        <v>2736800</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I52" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="J52" s="17"/>
-      <c r="K52" s="14">
-        <f>C46-E37-K53</f>
-        <v>2170000</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C53" s="14">
-        <v>7500</v>
-      </c>
-      <c r="D53" s="14">
-        <v>9800</v>
-      </c>
-      <c r="E53" s="14">
-        <v>5900</v>
-      </c>
-      <c r="F53" s="14">
-        <v>7700</v>
-      </c>
-      <c r="I53" s="19" t="s">
-        <v>89</v>
       </c>
       <c r="J53" s="17"/>
       <c r="K53" s="14">
-        <v>58924</v>
+        <v>2736800</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="14">
-        <v>674000</v>
-      </c>
-      <c r="D54" s="14">
-        <v>544000</v>
-      </c>
-      <c r="E54" s="14">
-        <v>525000</v>
-      </c>
-      <c r="F54" s="14">
-        <v>420000</v>
-      </c>
-      <c r="I54" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="J54" s="32"/>
+        <v>46</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I54" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="J54" s="17"/>
       <c r="K54" s="14">
-        <f>K51-K52</f>
-        <v>566800</v>
+        <f>C48-E39-K55</f>
+        <v>2166500</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="14">
+        <v>7500</v>
+      </c>
+      <c r="D55" s="14">
+        <v>9800</v>
+      </c>
+      <c r="E55" s="14">
+        <v>5900</v>
+      </c>
+      <c r="F55" s="14">
+        <v>7700</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="J55" s="17"/>
+      <c r="K55" s="14">
+        <v>58924</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="14">
+        <v>674000</v>
+      </c>
+      <c r="D56" s="14">
+        <v>544000</v>
+      </c>
+      <c r="E56" s="14">
+        <v>525000</v>
+      </c>
+      <c r="F56" s="14">
+        <v>420000</v>
+      </c>
+      <c r="I56" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="J56" s="32"/>
+      <c r="K56" s="14">
+        <f>K53-K54</f>
+        <v>570300</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>50</v>
       </c>
-      <c r="C55">
+      <c r="C57">
         <v>10.996</v>
       </c>
-      <c r="D55">
+      <c r="D57">
         <v>10.962999999999999</v>
       </c>
-      <c r="E55">
+      <c r="E57">
         <v>10.996</v>
       </c>
-      <c r="F55">
+      <c r="F57">
         <v>10.962999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C42:D42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -283,9 +283,6 @@
     <t>Ипотека</t>
   </si>
   <si>
-    <t>Осталось за дом (сумма в договор КП)</t>
-  </si>
-  <si>
     <t>Резерв</t>
   </si>
   <si>
@@ -323,6 +320,9 @@
   </si>
   <si>
     <t>Оценка для Сбера</t>
+  </si>
+  <si>
+    <t>Осталось за дом (без ипотеки)</t>
   </si>
 </sst>
 </file>
@@ -925,31 +925,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1226,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,7 +1239,7 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="15.5703125" customWidth="1"/>
     <col min="12" max="12" width="14.140625" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -1332,14 +1332,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" s="8">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>1112.3287671232879</v>
+        <v>1189.041095890411</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1929,7 +1929,7 @@
         <v>43072</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="8">
         <v>2970</v>
@@ -1947,7 +1947,7 @@
         <v>43072</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" s="8">
         <v>3800</v>
@@ -1965,18 +1965,19 @@
         <v>43086</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" s="8">
-        <v>17500</v>
+        <f>17500+400</f>
+        <v>17900</v>
       </c>
       <c r="D37" s="8">
-        <f>9000</f>
-        <v>9000</v>
+        <f>9000+8500+400</f>
+        <v>17900</v>
       </c>
       <c r="E37" s="8">
         <f t="shared" si="2"/>
-        <v>8500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1984,7 +1985,7 @@
         <v>43077</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" s="8">
         <v>3000</v>
@@ -2004,15 +2005,15 @@
       <c r="B39" s="10"/>
       <c r="C39" s="11">
         <f>SUM(C2:C38)</f>
-        <v>492381</v>
+        <v>492781</v>
       </c>
       <c r="D39" s="11">
         <f>SUM(D2:D38)</f>
-        <v>417805</v>
+        <v>426705</v>
       </c>
       <c r="E39" s="11">
         <f>SUM(E3:E38)</f>
-        <v>74576</v>
+        <v>66076</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2042,11 +2043,11 @@
       </c>
       <c r="C44" s="13">
         <f>C50-C48+E39</f>
-        <v>511376</v>
+        <v>-633924</v>
       </c>
       <c r="D44" s="13">
         <f>C50-C48</f>
-        <v>436800</v>
+        <v>-700000</v>
       </c>
       <c r="H44" t="s">
         <v>57</v>
@@ -2080,7 +2081,7 @@
         <v>80</v>
       </c>
       <c r="I46" s="8">
-        <v>0</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2110,7 +2111,7 @@
       </c>
       <c r="I48" s="31">
         <f>SUM(I44:I47)</f>
-        <v>13200</v>
+        <v>533200</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
@@ -2125,11 +2126,11 @@
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="21" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C50" s="22">
-        <f>C49-I48</f>
-        <v>2736800</v>
+        <f>C49-I48-K56</f>
+        <v>1600000</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
@@ -2138,7 +2139,7 @@
       </c>
       <c r="C51" s="12">
         <f>C49+C39</f>
-        <v>3242381</v>
+        <v>3242781</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
@@ -2180,7 +2181,7 @@
       <c r="J54" s="17"/>
       <c r="K54" s="14">
         <f>C48-E39-K55</f>
-        <v>2166500</v>
+        <v>2120000</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
@@ -2200,11 +2201,11 @@
         <v>7700</v>
       </c>
       <c r="I55" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J55" s="17"/>
       <c r="K55" s="14">
-        <v>58924</v>
+        <v>113924</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
@@ -2229,7 +2230,7 @@
       <c r="J56" s="32"/>
       <c r="K56" s="14">
         <f>K53-K54</f>
-        <v>570300</v>
+        <v>616800</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
   <si>
     <t>Помещение</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>Осталось за дом (без ипотеки)</t>
+  </si>
+  <si>
+    <t>Освещение в зал</t>
   </si>
 </sst>
 </file>
@@ -1224,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,14 +1335,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J3" s="8">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>1189.041095890411</v>
+        <v>1265.7534246575344</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1848,7 +1851,7 @@
         <v>1560</v>
       </c>
       <c r="E30" s="8">
-        <f t="shared" ref="E30:E38" si="2">C30-D30</f>
+        <f t="shared" ref="E30:E39" si="2">C30-D30</f>
         <v>0</v>
       </c>
     </row>
@@ -1999,262 +2002,282 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="6">
+        <v>43085</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="8">
+        <f>2230+420</f>
+        <v>2650</v>
+      </c>
+      <c r="D39" s="8">
+        <f>2230+420</f>
+        <v>2650</v>
+      </c>
+      <c r="E39" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11">
+      <c r="B40" s="10"/>
+      <c r="C40" s="11">
         <f>SUM(C2:C38)</f>
         <v>492781</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <f>SUM(D2:D38)</f>
         <v>426705</v>
       </c>
-      <c r="E39" s="11">
-        <f>SUM(E3:E38)</f>
+      <c r="E40" s="11">
+        <f>SUM(E2:E37)</f>
         <v>66076</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="8"/>
-    </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="35"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="15" t="s">
+      <c r="D43" s="35"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D44" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="20" t="s">
+      <c r="H44" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I43" s="20"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="13">
-        <f>C50-C48+E39</f>
-        <v>-633924</v>
-      </c>
-      <c r="D44" s="13">
-        <f>C50-C48</f>
-        <v>-700000</v>
-      </c>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-      <c r="I44" s="8">
-        <v>20000</v>
-      </c>
+      <c r="I44" s="20"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="8">
-        <v>2000000</v>
+        <v>43</v>
+      </c>
+      <c r="C45" s="13">
+        <f>C51-C49+E40</f>
+        <v>-633924</v>
+      </c>
+      <c r="D45" s="13">
+        <f>C51-C49</f>
+        <v>-700000</v>
       </c>
       <c r="H45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I45" s="8">
-        <v>12000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="8">
-        <v>100000</v>
+        <v>2000000</v>
       </c>
       <c r="H46" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="I46" s="8">
-        <v>520000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="8">
+        <v>100000</v>
+      </c>
+      <c r="H47" t="s">
+        <v>80</v>
+      </c>
+      <c r="I47" s="8">
+        <v>520000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C48" s="8">
         <v>200000</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H48" t="s">
         <v>84</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I48" s="8">
         <v>-18800</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="23" t="s">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="24">
-        <f>SUM(C45:C47)</f>
+      <c r="C49" s="24">
+        <f>SUM(C46:C48)</f>
         <v>2300000</v>
       </c>
-      <c r="H48" s="30" t="s">
+      <c r="H49" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="I48" s="31">
-        <f>SUM(I44:I47)</f>
+      <c r="I49" s="31">
+        <f>SUM(I45:I48)</f>
         <v>533200</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C50" s="8">
         <f>2750000</f>
         <v>2750000</v>
       </c>
-      <c r="I49" s="8"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="21" t="s">
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="22">
-        <f>C49-I48-K56</f>
+      <c r="C51" s="22">
+        <f>C50-I49-K57</f>
         <v>1600000</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="18" t="s">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="12">
-        <f>C49+C39</f>
+      <c r="C52" s="12">
+        <f>C50+C40</f>
         <v>3242781</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="33" t="s">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C54" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33" t="s">
+      <c r="D54" s="33"/>
+      <c r="E54" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="F53" s="33"/>
-      <c r="I53" s="17" t="s">
+      <c r="F54" s="33"/>
+      <c r="I54" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="J53" s="17"/>
-      <c r="K53" s="14">
-        <v>2736800</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I54" s="17" t="s">
-        <v>86</v>
       </c>
       <c r="J54" s="17"/>
       <c r="K54" s="14">
-        <f>C48-E39-K55</f>
-        <v>2120000</v>
+        <v>2736800</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" s="14">
-        <v>7500</v>
-      </c>
-      <c r="D55" s="14">
-        <v>9800</v>
-      </c>
-      <c r="E55" s="14">
-        <v>5900</v>
-      </c>
-      <c r="F55" s="14">
-        <v>7700</v>
-      </c>
-      <c r="I55" s="19" t="s">
-        <v>88</v>
+        <v>46</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I55" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="J55" s="17"/>
       <c r="K55" s="14">
-        <v>113924</v>
+        <f>C49-E40-K56</f>
+        <v>2120000</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C56" s="14">
-        <v>674000</v>
+        <v>7500</v>
       </c>
       <c r="D56" s="14">
-        <v>544000</v>
+        <v>9800</v>
       </c>
       <c r="E56" s="14">
-        <v>525000</v>
+        <v>5900</v>
       </c>
       <c r="F56" s="14">
-        <v>420000</v>
-      </c>
-      <c r="I56" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="J56" s="32"/>
+        <v>7700</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J56" s="17"/>
       <c r="K56" s="14">
-        <f>K53-K54</f>
-        <v>616800</v>
+        <v>113924</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="14">
+        <v>674000</v>
+      </c>
+      <c r="D57" s="14">
+        <v>544000</v>
+      </c>
+      <c r="E57" s="14">
+        <v>525000</v>
+      </c>
+      <c r="F57" s="14">
+        <v>420000</v>
+      </c>
+      <c r="I57" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="J57" s="32"/>
+      <c r="K57" s="14">
+        <f>K54-K55</f>
+        <v>616800</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>50</v>
       </c>
-      <c r="C57">
+      <c r="C58">
         <v>10.996</v>
       </c>
-      <c r="D57">
+      <c r="D58">
         <v>10.962999999999999</v>
       </c>
-      <c r="E57">
+      <c r="E58">
         <v>10.996</v>
       </c>
-      <c r="F57">
+      <c r="F58">
         <v>10.962999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -1229,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,14 +1335,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" s="8">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>1265.7534246575344</v>
+        <v>1304.1095890410961</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -1229,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,7 +1242,7 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="15.5703125" customWidth="1"/>
     <col min="12" max="12" width="14.140625" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -1335,14 +1335,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J3" s="8">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>1304.1095890410961</v>
+        <v>1380.8219178082193</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1572,12 +1572,12 @@
         <v>88576</v>
       </c>
       <c r="D15" s="8">
-        <f>38000+5500</f>
-        <v>43500</v>
+        <f>38000+5500+40900</f>
+        <v>84400</v>
       </c>
       <c r="E15" s="8">
         <f t="shared" si="1"/>
-        <v>45076</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1673,20 +1673,22 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="6">
+        <v>43095</v>
+      </c>
       <c r="B21" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C21" s="8">
-        <f>2000+2000</f>
-        <v>4000</v>
+        <f>2000+350+200</f>
+        <v>2550</v>
       </c>
       <c r="D21" s="8">
-        <v>0</v>
+        <v>2550</v>
       </c>
       <c r="E21" s="8">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2027,16 +2029,16 @@
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="11">
-        <f>SUM(C2:C38)</f>
-        <v>492781</v>
+        <f>SUM(C2:C39)</f>
+        <v>493981</v>
       </c>
       <c r="D40" s="11">
-        <f>SUM(D2:D38)</f>
-        <v>426705</v>
+        <f>SUM(D2:D39)</f>
+        <v>472805</v>
       </c>
       <c r="E40" s="11">
-        <f>SUM(E2:E37)</f>
-        <v>66076</v>
+        <f>SUM(E2:E39)</f>
+        <v>21176</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2066,11 +2068,11 @@
       </c>
       <c r="C45" s="13">
         <f>C51-C49+E40</f>
-        <v>-633924</v>
+        <v>-2278824</v>
       </c>
       <c r="D45" s="13">
         <f>C51-C49</f>
-        <v>-700000</v>
+        <v>-2300000</v>
       </c>
       <c r="H45" t="s">
         <v>57</v>
@@ -2104,7 +2106,8 @@
         <v>80</v>
       </c>
       <c r="I47" s="8">
-        <v>520000</v>
+        <f>520000+1600000</f>
+        <v>2120000</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2134,7 +2137,7 @@
       </c>
       <c r="I49" s="31">
         <f>SUM(I45:I48)</f>
-        <v>533200</v>
+        <v>2133200</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
@@ -2153,7 +2156,7 @@
       </c>
       <c r="C51" s="22">
         <f>C50-I49-K57</f>
-        <v>1600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
@@ -2162,7 +2165,7 @@
       </c>
       <c r="C52" s="12">
         <f>C50+C40</f>
-        <v>3242781</v>
+        <v>3243981</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
@@ -2203,7 +2206,6 @@
       </c>
       <c r="J55" s="17"/>
       <c r="K55" s="14">
-        <f>C49-E40-K56</f>
         <v>2120000</v>
       </c>
     </row>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="106">
   <si>
     <t>Помещение</t>
   </si>
@@ -326,6 +326,15 @@
   </si>
   <si>
     <t>Освещение в зал</t>
+  </si>
+  <si>
+    <t>Гардины в зал</t>
+  </si>
+  <si>
+    <t>Откосы вх.дверь</t>
+  </si>
+  <si>
+    <t>Зеркало в ванную</t>
   </si>
 </sst>
 </file>
@@ -1227,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,7 +1862,7 @@
         <v>1560</v>
       </c>
       <c r="E30" s="8">
-        <f t="shared" ref="E30:E39" si="2">C30-D30</f>
+        <f t="shared" ref="E30:E42" si="2">C30-D30</f>
         <v>0</v>
       </c>
     </row>
@@ -2024,262 +2033,316 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="6">
+        <v>43093</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="8">
+        <v>1330</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1330</v>
+      </c>
+      <c r="E40" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>43095</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="8">
+        <v>4200</v>
+      </c>
+      <c r="D41" s="8">
+        <v>4200</v>
+      </c>
+      <c r="E41" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>43093</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="8">
+        <v>2289</v>
+      </c>
+      <c r="D42" s="8">
+        <v>2289</v>
+      </c>
+      <c r="E42" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11">
-        <f>SUM(C2:C39)</f>
-        <v>493981</v>
-      </c>
-      <c r="D40" s="11">
-        <f>SUM(D2:D39)</f>
-        <v>472805</v>
-      </c>
-      <c r="E40" s="11">
-        <f>SUM(E2:E39)</f>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11">
+        <f>SUM(C3:C42)</f>
+        <v>481800</v>
+      </c>
+      <c r="D43" s="11">
+        <f>SUM(D3:D42)</f>
+        <v>460624</v>
+      </c>
+      <c r="E43" s="11">
+        <f>SUM(E3:E42)</f>
         <v>21176</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="8"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="34" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="35"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="15" t="s">
+      <c r="D46" s="35"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D47" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H44" s="20" t="s">
+      <c r="H47" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I44" s="20"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="I47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="13">
-        <f>C51-C49+E40</f>
+      <c r="C48" s="13">
+        <f>C54-C52+E43</f>
         <v>-2278824</v>
       </c>
-      <c r="D45" s="13">
-        <f>C51-C49</f>
+      <c r="D48" s="13">
+        <f>C54-C52</f>
         <v>-2300000</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H48" t="s">
         <v>57</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I48" s="8">
         <v>20000</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C49" s="8">
         <v>2000000</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H49" t="s">
         <v>59</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I49" s="8">
         <v>12000</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C50" s="8">
         <v>100000</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H50" t="s">
         <v>80</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I50" s="8">
         <f>520000+1600000</f>
         <v>2120000</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C51" s="8">
         <v>200000</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H51" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I51" s="8">
         <v>-18800</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="23" t="s">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="24">
-        <f>SUM(C46:C48)</f>
+      <c r="C52" s="24">
+        <f>SUM(C49:C51)</f>
         <v>2300000</v>
       </c>
-      <c r="H49" s="30" t="s">
+      <c r="H52" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="I49" s="31">
-        <f>SUM(I45:I48)</f>
+      <c r="I52" s="31">
+        <f>SUM(I48:I51)</f>
         <v>2133200</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C53" s="8">
         <f>2750000</f>
         <v>2750000</v>
       </c>
-      <c r="I50" s="8"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="21" t="s">
+      <c r="I53" s="8"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="22">
-        <f>C50-I49-K57</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="18" t="s">
+      <c r="C54" s="22">
+        <f>C53-I52-K60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="12">
-        <f>C50+C40</f>
-        <v>3243981</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C54" s="33" t="s">
+      <c r="C55" s="12">
+        <f>C53+C43</f>
+        <v>3231800</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C57" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33" t="s">
+      <c r="D57" s="33"/>
+      <c r="E57" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="F54" s="33"/>
-      <c r="I54" s="17" t="s">
+      <c r="F57" s="33"/>
+      <c r="I57" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="J54" s="17"/>
-      <c r="K54" s="14">
+      <c r="J57" s="17"/>
+      <c r="K57" s="14">
         <v>2736800</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I55" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="J55" s="17"/>
-      <c r="K55" s="14">
-        <v>2120000</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="14">
-        <v>7500</v>
-      </c>
-      <c r="D56" s="14">
-        <v>9800</v>
-      </c>
-      <c r="E56" s="14">
-        <v>5900</v>
-      </c>
-      <c r="F56" s="14">
-        <v>7700</v>
-      </c>
-      <c r="I56" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="J56" s="17"/>
-      <c r="K56" s="14">
-        <v>113924</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" s="14">
-        <v>674000</v>
-      </c>
-      <c r="D57" s="14">
-        <v>544000</v>
-      </c>
-      <c r="E57" s="14">
-        <v>525000</v>
-      </c>
-      <c r="F57" s="14">
-        <v>420000</v>
-      </c>
-      <c r="I57" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="J57" s="32"/>
-      <c r="K57" s="14">
-        <f>K54-K55</f>
-        <v>616800</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I58" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="J58" s="17"/>
+      <c r="K58" s="14">
+        <v>2120000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="14">
+        <v>7500</v>
+      </c>
+      <c r="D59" s="14">
+        <v>9800</v>
+      </c>
+      <c r="E59" s="14">
+        <v>5900</v>
+      </c>
+      <c r="F59" s="14">
+        <v>7700</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J59" s="17"/>
+      <c r="K59" s="14">
+        <v>113924</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="14">
+        <v>674000</v>
+      </c>
+      <c r="D60" s="14">
+        <v>544000</v>
+      </c>
+      <c r="E60" s="14">
+        <v>525000</v>
+      </c>
+      <c r="F60" s="14">
+        <v>420000</v>
+      </c>
+      <c r="I60" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="J60" s="32"/>
+      <c r="K60" s="14">
+        <f>K57-K58</f>
+        <v>616800</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>50</v>
       </c>
-      <c r="C58">
+      <c r="C61">
         <v>10.996</v>
       </c>
-      <c r="D58">
+      <c r="D61">
         <v>10.962999999999999</v>
       </c>
-      <c r="E58">
+      <c r="E61">
         <v>10.996</v>
       </c>
-      <c r="F58">
+      <c r="F61">
         <v>10.962999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="C46:D46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -1238,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,14 +1344,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J3" s="8">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>1380.8219178082193</v>
+        <v>1495.8904109589043</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1581,12 +1581,12 @@
         <v>88576</v>
       </c>
       <c r="D15" s="8">
-        <f>38000+5500+40900</f>
-        <v>84400</v>
+        <f>38000+5500+40900+600+3576</f>
+        <v>88576</v>
       </c>
       <c r="E15" s="8">
         <f t="shared" si="1"/>
-        <v>4176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1711,11 +1711,11 @@
         <v>12000</v>
       </c>
       <c r="D22" s="8">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="E22" s="8">
         <f t="shared" si="1"/>
-        <v>12000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2097,11 +2097,11 @@
       </c>
       <c r="D43" s="11">
         <f>SUM(D3:D42)</f>
-        <v>460624</v>
+        <v>476800</v>
       </c>
       <c r="E43" s="11">
         <f>SUM(E3:E42)</f>
-        <v>21176</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C48" s="13">
         <f>C54-C52+E43</f>
-        <v>-2278824</v>
+        <v>-2295000</v>
       </c>
       <c r="D48" s="13">
         <f>C54-C52</f>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="19440" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="19440" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="План помещений" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,6 @@
     <t>Спальня 1</t>
   </si>
   <si>
-    <t>Спальня 2</t>
-  </si>
-  <si>
     <t>Зал+Кухня</t>
   </si>
   <si>
@@ -301,18 +298,6 @@
     <t>Sстены 5</t>
   </si>
   <si>
-    <t>Sстены 4</t>
-  </si>
-  <si>
-    <t>Sстены 3</t>
-  </si>
-  <si>
-    <t>Sстены 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sстены 1 </t>
-  </si>
-  <si>
     <t>Sпола</t>
   </si>
   <si>
@@ -335,6 +320,21 @@
   </si>
   <si>
     <t>Зеркало в ванную</t>
+  </si>
+  <si>
+    <t>Спальня 2(детская)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sстены 1(В) </t>
+  </si>
+  <si>
+    <t>Sстены 2(Ю)</t>
+  </si>
+  <si>
+    <t>Sстены 3(З)</t>
+  </si>
+  <si>
+    <t>Sстены 4(С)</t>
   </si>
 </sst>
 </file>
@@ -345,7 +345,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,8 +406,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,6 +485,11 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -531,7 +544,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -547,8 +560,9 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -597,8 +611,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="15"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="16">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
     <cellStyle name="20% - Акцент3" xfId="11" builtinId="38"/>
     <cellStyle name="20% - Акцент6" xfId="8" builtinId="50"/>
@@ -614,6 +629,7 @@
     <cellStyle name="Заголовок 2" xfId="2" builtinId="17"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="12" builtinId="5"/>
+    <cellStyle name="Хороший" xfId="15" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -914,15 +930,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
@@ -937,31 +953,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -969,51 +985,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>16.23</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+        <f>5.12*3.17</f>
+        <v>16.230399999999999</v>
+      </c>
+      <c r="C2" s="3">
+        <f>3.17*B15-1.45*1.4</f>
+        <v>6.5290000000000017</v>
+      </c>
+      <c r="D2" s="3">
+        <f>5.12*B15-0.9*2</f>
+        <v>12.024000000000001</v>
+      </c>
+      <c r="E2" s="3">
+        <f>3.17*B15</f>
+        <v>8.5590000000000011</v>
+      </c>
+      <c r="F2" s="3">
+        <f>5.12*B15</f>
+        <v>13.824000000000002</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <f>SUM(C2:I2)</f>
+        <v>40.936000000000007</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="B3" s="3">
-        <v>11.82</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+        <f>3.73*3.17</f>
+        <v>11.8241</v>
+      </c>
+      <c r="C3" s="3">
+        <f>3.17*B15</f>
+        <v>8.5590000000000011</v>
+      </c>
+      <c r="D3" s="3">
+        <f>3.73*B15-0.9*2</f>
+        <v>8.270999999999999</v>
+      </c>
+      <c r="E3" s="3">
+        <f>3.17*B15-1.15*1.4</f>
+        <v>6.9490000000000016</v>
+      </c>
+      <c r="F3" s="3">
+        <f>3.73*B15</f>
+        <v>10.071</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <f>SUM(C3:I3)</f>
+        <v>33.85</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>27.33</v>
       </c>
       <c r="C4" s="3">
         <f>4.38*B15-1.45*1.4</f>
-        <v>10.015000000000001</v>
+        <v>9.7960000000000012</v>
       </c>
       <c r="D4" s="3">
         <f>6.24*B15-1.15*1.4</f>
-        <v>15.55</v>
+        <v>15.238000000000003</v>
       </c>
       <c r="E4" s="3">
         <f>3.2*B15-2</f>
-        <v>6.8000000000000007</v>
+        <v>6.6400000000000006</v>
       </c>
       <c r="F4" s="3">
         <f>6.28*B15-0.9*2*2</f>
-        <v>13.67</v>
+        <v>13.356000000000003</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1026,12 +1090,12 @@
       </c>
       <c r="J4" s="3">
         <f>SUM(C4:I4)</f>
-        <v>46.035000000000004</v>
+        <v>45.030000000000008</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="3">
         <v>6.22</v>
@@ -1041,62 +1105,62 @@
       </c>
       <c r="D5" s="3">
         <f>1.14*B15-0.7*2</f>
-        <v>1.7349999999999999</v>
+        <v>1.6779999999999999</v>
       </c>
       <c r="E5" s="3">
         <f>0.6*B15</f>
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="F5" s="3">
         <f>1.56*B15</f>
-        <v>4.29</v>
+        <v>4.2120000000000006</v>
       </c>
       <c r="G5" s="3">
         <f>1.8*B15-1*2</f>
-        <v>2.95</v>
+        <v>2.8600000000000003</v>
       </c>
       <c r="H5" s="3">
         <f>2.7*B15</f>
-        <v>7.4250000000000007</v>
+        <v>7.2900000000000009</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" s="3">
         <f>SUM(C5:I5)</f>
-        <v>18.05</v>
+        <v>17.660000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3">
         <v>7</v>
       </c>
       <c r="C6" s="3">
         <f>3.05*B15</f>
-        <v>8.3874999999999993</v>
+        <v>8.2349999999999994</v>
       </c>
       <c r="D6" s="3">
         <f>2.63*B15-1.15*1.4</f>
-        <v>5.6225000000000005</v>
+        <v>5.4909999999999997</v>
       </c>
       <c r="E6" s="3">
         <f>2.46*B15</f>
-        <v>6.7649999999999997</v>
+        <v>6.6420000000000003</v>
       </c>
       <c r="F6" s="3">
         <f>1.74*B15</f>
-        <v>4.7850000000000001</v>
+        <v>4.6980000000000004</v>
       </c>
       <c r="G6" s="3">
         <f>0.6*B15</f>
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H6" s="3">
         <f>0.89*B15-2*0.7</f>
-        <v>1.0475000000000003</v>
+        <v>1.0030000000000001</v>
       </c>
       <c r="I6" s="3">
         <f>1*2*2+0.2*2</f>
@@ -1104,16 +1168,16 @@
       </c>
       <c r="J6" s="3">
         <f>SUM(C6:I7)</f>
-        <v>32.657499999999999</v>
+        <v>32.088999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3">
         <f>SUM(B2:B6)</f>
-        <v>68.599999999999994</v>
+        <v>68.604500000000002</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1124,61 +1188,61 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <f>B7*C16</f>
-        <v>34300</v>
+        <v>34302.25</v>
       </c>
       <c r="C10">
         <f>B7*B17</f>
-        <v>41160</v>
+        <v>41162.700000000004</v>
       </c>
       <c r="D10">
         <f>B10+C10</f>
-        <v>75460</v>
+        <v>75464.950000000012</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <f>J6*B16</f>
-        <v>9797.25</v>
+        <v>9626.6999999999989</v>
       </c>
       <c r="C11">
         <f>J6*B17</f>
-        <v>19594.5</v>
+        <v>19253.399999999998</v>
       </c>
       <c r="D11">
         <f>B11+C11</f>
-        <v>29391.75</v>
+        <v>28880.1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <f>SUM(D10:D11)</f>
-        <v>104851.75</v>
+        <v>104345.05000000002</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>5000</v>
@@ -1186,23 +1250,23 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>5000</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>2.75</v>
+      <c r="A15" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="36">
+        <v>2.7</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>300</v>
@@ -1213,7 +1277,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>600</v>
@@ -1221,11 +1285,11 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <f>D12+B13+B14</f>
-        <v>114851.75</v>
+        <v>114345.05000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1238,7 +1302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -1259,27 +1323,27 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
       <c r="J1" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K1" s="27">
         <v>7.0000000000000007E-2</v>
@@ -1290,7 +1354,7 @@
         <v>43003</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="8">
         <v>20000</v>
@@ -1303,19 +1367,19 @@
         <v>0</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="26" t="s">
         <v>63</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1323,7 +1387,7 @@
         <v>43022</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="8">
         <v>70536</v>
@@ -1344,14 +1408,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="J3" s="8">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>1495.8904109589043</v>
+        <v>2109.5890410958905</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1359,7 +1423,7 @@
         <v>43026</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="8">
         <v>604</v>
@@ -1380,7 +1444,7 @@
         <v>43030</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="8">
         <v>22505</v>
@@ -1401,7 +1465,7 @@
         <v>43030</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="8">
         <f>240*7+709</f>
@@ -1424,7 +1488,7 @@
         <v>43031</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="8">
         <f>36610+500</f>
@@ -1444,7 +1508,7 @@
         <v>43031</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="8">
         <f>5600+4500+400+600</f>
@@ -1464,7 +1528,7 @@
         <v>43038</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="8">
         <v>1050</v>
@@ -1482,7 +1546,7 @@
         <v>43040</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="8">
         <v>1820</v>
@@ -1500,7 +1564,7 @@
         <v>43044</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="8">
         <v>4818</v>
@@ -1518,7 +1582,7 @@
         <v>43050</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="8">
         <f>20000+1500</f>
@@ -1537,7 +1601,7 @@
         <v>43067</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="8">
         <v>11900</v>
@@ -1555,7 +1619,7 @@
         <v>43050</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="8">
         <f>7101</f>
@@ -1574,7 +1638,7 @@
         <v>43047</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="8">
         <f>75906+12670</f>
@@ -1594,7 +1658,7 @@
         <v>43064</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="8">
         <v>30776</v>
@@ -1612,7 +1676,7 @@
         <v>43061</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="8">
         <v>12790</v>
@@ -1630,7 +1694,7 @@
         <v>43057</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="8">
         <f>2500+2250</f>
@@ -1649,7 +1713,7 @@
         <v>43067</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="8">
         <v>31500</v>
@@ -1667,7 +1731,7 @@
         <v>43063</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="8">
         <f>15670+410</f>
@@ -1686,7 +1750,7 @@
         <v>43095</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="8">
         <f>2000+350+200</f>
@@ -1705,7 +1769,7 @@
         <v>43070</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="8">
         <v>12000</v>
@@ -1723,7 +1787,7 @@
         <v>43057</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="8">
         <v>1596</v>
@@ -1741,7 +1805,7 @@
         <v>43057</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="8">
         <f>24000+3000</f>
@@ -1761,7 +1825,7 @@
         <v>43051</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="8">
         <f>260*6+549</f>
@@ -1781,7 +1845,7 @@
         <v>43062</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" s="8">
         <v>2080</v>
@@ -1799,7 +1863,7 @@
         <v>43063</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="8">
         <v>11851</v>
@@ -1817,7 +1881,7 @@
         <v>43058</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="8">
         <v>1820</v>
@@ -1835,7 +1899,7 @@
         <v>43060</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="8">
         <v>1560</v>
@@ -1853,7 +1917,7 @@
         <v>43063</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="8">
         <v>1560</v>
@@ -1871,7 +1935,7 @@
         <v>43064</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="8">
         <v>390</v>
@@ -1889,7 +1953,7 @@
         <v>43065</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" s="8">
         <v>1490</v>
@@ -1907,7 +1971,7 @@
         <v>43065</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" s="8">
         <v>430</v>
@@ -1925,7 +1989,7 @@
         <v>43066</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="8">
         <v>320</v>
@@ -1943,7 +2007,7 @@
         <v>43072</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" s="8">
         <v>2970</v>
@@ -1961,7 +2025,7 @@
         <v>43072</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" s="8">
         <v>3800</v>
@@ -1979,7 +2043,7 @@
         <v>43086</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C37" s="8">
         <f>17500+400</f>
@@ -1999,7 +2063,7 @@
         <v>43077</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C38" s="8">
         <v>3000</v>
@@ -2017,7 +2081,7 @@
         <v>43085</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C39" s="8">
         <f>2230+420</f>
@@ -2037,7 +2101,7 @@
         <v>43093</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C40" s="8">
         <v>1330</v>
@@ -2055,7 +2119,7 @@
         <v>43095</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C41" s="8">
         <v>4200</v>
@@ -2073,7 +2137,7 @@
         <v>43093</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C42" s="8">
         <v>2289</v>
@@ -2088,7 +2152,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="11">
@@ -2109,25 +2173,25 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C46" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D46" s="35"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I47" s="20"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48" s="13">
         <f>C54-C52+E43</f>
@@ -2138,7 +2202,7 @@
         <v>-2300000</v>
       </c>
       <c r="H48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I48" s="8">
         <v>20000</v>
@@ -2146,13 +2210,13 @@
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" s="8">
         <v>2000000</v>
       </c>
       <c r="H49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I49" s="8">
         <v>12000</v>
@@ -2160,13 +2224,13 @@
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" s="8">
         <v>100000</v>
       </c>
       <c r="H50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I50" s="8">
         <f>520000+1600000</f>
@@ -2175,13 +2239,13 @@
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="8">
         <v>200000</v>
       </c>
       <c r="H51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I51" s="8">
         <v>-18800</v>
@@ -2189,14 +2253,14 @@
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="24">
         <f>SUM(C49:C51)</f>
         <v>2300000</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I52" s="31">
         <f>SUM(I48:I51)</f>
@@ -2205,7 +2269,7 @@
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C53" s="8">
         <f>2750000</f>
@@ -2215,7 +2279,7 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C54" s="22">
         <f>C53-I52-K60</f>
@@ -2224,7 +2288,7 @@
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C55" s="12">
         <f>C53+C43</f>
@@ -2233,15 +2297,15 @@
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C57" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D57" s="33"/>
       <c r="E57" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F57" s="33"/>
       <c r="I57" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J57" s="17"/>
       <c r="K57" s="14">
@@ -2250,22 +2314,22 @@
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="17" t="s">
-        <v>47</v>
-      </c>
       <c r="D58" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J58" s="17"/>
       <c r="K58" s="14">
@@ -2274,7 +2338,7 @@
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C59" s="14">
         <v>7500</v>
@@ -2289,7 +2353,7 @@
         <v>7700</v>
       </c>
       <c r="I59" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J59" s="17"/>
       <c r="K59" s="14">
@@ -2298,7 +2362,7 @@
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C60" s="14">
         <v>674000</v>
@@ -2313,7 +2377,7 @@
         <v>420000</v>
       </c>
       <c r="I60" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J60" s="32"/>
       <c r="K60" s="14">
@@ -2323,7 +2387,7 @@
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C61">
         <v>10.996</v>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="19440" windowHeight="12600"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="19440" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="План помещений" sheetId="1" r:id="rId1"/>
@@ -602,6 +602,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="13"/>
     <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="13" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="14"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="15"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -611,7 +612,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="15"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
@@ -930,7 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -1257,10 +1257,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="33">
         <v>2.7</v>
       </c>
     </row>
@@ -1302,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,14 +1408,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="J3" s="8">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>2109.5890410958905</v>
+        <v>2378.0821917808221</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1812,12 +1812,12 @@
         <v>27000</v>
       </c>
       <c r="D24" s="8">
-        <f>14000+3000+5000</f>
-        <v>22000</v>
+        <f>14000+3000+5000+5000</f>
+        <v>27000</v>
       </c>
       <c r="E24" s="8">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2161,21 +2161,21 @@
       </c>
       <c r="D43" s="11">
         <f>SUM(D3:D42)</f>
-        <v>476800</v>
+        <v>481800</v>
       </c>
       <c r="E43" s="11">
         <f>SUM(E3:E42)</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="35"/>
+      <c r="D46" s="36"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C48" s="13">
         <f>C54-C52+E43</f>
-        <v>-2295000</v>
+        <v>-2300000</v>
       </c>
       <c r="D48" s="13">
         <f>C54-C52</f>
@@ -2296,14 +2296,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="33" t="s">
+      <c r="C57" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33" t="s">
+      <c r="D57" s="34"/>
+      <c r="E57" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="33"/>
+      <c r="F57" s="34"/>
       <c r="I57" s="17" t="s">
         <v>84</v>
       </c>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -1302,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,15 +1407,15 @@
         <v>0</v>
       </c>
       <c r="I3" s="29">
-        <f ca="1">TODAY()-G3</f>
-        <v>62</v>
-      </c>
-      <c r="J3" s="8">
+        <f>G4-G3</f>
+        <v>80</v>
+      </c>
+      <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
-        <f ca="1">J3*K1/365*I3</f>
-        <v>2378.0821917808221</v>
+        <f>J3*K1/365*I3</f>
+        <v>3068.4931506849316</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1435,9 +1435,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="G4" s="6">
+        <v>43139</v>
+      </c>
+      <c r="H4" s="8">
+        <v>-5000</v>
+      </c>
+      <c r="I4" s="29">
+        <f ca="1">TODAY()-G4</f>
+        <v>4</v>
+      </c>
+      <c r="J4" s="14">
+        <v>195000</v>
+      </c>
+      <c r="K4" s="14">
+        <f ca="1">J4*K1/365*I4</f>
+        <v>149.58904109589042</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="19440" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="19440" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="План помещений" sheetId="1" r:id="rId1"/>
     <sheet name="Расходы" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Веранда" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="196">
   <si>
     <t>Помещение</t>
   </si>
@@ -335,17 +335,290 @@
   </si>
   <si>
     <t>Sстены 4(С)</t>
+  </si>
+  <si>
+    <t>Фундамент</t>
+  </si>
+  <si>
+    <t>Наименование работ/материалов</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Разбивочные работы</t>
+  </si>
+  <si>
+    <t>Работа ямобура (4 скважины х 600 руб.)</t>
+  </si>
+  <si>
+    <t>Работа землекопа</t>
+  </si>
+  <si>
+    <t>Устройство щебеночного основания (1 «Камаз» щебня)</t>
+  </si>
+  <si>
+    <t>Работы по устройству основания (15м3 х 50 руб.)</t>
+  </si>
+  <si>
+    <t>Устройство армокаркаса</t>
+  </si>
+  <si>
+    <t>Ф12 213м.п. х 42 руб.</t>
+  </si>
+  <si>
+    <t>Ф6 40м.п. х 16 руб.</t>
+  </si>
+  <si>
+    <t>Вязальная проволока</t>
+  </si>
+  <si>
+    <t>Диск</t>
+  </si>
+  <si>
+    <t>Доставка</t>
+  </si>
+  <si>
+    <t>Устройство опалубки:</t>
+  </si>
+  <si>
+    <t>Доска 0.5м3 х 9000 руб.</t>
+  </si>
+  <si>
+    <t>Гвозди, саморезы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бетонирование 11м3 х 2600 руб. </t>
+  </si>
+  <si>
+    <t>Работа 11м3 х 1500 руб.</t>
+  </si>
+  <si>
+    <t>Итого:</t>
+  </si>
+  <si>
+    <t>Строительство веранды</t>
+  </si>
+  <si>
+    <t>Стены</t>
+  </si>
+  <si>
+    <t>Устройство стен (тамбур)</t>
+  </si>
+  <si>
+    <t>Рубероид рул.</t>
+  </si>
+  <si>
+    <t>Шлакоблок м3</t>
+  </si>
+  <si>
+    <t>Поддоны шт.</t>
+  </si>
+  <si>
+    <t>Сетка арматурная шт.</t>
+  </si>
+  <si>
+    <t>Ерши(арматура)</t>
+  </si>
+  <si>
+    <t>Цемент меш.</t>
+  </si>
+  <si>
+    <t>Песок 1 Камаз</t>
+  </si>
+  <si>
+    <t>Уголок на перемычки 12,4 п.м.</t>
+  </si>
+  <si>
+    <t>Нарезка уголка</t>
+  </si>
+  <si>
+    <t>Доставка сетки, цемент, уголок</t>
+  </si>
+  <si>
+    <t>Покраска уголка</t>
+  </si>
+  <si>
+    <t>Монтаж уголка</t>
+  </si>
+  <si>
+    <t>Кладка шлакоблока (работа) 19х450</t>
+  </si>
+  <si>
+    <t>Резка пенопласта, сверление и забивка ершей</t>
+  </si>
+  <si>
+    <t>Доска 50х200х6000 5шт.
+Доска 30х200х6000 11шт.
+Итого 0,3+0,4=0,7м3</t>
+  </si>
+  <si>
+    <t>Пропитка антисептик</t>
+  </si>
+  <si>
+    <t>Саморезы</t>
+  </si>
+  <si>
+    <t>Пленка 1 рул.</t>
+  </si>
+  <si>
+    <t>Скрепки</t>
+  </si>
+  <si>
+    <t>Работа 11м2х500</t>
+  </si>
+  <si>
+    <t>Утеплитель</t>
+  </si>
+  <si>
+    <t>2м3х1200</t>
+  </si>
+  <si>
+    <t>Песок есть</t>
+  </si>
+  <si>
+    <t>Цемент 4 меш.</t>
+  </si>
+  <si>
+    <t>Штукатурка внутренняя(черновая) S=19м2</t>
+  </si>
+  <si>
+    <t>Маяки 11х50</t>
+  </si>
+  <si>
+    <t>Ротбанд</t>
+  </si>
+  <si>
+    <t>Работа 11х100р.</t>
+  </si>
+  <si>
+    <t>Кровля</t>
+  </si>
+  <si>
+    <t>Кровля:</t>
+  </si>
+  <si>
+    <t>Доска 11,1м2</t>
+  </si>
+  <si>
+    <t>Проволока</t>
+  </si>
+  <si>
+    <t>Уголки 50х50</t>
+  </si>
+  <si>
+    <t>Саморезы, гвозди</t>
+  </si>
+  <si>
+    <t>Пленка, скрепки от потолка</t>
+  </si>
+  <si>
+    <t>Металлочерепица 34м2х250р</t>
+  </si>
+  <si>
+    <t>Конек круглый 10мх300р.</t>
+  </si>
+  <si>
+    <t>Уплотнитель 20мх100р.</t>
+  </si>
+  <si>
+    <t>Профиль пристенный нижний и верхний 16мх300р.</t>
+  </si>
+  <si>
+    <t>Заглушки конька 2х300р.</t>
+  </si>
+  <si>
+    <t>Саморезы кровельные 500шт.х2.5р</t>
+  </si>
+  <si>
+    <t>Профлист 5л.х600р.</t>
+  </si>
+  <si>
+    <t>Угол 8х2м = 16мх80р.</t>
+  </si>
+  <si>
+    <t>Gпрофиль 16мх100р.</t>
+  </si>
+  <si>
+    <t>Упаковка</t>
+  </si>
+  <si>
+    <t>Работа кровля 22Х600р.</t>
+  </si>
+  <si>
+    <t>Установка конька, профиля пристенного 17мх200р.</t>
+  </si>
+  <si>
+    <t>Карнизы установка 12х500р.</t>
+  </si>
+  <si>
+    <t>Отделка наружняя:</t>
+  </si>
+  <si>
+    <t>Устройство потолка:</t>
+  </si>
+  <si>
+    <t>Пенопласт фасадн.100мм</t>
+  </si>
+  <si>
+    <t>Дюбель-гвоздь</t>
+  </si>
+  <si>
+    <t>Уголок пластиковый</t>
+  </si>
+  <si>
+    <t>Профиль оконный</t>
+  </si>
+  <si>
+    <t>Клей 130кг</t>
+  </si>
+  <si>
+    <t>Сетка 1рул.</t>
+  </si>
+  <si>
+    <t>Скотч малярный</t>
+  </si>
+  <si>
+    <t>Грунтовка 1ведро</t>
+  </si>
+  <si>
+    <t>Короед 3 меш.х800</t>
+  </si>
+  <si>
+    <t>Краска</t>
+  </si>
+  <si>
+    <t>Работа</t>
+  </si>
+  <si>
+    <t>Работа 26мх600р.</t>
+  </si>
+  <si>
+    <t>Откосы работа 8х250р</t>
+  </si>
+  <si>
+    <t>Всего</t>
+  </si>
+  <si>
+    <t>Материал</t>
+  </si>
+  <si>
+    <t>Отделка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,8 +687,79 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,8 +834,30 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -543,8 +909,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -561,8 +966,12 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -612,21 +1021,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="16"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="6" xfId="17"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="15" borderId="6" xfId="17" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="19"/>
+    <xf numFmtId="165" fontId="5" fillId="17" borderId="0" xfId="19" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="8" fillId="14" borderId="5" xfId="16" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="5" fillId="17" borderId="0" xfId="19" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="19" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="6" xfId="17" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="19" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="18"/>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="20">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
     <cellStyle name="20% - Акцент3" xfId="11" builtinId="38"/>
+    <cellStyle name="20% - Акцент4" xfId="19" builtinId="42"/>
     <cellStyle name="20% - Акцент6" xfId="8" builtinId="50"/>
     <cellStyle name="40% - Акцент1" xfId="9" builtinId="31"/>
     <cellStyle name="40% - Акцент2" xfId="14" builtinId="35"/>
+    <cellStyle name="40% - Акцент3" xfId="18" builtinId="39"/>
     <cellStyle name="60% - Акцент2" xfId="6" builtinId="36"/>
     <cellStyle name="60% - Акцент3" xfId="7" builtinId="40"/>
     <cellStyle name="60% - Акцент4" xfId="4" builtinId="44"/>
     <cellStyle name="Акцент1" xfId="3" builtinId="29"/>
     <cellStyle name="Акцент2" xfId="10" builtinId="33"/>
     <cellStyle name="Акцент3" xfId="13" builtinId="37"/>
+    <cellStyle name="Вычисление" xfId="16" builtinId="22"/>
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
     <cellStyle name="Заголовок 2" xfId="2" builtinId="17"/>
+    <cellStyle name="Контрольная ячейка" xfId="17" builtinId="23"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="12" builtinId="5"/>
     <cellStyle name="Хороший" xfId="15" builtinId="26"/>
@@ -1302,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,14 +1899,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="J4" s="14">
         <v>195000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*K1/365*I4</f>
-        <v>149.58904109589042</v>
+        <v>2356.027397260274</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2429,12 +2885,1500 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14">
+        <v>500</v>
+      </c>
+      <c r="D3" s="14">
+        <f>B3*C3</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="14">
+        <v>600</v>
+      </c>
+      <c r="D4" s="14">
+        <f>B4*C4</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="14">
+        <f>B5*C5</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <v>5000</v>
+      </c>
+      <c r="D6" s="14">
+        <f t="shared" ref="D6:D19" si="0">B6*C6</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>750</v>
+      </c>
+      <c r="D7" s="14">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9">
+        <v>213</v>
+      </c>
+      <c r="C9" s="14">
+        <v>42</v>
+      </c>
+      <c r="D9" s="14">
+        <f t="shared" si="0"/>
+        <v>8946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+      <c r="C10" s="14">
+        <v>16</v>
+      </c>
+      <c r="D10" s="14">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14">
+        <v>300</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14">
+        <v>100</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14">
+        <v>500</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="14">
+        <v>9000</v>
+      </c>
+      <c r="D15" s="14">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="14">
+        <v>300</v>
+      </c>
+      <c r="D16" s="14">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="14">
+        <v>500</v>
+      </c>
+      <c r="D17" s="14">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18" s="14">
+        <v>2600</v>
+      </c>
+      <c r="D18" s="14">
+        <f t="shared" si="0"/>
+        <v>28600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D19" s="14">
+        <f t="shared" si="0"/>
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="47"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52">
+        <f>SUM(D3:D19)</f>
+        <v>70536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="14">
+        <f>D40</f>
+        <v>35184.800000000003</v>
+      </c>
+      <c r="H23" s="14">
+        <f>SUM(D36:D39)</f>
+        <v>10950</v>
+      </c>
+      <c r="I23" s="14">
+        <f>G23-H23</f>
+        <v>24234.800000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="F24" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="14">
+        <f>D60</f>
+        <v>25130</v>
+      </c>
+      <c r="H24" s="14">
+        <f>SUM(D49,D53,D59)</f>
+        <v>11350</v>
+      </c>
+      <c r="I24" s="14">
+        <f>G24-H24</f>
+        <v>13780</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="14">
+        <v>400</v>
+      </c>
+      <c r="D25" s="14">
+        <f>B25*C25</f>
+        <v>400</v>
+      </c>
+      <c r="F25" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="14">
+        <f>D82</f>
+        <v>65780</v>
+      </c>
+      <c r="H25" s="14">
+        <f>SUM(D79:D81)</f>
+        <v>23100</v>
+      </c>
+      <c r="I25" s="14">
+        <f>G25-H25</f>
+        <v>42680</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26">
+        <v>4.32</v>
+      </c>
+      <c r="C26" s="14">
+        <v>1640</v>
+      </c>
+      <c r="D26" s="14">
+        <f>B26*C26</f>
+        <v>7084.8</v>
+      </c>
+      <c r="F26" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" s="14">
+        <f>D98</f>
+        <v>37890</v>
+      </c>
+      <c r="H26" s="14">
+        <f>SUM(D96:D97)</f>
+        <v>17600</v>
+      </c>
+      <c r="I26" s="14">
+        <f>G26-H26</f>
+        <v>20290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" s="14">
+        <v>250</v>
+      </c>
+      <c r="D27" s="14">
+        <f t="shared" ref="D27:D60" si="1">B27*C27</f>
+        <v>750</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" s="57">
+        <f>SUM(G23:G26)</f>
+        <v>163984.79999999999</v>
+      </c>
+      <c r="H27" s="57">
+        <f>SUM(H23:H26)</f>
+        <v>63000</v>
+      </c>
+      <c r="I27" s="57">
+        <f>SUM(I23:I26)</f>
+        <v>100984.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="14">
+        <v>2500</v>
+      </c>
+      <c r="D28" s="14">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" s="14">
+        <v>200</v>
+      </c>
+      <c r="D29" s="14">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="14">
+        <v>200</v>
+      </c>
+      <c r="D30" s="14">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31" s="14">
+        <v>220</v>
+      </c>
+      <c r="D31" s="14">
+        <f t="shared" si="1"/>
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="14">
+        <v>6000</v>
+      </c>
+      <c r="D32" s="14">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33">
+        <v>12.4</v>
+      </c>
+      <c r="C33" s="14">
+        <v>350</v>
+      </c>
+      <c r="D33" s="14">
+        <f t="shared" si="1"/>
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="14">
+        <v>100</v>
+      </c>
+      <c r="D34" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="14">
+        <v>500</v>
+      </c>
+      <c r="D35" s="14">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="55">
+        <v>1</v>
+      </c>
+      <c r="C36" s="56">
+        <v>500</v>
+      </c>
+      <c r="D36" s="56">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="55">
+        <v>1</v>
+      </c>
+      <c r="C37" s="56">
+        <v>900</v>
+      </c>
+      <c r="D37" s="56">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="55">
+        <v>19</v>
+      </c>
+      <c r="C38" s="56">
+        <v>450</v>
+      </c>
+      <c r="D38" s="56">
+        <f t="shared" si="1"/>
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="55">
+        <v>1</v>
+      </c>
+      <c r="C39" s="56">
+        <v>1000</v>
+      </c>
+      <c r="D39" s="56">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="52">
+        <f>SUM(D25:D39)</f>
+        <v>35184.800000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+    </row>
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42">
+        <v>0.7</v>
+      </c>
+      <c r="C42" s="54">
+        <v>8500</v>
+      </c>
+      <c r="D42" s="14">
+        <f t="shared" si="1"/>
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" s="54">
+        <v>500</v>
+      </c>
+      <c r="D43" s="14">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="54">
+        <v>1000</v>
+      </c>
+      <c r="D44" s="14">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" s="54">
+        <v>500</v>
+      </c>
+      <c r="D45" s="14">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="54">
+        <v>1000</v>
+      </c>
+      <c r="D46" s="14">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="54">
+        <v>100</v>
+      </c>
+      <c r="D47" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="54">
+        <v>200</v>
+      </c>
+      <c r="D48" s="14">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="55">
+        <v>11</v>
+      </c>
+      <c r="C49" s="58">
+        <v>500</v>
+      </c>
+      <c r="D49" s="56">
+        <f t="shared" si="1"/>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" s="54">
+        <v>1200</v>
+      </c>
+      <c r="D51" s="14">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" s="54">
+        <v>300</v>
+      </c>
+      <c r="D52" s="14">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="55">
+        <v>11</v>
+      </c>
+      <c r="C53" s="58">
+        <v>100</v>
+      </c>
+      <c r="D53" s="56">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" s="54">
+        <v>0</v>
+      </c>
+      <c r="D55" s="14">
+        <f>B55*C55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" s="54">
+        <v>220</v>
+      </c>
+      <c r="D56" s="14">
+        <f>B56*C56</f>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57">
+        <v>11</v>
+      </c>
+      <c r="C57" s="54">
+        <v>50</v>
+      </c>
+      <c r="D57" s="14">
+        <f>B57*C57</f>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" s="54">
+        <v>400</v>
+      </c>
+      <c r="D58" s="14">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="55">
+        <v>19</v>
+      </c>
+      <c r="C59" s="58">
+        <v>250</v>
+      </c>
+      <c r="D59" s="56">
+        <f t="shared" si="1"/>
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="47"/>
+      <c r="C60" s="52">
+        <v>0</v>
+      </c>
+      <c r="D60" s="52">
+        <f>SUM(D55:D59)+SUM(D51:D53)+SUM(D42:D49)</f>
+        <v>25130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="61" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" s="62">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C62" s="14">
+        <v>8500</v>
+      </c>
+      <c r="D62" s="14">
+        <f>B62*C62</f>
+        <v>9350</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="62">
+        <v>1</v>
+      </c>
+      <c r="C63" s="14">
+        <v>500</v>
+      </c>
+      <c r="D63" s="14">
+        <f>B63*C63</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>161</v>
+      </c>
+      <c r="B64" s="62">
+        <v>1</v>
+      </c>
+      <c r="C64" s="14">
+        <v>300</v>
+      </c>
+      <c r="D64" s="14">
+        <f t="shared" ref="D64:D101" si="2">B64*C64</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" s="62">
+        <v>50</v>
+      </c>
+      <c r="C65" s="14">
+        <v>50</v>
+      </c>
+      <c r="D65" s="14">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" s="62">
+        <v>1</v>
+      </c>
+      <c r="C66" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D66" s="14">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" s="62">
+        <v>0</v>
+      </c>
+      <c r="C67" s="14">
+        <v>0</v>
+      </c>
+      <c r="D67" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" s="62">
+        <v>34</v>
+      </c>
+      <c r="C68" s="14">
+        <v>250</v>
+      </c>
+      <c r="D68" s="14">
+        <f t="shared" si="2"/>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>166</v>
+      </c>
+      <c r="B69" s="62">
+        <v>10</v>
+      </c>
+      <c r="C69" s="14">
+        <v>300</v>
+      </c>
+      <c r="D69" s="14">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" s="62">
+        <v>20</v>
+      </c>
+      <c r="C70" s="14">
+        <v>100</v>
+      </c>
+      <c r="D70" s="14">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>168</v>
+      </c>
+      <c r="B71" s="62">
+        <v>16</v>
+      </c>
+      <c r="C71" s="14">
+        <v>300</v>
+      </c>
+      <c r="D71" s="14">
+        <f t="shared" si="2"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>169</v>
+      </c>
+      <c r="B72" s="62">
+        <v>2</v>
+      </c>
+      <c r="C72" s="14">
+        <v>300</v>
+      </c>
+      <c r="D72" s="14">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>170</v>
+      </c>
+      <c r="B73" s="62">
+        <v>500</v>
+      </c>
+      <c r="C73" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="D73" s="14">
+        <f t="shared" si="2"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>171</v>
+      </c>
+      <c r="B74" s="62">
+        <v>5</v>
+      </c>
+      <c r="C74" s="14">
+        <v>600</v>
+      </c>
+      <c r="D74" s="14">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>172</v>
+      </c>
+      <c r="B75" s="62">
+        <v>16</v>
+      </c>
+      <c r="C75" s="14">
+        <v>80</v>
+      </c>
+      <c r="D75" s="14">
+        <f t="shared" si="2"/>
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>173</v>
+      </c>
+      <c r="B76" s="62">
+        <v>16</v>
+      </c>
+      <c r="C76" s="14">
+        <v>100</v>
+      </c>
+      <c r="D76" s="14">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>174</v>
+      </c>
+      <c r="B77" s="62">
+        <v>1</v>
+      </c>
+      <c r="C77" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D77" s="14">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>120</v>
+      </c>
+      <c r="B78" s="62">
+        <v>1</v>
+      </c>
+      <c r="C78" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D78" s="14">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" s="64">
+        <v>22</v>
+      </c>
+      <c r="C79" s="56">
+        <v>600</v>
+      </c>
+      <c r="D79" s="56">
+        <f t="shared" si="2"/>
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="B80" s="64">
+        <v>17</v>
+      </c>
+      <c r="C80" s="56">
+        <v>200</v>
+      </c>
+      <c r="D80" s="56">
+        <f t="shared" si="2"/>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="B81" s="64">
+        <v>13</v>
+      </c>
+      <c r="C81" s="56">
+        <v>500</v>
+      </c>
+      <c r="D81" s="56">
+        <f t="shared" si="2"/>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B82" s="63">
+        <v>0</v>
+      </c>
+      <c r="C82" s="52">
+        <v>0</v>
+      </c>
+      <c r="D82" s="52">
+        <f>SUM(D62:D81)</f>
+        <v>65780</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" s="65"/>
+      <c r="C83" s="65"/>
+      <c r="D83" s="65"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84">
+        <v>13</v>
+      </c>
+      <c r="C84" s="14">
+        <v>450</v>
+      </c>
+      <c r="D84" s="56">
+        <f t="shared" si="2"/>
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" s="14">
+        <v>500</v>
+      </c>
+      <c r="D85" s="14">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>181</v>
+      </c>
+      <c r="B86">
+        <v>100</v>
+      </c>
+      <c r="C86" s="14">
+        <v>6</v>
+      </c>
+      <c r="D86" s="14">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>182</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87" s="14">
+        <v>60</v>
+      </c>
+      <c r="D87" s="14">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>183</v>
+      </c>
+      <c r="B88">
+        <v>7</v>
+      </c>
+      <c r="C88" s="14">
+        <v>120</v>
+      </c>
+      <c r="D88" s="14">
+        <f t="shared" si="2"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>184</v>
+      </c>
+      <c r="B89">
+        <v>6</v>
+      </c>
+      <c r="C89" s="14">
+        <v>550</v>
+      </c>
+      <c r="D89" s="14">
+        <f t="shared" si="2"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>185</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" s="14">
+        <v>1600</v>
+      </c>
+      <c r="D90" s="14">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>186</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" s="14">
+        <v>100</v>
+      </c>
+      <c r="D91" s="14">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>187</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D92" s="14">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>188</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93" s="14">
+        <v>800</v>
+      </c>
+      <c r="D93" s="14">
+        <f t="shared" si="2"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" s="14">
+        <v>3000</v>
+      </c>
+      <c r="D94" s="14">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" s="14">
+        <v>500</v>
+      </c>
+      <c r="D95" s="14">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96" s="55">
+        <v>26</v>
+      </c>
+      <c r="C96" s="56">
+        <v>600</v>
+      </c>
+      <c r="D96" s="56">
+        <f t="shared" si="2"/>
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="55">
+        <v>8</v>
+      </c>
+      <c r="C97" s="56">
+        <v>250</v>
+      </c>
+      <c r="D97" s="56">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98" s="47"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="52">
+        <f>SUM(D84:D97)</f>
+        <v>37890</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A50:D50"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="197">
   <si>
     <t>Помещение</t>
   </si>
@@ -428,9 +428,6 @@
   </si>
   <si>
     <t>Песок 1 Камаз</t>
-  </si>
-  <si>
-    <t>Уголок на перемычки 12,4 п.м.</t>
   </si>
   <si>
     <t>Нарезка уголка</t>
@@ -501,9 +498,6 @@
     <t>Кровля:</t>
   </si>
   <si>
-    <t>Доска 11,1м2</t>
-  </si>
-  <si>
     <t>Проволока</t>
   </si>
   <si>
@@ -561,9 +555,6 @@
     <t>Устройство потолка:</t>
   </si>
   <si>
-    <t>Пенопласт фасадн.100мм</t>
-  </si>
-  <si>
     <t>Дюбель-гвоздь</t>
   </si>
   <si>
@@ -607,6 +598,18 @@
   </si>
   <si>
     <t>Отделка</t>
+  </si>
+  <si>
+    <t>Доска 50x150x6000 1,1м2</t>
+  </si>
+  <si>
+    <t>Пенопласт фасадн.Ф25 100мм</t>
+  </si>
+  <si>
+    <t>Уголок 75х75 на перемычки 12,4 п.м.</t>
+  </si>
+  <si>
+    <t>Работа 19м2</t>
   </si>
 </sst>
 </file>
@@ -614,9 +617,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00&quot;р.&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -981,26 +984,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="10"/>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="0" xfId="10" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="11"/>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="11" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="5" fillId="10" borderId="0" xfId="11" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="12" applyFont="1"/>
@@ -1009,19 +1012,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="13"/>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="13" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="11" borderId="0" xfId="13" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="14"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="15"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
@@ -1035,9 +1028,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="16"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="6" xfId="17"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1045,25 +1035,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="15" borderId="6" xfId="17" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="15" borderId="6" xfId="17" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="19"/>
-    <xf numFmtId="165" fontId="5" fillId="17" borderId="0" xfId="19" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="8" fillId="14" borderId="5" xfId="16" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="5" fillId="17" borderId="0" xfId="19" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="5" fillId="17" borderId="0" xfId="19" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="8" fillId="14" borderId="5" xfId="16" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="5" fillId="17" borderId="0" xfId="19" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="19" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="6" xfId="17" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="19" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="18"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
@@ -2642,10 +2645,10 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="36"/>
+      <c r="D46" s="59"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
@@ -2766,14 +2769,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34" t="s">
+      <c r="D57" s="57"/>
+      <c r="E57" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="34"/>
+      <c r="F57" s="57"/>
       <c r="I57" s="17" t="s">
         <v>84</v>
       </c>
@@ -2887,8 +2890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2903,17 +2906,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -2930,7 +2933,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="35" t="s">
         <v>110</v>
       </c>
       <c r="B3">
@@ -2945,7 +2948,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="35" t="s">
         <v>111</v>
       </c>
       <c r="B4">
@@ -2960,7 +2963,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="35" t="s">
         <v>112</v>
       </c>
       <c r="B5">
@@ -2975,7 +2978,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="36" t="s">
         <v>113</v>
       </c>
       <c r="B6">
@@ -2990,7 +2993,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="38" t="s">
         <v>114</v>
       </c>
       <c r="B7">
@@ -3005,15 +3008,15 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="37" t="s">
         <v>116</v>
       </c>
       <c r="B9">
@@ -3028,7 +3031,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="37" t="s">
         <v>117</v>
       </c>
       <c r="B10">
@@ -3043,7 +3046,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="34" t="s">
         <v>118</v>
       </c>
       <c r="B11">
@@ -3058,7 +3061,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="34" t="s">
         <v>119</v>
       </c>
       <c r="B12">
@@ -3073,7 +3076,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="34" t="s">
         <v>120</v>
       </c>
       <c r="B13">
@@ -3088,15 +3091,15 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="34" t="s">
         <v>122</v>
       </c>
       <c r="B15">
@@ -3111,7 +3114,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="34" t="s">
         <v>123</v>
       </c>
       <c r="B16">
@@ -3126,7 +3129,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="34" t="s">
         <v>120</v>
       </c>
       <c r="B17">
@@ -3141,7 +3144,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="34" t="s">
         <v>124</v>
       </c>
       <c r="B18">
@@ -3156,7 +3159,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="34" t="s">
         <v>125</v>
       </c>
       <c r="B19">
@@ -3171,30 +3174,30 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52">
+      <c r="B20" s="40"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44">
         <f>SUM(D3:D19)</f>
         <v>70536</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="43" t="s">
         <v>127</v>
       </c>
       <c r="F22" s="20"/>
-      <c r="G22" s="66" t="s">
+      <c r="G22" s="55" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3210,7 +3213,7 @@
       <c r="D23" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="67" t="s">
+      <c r="F23" s="56" t="s">
         <v>128</v>
       </c>
       <c r="G23" s="14">
@@ -3227,13 +3230,13 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="F24" s="67" t="s">
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="F24" s="56" t="s">
         <v>56</v>
       </c>
       <c r="G24" s="14">
@@ -3263,8 +3266,8 @@
         <f>B25*C25</f>
         <v>400</v>
       </c>
-      <c r="F25" s="67" t="s">
-        <v>158</v>
+      <c r="F25" s="56" t="s">
+        <v>157</v>
       </c>
       <c r="G25" s="14">
         <f>D82</f>
@@ -3293,8 +3296,8 @@
         <f>B26*C26</f>
         <v>7084.8</v>
       </c>
-      <c r="F26" s="67" t="s">
-        <v>195</v>
+      <c r="F26" s="56" t="s">
+        <v>192</v>
       </c>
       <c r="G26" s="14">
         <f>D98</f>
@@ -3320,21 +3323,21 @@
         <v>250</v>
       </c>
       <c r="D27" s="14">
-        <f t="shared" ref="D27:D60" si="1">B27*C27</f>
+        <f t="shared" ref="D27:D59" si="1">B27*C27</f>
         <v>750</v>
       </c>
-      <c r="F27" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="G27" s="57">
+      <c r="F27" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" s="48">
         <f>SUM(G23:G26)</f>
         <v>163984.79999999999</v>
       </c>
-      <c r="H27" s="57">
+      <c r="H27" s="48">
         <f>SUM(H23:H26)</f>
         <v>63000</v>
       </c>
-      <c r="I27" s="57">
+      <c r="I27" s="48">
         <f>SUM(I23:I26)</f>
         <v>100984.8</v>
       </c>
@@ -3416,7 +3419,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="B33">
         <v>12.4</v>
@@ -3431,7 +3434,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3446,7 +3449,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3460,92 +3463,92 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="46">
+        <v>1</v>
+      </c>
+      <c r="C36" s="47">
+        <v>500</v>
+      </c>
+      <c r="D36" s="47">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="B36" s="55">
+      <c r="B37" s="46">
         <v>1</v>
       </c>
-      <c r="C36" s="56">
-        <v>500</v>
-      </c>
-      <c r="D36" s="56">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="55" t="s">
+      <c r="C37" s="47">
+        <v>900</v>
+      </c>
+      <c r="D37" s="47">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="B37" s="55">
+      <c r="B38" s="46">
+        <v>19</v>
+      </c>
+      <c r="C38" s="47">
+        <v>450</v>
+      </c>
+      <c r="D38" s="47">
+        <f t="shared" si="1"/>
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="46">
         <v>1</v>
       </c>
-      <c r="C37" s="56">
-        <v>900</v>
-      </c>
-      <c r="D37" s="56">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="B38" s="55">
-        <v>19</v>
-      </c>
-      <c r="C38" s="56">
-        <v>450</v>
-      </c>
-      <c r="D38" s="56">
-        <f t="shared" si="1"/>
-        <v>8550</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="55">
-        <v>1</v>
-      </c>
-      <c r="C39" s="56">
+      <c r="C39" s="47">
         <v>1000</v>
       </c>
-      <c r="D39" s="56">
+      <c r="D39" s="47">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="52">
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="44">
         <f>SUM(D25:D39)</f>
         <v>35184.800000000003</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
+      <c r="A41" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B42">
         <v>0.7</v>
       </c>
-      <c r="C42" s="54">
+      <c r="C42" s="45">
         <v>8500</v>
       </c>
       <c r="D42" s="14">
@@ -3560,7 +3563,7 @@
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" s="54">
+      <c r="C43" s="45">
         <v>500</v>
       </c>
       <c r="D43" s="14">
@@ -3570,12 +3573,12 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44" s="54">
+      <c r="C44" s="45">
         <v>1000</v>
       </c>
       <c r="D44" s="14">
@@ -3585,12 +3588,12 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" s="54">
+      <c r="C45" s="45">
         <v>500</v>
       </c>
       <c r="D45" s="14">
@@ -3600,12 +3603,12 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-      <c r="C46" s="54">
+      <c r="C46" s="45">
         <v>1000</v>
       </c>
       <c r="D46" s="14">
@@ -3615,12 +3618,12 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-      <c r="C47" s="54">
+      <c r="C47" s="45">
         <v>100</v>
       </c>
       <c r="D47" s="14">
@@ -3635,7 +3638,7 @@
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" s="54">
+      <c r="C48" s="45">
         <v>200</v>
       </c>
       <c r="D48" s="14">
@@ -3644,36 +3647,36 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="55" t="s">
+      <c r="A49" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="46">
+        <v>11</v>
+      </c>
+      <c r="C49" s="49">
+        <v>500</v>
+      </c>
+      <c r="D49" s="47">
+        <f t="shared" si="1"/>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="B49" s="55">
-        <v>11</v>
-      </c>
-      <c r="C49" s="58">
-        <v>500</v>
-      </c>
-      <c r="D49" s="56">
-        <f t="shared" si="1"/>
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
-      <c r="C51" s="54">
+      <c r="C51" s="45">
         <v>1200</v>
       </c>
       <c r="D51" s="14">
@@ -3688,7 +3691,7 @@
       <c r="B52">
         <v>1</v>
       </c>
-      <c r="C52" s="54">
+      <c r="C52" s="45">
         <v>300</v>
       </c>
       <c r="D52" s="14">
@@ -3697,36 +3700,36 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="B53" s="55">
+      <c r="A53" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="46">
         <v>11</v>
       </c>
-      <c r="C53" s="58">
+      <c r="C53" s="49">
         <v>100</v>
       </c>
-      <c r="D53" s="56">
+      <c r="D53" s="47">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
+      <c r="A54" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="61"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
-      <c r="C55" s="54">
+      <c r="C55" s="45">
         <v>0</v>
       </c>
       <c r="D55" s="14">
@@ -3736,12 +3739,12 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B56">
         <v>4</v>
       </c>
-      <c r="C56" s="54">
+      <c r="C56" s="45">
         <v>220</v>
       </c>
       <c r="D56" s="14">
@@ -3751,12 +3754,12 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B57">
         <v>11</v>
       </c>
-      <c r="C57" s="54">
+      <c r="C57" s="45">
         <v>50</v>
       </c>
       <c r="D57" s="14">
@@ -3766,12 +3769,12 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
-      <c r="C58" s="54">
+      <c r="C58" s="45">
         <v>400</v>
       </c>
       <c r="D58" s="14">
@@ -3780,43 +3783,43 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="55">
+      <c r="A59" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="B59" s="46">
         <v>19</v>
       </c>
-      <c r="C59" s="58">
+      <c r="C59" s="49">
         <v>250</v>
       </c>
-      <c r="D59" s="56">
+      <c r="D59" s="47">
         <f t="shared" si="1"/>
         <v>4750</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="47" t="s">
+      <c r="A60" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="47"/>
-      <c r="C60" s="52">
-        <v>0</v>
-      </c>
-      <c r="D60" s="52">
+      <c r="B60" s="40"/>
+      <c r="C60" s="44">
+        <v>0</v>
+      </c>
+      <c r="D60" s="44">
         <f>SUM(D55:D59)+SUM(D51:D53)+SUM(D42:D49)</f>
         <v>25130</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="61" t="s">
-        <v>159</v>
+      <c r="A61" s="51" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>160</v>
-      </c>
-      <c r="B62" s="62">
+        <v>193</v>
+      </c>
+      <c r="B62" s="52">
         <v>1.1000000000000001</v>
       </c>
       <c r="C62" s="14">
@@ -3828,10 +3831,10 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="62" t="s">
+      <c r="A63" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="B63" s="62">
+      <c r="B63" s="52">
         <v>1</v>
       </c>
       <c r="C63" s="14">
@@ -3844,24 +3847,24 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>161</v>
-      </c>
-      <c r="B64" s="62">
+        <v>159</v>
+      </c>
+      <c r="B64" s="52">
         <v>1</v>
       </c>
       <c r="C64" s="14">
         <v>300</v>
       </c>
       <c r="D64" s="14">
-        <f t="shared" ref="D64:D101" si="2">B64*C64</f>
+        <f t="shared" ref="D64:D97" si="2">B64*C64</f>
         <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>162</v>
-      </c>
-      <c r="B65" s="62">
+        <v>160</v>
+      </c>
+      <c r="B65" s="52">
         <v>50</v>
       </c>
       <c r="C65" s="14">
@@ -3874,9 +3877,9 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>163</v>
-      </c>
-      <c r="B66" s="62">
+        <v>161</v>
+      </c>
+      <c r="B66" s="52">
         <v>1</v>
       </c>
       <c r="C66" s="14">
@@ -3889,9 +3892,9 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>164</v>
-      </c>
-      <c r="B67" s="62">
+        <v>162</v>
+      </c>
+      <c r="B67" s="52">
         <v>0</v>
       </c>
       <c r="C67" s="14">
@@ -3904,9 +3907,9 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>165</v>
-      </c>
-      <c r="B68" s="62">
+        <v>163</v>
+      </c>
+      <c r="B68" s="52">
         <v>34</v>
       </c>
       <c r="C68" s="14">
@@ -3919,9 +3922,9 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>166</v>
-      </c>
-      <c r="B69" s="62">
+        <v>164</v>
+      </c>
+      <c r="B69" s="52">
         <v>10</v>
       </c>
       <c r="C69" s="14">
@@ -3934,9 +3937,9 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>167</v>
-      </c>
-      <c r="B70" s="62">
+        <v>165</v>
+      </c>
+      <c r="B70" s="52">
         <v>20</v>
       </c>
       <c r="C70" s="14">
@@ -3949,9 +3952,9 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>168</v>
-      </c>
-      <c r="B71" s="62">
+        <v>166</v>
+      </c>
+      <c r="B71" s="52">
         <v>16</v>
       </c>
       <c r="C71" s="14">
@@ -3964,9 +3967,9 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>169</v>
-      </c>
-      <c r="B72" s="62">
+        <v>167</v>
+      </c>
+      <c r="B72" s="52">
         <v>2</v>
       </c>
       <c r="C72" s="14">
@@ -3979,9 +3982,9 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>170</v>
-      </c>
-      <c r="B73" s="62">
+        <v>168</v>
+      </c>
+      <c r="B73" s="52">
         <v>500</v>
       </c>
       <c r="C73" s="14">
@@ -3994,9 +3997,9 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>171</v>
-      </c>
-      <c r="B74" s="62">
+        <v>169</v>
+      </c>
+      <c r="B74" s="52">
         <v>5</v>
       </c>
       <c r="C74" s="14">
@@ -4009,9 +4012,9 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>172</v>
-      </c>
-      <c r="B75" s="62">
+        <v>170</v>
+      </c>
+      <c r="B75" s="52">
         <v>16</v>
       </c>
       <c r="C75" s="14">
@@ -4024,9 +4027,9 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>173</v>
-      </c>
-      <c r="B76" s="62">
+        <v>171</v>
+      </c>
+      <c r="B76" s="52">
         <v>16</v>
       </c>
       <c r="C76" s="14">
@@ -4039,9 +4042,9 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>174</v>
-      </c>
-      <c r="B77" s="62">
+        <v>172</v>
+      </c>
+      <c r="B77" s="52">
         <v>1</v>
       </c>
       <c r="C77" s="14">
@@ -4056,7 +4059,7 @@
       <c r="A78" t="s">
         <v>120</v>
       </c>
-      <c r="B78" s="62">
+      <c r="B78" s="52">
         <v>1</v>
       </c>
       <c r="C78" s="14">
@@ -4068,76 +4071,76 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="B79" s="64">
+      <c r="A79" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="B79" s="54">
         <v>22</v>
       </c>
-      <c r="C79" s="56">
+      <c r="C79" s="47">
         <v>600</v>
       </c>
-      <c r="D79" s="56">
+      <c r="D79" s="47">
         <f t="shared" si="2"/>
         <v>13200</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="B80" s="64">
+      <c r="A80" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="B80" s="54">
         <v>17</v>
       </c>
-      <c r="C80" s="56">
+      <c r="C80" s="47">
         <v>200</v>
       </c>
-      <c r="D80" s="56">
+      <c r="D80" s="47">
         <f t="shared" si="2"/>
         <v>3400</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="B81" s="64">
+      <c r="A81" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="B81" s="54">
         <v>13</v>
       </c>
-      <c r="C81" s="56">
+      <c r="C81" s="47">
         <v>500</v>
       </c>
-      <c r="D81" s="56">
+      <c r="D81" s="47">
         <f t="shared" si="2"/>
         <v>6500</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="47" t="s">
+      <c r="A82" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="B82" s="63">
-        <v>0</v>
-      </c>
-      <c r="C82" s="52">
-        <v>0</v>
-      </c>
-      <c r="D82" s="52">
+      <c r="B82" s="53">
+        <v>0</v>
+      </c>
+      <c r="C82" s="44">
+        <v>0</v>
+      </c>
+      <c r="D82" s="44">
         <f>SUM(D62:D81)</f>
         <v>65780</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
+      <c r="A83" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="B83" s="62"/>
+      <c r="C83" s="62"/>
+      <c r="D83" s="62"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="B84">
         <v>13</v>
@@ -4145,7 +4148,7 @@
       <c r="C84" s="14">
         <v>450</v>
       </c>
-      <c r="D84" s="56">
+      <c r="D84" s="8">
         <f t="shared" si="2"/>
         <v>5850</v>
       </c>
@@ -4167,7 +4170,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B86">
         <v>100</v>
@@ -4182,7 +4185,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B87">
         <v>10</v>
@@ -4197,7 +4200,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B88">
         <v>7</v>
@@ -4212,7 +4215,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B89">
         <v>6</v>
@@ -4227,7 +4230,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -4242,7 +4245,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -4257,7 +4260,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -4272,7 +4275,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -4287,7 +4290,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -4316,42 +4319,42 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="B96" s="55">
+      <c r="A96" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" s="46">
         <v>26</v>
       </c>
-      <c r="C96" s="56">
+      <c r="C96" s="47">
         <v>600</v>
       </c>
-      <c r="D96" s="56">
+      <c r="D96" s="47">
         <f t="shared" si="2"/>
         <v>15600</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="B97" s="55">
+      <c r="A97" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" s="46">
         <v>8</v>
       </c>
-      <c r="C97" s="56">
+      <c r="C97" s="47">
         <v>250</v>
       </c>
-      <c r="D97" s="56">
+      <c r="D97" s="47">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="47" t="s">
+      <c r="A98" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="B98" s="47"/>
-      <c r="C98" s="52"/>
-      <c r="D98" s="52">
+      <c r="B98" s="40"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="44">
         <f>SUM(D84:D97)</f>
         <v>37890</v>
       </c>
@@ -4362,7 +4365,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
+      <c r="D100" s="14">
+        <f>SUM(D89:D96)</f>
+        <v>27500</v>
+      </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C101" s="14"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -549,9 +549,6 @@
     <t>Карнизы установка 12х500р.</t>
   </si>
   <si>
-    <t>Отделка наружняя:</t>
-  </si>
-  <si>
     <t>Устройство потолка:</t>
   </si>
   <si>
@@ -610,6 +607,9 @@
   </si>
   <si>
     <t>Работа 19м2</t>
+  </si>
+  <si>
+    <t>Отделка наружная:</t>
   </si>
 </sst>
 </file>
@@ -1902,14 +1902,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J4" s="14">
         <v>195000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*K1/365*I4</f>
-        <v>2356.027397260274</v>
+        <v>2505.6164383561645</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2890,8 +2890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2900,6 +2900,7 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
@@ -2931,6 +2932,16 @@
       <c r="D2" s="20" t="s">
         <v>19</v>
       </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
@@ -2946,6 +2957,21 @@
         <f>B3*C3</f>
         <v>500</v>
       </c>
+      <c r="F3" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="14">
+        <f>D40</f>
+        <v>35184.800000000003</v>
+      </c>
+      <c r="H3" s="14">
+        <f>SUM(D36:D39)</f>
+        <v>10950</v>
+      </c>
+      <c r="I3" s="14">
+        <f>G3-H3</f>
+        <v>24234.800000000003</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
@@ -2961,6 +2987,21 @@
         <f>B4*C4</f>
         <v>2400</v>
       </c>
+      <c r="F4" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="14">
+        <f>D60</f>
+        <v>25130</v>
+      </c>
+      <c r="H4" s="14">
+        <f>SUM(D49,D53,D59)</f>
+        <v>11350</v>
+      </c>
+      <c r="I4" s="14">
+        <f>G4-H4</f>
+        <v>13780</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
@@ -2976,6 +3017,21 @@
         <f>B5*C5</f>
         <v>1000</v>
       </c>
+      <c r="F5" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="14">
+        <f>D82</f>
+        <v>65780</v>
+      </c>
+      <c r="H5" s="14">
+        <f>SUM(D79:D81)</f>
+        <v>23100</v>
+      </c>
+      <c r="I5" s="14">
+        <f>G5-H5</f>
+        <v>42680</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
@@ -2991,6 +3047,21 @@
         <f t="shared" ref="D6:D19" si="0">B6*C6</f>
         <v>5000</v>
       </c>
+      <c r="F6" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" s="14">
+        <f>D98</f>
+        <v>37890</v>
+      </c>
+      <c r="H6" s="14">
+        <f>SUM(D96:D97)</f>
+        <v>17600</v>
+      </c>
+      <c r="I6" s="14">
+        <f>G6-H6</f>
+        <v>20290</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
@@ -3006,6 +3077,21 @@
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
+      <c r="F7" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="48">
+        <f>SUM(G3:G6)</f>
+        <v>163984.79999999999</v>
+      </c>
+      <c r="H7" s="48">
+        <f>SUM(H3:H6)</f>
+        <v>63000</v>
+      </c>
+      <c r="I7" s="48">
+        <f>SUM(I3:I6)</f>
+        <v>100984.8</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="63" t="s">
@@ -3128,7 +3214,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>120</v>
       </c>
@@ -3143,7 +3229,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
         <v>124</v>
       </c>
@@ -3158,7 +3244,7 @@
         <v>28600</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
         <v>125</v>
       </c>
@@ -3173,7 +3259,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="40" t="s">
         <v>126</v>
       </c>
@@ -3184,23 +3270,13 @@
         <v>70536</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A22" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>107</v>
       </c>
@@ -3213,46 +3289,16 @@
       <c r="D23" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="G23" s="14">
-        <f>D40</f>
-        <v>35184.800000000003</v>
-      </c>
-      <c r="H23" s="14">
-        <f>SUM(D36:D39)</f>
-        <v>10950</v>
-      </c>
-      <c r="I23" s="14">
-        <f>G23-H23</f>
-        <v>24234.800000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="66" t="s">
         <v>129</v>
       </c>
       <c r="B24" s="66"/>
       <c r="C24" s="66"/>
       <c r="D24" s="66"/>
-      <c r="F24" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="14">
-        <f>D60</f>
-        <v>25130</v>
-      </c>
-      <c r="H24" s="14">
-        <f>SUM(D49,D53,D59)</f>
-        <v>11350</v>
-      </c>
-      <c r="I24" s="14">
-        <f>G24-H24</f>
-        <v>13780</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -3266,23 +3312,8 @@
         <f>B25*C25</f>
         <v>400</v>
       </c>
-      <c r="F25" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" s="14">
-        <f>D82</f>
-        <v>65780</v>
-      </c>
-      <c r="H25" s="14">
-        <f>SUM(D79:D81)</f>
-        <v>23100</v>
-      </c>
-      <c r="I25" s="14">
-        <f>G25-H25</f>
-        <v>42680</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -3296,23 +3327,8 @@
         <f>B26*C26</f>
         <v>7084.8</v>
       </c>
-      <c r="F26" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="G26" s="14">
-        <f>D98</f>
-        <v>37890</v>
-      </c>
-      <c r="H26" s="14">
-        <f>SUM(D96:D97)</f>
-        <v>17600</v>
-      </c>
-      <c r="I26" s="14">
-        <f>G26-H26</f>
-        <v>20290</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>132</v>
       </c>
@@ -3326,23 +3342,8 @@
         <f t="shared" ref="D27:D59" si="1">B27*C27</f>
         <v>750</v>
       </c>
-      <c r="F27" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="G27" s="48">
-        <f>SUM(G23:G26)</f>
-        <v>163984.79999999999</v>
-      </c>
-      <c r="H27" s="48">
-        <f>SUM(H23:H26)</f>
-        <v>63000</v>
-      </c>
-      <c r="I27" s="48">
-        <f>SUM(I23:I26)</f>
-        <v>100984.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>120</v>
       </c>
@@ -3357,7 +3358,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>133</v>
       </c>
@@ -3372,7 +3373,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -3387,7 +3388,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>135</v>
       </c>
@@ -3402,7 +3403,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -3419,7 +3420,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B33">
         <v>12.4</v>
@@ -3535,7 +3536,7 @@
     </row>
     <row r="41" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A41" s="67" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B41" s="67"/>
       <c r="C41" s="67"/>
@@ -3552,7 +3553,7 @@
         <v>8500</v>
       </c>
       <c r="D42" s="14">
-        <f t="shared" si="1"/>
+        <f>B42*C42</f>
         <v>5950</v>
       </c>
     </row>
@@ -3567,7 +3568,7 @@
         <v>500</v>
       </c>
       <c r="D43" s="14">
-        <f t="shared" si="1"/>
+        <f>B43*C43</f>
         <v>500</v>
       </c>
     </row>
@@ -3582,7 +3583,7 @@
         <v>1000</v>
       </c>
       <c r="D44" s="14">
-        <f t="shared" si="1"/>
+        <f>B44*C44</f>
         <v>1000</v>
       </c>
     </row>
@@ -3597,7 +3598,7 @@
         <v>500</v>
       </c>
       <c r="D45" s="14">
-        <f t="shared" si="1"/>
+        <f>B45*C45</f>
         <v>500</v>
       </c>
     </row>
@@ -3612,7 +3613,7 @@
         <v>1000</v>
       </c>
       <c r="D46" s="14">
-        <f t="shared" si="1"/>
+        <f>B46*C46</f>
         <v>1000</v>
       </c>
     </row>
@@ -3627,7 +3628,7 @@
         <v>100</v>
       </c>
       <c r="D47" s="14">
-        <f t="shared" si="1"/>
+        <f>B47*C47</f>
         <v>100</v>
       </c>
     </row>
@@ -3642,7 +3643,7 @@
         <v>200</v>
       </c>
       <c r="D48" s="14">
-        <f t="shared" si="1"/>
+        <f>B48*C48</f>
         <v>200</v>
       </c>
     </row>
@@ -3657,7 +3658,7 @@
         <v>500</v>
       </c>
       <c r="D49" s="47">
-        <f t="shared" si="1"/>
+        <f>B49*C49</f>
         <v>5500</v>
       </c>
     </row>
@@ -3680,7 +3681,7 @@
         <v>1200</v>
       </c>
       <c r="D51" s="14">
-        <f t="shared" si="1"/>
+        <f>B51*C51</f>
         <v>2400</v>
       </c>
     </row>
@@ -3695,7 +3696,7 @@
         <v>300</v>
       </c>
       <c r="D52" s="14">
-        <f t="shared" si="1"/>
+        <f>B52*C52</f>
         <v>300</v>
       </c>
     </row>
@@ -3710,7 +3711,7 @@
         <v>100</v>
       </c>
       <c r="D53" s="47">
-        <f t="shared" si="1"/>
+        <f>B53*C53</f>
         <v>1100</v>
       </c>
     </row>
@@ -3778,13 +3779,13 @@
         <v>400</v>
       </c>
       <c r="D58" s="14">
-        <f t="shared" si="1"/>
+        <f>B58*C58</f>
         <v>400</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B59" s="46">
         <v>19</v>
@@ -3793,7 +3794,7 @@
         <v>250</v>
       </c>
       <c r="D59" s="47">
-        <f t="shared" si="1"/>
+        <f>B59*C59</f>
         <v>4750</v>
       </c>
     </row>
@@ -3817,7 +3818,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B62" s="52">
         <v>1.1000000000000001</v>
@@ -4132,7 +4133,7 @@
     </row>
     <row r="83" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A83" s="62" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="B83" s="62"/>
       <c r="C83" s="62"/>
@@ -4140,7 +4141,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B84">
         <v>13</v>
@@ -4170,7 +4171,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B86">
         <v>100</v>
@@ -4185,7 +4186,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B87">
         <v>10</v>
@@ -4200,7 +4201,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B88">
         <v>7</v>
@@ -4215,7 +4216,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B89">
         <v>6</v>
@@ -4230,7 +4231,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -4245,7 +4246,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -4260,7 +4261,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -4275,7 +4276,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -4290,7 +4291,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -4320,7 +4321,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B96" s="46">
         <v>26</v>
@@ -4335,7 +4336,7 @@
     </row>
     <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B97" s="46">
         <v>8</v>
@@ -4365,10 +4366,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C100" s="14"/>
-      <c r="D100" s="14">
-        <f>SUM(D89:D96)</f>
-        <v>27500</v>
-      </c>
+      <c r="D100" s="14"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C101" s="14"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -617,9 +617,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00&quot;р.&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -984,26 +984,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="10"/>
-    <xf numFmtId="165" fontId="3" fillId="9" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="0" xfId="10" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="11"/>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="0" xfId="11" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="11" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="12" applyFont="1"/>
@@ -1012,7 +1012,7 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="13"/>
-    <xf numFmtId="165" fontId="3" fillId="11" borderId="0" xfId="13" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="13" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="14"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="15"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1035,12 +1035,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="15" borderId="6" xfId="17" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="15" borderId="6" xfId="17" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="19"/>
-    <xf numFmtId="166" fontId="5" fillId="17" borderId="0" xfId="19" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="8" fillId="14" borderId="5" xfId="16" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="5" fillId="17" borderId="0" xfId="19" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="17" borderId="0" xfId="19" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="8" fillId="14" borderId="5" xfId="16" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="5" fillId="17" borderId="0" xfId="19" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="19" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1051,7 +1051,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1066,7 +1066,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
@@ -1902,14 +1902,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" s="14">
         <v>195000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*K1/365*I4</f>
-        <v>2505.6164383561645</v>
+        <v>2617.8082191780823</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -3339,7 +3339,7 @@
         <v>250</v>
       </c>
       <c r="D27" s="14">
-        <f t="shared" ref="D27:D59" si="1">B27*C27</f>
+        <f t="shared" ref="D27:D39" si="1">B27*C27</f>
         <v>750</v>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
         <v>8500</v>
       </c>
       <c r="D42" s="14">
-        <f>B42*C42</f>
+        <f t="shared" ref="D42:D49" si="2">B42*C42</f>
         <v>5950</v>
       </c>
     </row>
@@ -3568,7 +3568,7 @@
         <v>500</v>
       </c>
       <c r="D43" s="14">
-        <f>B43*C43</f>
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
     </row>
@@ -3583,7 +3583,7 @@
         <v>1000</v>
       </c>
       <c r="D44" s="14">
-        <f>B44*C44</f>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
         <v>500</v>
       </c>
       <c r="D45" s="14">
-        <f>B45*C45</f>
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
     </row>
@@ -3613,7 +3613,7 @@
         <v>1000</v>
       </c>
       <c r="D46" s="14">
-        <f>B46*C46</f>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
         <v>100</v>
       </c>
       <c r="D47" s="14">
-        <f>B47*C47</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
@@ -3643,7 +3643,7 @@
         <v>200</v>
       </c>
       <c r="D48" s="14">
-        <f>B48*C48</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -3658,7 +3658,7 @@
         <v>500</v>
       </c>
       <c r="D49" s="47">
-        <f>B49*C49</f>
+        <f t="shared" si="2"/>
         <v>5500</v>
       </c>
     </row>
@@ -3857,7 +3857,7 @@
         <v>300</v>
       </c>
       <c r="D64" s="14">
-        <f t="shared" ref="D64:D97" si="2">B64*C64</f>
+        <f t="shared" ref="D64:D97" si="3">B64*C64</f>
         <v>300</v>
       </c>
     </row>
@@ -3872,7 +3872,7 @@
         <v>50</v>
       </c>
       <c r="D65" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2500</v>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
         <v>1000</v>
       </c>
       <c r="D66" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3917,7 +3917,7 @@
         <v>250</v>
       </c>
       <c r="D68" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8500</v>
       </c>
     </row>
@@ -3932,7 +3932,7 @@
         <v>300</v>
       </c>
       <c r="D69" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3000</v>
       </c>
     </row>
@@ -3947,7 +3947,7 @@
         <v>100</v>
       </c>
       <c r="D70" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2000</v>
       </c>
     </row>
@@ -3962,7 +3962,7 @@
         <v>300</v>
       </c>
       <c r="D71" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4800</v>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
         <v>300</v>
       </c>
       <c r="D72" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>600</v>
       </c>
     </row>
@@ -3992,7 +3992,7 @@
         <v>2.5</v>
       </c>
       <c r="D73" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1250</v>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
         <v>600</v>
       </c>
       <c r="D74" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3000</v>
       </c>
     </row>
@@ -4022,7 +4022,7 @@
         <v>80</v>
       </c>
       <c r="D75" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1280</v>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
         <v>100</v>
       </c>
       <c r="D76" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1600</v>
       </c>
     </row>
@@ -4052,7 +4052,7 @@
         <v>1500</v>
       </c>
       <c r="D77" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1500</v>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
         <v>1500</v>
       </c>
       <c r="D78" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1500</v>
       </c>
     </row>
@@ -4082,7 +4082,7 @@
         <v>600</v>
       </c>
       <c r="D79" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13200</v>
       </c>
     </row>
@@ -4097,7 +4097,7 @@
         <v>200</v>
       </c>
       <c r="D80" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3400</v>
       </c>
     </row>
@@ -4112,7 +4112,7 @@
         <v>500</v>
       </c>
       <c r="D81" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6500</v>
       </c>
     </row>
@@ -4150,7 +4150,7 @@
         <v>450</v>
       </c>
       <c r="D84" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5850</v>
       </c>
     </row>
@@ -4165,7 +4165,7 @@
         <v>500</v>
       </c>
       <c r="D85" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
     </row>
@@ -4180,7 +4180,7 @@
         <v>6</v>
       </c>
       <c r="D86" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>600</v>
       </c>
     </row>
@@ -4195,7 +4195,7 @@
         <v>60</v>
       </c>
       <c r="D87" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>600</v>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
         <v>120</v>
       </c>
       <c r="D88" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>840</v>
       </c>
     </row>
@@ -4225,7 +4225,7 @@
         <v>550</v>
       </c>
       <c r="D89" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3300</v>
       </c>
     </row>
@@ -4240,7 +4240,7 @@
         <v>1600</v>
       </c>
       <c r="D90" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1600</v>
       </c>
     </row>
@@ -4255,7 +4255,7 @@
         <v>100</v>
       </c>
       <c r="D91" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -4270,7 +4270,7 @@
         <v>1000</v>
       </c>
       <c r="D92" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -4285,7 +4285,7 @@
         <v>800</v>
       </c>
       <c r="D93" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2400</v>
       </c>
     </row>
@@ -4300,7 +4300,7 @@
         <v>3000</v>
       </c>
       <c r="D94" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3000</v>
       </c>
     </row>
@@ -4315,7 +4315,7 @@
         <v>500</v>
       </c>
       <c r="D95" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
     </row>
@@ -4330,7 +4330,7 @@
         <v>600</v>
       </c>
       <c r="D96" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15600</v>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
         <v>250</v>
       </c>
       <c r="D97" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2000</v>
       </c>
     </row>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="211">
   <si>
     <t>Помещение</t>
   </si>
@@ -610,6 +610,54 @@
   </si>
   <si>
     <t>Отделка наружная:</t>
+  </si>
+  <si>
+    <t>Электрика</t>
+  </si>
+  <si>
+    <t>Элемент</t>
+  </si>
+  <si>
+    <t>Гофра 16</t>
+  </si>
+  <si>
+    <t>Гофра 25</t>
+  </si>
+  <si>
+    <t>Гофра 20</t>
+  </si>
+  <si>
+    <t>Провод
+3х1.5</t>
+  </si>
+  <si>
+    <t>Провод
+3х2.5</t>
+  </si>
+  <si>
+    <t>Монтажная
+коробка</t>
+  </si>
+  <si>
+    <t>От счетчика</t>
+  </si>
+  <si>
+    <t>Розетки 
+по потолку</t>
+  </si>
+  <si>
+    <t>Розетки
+по стене</t>
+  </si>
+  <si>
+    <t>Освещение
+по потолку</t>
+  </si>
+  <si>
+    <t>Освещение по стене</t>
+  </si>
+  <si>
+    <t>Клипсы</t>
   </si>
 </sst>
 </file>
@@ -762,7 +810,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -859,6 +907,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -952,7 +1006,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -973,8 +1027,9 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -1067,8 +1122,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="20" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="20"/>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="21">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
     <cellStyle name="20% - Акцент3" xfId="11" builtinId="38"/>
     <cellStyle name="20% - Акцент4" xfId="19" builtinId="42"/>
@@ -1076,6 +1141,7 @@
     <cellStyle name="40% - Акцент1" xfId="9" builtinId="31"/>
     <cellStyle name="40% - Акцент2" xfId="14" builtinId="35"/>
     <cellStyle name="40% - Акцент3" xfId="18" builtinId="39"/>
+    <cellStyle name="40% - Акцент5" xfId="20" builtinId="47"/>
     <cellStyle name="60% - Акцент2" xfId="6" builtinId="36"/>
     <cellStyle name="60% - Акцент3" xfId="7" builtinId="40"/>
     <cellStyle name="60% - Акцент4" xfId="4" builtinId="44"/>
@@ -1902,14 +1968,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="J4" s="14">
         <v>195000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*K1/365*I4</f>
-        <v>2617.8082191780823</v>
+        <v>3702.3287671232879</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2888,10 +2954,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:D83"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2900,13 +2966,15 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>106</v>
       </c>
@@ -2919,7 +2987,7 @@
       <c r="H1" s="41"/>
       <c r="I1" s="41"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>107</v>
       </c>
@@ -2943,7 +3011,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>110</v>
       </c>
@@ -2973,7 +3041,7 @@
         <v>24234.800000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>111</v>
       </c>
@@ -3003,7 +3071,7 @@
         <v>13780</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>112</v>
       </c>
@@ -3033,7 +3101,7 @@
         <v>42680</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>113</v>
       </c>
@@ -3063,7 +3131,7 @@
         <v>20290</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>114</v>
       </c>
@@ -3093,7 +3161,7 @@
         <v>100984.8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="63" t="s">
         <v>115</v>
       </c>
@@ -3101,7 +3169,7 @@
       <c r="C8" s="63"/>
       <c r="D8" s="63"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>116</v>
       </c>
@@ -3115,8 +3183,12 @@
         <f t="shared" si="0"/>
         <v>8946</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="H9" s="68"/>
+    </row>
+    <row r="10" spans="1:13" ht="69.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
         <v>117</v>
       </c>
@@ -3130,8 +3202,32 @@
         <f t="shared" si="0"/>
         <v>640</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F10" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="J10" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="L10" s="69" t="s">
+        <v>204</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>118</v>
       </c>
@@ -3145,8 +3241,22 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>119</v>
       </c>
@@ -3160,8 +3270,26 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F12" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
+        <v>14</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3">
+        <v>14</v>
+      </c>
+      <c r="L12" s="3">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>120</v>
       </c>
@@ -3175,16 +3303,43 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F13" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A14" s="64" t="s">
         <v>121</v>
       </c>
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
       <c r="D14" s="65"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F14" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14">
+        <f>14+3.5+3+0.5+1.5</f>
+        <v>22.5</v>
+      </c>
+      <c r="J14">
+        <v>22</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>122</v>
       </c>
@@ -3198,8 +3353,14 @@
         <f t="shared" si="0"/>
         <v>4500</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F15" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>123</v>
       </c>
@@ -3213,6 +3374,28 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
+      <c r="F16" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="71">
+        <v>23</v>
+      </c>
+      <c r="H16" s="71">
+        <v>14</v>
+      </c>
+      <c r="I16" s="71">
+        <v>2</v>
+      </c>
+      <c r="J16" s="71">
+        <v>27</v>
+      </c>
+      <c r="K16" s="71">
+        <v>24</v>
+      </c>
+      <c r="L16" s="71">
+        <v>7</v>
+      </c>
+      <c r="M16" s="71"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
@@ -4373,7 +4556,8 @@
       <c r="D101" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A8:D8"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="19440" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="19440" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="План помещений" sheetId="1" r:id="rId1"/>
@@ -1103,6 +1103,13 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="19" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="18"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="20" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="20"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1110,6 +1117,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1122,16 +1132,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="20" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="20"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
@@ -1827,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,15 +1932,15 @@
         <v>0</v>
       </c>
       <c r="I3" s="29">
-        <f>G4-G3</f>
-        <v>80</v>
+        <f ca="1">TODAY()-G3</f>
+        <v>182</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
-        <f>J3*K1/365*I3</f>
-        <v>3068.4931506849316</v>
+        <f ca="1">J3*K1/365*I3</f>
+        <v>6980.82191780822</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1960,23 +1960,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="6">
-        <v>43139</v>
-      </c>
-      <c r="H4" s="8">
-        <v>-5000</v>
-      </c>
-      <c r="I4" s="29">
-        <f ca="1">TODAY()-G4</f>
-        <v>99</v>
-      </c>
-      <c r="J4" s="14">
-        <v>195000</v>
-      </c>
-      <c r="K4" s="14">
-        <f ca="1">J4*K1/365*I4</f>
-        <v>3702.3287671232879</v>
-      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -2711,10 +2699,10 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="59"/>
+      <c r="D46" s="62"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
@@ -2835,14 +2823,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="57" t="s">
+      <c r="C57" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57" t="s">
+      <c r="D57" s="60"/>
+      <c r="E57" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="57"/>
+      <c r="F57" s="60"/>
       <c r="I57" s="17" t="s">
         <v>84</v>
       </c>
@@ -2956,7 +2944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -3162,12 +3150,12 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
@@ -3183,12 +3171,12 @@
         <f t="shared" si="0"/>
         <v>8946</v>
       </c>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="68"/>
-    </row>
-    <row r="10" spans="1:13" ht="69.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="63"/>
+    </row>
+    <row r="10" spans="1:13" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
         <v>117</v>
       </c>
@@ -3214,13 +3202,13 @@
       <c r="I10" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="J10" s="69" t="s">
+      <c r="J10" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="K10" s="69" t="s">
+      <c r="K10" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="L10" s="69" t="s">
+      <c r="L10" s="57" t="s">
         <v>204</v>
       </c>
       <c r="M10" s="5" t="s">
@@ -3316,12 +3304,12 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
       <c r="F14" s="9" t="s">
         <v>208</v>
       </c>
@@ -3374,28 +3362,28 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="F16" s="70" t="s">
+      <c r="F16" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="71">
+      <c r="G16" s="59">
         <v>23</v>
       </c>
-      <c r="H16" s="71">
+      <c r="H16" s="59">
         <v>14</v>
       </c>
-      <c r="I16" s="71">
+      <c r="I16" s="59">
         <v>2</v>
       </c>
-      <c r="J16" s="71">
+      <c r="J16" s="59">
         <v>27</v>
       </c>
-      <c r="K16" s="71">
+      <c r="K16" s="59">
         <v>24</v>
       </c>
-      <c r="L16" s="71">
+      <c r="L16" s="59">
         <v>7</v>
       </c>
-      <c r="M16" s="71"/>
+      <c r="M16" s="59"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
@@ -3474,12 +3462,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3718,12 +3706,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="67" t="s">
+      <c r="A41" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="67"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -3846,12 +3834,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="60" t="s">
+      <c r="A50" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -3899,12 +3887,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="60" t="s">
+      <c r="A54" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="61"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="61"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="65"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -4315,12 +4303,12 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="62" t="s">
+      <c r="A83" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="B83" s="62"/>
-      <c r="C83" s="62"/>
-      <c r="D83" s="62"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="66"/>
+      <c r="D83" s="66"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="19440" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="19440" windowHeight="12600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="План помещений" sheetId="1" r:id="rId1"/>
     <sheet name="Расходы" sheetId="2" r:id="rId2"/>
     <sheet name="Веранда" sheetId="3" r:id="rId3"/>
+    <sheet name="Фундамент забор+гараж" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="237">
   <si>
     <t>Помещение</t>
   </si>
@@ -658,6 +659,84 @@
   </si>
   <si>
     <t>Клипсы</t>
+  </si>
+  <si>
+    <t>Плита гаража</t>
+  </si>
+  <si>
+    <t>Работа экскаватора 1ч 1500р</t>
+  </si>
+  <si>
+    <t>Работа ямобура 1свая 400р</t>
+  </si>
+  <si>
+    <t>Скала Камаз</t>
+  </si>
+  <si>
+    <t>Устройство щебеночного основания</t>
+  </si>
+  <si>
+    <t>Опалубка</t>
+  </si>
+  <si>
+    <t>Бетон</t>
+  </si>
+  <si>
+    <t>Работа по бетону</t>
+  </si>
+  <si>
+    <t>Фундамент под забор L=14,5м</t>
+  </si>
+  <si>
+    <t>Работа ямобура 6штх2м</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доставка </t>
+  </si>
+  <si>
+    <t>Диск по металлу</t>
+  </si>
+  <si>
+    <t>Бетон, м3</t>
+  </si>
+  <si>
+    <t>Труба 80х80 8штХ2.2м=17,6м</t>
+  </si>
+  <si>
+    <t>Монтаж труб</t>
+  </si>
+  <si>
+    <t>Арматура д.6 70мх16р</t>
+  </si>
+  <si>
+    <t>Арматура д.12 420мх30р</t>
+  </si>
+  <si>
+    <t>Арматура д.12, м</t>
+  </si>
+  <si>
+    <t>Арматура д.6, м</t>
+  </si>
+  <si>
+    <t>Плита</t>
+  </si>
+  <si>
+    <t>Забор</t>
+  </si>
+  <si>
+    <t>Материалы</t>
+  </si>
+  <si>
+    <t>Доставка бетона</t>
+  </si>
+  <si>
+    <t>Работа по бетону 14,5+12м</t>
+  </si>
+  <si>
+    <t>Покупаю сам</t>
+  </si>
+  <si>
+    <t>Цена от Марата 133 200 руб</t>
   </si>
 </sst>
 </file>
@@ -665,9 +744,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00&quot;р.&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -1029,7 +1108,7 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -1039,26 +1118,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="10"/>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="0" xfId="10" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="11"/>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="11" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="5" fillId="10" borderId="0" xfId="11" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="12" applyFont="1"/>
@@ -1067,7 +1146,7 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="13"/>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="13" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="11" borderId="0" xfId="13" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="14"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="15"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1090,12 +1169,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="15" borderId="6" xfId="17" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="15" borderId="6" xfId="17" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="19"/>
-    <xf numFmtId="165" fontId="5" fillId="17" borderId="0" xfId="19" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="8" fillId="14" borderId="5" xfId="16" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="5" fillId="17" borderId="0" xfId="19" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="17" borderId="0" xfId="19" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="8" fillId="14" borderId="5" xfId="16" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="5" fillId="17" borderId="0" xfId="19" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="19" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1113,7 +1192,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1131,7 +1210,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="9" applyFont="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
@@ -1827,7 +1908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -1933,14 +2014,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>6980.82191780822</v>
+        <v>8323.287671232878</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2944,8 +3025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4557,4 +4638,628 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="G1" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1500</v>
+      </c>
+      <c r="D3" s="8">
+        <f>B3*C3</f>
+        <v>1500</v>
+      </c>
+      <c r="G3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1500</v>
+      </c>
+      <c r="J3" s="8">
+        <f>H3*I3</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8">
+        <v>400</v>
+      </c>
+      <c r="D4" s="8">
+        <f>B4*C4</f>
+        <v>1600</v>
+      </c>
+      <c r="G4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8">
+        <v>200</v>
+      </c>
+      <c r="J4" s="8">
+        <f>H4*I4</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5">
+        <v>420</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <f>B5*C5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H5">
+        <v>119</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <f>H5*I5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6">
+        <v>70</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <f>B6*C6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6">
+        <v>81</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <f>H6*I6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>500</v>
+      </c>
+      <c r="D7" s="8">
+        <f>B7*C7</f>
+        <v>500</v>
+      </c>
+      <c r="G7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>500</v>
+      </c>
+      <c r="J7" s="8">
+        <f>H7*I7</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="8">
+        <f>B8*C8</f>
+        <v>3000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>500</v>
+      </c>
+      <c r="J8" s="8">
+        <f>H8*I8</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>6000</v>
+      </c>
+      <c r="D9" s="8">
+        <f>B9*C9</f>
+        <v>6000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
+        <v>200</v>
+      </c>
+      <c r="J9" s="8">
+        <f>H9*I9</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
+        <v>300</v>
+      </c>
+      <c r="D10" s="8">
+        <f>B10*C10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>216</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>6000</v>
+      </c>
+      <c r="J10" s="8">
+        <f>H10*I10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2800</v>
+      </c>
+      <c r="D11" s="8">
+        <f>B11*C11</f>
+        <v>33600</v>
+      </c>
+      <c r="G11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>300</v>
+      </c>
+      <c r="J11" s="8">
+        <f>H11*I11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <v>500</v>
+      </c>
+      <c r="D12" s="8">
+        <f>B12*C12</f>
+        <v>500</v>
+      </c>
+      <c r="G12" t="s">
+        <v>223</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12" s="8">
+        <v>2800</v>
+      </c>
+      <c r="J12" s="8">
+        <f>H12*I12</f>
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="G13" t="s">
+        <v>233</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8">
+        <v>500</v>
+      </c>
+      <c r="J13" s="8">
+        <f>H13*I13</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14">
+        <v>40</v>
+      </c>
+      <c r="C14" s="8">
+        <v>100</v>
+      </c>
+      <c r="D14" s="8">
+        <f>B14*C14</f>
+        <v>4000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>224</v>
+      </c>
+      <c r="H14">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="I14" s="8">
+        <v>400</v>
+      </c>
+      <c r="J14" s="8">
+        <f>H14*I14</f>
+        <v>7040.0000000000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1500</v>
+      </c>
+      <c r="D15" s="8">
+        <f>B15*C15</f>
+        <v>18000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>215</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15" s="8">
+        <v>100</v>
+      </c>
+      <c r="J15" s="8">
+        <f>H15*I15</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31">
+        <f>SUM(D3:D15)</f>
+        <v>68700</v>
+      </c>
+      <c r="G16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1000</v>
+      </c>
+      <c r="J16" s="8">
+        <f>H16*I16</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="G17" t="s">
+        <v>234</v>
+      </c>
+      <c r="H17">
+        <v>26.5</v>
+      </c>
+      <c r="I17" s="8">
+        <v>500</v>
+      </c>
+      <c r="J17" s="8">
+        <f>H17*I17</f>
+        <v>13250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>225</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18" s="8">
+        <v>300</v>
+      </c>
+      <c r="J18" s="8">
+        <f>H18*I18</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G19" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="31">
+        <f>SUM(J3:J18)</f>
+        <v>38190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="16"/>
+      <c r="B25" s="72" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="G25" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" s="8">
+        <f>SUM(D3:D11)</f>
+        <v>46200</v>
+      </c>
+      <c r="C26" s="8">
+        <f>SUM(D12:D15)</f>
+        <v>22500</v>
+      </c>
+      <c r="D26" s="8">
+        <f>SUM(B26:C26)</f>
+        <v>68700</v>
+      </c>
+      <c r="G26" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="J26" s="73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" s="8">
+        <f>SUM(J3:J14)</f>
+        <v>21040</v>
+      </c>
+      <c r="C27" s="8">
+        <f>SUM(J15:J18)</f>
+        <v>17150</v>
+      </c>
+      <c r="D27" s="8">
+        <f>SUM(B27:C27)</f>
+        <v>38190</v>
+      </c>
+      <c r="G27" t="s">
+        <v>228</v>
+      </c>
+      <c r="H27">
+        <v>540</v>
+      </c>
+      <c r="I27" s="8">
+        <v>30</v>
+      </c>
+      <c r="J27" s="8">
+        <f>H27*I27</f>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="31">
+        <f>SUM(B26:B27)</f>
+        <v>67240</v>
+      </c>
+      <c r="C28" s="31">
+        <f>SUM(C26:C27)</f>
+        <v>39650</v>
+      </c>
+      <c r="D28" s="31">
+        <f>SUM(D26:D27)</f>
+        <v>106890</v>
+      </c>
+      <c r="G28" t="s">
+        <v>229</v>
+      </c>
+      <c r="H28">
+        <v>150</v>
+      </c>
+      <c r="I28" s="8">
+        <v>11</v>
+      </c>
+      <c r="J28" s="8">
+        <f>H28*I28</f>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8">
+        <v>500</v>
+      </c>
+      <c r="J29" s="8">
+        <f>H29*I29</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G30" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="31">
+        <f>SUM(J27:J29)</f>
+        <v>18350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="240">
   <si>
     <t>Помещение</t>
   </si>
@@ -736,7 +736,16 @@
     <t>Покупаю сам</t>
   </si>
   <si>
-    <t>Цена от Марата 133 200 руб</t>
+    <t>За материалы без бетона</t>
+  </si>
+  <si>
+    <t>Бетон гараж</t>
+  </si>
+  <si>
+    <t>Бетон забор, м3</t>
+  </si>
+  <si>
+    <t>Доставка арматуры</t>
   </si>
 </sst>
 </file>
@@ -1189,6 +1198,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="20"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1211,8 +1222,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="9" applyFont="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
@@ -2014,14 +2023,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>8323.287671232878</v>
+        <v>8361.6438356164399</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2780,10 +2789,10 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="61" t="s">
+      <c r="C46" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="62"/>
+      <c r="D46" s="64"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
@@ -2904,14 +2913,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="60" t="s">
+      <c r="C57" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60" t="s">
+      <c r="D57" s="62"/>
+      <c r="E57" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="60"/>
+      <c r="F57" s="62"/>
       <c r="I57" s="17" t="s">
         <v>84</v>
       </c>
@@ -3231,12 +3240,12 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
@@ -3252,10 +3261,10 @@
         <f t="shared" si="0"/>
         <v>8946</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="63"/>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" spans="1:13" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
@@ -3385,12 +3394,12 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
       <c r="F14" s="9" t="s">
         <v>208</v>
       </c>
@@ -3543,12 +3552,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3787,12 +3796,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="71"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -3915,12 +3924,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="64" t="s">
+      <c r="A50" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -3968,12 +3977,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="64" t="s">
+      <c r="A54" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -4384,12 +4393,12 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="66" t="s">
+      <c r="A83" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="B83" s="66"/>
-      <c r="C83" s="66"/>
-      <c r="D83" s="66"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="68"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -4642,10 +4651,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4675,28 +4684,28 @@
       <c r="J1" s="41"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="61" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4711,7 +4720,7 @@
         <v>1500</v>
       </c>
       <c r="D3" s="8">
-        <f>B3*C3</f>
+        <f t="shared" ref="D3:D12" si="0">B3*C3</f>
         <v>1500</v>
       </c>
       <c r="G3" t="s">
@@ -4724,7 +4733,7 @@
         <v>1500</v>
       </c>
       <c r="J3" s="8">
-        <f>H3*I3</f>
+        <f t="shared" ref="J3:J17" si="1">H3*I3</f>
         <v>1500</v>
       </c>
     </row>
@@ -4739,7 +4748,7 @@
         <v>400</v>
       </c>
       <c r="D4" s="8">
-        <f>B4*C4</f>
+        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
       <c r="G4" t="s">
@@ -4752,7 +4761,7 @@
         <v>200</v>
       </c>
       <c r="J4" s="8">
-        <f>H4*I4</f>
+        <f t="shared" si="1"/>
         <v>2400</v>
       </c>
     </row>
@@ -4767,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="8">
-        <f>B5*C5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" t="s">
@@ -4780,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="8">
-        <f>H5*I5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4795,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="8">
-        <f>B6*C6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6" t="s">
@@ -4808,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="8">
-        <f>H6*I6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4820,11 +4829,11 @@
         <v>1</v>
       </c>
       <c r="C7" s="8">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D7" s="8">
-        <f>B7*C7</f>
-        <v>500</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
         <v>118</v>
@@ -4836,7 +4845,7 @@
         <v>500</v>
       </c>
       <c r="J7" s="8">
-        <f>H7*I7</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
@@ -4851,21 +4860,21 @@
         <v>3000</v>
       </c>
       <c r="D8" s="8">
-        <f>B8*C8</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="G8" t="s">
         <v>221</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="8">
         <v>500</v>
       </c>
       <c r="J8" s="8">
-        <f>H8*I8</f>
-        <v>500</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -4879,7 +4888,7 @@
         <v>6000</v>
       </c>
       <c r="D9" s="8">
-        <f>B9*C9</f>
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
       <c r="G9" t="s">
@@ -4892,7 +4901,7 @@
         <v>200</v>
       </c>
       <c r="J9" s="8">
-        <f>H9*I9</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
@@ -4907,7 +4916,7 @@
         <v>300</v>
       </c>
       <c r="D10" s="8">
-        <f>B10*C10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10" t="s">
@@ -4920,7 +4929,7 @@
         <v>6000</v>
       </c>
       <c r="J10" s="8">
-        <f>H10*I10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4929,26 +4938,26 @@
         <v>217</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C11" s="8">
         <v>2800</v>
       </c>
       <c r="D11" s="8">
-        <f>B11*C11</f>
-        <v>33600</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" s="8">
-        <v>300</v>
+        <v>2800</v>
       </c>
       <c r="J11" s="8">
-        <f>H11*I11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4963,299 +4972,359 @@
         <v>500</v>
       </c>
       <c r="D12" s="8">
-        <f>B12*C12</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="G12" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" s="8">
-        <v>2800</v>
+        <v>500</v>
       </c>
       <c r="J12" s="8">
-        <f>H12*I12</f>
-        <v>8400</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="C13" s="8">
+        <v>100</v>
+      </c>
+      <c r="D13" s="8">
+        <f>B13*C13</f>
+        <v>4000</v>
+      </c>
       <c r="G13" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="I13" s="8">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J13" s="8">
-        <f>H13*I13</f>
-        <v>500</v>
+        <f t="shared" si="1"/>
+        <v>7040.0000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C14" s="8">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="D14" s="8">
         <f>B14*C14</f>
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="G14" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H14">
-        <v>17.600000000000001</v>
+        <v>10</v>
       </c>
       <c r="I14" s="8">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J14" s="8">
-        <f>H14*I14</f>
-        <v>7040.0000000000009</v>
+        <f t="shared" si="1"/>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>218</v>
-      </c>
-      <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1500</v>
-      </c>
-      <c r="D15" s="8">
-        <f>B15*C15</f>
-        <v>18000</v>
+      <c r="A15" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31">
+        <f>SUM(D3:D14)</f>
+        <v>34600</v>
       </c>
       <c r="G15" t="s">
-        <v>215</v>
+        <v>112</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I15" s="8">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="J15" s="8">
-        <f>H15*I15</f>
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H16">
+        <v>26.5</v>
+      </c>
+      <c r="I16" s="8">
         <v>500</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="J16" s="8">
+        <f t="shared" si="1"/>
+        <v>13250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>225</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17" s="8">
+        <v>300</v>
+      </c>
+      <c r="J17" s="8">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G18" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31">
-        <f>SUM(D3:D15)</f>
-        <v>68700</v>
-      </c>
-      <c r="G16" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" s="8">
-        <v>1000</v>
-      </c>
-      <c r="J16" s="8">
-        <f>H16*I16</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="G17" t="s">
-        <v>234</v>
-      </c>
-      <c r="H17">
-        <v>26.5</v>
-      </c>
-      <c r="I17" s="8">
-        <v>500</v>
-      </c>
-      <c r="J17" s="8">
-        <f>H17*I17</f>
-        <v>13250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G18" t="s">
-        <v>225</v>
-      </c>
-      <c r="H18">
-        <v>8</v>
-      </c>
-      <c r="I18" s="8">
-        <v>300</v>
-      </c>
-      <c r="J18" s="8">
-        <f>H18*I18</f>
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G19" s="30" t="s">
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="31">
+        <f>SUM(J3:J17)</f>
+        <v>29290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="31">
-        <f>SUM(J3:J18)</f>
-        <v>38190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A25" s="16"/>
-      <c r="B25" s="72" t="s">
-        <v>232</v>
-      </c>
-      <c r="C25" s="72" t="s">
-        <v>186</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="G25" s="42" t="s">
+    </row>
+    <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" s="8">
+        <f>SUM(D3:D11)</f>
+        <v>12100</v>
+      </c>
+      <c r="C24" s="8">
+        <f>SUM(D12:D14)</f>
+        <v>22500</v>
+      </c>
+      <c r="D24" s="8">
+        <f>SUM(B24:C24)</f>
+        <v>34600</v>
+      </c>
+      <c r="G24" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>231</v>
+      </c>
+      <c r="B25" s="8">
+        <f>SUM(J3:J13)</f>
+        <v>11640</v>
+      </c>
+      <c r="C25" s="8">
+        <f>SUM(J14:J17)</f>
+        <v>17650</v>
+      </c>
+      <c r="D25" s="8">
+        <f>SUM(B25:C25)</f>
+        <v>29290</v>
+      </c>
+      <c r="G25" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J25" s="61" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>230</v>
-      </c>
-      <c r="B26" s="8">
-        <f>SUM(D3:D11)</f>
-        <v>46200</v>
-      </c>
-      <c r="C26" s="8">
-        <f>SUM(D12:D15)</f>
-        <v>22500</v>
-      </c>
-      <c r="D26" s="8">
-        <f>SUM(B26:C26)</f>
-        <v>68700</v>
-      </c>
-      <c r="G26" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="H26" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="I26" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="J26" s="73" t="s">
+      <c r="A26" s="30" t="s">
         <v>19</v>
       </c>
+      <c r="B26" s="31">
+        <f>SUM(B24:B25)</f>
+        <v>23740</v>
+      </c>
+      <c r="C26" s="31">
+        <f>SUM(C24:C25)</f>
+        <v>40150</v>
+      </c>
+      <c r="D26" s="31">
+        <f>SUM(D24:D25)</f>
+        <v>63890</v>
+      </c>
+      <c r="G26" t="s">
+        <v>228</v>
+      </c>
+      <c r="H26">
+        <v>540</v>
+      </c>
+      <c r="I26" s="8">
+        <v>41</v>
+      </c>
+      <c r="J26" s="8">
+        <f>H26*I26</f>
+        <v>22140</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>231</v>
-      </c>
-      <c r="B27" s="8">
-        <f>SUM(J3:J14)</f>
-        <v>21040</v>
-      </c>
-      <c r="C27" s="8">
-        <f>SUM(J15:J18)</f>
-        <v>17150</v>
-      </c>
-      <c r="D27" s="8">
-        <f>SUM(B27:C27)</f>
-        <v>38190</v>
-      </c>
       <c r="G27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H27">
-        <v>540</v>
+        <v>150</v>
       </c>
       <c r="I27" s="8">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="J27" s="8">
         <f>H27*I27</f>
-        <v>16200</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="31">
-        <f>SUM(B26:B27)</f>
-        <v>67240</v>
-      </c>
-      <c r="C28" s="31">
-        <f>SUM(C26:C27)</f>
-        <v>39650</v>
-      </c>
-      <c r="D28" s="31">
-        <f>SUM(D26:D27)</f>
-        <v>106890</v>
-      </c>
       <c r="G28" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="H28">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="I28" s="8">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="J28" s="8">
         <f>H28*I28</f>
-        <v>1650</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>236</v>
+      </c>
+      <c r="B29" s="8">
+        <f>B26-D11-J11</f>
+        <v>23740</v>
+      </c>
       <c r="G29" t="s">
         <v>123</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="8">
         <v>500</v>
       </c>
       <c r="J29" s="8">
         <f>H29*I29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="8">
+        <v>300</v>
+      </c>
+      <c r="J30" s="8">
+        <f>H30*I30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>237</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" s="8">
+        <v>2800</v>
+      </c>
+      <c r="J31" s="8">
+        <f t="shared" ref="J31:J33" si="2">H31*I31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>238</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
+        <v>2800</v>
+      </c>
+      <c r="J32" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>233</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" s="8">
         <v>500</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G30" s="30" t="s">
+      <c r="J33" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G34" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="31">
-        <f>SUM(J27:J29)</f>
-        <v>18350</v>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="31">
+        <f>SUM(J26:J33)</f>
+        <v>24290</v>
       </c>
     </row>
   </sheetData>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -4654,7 +4654,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -753,9 +753,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00&quot;р.&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -1127,26 +1127,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="10"/>
-    <xf numFmtId="165" fontId="3" fillId="9" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="0" xfId="10" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="11"/>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="0" xfId="11" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="11" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="12" applyFont="1"/>
@@ -1155,7 +1155,7 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="13"/>
-    <xf numFmtId="165" fontId="3" fillId="11" borderId="0" xfId="13" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="13" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="14"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="15"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1178,12 +1178,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="15" borderId="6" xfId="17" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="15" borderId="6" xfId="17" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="19"/>
-    <xf numFmtId="166" fontId="5" fillId="17" borderId="0" xfId="19" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="8" fillId="14" borderId="5" xfId="16" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="5" fillId="17" borderId="0" xfId="19" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="17" borderId="0" xfId="19" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="8" fillId="14" borderId="5" xfId="16" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="5" fillId="17" borderId="0" xfId="19" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="19" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1203,7 +1203,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1221,7 +1221,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
@@ -4651,10 +4651,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5224,14 +5227,14 @@
         <v>239</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="8">
         <v>500</v>
       </c>
       <c r="J28" s="8">
         <f>H28*I28</f>
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -5276,14 +5279,14 @@
         <v>237</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I31" s="8">
         <v>2800</v>
       </c>
       <c r="J31" s="8">
         <f t="shared" ref="J31:J33" si="2">H31*I31</f>
-        <v>0</v>
+        <v>33600</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -5291,14 +5294,14 @@
         <v>238</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32" s="8">
         <v>2800</v>
       </c>
       <c r="J32" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.25">
@@ -5306,14 +5309,14 @@
         <v>233</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="8">
         <v>500</v>
       </c>
       <c r="J33" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="7:10" x14ac:dyDescent="0.25">
@@ -5324,11 +5327,11 @@
       <c r="I34" s="30"/>
       <c r="J34" s="31">
         <f>SUM(J26:J33)</f>
-        <v>24290</v>
+        <v>66290</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="19440" windowHeight="12600" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="19440" windowHeight="12600" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="План помещений" sheetId="1" r:id="rId1"/>
     <sheet name="Расходы" sheetId="2" r:id="rId2"/>
     <sheet name="Веранда" sheetId="3" r:id="rId3"/>
     <sheet name="Фундамент забор+гараж" sheetId="4" r:id="rId4"/>
+    <sheet name="Забор по северу" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -2023,14 +2024,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>218</v>
+        <v>288</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>8361.6438356164399</v>
+        <v>11046.575342465754</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4656,7 +4657,7 @@
   </sheetPr>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -5334,4 +5335,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="267">
   <si>
     <t>Помещение</t>
   </si>
@@ -747,18 +747,100 @@
   </si>
   <si>
     <t>Доставка арматуры</t>
+  </si>
+  <si>
+    <t>Труба под столбы</t>
+  </si>
+  <si>
+    <t>Труба под перемычки</t>
+  </si>
+  <si>
+    <t>Профлист</t>
+  </si>
+  <si>
+    <t>Длина,м</t>
+  </si>
+  <si>
+    <t>Высота,м</t>
+  </si>
+  <si>
+    <t>Высота, м</t>
+  </si>
+  <si>
+    <t>Вглубь, м</t>
+  </si>
+  <si>
+    <t>Кол-во</t>
+  </si>
+  <si>
+    <t>высота столба</t>
+  </si>
+  <si>
+    <t>наименование</t>
+  </si>
+  <si>
+    <t>вес пог. М.</t>
+  </si>
+  <si>
+    <t>цена за м. пог.</t>
+  </si>
+  <si>
+    <t>цена за столб</t>
+  </si>
+  <si>
+    <t>кол-во столбов</t>
+  </si>
+  <si>
+    <t>сумма за столбы</t>
+  </si>
+  <si>
+    <t>ширина пролёта</t>
+  </si>
+  <si>
+    <t>сварка из кусков столба и бурить много кака то не айс</t>
+  </si>
+  <si>
+    <t>Труба проф. 80х80х3 (12)</t>
+  </si>
+  <si>
+    <t>самый дешёвый, но бурить больше</t>
+  </si>
+  <si>
+    <t>Труба проф. 40х20х2 (6)</t>
+  </si>
+  <si>
+    <t>Труба проф. 40х20х1,5 (6)</t>
+  </si>
+  <si>
+    <t>Труба проф. 60х60х2 (6)</t>
+  </si>
+  <si>
+    <t>длина забора</t>
+  </si>
+  <si>
+    <t>Марка</t>
+  </si>
+  <si>
+    <t>C8-0,45</t>
+  </si>
+  <si>
+    <t>Ворота</t>
+  </si>
+  <si>
+    <t>Ширина</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -892,6 +974,23 @@
       <b/>
       <u/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1118,7 +1217,7 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -1223,6 +1322,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
@@ -2024,14 +2131,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>11046.575342465754</v>
+        <v>11084.931506849316</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -5339,12 +5446,396 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N1" t="s">
+        <v>242</v>
+      </c>
+      <c r="P1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1.8</v>
+      </c>
+      <c r="D2">
+        <v>1.2</v>
+      </c>
+      <c r="K2">
+        <v>16</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>16</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>263</v>
+      </c>
+      <c r="P3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>264</v>
+      </c>
+      <c r="P4">
+        <v>290</v>
+      </c>
+      <c r="Q4">
+        <f>P4*P2*Q2</f>
+        <v>9280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="74"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75" t="s">
+        <v>262</v>
+      </c>
+      <c r="E12" s="76"/>
+      <c r="F12" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="I12" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74">
+        <v>16</v>
+      </c>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74">
+        <v>3</v>
+      </c>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74">
+        <v>1</v>
+      </c>
+      <c r="I13" s="74">
+        <v>3</v>
+      </c>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+    </row>
+    <row r="15" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="74"/>
+      <c r="B15" s="75" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>251</v>
+      </c>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75" t="s">
+        <v>254</v>
+      </c>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="M15" s="75"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="74"/>
+      <c r="B16" s="74" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" s="74">
+        <v>6.82</v>
+      </c>
+      <c r="D16" s="74">
+        <v>177</v>
+      </c>
+      <c r="E16" s="74"/>
+      <c r="F16" s="77">
+        <f>F13*C16*D16</f>
+        <v>3621.42</v>
+      </c>
+      <c r="G16" s="74"/>
+      <c r="H16" s="78">
+        <f>(D13-H13*I13)/L16</f>
+        <v>5.416666666666667</v>
+      </c>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74">
+        <f>H16*F16</f>
+        <v>19616.025000000001</v>
+      </c>
+      <c r="K16" s="74"/>
+      <c r="L16" s="79">
+        <v>2.4</v>
+      </c>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74" t="s">
+        <v>256</v>
+      </c>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="74"/>
+      <c r="B17" s="74" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="74">
+        <v>7.13</v>
+      </c>
+      <c r="D17" s="74">
+        <v>350</v>
+      </c>
+      <c r="E17" s="74"/>
+      <c r="F17" s="77">
+        <f>F13*C17*D17</f>
+        <v>7486.5</v>
+      </c>
+      <c r="G17" s="74"/>
+      <c r="H17" s="78">
+        <f>D13/L17</f>
+        <v>6.1538461538461533</v>
+      </c>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74">
+        <f>H17*F17</f>
+        <v>46070.769230769227</v>
+      </c>
+      <c r="K17" s="74"/>
+      <c r="L17" s="79">
+        <v>2.6</v>
+      </c>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74" t="s">
+        <v>258</v>
+      </c>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="74"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="74"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="74"/>
+      <c r="B20" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" s="74">
+        <v>1.7</v>
+      </c>
+      <c r="D20" s="74">
+        <v>86</v>
+      </c>
+      <c r="E20" s="74"/>
+      <c r="F20" s="77">
+        <f>D13*C20*D20</f>
+        <v>2339.1999999999998</v>
+      </c>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74">
+        <v>2</v>
+      </c>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74">
+        <f>H20*F20</f>
+        <v>4678.3999999999996</v>
+      </c>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="74"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="74"/>
+      <c r="B21" s="74" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21" s="74">
+        <v>1.31</v>
+      </c>
+      <c r="D21" s="74">
+        <v>75</v>
+      </c>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74">
+        <f>D13*C21*D21</f>
+        <v>1572</v>
+      </c>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74">
+        <v>2</v>
+      </c>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74">
+        <f>H21*F21</f>
+        <v>3144</v>
+      </c>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="264">
   <si>
     <t>Помещение</t>
   </si>
@@ -797,19 +797,10 @@
     <t>ширина пролёта</t>
   </si>
   <si>
-    <t>сварка из кусков столба и бурить много кака то не айс</t>
-  </si>
-  <si>
     <t>Труба проф. 80х80х3 (12)</t>
   </si>
   <si>
-    <t>самый дешёвый, но бурить больше</t>
-  </si>
-  <si>
     <t>Труба проф. 40х20х2 (6)</t>
-  </si>
-  <si>
-    <t>Труба проф. 40х20х1,5 (6)</t>
   </si>
   <si>
     <t>Труба проф. 60х60х2 (6)</t>
@@ -1300,6 +1291,14 @@
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="20"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1322,14 +1321,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
@@ -2131,14 +2122,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>11084.931506849316</v>
+        <v>11161.64383561644</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2897,10 +2888,10 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="63" t="s">
+      <c r="C46" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="64"/>
+      <c r="D46" s="70"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
@@ -3021,14 +3012,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="62" t="s">
+      <c r="C57" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62" t="s">
+      <c r="D57" s="68"/>
+      <c r="E57" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="62"/>
+      <c r="F57" s="68"/>
       <c r="I57" s="17" t="s">
         <v>84</v>
       </c>
@@ -3348,12 +3339,12 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
@@ -3369,10 +3360,10 @@
         <f t="shared" si="0"/>
         <v>8946</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="G9" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="65"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="1:13" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
@@ -3502,12 +3493,12 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
       <c r="F14" s="9" t="s">
         <v>208</v>
       </c>
@@ -3660,12 +3651,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3904,12 +3895,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="73" t="s">
+      <c r="A41" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -4032,12 +4023,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="66" t="s">
+      <c r="A50" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="66"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -4085,12 +4076,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="66" t="s">
+      <c r="A54" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="67"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="73"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -4501,12 +4492,12 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="68" t="s">
+      <c r="A83" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="B83" s="68"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
+      <c r="B83" s="74"/>
+      <c r="C83" s="74"/>
+      <c r="D83" s="74"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -5446,10 +5437,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5508,7 +5499,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P3" t="s">
         <v>109</v>
@@ -5519,7 +5510,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P4">
         <v>290</v>
@@ -5530,310 +5521,270 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75" t="s">
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="E12" s="64"/>
+      <c r="F12" s="63" t="s">
+        <v>248</v>
+      </c>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="75" t="s">
-        <v>248</v>
-      </c>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="I12" s="74" t="s">
-        <v>266</v>
-      </c>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
+      <c r="I12" s="62" t="s">
+        <v>263</v>
+      </c>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74">
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62">
         <v>16</v>
       </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74">
+      <c r="E13" s="62"/>
+      <c r="F13" s="62">
         <v>3</v>
       </c>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74">
+      <c r="G13" s="62"/>
+      <c r="H13" s="62">
         <v>1</v>
       </c>
-      <c r="I13" s="74">
+      <c r="I13" s="62">
         <v>3</v>
       </c>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="74"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
     </row>
     <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
     </row>
     <row r="15" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
-      <c r="B15" s="75" t="s">
+      <c r="A15" s="62"/>
+      <c r="B15" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75" t="s">
+      <c r="E15" s="63"/>
+      <c r="F15" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75" t="s">
+      <c r="G15" s="63"/>
+      <c r="H15" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75" t="s">
+      <c r="I15" s="63"/>
+      <c r="J15" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75" t="s">
+      <c r="K15" s="63"/>
+      <c r="L15" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="M15" s="75"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="74"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="74" t="s">
-        <v>261</v>
-      </c>
-      <c r="C16" s="74">
+      <c r="A16" s="62"/>
+      <c r="B16" s="62" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" s="62">
         <v>6.82</v>
       </c>
-      <c r="D16" s="74">
+      <c r="D16" s="62">
         <v>177</v>
       </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="77">
-        <f>F13*C16*D16</f>
-        <v>3621.42</v>
-      </c>
-      <c r="G16" s="74"/>
-      <c r="H16" s="78">
+      <c r="E16" s="62"/>
+      <c r="F16" s="65">
+        <f>F13*D16</f>
+        <v>531</v>
+      </c>
+      <c r="G16" s="62"/>
+      <c r="H16" s="66">
         <f>(D13-H13*I13)/L16</f>
-        <v>5.416666666666667</v>
-      </c>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74">
+        <v>5.9090909090909083</v>
+      </c>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62">
         <f>H16*F16</f>
-        <v>19616.025000000001</v>
-      </c>
-      <c r="K16" s="74"/>
-      <c r="L16" s="79">
-        <v>2.4</v>
-      </c>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74" t="s">
+        <v>3137.7272727272725</v>
+      </c>
+      <c r="K16" s="62"/>
+      <c r="L16" s="67">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="62"/>
+      <c r="B17" s="62" t="s">
         <v>256</v>
       </c>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
-      <c r="B17" s="74" t="s">
+      <c r="C17" s="62">
+        <v>7.13</v>
+      </c>
+      <c r="D17" s="62">
+        <v>350</v>
+      </c>
+      <c r="E17" s="62"/>
+      <c r="F17" s="65">
+        <f>F13*D17</f>
+        <v>1050</v>
+      </c>
+      <c r="G17" s="62"/>
+      <c r="H17" s="66">
+        <v>2</v>
+      </c>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62">
+        <f>H17*F17</f>
+        <v>2100</v>
+      </c>
+      <c r="K17" s="62"/>
+      <c r="L17" s="67">
+        <v>3</v>
+      </c>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="62"/>
+      <c r="B20" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="C17" s="74">
-        <v>7.13</v>
-      </c>
-      <c r="D17" s="74">
-        <v>350</v>
-      </c>
-      <c r="E17" s="74"/>
-      <c r="F17" s="77">
-        <f>F13*C17*D17</f>
-        <v>7486.5</v>
-      </c>
-      <c r="G17" s="74"/>
-      <c r="H17" s="78">
-        <f>D13/L17</f>
-        <v>6.1538461538461533</v>
-      </c>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74">
-        <f>H17*F17</f>
-        <v>46070.769230769227</v>
-      </c>
-      <c r="K17" s="74"/>
-      <c r="L17" s="79">
-        <v>2.6</v>
-      </c>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74" t="s">
-        <v>258</v>
-      </c>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
-    </row>
-    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-    </row>
-    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="74"/>
-      <c r="S19" s="74"/>
-    </row>
-    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="C20" s="74">
+      <c r="C20" s="62">
         <v>1.7</v>
       </c>
-      <c r="D20" s="74">
+      <c r="D20" s="62">
         <v>86</v>
       </c>
-      <c r="E20" s="74"/>
-      <c r="F20" s="77">
-        <f>D13*C20*D20</f>
-        <v>2339.1999999999998</v>
-      </c>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74">
+      <c r="E20" s="62"/>
+      <c r="F20" s="65">
+        <f>D13*D20</f>
+        <v>1376</v>
+      </c>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62">
         <v>2</v>
       </c>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74">
+      <c r="I20" s="62"/>
+      <c r="J20" s="62">
         <f>H20*F20</f>
-        <v>4678.3999999999996</v>
-      </c>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="74"/>
-    </row>
-    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="74"/>
-      <c r="B21" s="74" t="s">
-        <v>260</v>
-      </c>
-      <c r="C21" s="74">
-        <v>1.31</v>
-      </c>
-      <c r="D21" s="74">
-        <v>75</v>
-      </c>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74">
-        <f>D13*C21*D21</f>
-        <v>1572</v>
-      </c>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74">
-        <v>2</v>
-      </c>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74">
-        <f>H21*F21</f>
-        <v>3144</v>
-      </c>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74"/>
-      <c r="S21" s="74"/>
+        <v>2752</v>
+      </c>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="19440" windowHeight="12600" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="19440" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="План помещений" sheetId="1" r:id="rId1"/>
@@ -2014,10 +2014,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2035,7 +2035,7 @@
     <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -2062,8 +2062,11 @@
       <c r="K1" s="27">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="27">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>43003</v>
       </c>
@@ -2096,7 +2099,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43022</v>
       </c>
@@ -2122,17 +2125,17 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>11161.64383561644</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13232.876712328769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43026</v>
       </c>
@@ -2149,13 +2152,25 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G4" s="6">
+        <v>43290</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="29">
+        <f ca="1">TODAY()-G4</f>
+        <v>114</v>
+      </c>
+      <c r="J4" s="14">
+        <v>170000</v>
+      </c>
+      <c r="K4" s="14">
+        <f ca="1">J4*L1/365*I4</f>
+        <v>2654.794520547945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>43030</v>
       </c>
@@ -2176,7 +2191,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43030</v>
       </c>
@@ -2199,7 +2214,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43031</v>
       </c>
@@ -2219,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43031</v>
       </c>
@@ -2239,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>43038</v>
       </c>
@@ -2257,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>43040</v>
       </c>
@@ -2275,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>43044</v>
       </c>
@@ -2293,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>43050</v>
       </c>
@@ -2312,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>43067</v>
       </c>
@@ -2330,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>43050</v>
       </c>
@@ -2349,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>43047</v>
       </c>
@@ -2369,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43064</v>
       </c>
@@ -5439,7 +5454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="19440" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="19440" windowHeight="12600" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="План помещений" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Веранда" sheetId="3" r:id="rId3"/>
     <sheet name="Фундамент забор+гараж" sheetId="4" r:id="rId4"/>
     <sheet name="Забор по северу" sheetId="5" r:id="rId5"/>
+    <sheet name="Гараж" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="266">
   <si>
     <t>Помещение</t>
   </si>
@@ -819,19 +820,27 @@
   </si>
   <si>
     <t>Ширина</t>
+  </si>
+  <si>
+    <t>Шлакоблок 12,6 м3/1.44 м3 поддон/</t>
+  </si>
+  <si>
+    <t>Доствка шлакоблока</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00&quot;р.&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -982,6 +991,15 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1185,7 +1203,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1207,8 +1225,9 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -1218,26 +1237,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="10"/>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="0" xfId="10" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="11"/>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="11" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="5" fillId="10" borderId="0" xfId="11" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="12" applyFont="1"/>
@@ -1246,7 +1265,7 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="13"/>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="13" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="11" borderId="0" xfId="13" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="14"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="15"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1269,12 +1288,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="15" borderId="6" xfId="17" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="15" borderId="6" xfId="17" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="19"/>
-    <xf numFmtId="165" fontId="5" fillId="17" borderId="0" xfId="19" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="8" fillId="14" borderId="5" xfId="16" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="5" fillId="17" borderId="0" xfId="19" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="17" borderId="0" xfId="19" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="8" fillId="14" borderId="5" xfId="16" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="5" fillId="17" borderId="0" xfId="19" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="19" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1298,11 +1317,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1320,9 +1341,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="22">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
     <cellStyle name="20% - Акцент3" xfId="11" builtinId="38"/>
     <cellStyle name="20% - Акцент4" xfId="19" builtinId="42"/>
@@ -1338,6 +1359,7 @@
     <cellStyle name="Акцент2" xfId="10" builtinId="33"/>
     <cellStyle name="Акцент3" xfId="13" builtinId="37"/>
     <cellStyle name="Вычисление" xfId="16" builtinId="22"/>
+    <cellStyle name="Денежный" xfId="21" builtinId="4"/>
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
     <cellStyle name="Заголовок 2" xfId="2" builtinId="17"/>
     <cellStyle name="Контрольная ячейка" xfId="17" builtinId="23"/>
@@ -2016,7 +2038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -2125,14 +2147,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>13232.876712328769</v>
+        <v>15304.109589041098</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2160,14 +2182,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="J4" s="14">
         <v>170000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*L1/365*I4</f>
-        <v>2654.794520547945</v>
+        <v>3912.3287671232874</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2903,10 +2925,10 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="69" t="s">
+      <c r="C46" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="70"/>
+      <c r="D46" s="72"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
@@ -3027,14 +3049,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="68" t="s">
+      <c r="C57" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68" t="s">
+      <c r="D57" s="70"/>
+      <c r="E57" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="68"/>
+      <c r="F57" s="70"/>
       <c r="I57" s="17" t="s">
         <v>84</v>
       </c>
@@ -3354,12 +3376,12 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
@@ -3375,10 +3397,10 @@
         <f t="shared" si="0"/>
         <v>8946</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G9" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="71"/>
+      <c r="H9" s="73"/>
     </row>
     <row r="10" spans="1:13" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
@@ -3508,12 +3530,12 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
       <c r="F14" s="9" t="s">
         <v>208</v>
       </c>
@@ -3666,12 +3688,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3910,12 +3932,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="79" t="s">
+      <c r="A41" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -4038,12 +4060,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="72" t="s">
+      <c r="A50" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="72"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -4091,12 +4113,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="72" t="s">
+      <c r="A54" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="73"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="73"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="75"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -4507,12 +4529,12 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="74" t="s">
+      <c r="A83" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="B83" s="74"/>
-      <c r="C83" s="74"/>
-      <c r="D83" s="74"/>
+      <c r="B83" s="76"/>
+      <c r="C83" s="76"/>
+      <c r="D83" s="76"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -4770,8 +4792,8 @@
   </sheetPr>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5804,4 +5826,87 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="68" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3" s="69">
+        <v>1700</v>
+      </c>
+      <c r="D3" s="69">
+        <f>B3*C3</f>
+        <v>15300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="69">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="69">
+        <f>B4*C4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="69">
+        <f>B5*C5</f>
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="278">
   <si>
     <t>Помещение</t>
   </si>
@@ -825,7 +825,43 @@
     <t>Шлакоблок 12,6 м3/1.44 м3 поддон/</t>
   </si>
   <si>
-    <t>Доствка шлакоблока</t>
+    <t>Доставка шлакоблока</t>
+  </si>
+  <si>
+    <t>Доставка профлиста</t>
+  </si>
+  <si>
+    <t>Мауэрлат (брус 100*150 6м)</t>
+  </si>
+  <si>
+    <t>Стропила (брус 100*200 6м)</t>
+  </si>
+  <si>
+    <t>Обрешетка (доска обрез или необрез 25*150 6м)</t>
+  </si>
+  <si>
+    <t>Ветровая планка (доска 25*200 6м)</t>
+  </si>
+  <si>
+    <t>Пояски на подшив карниза (доска 25*100 6м)</t>
+  </si>
+  <si>
+    <t>Профлист НС-35R</t>
+  </si>
+  <si>
+    <t>Цемент</t>
+  </si>
+  <si>
+    <t>Песок</t>
+  </si>
+  <si>
+    <t>Рубероид</t>
+  </si>
+  <si>
+    <t>Кладочная сетка</t>
+  </si>
+  <si>
+    <t>Вентиляция</t>
   </si>
 </sst>
 </file>
@@ -833,8 +869,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot;р.&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
@@ -1007,7 +1043,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1110,6 +1146,11 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -1203,7 +1244,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1225,9 +1266,10 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -1341,9 +1383,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="22"/>
+    <xf numFmtId="168" fontId="3" fillId="19" borderId="0" xfId="22" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="23">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
     <cellStyle name="20% - Акцент3" xfId="11" builtinId="38"/>
     <cellStyle name="20% - Акцент4" xfId="19" builtinId="42"/>
@@ -1358,6 +1402,7 @@
     <cellStyle name="Акцент1" xfId="3" builtinId="29"/>
     <cellStyle name="Акцент2" xfId="10" builtinId="33"/>
     <cellStyle name="Акцент3" xfId="13" builtinId="37"/>
+    <cellStyle name="Акцент5" xfId="22" builtinId="45"/>
     <cellStyle name="Вычисление" xfId="16" builtinId="22"/>
     <cellStyle name="Денежный" xfId="21" builtinId="4"/>
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
@@ -2147,14 +2192,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>15304.109589041098</v>
+        <v>15726.027397260275</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2182,14 +2227,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="J4" s="14">
         <v>170000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*L1/365*I4</f>
-        <v>3912.3287671232874</v>
+        <v>4168.4931506849316</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -5830,10 +5875,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5894,15 +5939,152 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="A5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="82">
         <v>51</v>
       </c>
-      <c r="C5">
+      <c r="C10" s="82">
         <v>1</v>
       </c>
-      <c r="D5" s="69">
-        <f>B5*C5</f>
+      <c r="D10" s="83">
+        <f>SUM(D3:D4)</f>
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="68" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="69">
+        <v>1700</v>
+      </c>
+      <c r="D14" s="69">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="69">
+        <v>3000</v>
+      </c>
+      <c r="D15" s="69">
+        <f>B15*C15</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="82">
         <v>51</v>
+      </c>
+      <c r="C21" s="82">
+        <v>1</v>
+      </c>
+      <c r="D21" s="83">
+        <f>SUM(D14:D15)</f>
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="283">
   <si>
     <t>Помещение</t>
   </si>
@@ -862,6 +862,22 @@
   </si>
   <si>
     <t>Вентиляция</t>
+  </si>
+  <si>
+    <t>Гидроизоляция между фундаментом и шлакоблоком. Верхний ряд шб под мауэрлат дополнительно укрепить арматурой 2 нитки
+Перемычка над воротами Ж/Б или зливная.</t>
+  </si>
+  <si>
+    <t>Уголок под перемычки</t>
+  </si>
+  <si>
+    <t>Контробрешетка (брус 50*50 6м)</t>
+  </si>
+  <si>
+    <t>Гидроизоляция кровли</t>
+  </si>
+  <si>
+    <t>Метизы (саморезы)</t>
   </si>
 </sst>
 </file>
@@ -869,8 +885,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot;р.&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
@@ -1266,10 +1282,10 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -1362,6 +1378,8 @@
     <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="22"/>
+    <xf numFmtId="168" fontId="3" fillId="19" borderId="0" xfId="22" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1383,9 +1401,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="22"/>
-    <xf numFmtId="168" fontId="3" fillId="19" borderId="0" xfId="22" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
@@ -2192,14 +2214,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>15726.027397260275</v>
+        <v>16493.150684931508</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2227,14 +2249,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="J4" s="14">
         <v>170000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*L1/365*I4</f>
-        <v>4168.4931506849316</v>
+        <v>4634.2465753424658</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2970,10 +2992,10 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="71" t="s">
+      <c r="C46" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="72"/>
+      <c r="D46" s="74"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
@@ -3094,14 +3116,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="70" t="s">
+      <c r="C57" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70" t="s">
+      <c r="D57" s="72"/>
+      <c r="E57" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="70"/>
+      <c r="F57" s="72"/>
       <c r="I57" s="17" t="s">
         <v>84</v>
       </c>
@@ -3421,12 +3443,12 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
@@ -3442,10 +3464,10 @@
         <f t="shared" si="0"/>
         <v>8946</v>
       </c>
-      <c r="G9" s="73" t="s">
+      <c r="G9" s="75" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="73"/>
+      <c r="H9" s="75"/>
     </row>
     <row r="10" spans="1:13" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
@@ -3575,12 +3597,12 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
       <c r="F14" s="9" t="s">
         <v>208</v>
       </c>
@@ -3733,12 +3755,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3977,12 +3999,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -4105,12 +4127,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="74" t="s">
+      <c r="A50" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="74"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -4158,12 +4180,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="74" t="s">
+      <c r="A54" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="75"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="75"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="77"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -4574,12 +4596,12 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="76" t="s">
+      <c r="A83" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="B83" s="76"/>
-      <c r="C83" s="76"/>
-      <c r="D83" s="76"/>
+      <c r="B83" s="78"/>
+      <c r="C83" s="78"/>
+      <c r="D83" s="78"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -5875,10 +5897,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="A9:XFD9"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5889,12 +5911,26 @@
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="68" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="85" t="s">
+        <v>278</v>
+      </c>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
         <v>107</v>
       </c>
@@ -5907,8 +5943,20 @@
       <c r="D2" s="61" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>264</v>
       </c>
@@ -5922,8 +5970,20 @@
         <f>B3*C3</f>
         <v>15300</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>265</v>
       </c>
@@ -5937,157 +5997,272 @@
         <f>B4*C4</f>
         <v>3000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>273</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>274</v>
       </c>
       <c r="C6" s="69"/>
       <c r="D6" s="69"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>276</v>
       </c>
       <c r="C7" s="69"/>
       <c r="D7" s="69"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>275</v>
       </c>
       <c r="C8" s="69"/>
       <c r="D8" s="69"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C9" s="69"/>
       <c r="D9" s="69"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="82" t="s">
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="82">
+      <c r="B11" s="70">
         <v>51</v>
       </c>
-      <c r="C10" s="82">
+      <c r="C11" s="70">
         <v>1</v>
       </c>
-      <c r="D10" s="83">
+      <c r="D11" s="71">
         <f>SUM(D3:D4)</f>
         <v>18300</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="68" t="s">
+    <row r="13" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="68" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="61" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B14" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C14" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D14" s="61" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>272</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" s="69">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="69">
         <v>1700</v>
-      </c>
-      <c r="D14" s="69">
-        <f>B14*C14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>266</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="69">
-        <v>3000</v>
       </c>
       <c r="D15" s="69">
         <f>B15*C15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="69">
         <v>3000</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>267</v>
-      </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
+      <c r="D16" s="69">
+        <f>B16*C16</f>
+        <v>3000</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C17" s="69"/>
       <c r="D17" s="69"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C18" s="69"/>
       <c r="D18" s="69"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C19" s="69"/>
       <c r="D19" s="69"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C20" s="69"/>
       <c r="D20" s="69"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="82" t="s">
+      <c r="A21" t="s">
+        <v>269</v>
+      </c>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>282</v>
+      </c>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="82">
+      <c r="B25" s="70">
         <v>51</v>
       </c>
-      <c r="C21" s="82">
+      <c r="C25" s="70">
         <v>1</v>
       </c>
-      <c r="D21" s="83">
-        <f>SUM(D14:D15)</f>
+      <c r="D25" s="71">
+        <f>SUM(D15:D16)</f>
         <v>3000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:Q10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="286">
   <si>
     <t>Помещение</t>
   </si>
@@ -837,9 +837,6 @@
     <t>Стропила (брус 100*200 6м)</t>
   </si>
   <si>
-    <t>Обрешетка (доска обрез или необрез 25*150 6м)</t>
-  </si>
-  <si>
     <t>Ветровая планка (доска 25*200 6м)</t>
   </si>
   <si>
@@ -864,10 +861,6 @@
     <t>Вентиляция</t>
   </si>
   <si>
-    <t>Гидроизоляция между фундаментом и шлакоблоком. Верхний ряд шб под мауэрлат дополнительно укрепить арматурой 2 нитки
-Перемычка над воротами Ж/Б или зливная.</t>
-  </si>
-  <si>
     <t>Уголок под перемычки</t>
   </si>
   <si>
@@ -878,6 +871,22 @@
   </si>
   <si>
     <t>Метизы (саморезы)</t>
+  </si>
+  <si>
+    <t>Обрешетка (доска обрез или необрез 32*100 6м)</t>
+  </si>
+  <si>
+    <t>Планка торцевая</t>
+  </si>
+  <si>
+    <t>Планка карнизная</t>
+  </si>
+  <si>
+    <t>Капельник</t>
+  </si>
+  <si>
+    <t>Гидроизоляция между фундаментом и шлакоблоком. Верхний ряд шб под мауэрлат дополнительно укрепить арматурой 2 нитки и замонолитить
+Перемычка над воротами Ж/Б или монолитная.</t>
   </si>
 </sst>
 </file>
@@ -1403,10 +1412,10 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -2214,14 +2223,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>16493.150684931508</v>
+        <v>16569.863013698632</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2249,14 +2258,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J4" s="14">
         <v>170000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*L1/365*I4</f>
-        <v>4634.2465753424658</v>
+        <v>4680.821917808219</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -5897,10 +5906,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5915,20 +5924,20 @@
       <c r="A1" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="85" t="s">
-        <v>278</v>
-      </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
+      <c r="F1" s="84" t="s">
+        <v>285</v>
+      </c>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
@@ -5943,18 +5952,18 @@
       <c r="D2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5970,18 +5979,18 @@
         <f>B3*C3</f>
         <v>15300</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -5997,132 +6006,132 @@
         <f>B4*C4</f>
         <v>3000</v>
       </c>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C6" s="69"/>
       <c r="D6" s="69"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C7" s="69"/>
       <c r="D7" s="69"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C8" s="69"/>
       <c r="D8" s="69"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C9" s="69"/>
       <c r="D9" s="69"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C10" s="69"/>
       <c r="D10" s="69"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
@@ -6160,7 +6169,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -6190,14 +6199,14 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C17" s="69"/>
       <c r="D17" s="69"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C18" s="69"/>
       <c r="D18" s="69"/>
@@ -6218,43 +6227,64 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="C21" s="69"/>
       <c r="D21" s="69"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C22" s="69"/>
       <c r="D22" s="69"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C23" s="69"/>
       <c r="D23" s="69"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C24" s="69"/>
       <c r="D24" s="69"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="70" t="s">
+      <c r="A25" t="s">
+        <v>283</v>
+      </c>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>282</v>
+      </c>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>280</v>
+      </c>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="70">
+      <c r="B28" s="70">
         <v>51</v>
       </c>
-      <c r="C25" s="70">
+      <c r="C28" s="70">
         <v>1</v>
       </c>
-      <c r="D25" s="71">
+      <c r="D28" s="71">
         <f>SUM(D15:D16)</f>
         <v>3000</v>
       </c>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -18,8 +18,34 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Головачев Алексей Радьевич</author>
+  </authors>
+  <commentList>
+    <comment ref="A6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1. На 1м3 кладки ШБ требуется 0,25м3 раствора
+2. 1м3 раствора = 1м3 песка + 0,3м3 или 466кг цемента
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="287">
   <si>
     <t>Помещение</t>
   </si>
@@ -843,25 +869,10 @@
     <t>Пояски на подшив карниза (доска 25*100 6м)</t>
   </si>
   <si>
-    <t>Профлист НС-35R</t>
-  </si>
-  <si>
-    <t>Цемент</t>
-  </si>
-  <si>
-    <t>Песок</t>
-  </si>
-  <si>
     <t>Рубероид</t>
   </si>
   <si>
-    <t>Кладочная сетка</t>
-  </si>
-  <si>
     <t>Вентиляция</t>
-  </si>
-  <si>
-    <t>Уголок под перемычки</t>
   </si>
   <si>
     <t>Контробрешетка (брус 50*50 6м)</t>
@@ -887,6 +898,24 @@
   <si>
     <t>Гидроизоляция между фундаментом и шлакоблоком. Верхний ряд шб под мауэрлат дополнительно укрепить арматурой 2 нитки и замонолитить
 Перемычка над воротами Ж/Б или монолитная.</t>
+  </si>
+  <si>
+    <t>Песок, м3</t>
+  </si>
+  <si>
+    <t>Поддоны</t>
+  </si>
+  <si>
+    <t>Цемент, меш.</t>
+  </si>
+  <si>
+    <t>Уголок под перемычек</t>
+  </si>
+  <si>
+    <t>Кладочная сетка 50*50</t>
+  </si>
+  <si>
+    <t>Профлист НС-35R, м.п.</t>
   </si>
 </sst>
 </file>
@@ -894,14 +923,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot;р.&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1066,6 +1095,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="20">
@@ -1291,7 +1327,7 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="86">
@@ -1410,7 +1446,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2223,14 +2259,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>16569.863013698632</v>
+        <v>16800</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2258,14 +2294,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="J4" s="14">
         <v>170000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*L1/365*I4</f>
-        <v>4680.821917808219</v>
+        <v>4820.5479452054797</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -5905,11 +5941,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5925,7 +5961,7 @@
         <v>128</v>
       </c>
       <c r="F1" s="84" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G1" s="85"/>
       <c r="H1" s="85"/>
@@ -5994,17 +6030,17 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4" s="69">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="D4" s="69">
         <f>B4*C4</f>
-        <v>3000</v>
+        <v>2250</v>
       </c>
       <c r="F4" s="85"/>
       <c r="G4" s="85"/>
@@ -6021,10 +6057,18 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
+        <v>265</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="69">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="69">
+        <f>B5*C5</f>
+        <v>3000</v>
+      </c>
       <c r="F5" s="85"/>
       <c r="G5" s="85"/>
       <c r="H5" s="85"/>
@@ -6040,10 +6084,18 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
+        <v>283</v>
+      </c>
+      <c r="B6">
+        <v>35</v>
+      </c>
+      <c r="C6" s="69">
+        <v>220</v>
+      </c>
+      <c r="D6" s="69">
+        <f>B6*C6</f>
+        <v>7700</v>
+      </c>
       <c r="F6" s="85"/>
       <c r="G6" s="85"/>
       <c r="H6" s="85"/>
@@ -6059,10 +6111,18 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>275</v>
-      </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
+        <v>281</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="69">
+        <v>700</v>
+      </c>
+      <c r="D7" s="69">
+        <f>B7*C7</f>
+        <v>2800</v>
+      </c>
       <c r="F7" s="85"/>
       <c r="G7" s="85"/>
       <c r="H7" s="85"/>
@@ -6078,7 +6138,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="C8" s="69"/>
       <c r="D8" s="69"/>
@@ -6097,7 +6157,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C9" s="69"/>
       <c r="D9" s="69"/>
@@ -6116,7 +6176,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C10" s="69"/>
       <c r="D10" s="69"/>
@@ -6134,166 +6194,182 @@
       <c r="Q10" s="85"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
+      <c r="A11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="70">
+      <c r="B12" s="70">
         <v>51</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C12" s="70">
         <v>1</v>
       </c>
-      <c r="D11" s="71">
-        <f>SUM(D3:D4)</f>
-        <v>18300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="68" t="s">
+      <c r="D12" s="71">
+        <f>SUM(D3:D11)</f>
+        <v>31050</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="68" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B15" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C15" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D15" s="61" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>271</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" s="69">
-        <v>1700</v>
-      </c>
-      <c r="D15" s="69">
-        <f>B15*C15</f>
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C16" s="69">
-        <v>3000</v>
+        <v>350</v>
       </c>
       <c r="D16" s="69">
         <f>B16*C16</f>
-        <v>3000</v>
+        <v>14700</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>279</v>
-      </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
+        <v>266</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="69">
+        <v>3000</v>
+      </c>
+      <c r="D17" s="69">
+        <f>B17*C17</f>
+        <v>3000</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C18" s="69"/>
       <c r="D18" s="69"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C19" s="69"/>
       <c r="D19" s="69"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C20" s="69"/>
       <c r="D20" s="69"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C21" s="69"/>
       <c r="D21" s="69"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C22" s="69"/>
       <c r="D22" s="69"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C23" s="69"/>
       <c r="D23" s="69"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C24" s="69"/>
       <c r="D24" s="69"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C26" s="69"/>
       <c r="D26" s="69"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="70" t="s">
+      <c r="A28" t="s">
+        <v>275</v>
+      </c>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="70">
-        <v>51</v>
-      </c>
-      <c r="C28" s="70">
-        <v>1</v>
-      </c>
-      <c r="D28" s="71">
-        <f>SUM(D15:D16)</f>
-        <v>3000</v>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="71">
+        <f>SUM(D16:D28)</f>
+        <v>17700</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:Q10"/>
+    <mergeCell ref="F1:Q11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -900,9 +900,6 @@
 Перемычка над воротами Ж/Б или монолитная.</t>
   </si>
   <si>
-    <t>Песок, м3</t>
-  </si>
-  <si>
     <t>Поддоны</t>
   </si>
   <si>
@@ -912,10 +909,13 @@
     <t>Уголок под перемычек</t>
   </si>
   <si>
-    <t>Кладочная сетка 50*50</t>
-  </si>
-  <si>
     <t>Профлист НС-35R, м.п.</t>
+  </si>
+  <si>
+    <t>Кладочная сетка 50*50 (100*100) каждый 3йряд</t>
+  </si>
+  <si>
+    <t>Песок, (мытый или отсев доломитовый), м3</t>
   </si>
 </sst>
 </file>
@@ -923,8 +923,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot;р.&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
@@ -1327,10 +1327,10 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -1446,12 +1446,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -2259,14 +2256,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>16800</v>
+        <v>17336.986301369863</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2294,14 +2291,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="J4" s="14">
         <v>170000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*L1/365*I4</f>
-        <v>4820.5479452054797</v>
+        <v>5146.5753424657532</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -5944,8 +5941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5963,17 +5960,17 @@
       <c r="F1" s="84" t="s">
         <v>280</v>
       </c>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
@@ -5988,18 +5985,18 @@
       <c r="D2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -6015,22 +6012,22 @@
         <f>B3*C3</f>
         <v>15300</v>
       </c>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -6042,18 +6039,18 @@
         <f>B4*C4</f>
         <v>2250</v>
       </c>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -6069,22 +6066,22 @@
         <f>B5*C5</f>
         <v>3000</v>
       </c>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B6">
         <v>35</v>
@@ -6096,22 +6093,22 @@
         <f>B6*C6</f>
         <v>7700</v>
       </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="85"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -6123,18 +6120,18 @@
         <f>B7*C7</f>
         <v>2800</v>
       </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -6142,18 +6139,18 @@
       </c>
       <c r="C8" s="69"/>
       <c r="D8" s="69"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -6161,37 +6158,37 @@
       </c>
       <c r="C9" s="69"/>
       <c r="D9" s="69"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C10" s="69"/>
       <c r="D10" s="69"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -6199,18 +6196,18 @@
       </c>
       <c r="C11" s="69"/>
       <c r="D11" s="69"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
@@ -6248,7 +6245,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B16">
         <v>42</v>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="293">
   <si>
     <t>Помещение</t>
   </si>
@@ -916,6 +916,72 @@
   </si>
   <si>
     <t>Песок, (мытый или отсев доломитовый), м3</t>
+  </si>
+  <si>
+    <r>
+      <t>Кладка Ш/Б (1500р.м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 450р.м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Работа кровля с утепл (400-850р.м2)</t>
+  </si>
+  <si>
+    <t>Подшива карниза (300-400р.м.п)</t>
+  </si>
+  <si>
+    <t>Стропилька (300-500р.м2)</t>
+  </si>
+  <si>
+    <t>Монтаж черепицы(200-400р.м2)</t>
+  </si>
+  <si>
+    <t>Монтаж утеплителя (80-100р.м2)</t>
   </si>
 </sst>
 </file>
@@ -930,7 +996,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1102,6 +1168,15 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="20">
@@ -1330,7 +1405,7 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -1425,6 +1500,9 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="22"/>
     <xf numFmtId="168" fontId="3" fillId="19" borderId="0" xfId="22" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2256,14 +2334,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>17336.986301369863</v>
+        <v>18027.397260273974</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2291,14 +2369,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="J4" s="14">
         <v>170000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*L1/365*I4</f>
-        <v>5146.5753424657532</v>
+        <v>5565.7534246575342</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3034,10 +3112,10 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="73" t="s">
+      <c r="C46" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="74"/>
+      <c r="D46" s="75"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
@@ -3158,14 +3236,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="72" t="s">
+      <c r="C57" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="72"/>
-      <c r="E57" s="72" t="s">
+      <c r="D57" s="73"/>
+      <c r="E57" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="72"/>
+      <c r="F57" s="73"/>
       <c r="I57" s="17" t="s">
         <v>84</v>
       </c>
@@ -3279,8 +3357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3485,12 +3563,12 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
@@ -3506,10 +3584,10 @@
         <f t="shared" si="0"/>
         <v>8946</v>
       </c>
-      <c r="G9" s="75" t="s">
+      <c r="G9" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="75"/>
+      <c r="H9" s="76"/>
     </row>
     <row r="10" spans="1:13" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
@@ -3639,12 +3717,12 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
       <c r="F14" s="9" t="s">
         <v>208</v>
       </c>
@@ -3797,12 +3875,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4041,12 +4119,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="83" t="s">
+      <c r="A41" s="84" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -4169,12 +4247,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="76" t="s">
+      <c r="A50" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="76"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -4222,12 +4300,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="76" t="s">
+      <c r="A54" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="77"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="77"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="78"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -4638,12 +4716,12 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="78" t="s">
+      <c r="A83" s="79" t="s">
         <v>196</v>
       </c>
-      <c r="B83" s="78"/>
-      <c r="C83" s="78"/>
-      <c r="D83" s="78"/>
+      <c r="B83" s="79"/>
+      <c r="C83" s="79"/>
+      <c r="D83" s="79"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -5939,10 +6017,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:Q11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5957,20 +6035,20 @@
       <c r="A1" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="85" t="s">
         <v>280</v>
       </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
@@ -5985,18 +6063,18 @@
       <c r="D2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -6012,18 +6090,18 @@
         <f>B3*C3</f>
         <v>15300</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -6039,18 +6117,18 @@
         <f>B4*C4</f>
         <v>2250</v>
       </c>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -6066,18 +6144,18 @@
         <f>B5*C5</f>
         <v>3000</v>
       </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -6093,18 +6171,18 @@
         <f>B6*C6</f>
         <v>7700</v>
       </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -6120,18 +6198,18 @@
         <f>B7*C7</f>
         <v>2800</v>
       </c>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -6139,18 +6217,18 @@
       </c>
       <c r="C8" s="69"/>
       <c r="D8" s="69"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -6158,18 +6236,18 @@
       </c>
       <c r="C9" s="69"/>
       <c r="D9" s="69"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -6177,18 +6255,18 @@
       </c>
       <c r="C10" s="69"/>
       <c r="D10" s="69"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -6196,168 +6274,222 @@
       </c>
       <c r="C11" s="69"/>
       <c r="D11" s="69"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+    </row>
+    <row r="12" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="70">
+      <c r="B13" s="70">
         <v>51</v>
       </c>
-      <c r="C12" s="70">
+      <c r="C13" s="70">
         <v>1</v>
       </c>
-      <c r="D12" s="71">
+      <c r="D13" s="71">
         <f>SUM(D3:D11)</f>
         <v>31050</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="68" t="s">
+    <row r="15" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="68" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="61" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B16" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C16" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D16" s="61" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>284</v>
-      </c>
-      <c r="B16">
-        <v>42</v>
-      </c>
-      <c r="C16" s="69">
-        <v>350</v>
-      </c>
-      <c r="D16" s="69">
-        <f>B16*C16</f>
-        <v>14700</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C17" s="69">
-        <v>3000</v>
+        <v>350</v>
       </c>
       <c r="D17" s="69">
         <f>B17*C17</f>
-        <v>3000</v>
+        <v>14700</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>274</v>
-      </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
+        <v>266</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="69">
+        <v>3000</v>
+      </c>
+      <c r="D18" s="69">
+        <f>B18*C18</f>
+        <v>3000</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C19" s="69"/>
       <c r="D19" s="69"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C20" s="69"/>
       <c r="D20" s="69"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C21" s="69"/>
       <c r="D21" s="69"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C22" s="69"/>
       <c r="D22" s="69"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C23" s="69"/>
       <c r="D23" s="69"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C24" s="69"/>
       <c r="D24" s="69"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C26" s="69"/>
       <c r="D26" s="69"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C28" s="69"/>
       <c r="D28" s="69"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="70" t="s">
+      <c r="A29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>288</v>
+      </c>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>289</v>
+      </c>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>291</v>
+      </c>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>290</v>
+      </c>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>292</v>
+      </c>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="71">
-        <f>SUM(D16:D28)</f>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="71">
+        <f>SUM(D17:D29)</f>
         <v>17700</v>
       </c>
     </row>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="296">
   <si>
     <t>Помещение</t>
   </si>
@@ -848,9 +848,6 @@
     <t>Ширина</t>
   </si>
   <si>
-    <t>Шлакоблок 12,6 м3/1.44 м3 поддон/</t>
-  </si>
-  <si>
     <t>Доставка шлакоблока</t>
   </si>
   <si>
@@ -882,9 +879,6 @@
   </si>
   <si>
     <t>Метизы (саморезы)</t>
-  </si>
-  <si>
-    <t>Обрешетка (доска обрез или необрез 32*100 6м)</t>
   </si>
   <si>
     <t>Планка торцевая</t>
@@ -904,9 +898,6 @@
   </si>
   <si>
     <t>Цемент, меш.</t>
-  </si>
-  <si>
-    <t>Уголок под перемычек</t>
   </si>
   <si>
     <t>Профлист НС-35R, м.п.</t>
@@ -982,6 +973,24 @@
   </si>
   <si>
     <t>Монтаж утеплителя (80-100р.м2)</t>
+  </si>
+  <si>
+    <t>Уголок под перемычки 10м</t>
+  </si>
+  <si>
+    <t>Обрешетка (доска обрез или необрез 25*100 6м)</t>
+  </si>
+  <si>
+    <t>Объем</t>
+  </si>
+  <si>
+    <t>12,4 или 13,72м3</t>
+  </si>
+  <si>
+    <t>Шлакоблок /1.44 м3 пд/, поддон (9 или 10 пд)</t>
+  </si>
+  <si>
+    <t>РАБОТА</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1414,7 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -1503,6 +1512,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1527,6 +1539,9 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="15" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -2334,14 +2349,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>18027.397260273974</v>
+        <v>18180.821917808222</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2369,14 +2384,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="J4" s="14">
         <v>170000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*L1/365*I4</f>
-        <v>5565.7534246575342</v>
+        <v>5658.9041095890407</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3112,10 +3127,10 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="74" t="s">
+      <c r="C46" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="75"/>
+      <c r="D46" s="76"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
@@ -3236,14 +3251,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="73" t="s">
+      <c r="C57" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="73"/>
-      <c r="E57" s="73" t="s">
+      <c r="D57" s="74"/>
+      <c r="E57" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="73"/>
+      <c r="F57" s="74"/>
       <c r="I57" s="17" t="s">
         <v>84</v>
       </c>
@@ -3357,15 +3372,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
@@ -3563,12 +3578,12 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
@@ -3584,10 +3599,10 @@
         <f t="shared" si="0"/>
         <v>8946</v>
       </c>
-      <c r="G9" s="76" t="s">
+      <c r="G9" s="77" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="76"/>
+      <c r="H9" s="77"/>
     </row>
     <row r="10" spans="1:13" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
@@ -3717,12 +3732,12 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
       <c r="F14" s="9" t="s">
         <v>208</v>
       </c>
@@ -3875,12 +3890,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4119,12 +4134,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="84" t="s">
+      <c r="A41" s="85" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -4247,12 +4262,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="77" t="s">
+      <c r="A50" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="77"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
+      <c r="B50" s="78"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -4300,12 +4315,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="77" t="s">
+      <c r="A54" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="78"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78"/>
+      <c r="B54" s="79"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="79"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -4716,12 +4731,12 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="79" t="s">
+      <c r="A83" s="80" t="s">
         <v>196</v>
       </c>
-      <c r="B83" s="79"/>
-      <c r="C83" s="79"/>
-      <c r="D83" s="79"/>
+      <c r="B83" s="80"/>
+      <c r="C83" s="80"/>
+      <c r="D83" s="80"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -6017,485 +6032,623 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="85" t="s">
-        <v>280</v>
-      </c>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="68"/>
+      <c r="G1" s="86" t="s">
+        <v>278</v>
+      </c>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="D2" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="E2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+    </row>
+    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" s="69">
+        <v>1750</v>
+      </c>
+      <c r="E3" s="69">
+        <f>C3*D3</f>
+        <v>17500</v>
+      </c>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="69">
+        <v>250</v>
+      </c>
+      <c r="E4" s="69">
+        <f>C4*D4</f>
+        <v>2500</v>
+      </c>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>264</v>
       </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3" s="69">
-        <v>1700</v>
-      </c>
-      <c r="D3" s="69">
-        <f>B3*C3</f>
-        <v>15300</v>
-      </c>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="69">
+        <v>3000</v>
+      </c>
+      <c r="E5" s="69">
+        <f>C5*D5</f>
+        <v>3000</v>
+      </c>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6" s="69">
+        <v>220</v>
+      </c>
+      <c r="E6" s="69">
+        <f>C6*D6</f>
+        <v>8800</v>
+      </c>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="69">
+        <v>700</v>
+      </c>
+      <c r="E7" s="69">
+        <f>C7*D7</f>
+        <v>2800</v>
+      </c>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69">
+        <f>C8*D8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="69">
+        <v>300</v>
+      </c>
+      <c r="E9" s="69">
+        <f>C9*D9</f>
+        <v>600</v>
+      </c>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69">
+        <f>C10*D10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="86"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69">
+        <f>C11*D11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="87" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+    </row>
+    <row r="13" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13" s="69">
+        <v>1500</v>
+      </c>
+      <c r="E13" s="69">
+        <f>C13*D13</f>
+        <v>21000</v>
+      </c>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70">
+        <v>51</v>
+      </c>
+      <c r="D14" s="70">
+        <v>1</v>
+      </c>
+      <c r="E14" s="71">
+        <f>SUM(E3:E11)</f>
+        <v>35200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="68"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>281</v>
       </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4" s="69">
-        <v>250</v>
-      </c>
-      <c r="D4" s="69">
-        <f>B4*C4</f>
-        <v>2250</v>
-      </c>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C18">
+        <v>42</v>
+      </c>
+      <c r="D18" s="69">
+        <v>350</v>
+      </c>
+      <c r="E18" s="69">
+        <f>C18*D18</f>
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>265</v>
       </c>
-      <c r="B5">
+      <c r="C19">
         <v>1</v>
       </c>
-      <c r="C5" s="69">
+      <c r="D19" s="69">
         <v>3000</v>
       </c>
-      <c r="D5" s="69">
-        <f>B5*C5</f>
+      <c r="E19" s="69">
+        <f>C19*D19</f>
         <v>3000</v>
       </c>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>282</v>
-      </c>
-      <c r="B6">
-        <v>35</v>
-      </c>
-      <c r="C6" s="69">
-        <v>220</v>
-      </c>
-      <c r="D6" s="69">
-        <f>B6*C6</f>
-        <v>7700</v>
-      </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="85"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="69">
-        <v>700</v>
-      </c>
-      <c r="D7" s="69">
-        <f>B7*C7</f>
-        <v>2800</v>
-      </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>285</v>
-      </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>271</v>
-      </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>283</v>
-      </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>272</v>
-      </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
-    </row>
-    <row r="12" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>287</v>
-      </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="70">
-        <v>51</v>
-      </c>
-      <c r="C13" s="70">
-        <v>1</v>
-      </c>
-      <c r="D13" s="71">
-        <f>SUM(D3:D11)</f>
-        <v>31050</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="68" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>284</v>
-      </c>
-      <c r="B17">
-        <v>42</v>
-      </c>
-      <c r="C17" s="69">
-        <v>350</v>
-      </c>
-      <c r="D17" s="69">
-        <f>B17*C17</f>
-        <v>14700</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>266</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="69">
-        <v>3000</v>
-      </c>
-      <c r="D18" s="69">
-        <f>B18*C18</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>274</v>
-      </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>273</v>
       </c>
-      <c r="C20" s="69"/>
       <c r="D20" s="69"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="69">
+        <f>C20*D20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>272</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69">
+        <f>C21*D21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69">
+        <f>C22*D22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>267</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C23">
+        <v>13</v>
+      </c>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69">
+        <f>C23*D23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>291</v>
+      </c>
+      <c r="C24">
+        <v>56</v>
+      </c>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69">
+        <f>C24*D24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>268</v>
       </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69">
+        <f>C25*D25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>269</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69">
+        <f>C26*D26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>277</v>
+      </c>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69">
+        <f>C27*D27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>276</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>269</v>
-      </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>270</v>
-      </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>279</v>
-      </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>278</v>
-      </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>277</v>
-      </c>
-      <c r="C28" s="69"/>
       <c r="D28" s="69"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="69">
+        <f>C28*D28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>275</v>
       </c>
-      <c r="C29" s="69"/>
       <c r="D29" s="69"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="69">
+        <f>C29*D29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>274</v>
+      </c>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69">
+        <f>C30*D30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="87" t="s">
+        <v>295</v>
+      </c>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>285</v>
+      </c>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69">
+        <f>C32*D32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>286</v>
+      </c>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69">
+        <f>C33*D33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>288</v>
       </c>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="D34" s="69"/>
+      <c r="E34" s="69">
+        <f>C34*D34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>287</v>
+      </c>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69">
+        <f>C35*D35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>289</v>
       </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>291</v>
-      </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>290</v>
-      </c>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>292</v>
-      </c>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="70" t="s">
+      <c r="D36" s="69"/>
+      <c r="E36" s="69">
+        <f>C36*D36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="71">
-        <f>SUM(D17:D29)</f>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="71">
+        <f>SUM(E18:E30)</f>
         <v>17700</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:Q11"/>
+  <mergeCells count="3">
+    <mergeCell ref="G1:R11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -984,13 +984,13 @@
     <t>Объем</t>
   </si>
   <si>
-    <t>12,4 или 13,72м3</t>
-  </si>
-  <si>
     <t>Шлакоблок /1.44 м3 пд/, поддон (9 или 10 пд)</t>
   </si>
   <si>
     <t>РАБОТА</t>
+  </si>
+  <si>
+    <t>12,34 или 13,72м3</t>
   </si>
 </sst>
 </file>
@@ -998,8 +998,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot;р.&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
@@ -1411,7 +1411,7 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="88">
@@ -1536,7 +1536,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2349,14 +2349,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>18180.821917808222</v>
+        <v>18257.534246575346</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2384,14 +2384,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J4" s="14">
         <v>170000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*L1/365*I4</f>
-        <v>5658.9041095890407</v>
+        <v>5705.4794520547939</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -6035,7 +6035,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:E31"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6098,10 +6098,10 @@
     </row>
     <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -6110,7 +6110,7 @@
         <v>1750</v>
       </c>
       <c r="E3" s="69">
-        <f>C3*D3</f>
+        <f t="shared" ref="E3:E11" si="0">C3*D3</f>
         <v>17500</v>
       </c>
       <c r="G3" s="86"/>
@@ -6137,7 +6137,7 @@
         <v>250</v>
       </c>
       <c r="E4" s="69">
-        <f>C4*D4</f>
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="G4" s="86"/>
@@ -6164,7 +6164,7 @@
         <v>3000</v>
       </c>
       <c r="E5" s="69">
-        <f>C5*D5</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="G5" s="86"/>
@@ -6191,7 +6191,7 @@
         <v>220</v>
       </c>
       <c r="E6" s="69">
-        <f>C6*D6</f>
+        <f t="shared" si="0"/>
         <v>8800</v>
       </c>
       <c r="G6" s="86"/>
@@ -6218,7 +6218,7 @@
         <v>700</v>
       </c>
       <c r="E7" s="69">
-        <f>C7*D7</f>
+        <f t="shared" si="0"/>
         <v>2800</v>
       </c>
       <c r="G7" s="86"/>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="D8" s="69"/>
       <c r="E8" s="69">
-        <f>C8*D8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8" s="86"/>
@@ -6267,7 +6267,7 @@
         <v>300</v>
       </c>
       <c r="E9" s="69">
-        <f>C9*D9</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="G9" s="86"/>
@@ -6292,7 +6292,7 @@
       </c>
       <c r="D10" s="69"/>
       <c r="E10" s="69">
-        <f>C10*D10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10" s="86"/>
@@ -6314,7 +6314,7 @@
       </c>
       <c r="D11" s="69"/>
       <c r="E11" s="69">
-        <f>C11*D11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G11" s="86"/>
@@ -6332,7 +6332,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="87" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B12" s="87"/>
       <c r="C12" s="87"/>
@@ -6426,7 +6426,7 @@
         <v>350</v>
       </c>
       <c r="E18" s="69">
-        <f>C18*D18</f>
+        <f t="shared" ref="E18:E30" si="1">C18*D18</f>
         <v>14700</v>
       </c>
     </row>
@@ -6441,7 +6441,7 @@
         <v>3000</v>
       </c>
       <c r="E19" s="69">
-        <f>C19*D19</f>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
     </row>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="D20" s="69"/>
       <c r="E20" s="69">
-        <f>C20*D20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6464,7 +6464,7 @@
       </c>
       <c r="D21" s="69"/>
       <c r="E21" s="69">
-        <f>C21*D21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="D22" s="69"/>
       <c r="E22" s="69">
-        <f>C22*D22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="D23" s="69"/>
       <c r="E23" s="69">
-        <f>C23*D23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="D24" s="69"/>
       <c r="E24" s="69">
-        <f>C24*D24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="D25" s="69"/>
       <c r="E25" s="69">
-        <f>C25*D25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6529,7 +6529,7 @@
       </c>
       <c r="D26" s="69"/>
       <c r="E26" s="69">
-        <f>C26*D26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="D27" s="69"/>
       <c r="E27" s="69">
-        <f>C27*D27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="D28" s="69"/>
       <c r="E28" s="69">
-        <f>C28*D28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6559,7 +6559,7 @@
       </c>
       <c r="D29" s="69"/>
       <c r="E29" s="69">
-        <f>C29*D29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6569,13 +6569,13 @@
       </c>
       <c r="D30" s="69"/>
       <c r="E30" s="69">
-        <f>C30*D30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="87" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B31" s="87"/>
       <c r="C31" s="87"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="301">
   <si>
     <t>Помещение</t>
   </si>
@@ -991,6 +991,21 @@
   </si>
   <si>
     <t>12,34 или 13,72м3</t>
+  </si>
+  <si>
+    <t>Цены на материалы</t>
+  </si>
+  <si>
+    <t>НС-35</t>
+  </si>
+  <si>
+    <t>Цена за м3</t>
+  </si>
+  <si>
+    <t>Цена за м.п.</t>
+  </si>
+  <si>
+    <t>С-21</t>
   </si>
 </sst>
 </file>
@@ -1414,7 +1429,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -1543,6 +1558,8 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="15" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
@@ -2349,14 +2366,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>18257.534246575346</v>
+        <v>18334.246575342469</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2384,14 +2401,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J4" s="14">
         <v>170000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*L1/365*I4</f>
-        <v>5705.4794520547939</v>
+        <v>5752.0547945205481</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -6034,8 +6051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6045,6 +6062,10 @@
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
@@ -6400,7 +6421,7 @@
       </c>
       <c r="B16" s="68"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
         <v>107</v>
       </c>
@@ -6414,8 +6435,13 @@
       <c r="E17" s="61" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>281</v>
       </c>
@@ -6423,14 +6449,23 @@
         <v>42</v>
       </c>
       <c r="D18" s="69">
-        <v>350</v>
+        <v>477</v>
       </c>
       <c r="E18" s="69">
         <f t="shared" ref="E18:E30" si="1">C18*D18</f>
-        <v>14700</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20034</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
+        <v>298</v>
+      </c>
+      <c r="I18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>265</v>
       </c>
@@ -6444,8 +6479,18 @@
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>297</v>
+      </c>
+      <c r="H19" s="89">
+        <v>450</v>
+      </c>
+      <c r="I19" s="88">
+        <f>H19*1.06</f>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>273</v>
       </c>
@@ -6454,8 +6499,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>300</v>
+      </c>
+      <c r="H20" s="89">
+        <v>425</v>
+      </c>
+      <c r="I20" s="88">
+        <f>H20*1.051</f>
+        <v>446.67499999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>272</v>
       </c>
@@ -6468,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>266</v>
       </c>
@@ -6481,7 +6536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>267</v>
       </c>
@@ -6494,7 +6549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>291</v>
       </c>
@@ -6507,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>268</v>
       </c>
@@ -6520,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>269</v>
       </c>
@@ -6533,7 +6588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>277</v>
       </c>
@@ -6543,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>276</v>
       </c>
@@ -6553,7 +6608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>275</v>
       </c>
@@ -6563,7 +6618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>274</v>
       </c>
@@ -6573,7 +6628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="87" t="s">
         <v>294</v>
       </c>
@@ -6582,7 +6637,7 @@
       <c r="D31" s="87"/>
       <c r="E31" s="87"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>285</v>
       </c>
@@ -6641,7 +6696,7 @@
       <c r="D37" s="70"/>
       <c r="E37" s="71">
         <f>SUM(E18:E30)</f>
-        <v>17700</v>
+        <v>23034</v>
       </c>
     </row>
   </sheetData>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -1530,6 +1530,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1558,8 +1560,6 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="15" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
@@ -2366,14 +2366,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>18334.246575342469</v>
+        <v>18526.027397260277</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2401,14 +2401,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="J4" s="14">
         <v>170000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*L1/365*I4</f>
-        <v>5752.0547945205481</v>
+        <v>5868.4931506849316</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3144,10 +3144,10 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="75" t="s">
+      <c r="C46" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="76"/>
+      <c r="D46" s="78"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
@@ -3268,14 +3268,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="74" t="s">
+      <c r="C57" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74" t="s">
+      <c r="D57" s="76"/>
+      <c r="E57" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="74"/>
+      <c r="F57" s="76"/>
       <c r="I57" s="17" t="s">
         <v>84</v>
       </c>
@@ -3595,12 +3595,12 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
@@ -3616,10 +3616,10 @@
         <f t="shared" si="0"/>
         <v>8946</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="77"/>
+      <c r="H9" s="79"/>
     </row>
     <row r="10" spans="1:13" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
@@ -3749,12 +3749,12 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
       <c r="F14" s="9" t="s">
         <v>208</v>
       </c>
@@ -3907,12 +3907,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4151,12 +4151,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="85" t="s">
+      <c r="A41" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="87"/>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -4279,12 +4279,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="78" t="s">
+      <c r="A50" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="78"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -4332,12 +4332,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="78" t="s">
+      <c r="A54" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="79"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="81"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -4748,12 +4748,12 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="80" t="s">
+      <c r="A83" s="82" t="s">
         <v>196</v>
       </c>
-      <c r="B83" s="80"/>
-      <c r="C83" s="80"/>
-      <c r="D83" s="80"/>
+      <c r="B83" s="82"/>
+      <c r="C83" s="82"/>
+      <c r="D83" s="82"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -6073,20 +6073,20 @@
         <v>128</v>
       </c>
       <c r="B1" s="68"/>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="88" t="s">
         <v>278</v>
       </c>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
@@ -6104,18 +6104,18 @@
       <c r="E2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
     </row>
     <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -6134,18 +6134,18 @@
         <f t="shared" ref="E3:E11" si="0">C3*D3</f>
         <v>17500</v>
       </c>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -6161,18 +6161,18 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -6188,18 +6188,18 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -6215,18 +6215,18 @@
         <f t="shared" si="0"/>
         <v>8800</v>
       </c>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -6242,18 +6242,18 @@
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -6264,18 +6264,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -6291,18 +6291,18 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -6316,18 +6316,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="88"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -6338,27 +6338,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="86"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="88"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="89" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
       <c r="G12" s="73"/>
       <c r="H12" s="73"/>
       <c r="I12" s="73"/>
@@ -6482,10 +6482,10 @@
       <c r="G19" t="s">
         <v>297</v>
       </c>
-      <c r="H19" s="89">
+      <c r="H19" s="75">
         <v>450</v>
       </c>
-      <c r="I19" s="88">
+      <c r="I19" s="74">
         <f>H19*1.06</f>
         <v>477</v>
       </c>
@@ -6502,10 +6502,10 @@
       <c r="G20" t="s">
         <v>300</v>
       </c>
-      <c r="H20" s="89">
+      <c r="H20" s="75">
         <v>425</v>
       </c>
-      <c r="I20" s="88">
+      <c r="I20" s="74">
         <f>H20*1.051</f>
         <v>446.67499999999995</v>
       </c>
@@ -6629,13 +6629,13 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="89" t="s">
         <v>294</v>
       </c>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="303">
   <si>
     <t>Помещение</t>
   </si>
@@ -1007,14 +1007,20 @@
   <si>
     <t>С-21</t>
   </si>
+  <si>
+    <t>Отделка кораедом</t>
+  </si>
+  <si>
+    <t>Штукатурка черновая</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot;р.&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
@@ -1426,7 +1432,7 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="90">
@@ -1530,6 +1536,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1551,15 +1559,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="15" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
@@ -2366,14 +2372,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>18334.246575342469</v>
+        <v>18564.383561643837</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2401,14 +2407,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="J4" s="14">
         <v>170000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*L1/365*I4</f>
-        <v>5752.0547945205481</v>
+        <v>5891.7808219178078</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3144,10 +3150,10 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="75" t="s">
+      <c r="C46" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="76"/>
+      <c r="D46" s="78"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
@@ -3268,14 +3274,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="74" t="s">
+      <c r="C57" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74" t="s">
+      <c r="D57" s="76"/>
+      <c r="E57" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="74"/>
+      <c r="F57" s="76"/>
       <c r="I57" s="17" t="s">
         <v>84</v>
       </c>
@@ -3389,8 +3395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3401,7 +3407,7 @@
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
@@ -3553,7 +3559,7 @@
       </c>
       <c r="G6" s="14">
         <f>D98</f>
-        <v>37890</v>
+        <v>27500</v>
       </c>
       <c r="H6" s="14">
         <f>SUM(D96:D97)</f>
@@ -3561,7 +3567,7 @@
       </c>
       <c r="I6" s="14">
         <f>G6-H6</f>
-        <v>20290</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
@@ -3583,7 +3589,7 @@
       </c>
       <c r="G7" s="48">
         <f>SUM(G3:G6)</f>
-        <v>163984.79999999999</v>
+        <v>153594.79999999999</v>
       </c>
       <c r="H7" s="48">
         <f>SUM(H3:H6)</f>
@@ -3591,16 +3597,16 @@
       </c>
       <c r="I7" s="48">
         <f>SUM(I3:I6)</f>
-        <v>100984.8</v>
+        <v>90594.8</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
@@ -3616,10 +3622,10 @@
         <f t="shared" si="0"/>
         <v>8946</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="77"/>
+      <c r="H9" s="79"/>
     </row>
     <row r="10" spans="1:13" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
@@ -3749,12 +3755,12 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
       <c r="F14" s="9" t="s">
         <v>208</v>
       </c>
@@ -3907,12 +3913,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4151,12 +4157,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="85" t="s">
+      <c r="A41" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="87"/>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -4279,12 +4285,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="78" t="s">
+      <c r="A50" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="78"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -4332,12 +4338,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="78" t="s">
+      <c r="A54" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="79"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="81"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -4748,12 +4754,12 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="80" t="s">
+      <c r="A83" s="82" t="s">
         <v>196</v>
       </c>
-      <c r="B83" s="80"/>
-      <c r="C83" s="80"/>
-      <c r="D83" s="80"/>
+      <c r="B83" s="82"/>
+      <c r="C83" s="82"/>
+      <c r="D83" s="82"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -4972,8 +4978,8 @@
       <c r="B98" s="40"/>
       <c r="C98" s="44"/>
       <c r="D98" s="44">
-        <f>SUM(D84:D97)</f>
-        <v>37890</v>
+        <f>SUM(D89:D96)</f>
+        <v>27500</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -6052,7 +6058,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:H20"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6066,6 +6072,8 @@
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" customWidth="1"/>
     <col min="10" max="10" width="8.140625" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
@@ -6073,20 +6081,20 @@
         <v>128</v>
       </c>
       <c r="B1" s="68"/>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="88" t="s">
         <v>278</v>
       </c>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
@@ -6104,18 +6112,18 @@
       <c r="E2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
     </row>
     <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -6134,18 +6142,18 @@
         <f t="shared" ref="E3:E11" si="0">C3*D3</f>
         <v>17500</v>
       </c>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -6161,18 +6169,18 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -6188,18 +6196,18 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -6215,18 +6223,18 @@
         <f t="shared" si="0"/>
         <v>8800</v>
       </c>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -6242,18 +6250,18 @@
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -6264,18 +6272,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -6291,18 +6299,18 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -6316,18 +6324,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="88"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -6338,27 +6346,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="86"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="88"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="89" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
       <c r="G12" s="73"/>
       <c r="H12" s="73"/>
       <c r="I12" s="73"/>
@@ -6421,7 +6429,7 @@
       </c>
       <c r="B16" s="68"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
         <v>107</v>
       </c>
@@ -6440,8 +6448,15 @@
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>301</v>
+      </c>
+      <c r="N17" s="14">
+        <f>(SUM(Веранда!D89:D94,Веранда!D96)/26)*51</f>
+        <v>52961.538461538468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>281</v>
       </c>
@@ -6465,7 +6480,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>265</v>
       </c>
@@ -6482,15 +6497,22 @@
       <c r="G19" t="s">
         <v>297</v>
       </c>
-      <c r="H19" s="89">
+      <c r="H19" s="75">
         <v>450</v>
       </c>
-      <c r="I19" s="88">
+      <c r="I19" s="74">
         <f>H19*1.06</f>
         <v>477</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>302</v>
+      </c>
+      <c r="N19" s="14">
+        <f>(SUM(Веранда!B59:E59,Веранда!D59,Веранда!D58,Веранда!D57,Веранда!D56)/19)*51</f>
+        <v>31134.157894736843</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>273</v>
       </c>
@@ -6502,15 +6524,15 @@
       <c r="G20" t="s">
         <v>300</v>
       </c>
-      <c r="H20" s="89">
+      <c r="H20" s="75">
         <v>425</v>
       </c>
-      <c r="I20" s="88">
+      <c r="I20" s="74">
         <f>H20*1.051</f>
         <v>446.67499999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>272</v>
       </c>
@@ -6523,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>266</v>
       </c>
@@ -6536,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>267</v>
       </c>
@@ -6549,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>291</v>
       </c>
@@ -6562,7 +6584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>268</v>
       </c>
@@ -6575,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>269</v>
       </c>
@@ -6588,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>277</v>
       </c>
@@ -6598,7 +6620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>276</v>
       </c>
@@ -6608,7 +6630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>275</v>
       </c>
@@ -6618,7 +6640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>274</v>
       </c>
@@ -6628,16 +6650,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="87" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="89" t="s">
         <v>294</v>
       </c>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="89"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>285</v>
       </c>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="313">
   <si>
     <t>Помещение</t>
   </si>
@@ -966,9 +966,6 @@
     <t>Подшива карниза (300-400р.м.п)</t>
   </si>
   <si>
-    <t>Стропилька (300-500р.м2)</t>
-  </si>
-  <si>
     <t>Монтаж черепицы(200-400р.м2)</t>
   </si>
   <si>
@@ -1006,6 +1003,45 @@
   </si>
   <si>
     <t>С-21</t>
+  </si>
+  <si>
+    <t>Монтаж Стропилки (300-500р.м2)</t>
+  </si>
+  <si>
+    <t>Монтаж мауэрлата</t>
+  </si>
+  <si>
+    <t>Антисептирование пиломатериалов</t>
+  </si>
+  <si>
+    <t>Устройство контробрешетки</t>
+  </si>
+  <si>
+    <t>Устройство шаговой обрешетки</t>
+  </si>
+  <si>
+    <t>Монтаж пароизоляции</t>
+  </si>
+  <si>
+    <t>Монтаж гидроизоляции</t>
+  </si>
+  <si>
+    <t>Укладка утеплителя</t>
+  </si>
+  <si>
+    <t>Монтаж карнизной планки(капельник)</t>
+  </si>
+  <si>
+    <t>Монтаж ветровой(торцевой) планки</t>
+  </si>
+  <si>
+    <t>Устройство примыканий к стенам (трубам)</t>
+  </si>
+  <si>
+    <t>Устройство каркаса фронтонных и карнизных свесов</t>
+  </si>
+  <si>
+    <t>Подшивка карнизных и торцевых свесов</t>
   </si>
 </sst>
 </file>
@@ -2366,14 +2402,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>18526.027397260277</v>
+        <v>18679.452054794521</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2401,14 +2437,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J4" s="14">
         <v>170000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*L1/365*I4</f>
-        <v>5868.4931506849316</v>
+        <v>5961.6438356164381</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -6049,10 +6085,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:H20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6093,7 +6129,7 @@
         <v>107</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C2" s="61" t="s">
         <v>108</v>
@@ -6119,10 +6155,10 @@
     </row>
     <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -6306,7 +6342,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -6353,7 +6389,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B12" s="89"/>
       <c r="C12" s="89"/>
@@ -6436,7 +6472,7 @@
         <v>19</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
@@ -6459,10 +6495,10 @@
         <v>18</v>
       </c>
       <c r="H18" t="s">
+        <v>297</v>
+      </c>
+      <c r="I18" t="s">
         <v>298</v>
-      </c>
-      <c r="I18" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -6480,7 +6516,7 @@
         <v>3000</v>
       </c>
       <c r="G19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H19" s="75">
         <v>450</v>
@@ -6500,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H20" s="75">
         <v>425</v>
@@ -6551,7 +6587,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C24">
         <v>56</v>
@@ -6630,7 +6666,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B31" s="89"/>
       <c r="C31" s="89"/>
@@ -6649,7 +6685,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="D33" s="69"/>
       <c r="E33" s="69">
@@ -6659,7 +6695,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="D34" s="69"/>
       <c r="E34" s="69">
@@ -6669,7 +6705,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="D35" s="69"/>
       <c r="E35" s="69">
@@ -6679,7 +6715,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="D36" s="69"/>
       <c r="E36" s="69">
@@ -6688,13 +6724,133 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="70" t="s">
+      <c r="A37" t="s">
+        <v>303</v>
+      </c>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69">
+        <f>C37*D37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>302</v>
+      </c>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69">
+        <f>C38*D38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>301</v>
+      </c>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69">
+        <f>C39*D39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>308</v>
+      </c>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69">
+        <f>C40*D40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>309</v>
+      </c>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69">
+        <f>C41*D41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>310</v>
+      </c>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69">
+        <f>C42*D42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69">
+        <f>C43*D43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69">
+        <f>C44*D44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>286</v>
+      </c>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69">
+        <f>C45*D45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>287</v>
+      </c>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69">
+        <f>C46*D46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>300</v>
+      </c>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69">
+        <f>C47*D47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>288</v>
+      </c>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69">
+        <f>C48*D48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="71">
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="71">
         <f>SUM(E18:E30)</f>
         <v>23034</v>
       </c>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="352">
   <si>
     <t>Помещение</t>
   </si>
@@ -1043,6 +1043,123 @@
   <si>
     <t>Подшивка карнизных и торцевых свесов</t>
   </si>
+  <si>
+    <t>Работа от исполнителей</t>
+  </si>
+  <si>
+    <t>Карнизы</t>
+  </si>
+  <si>
+    <t>От Ивана</t>
+  </si>
+  <si>
+    <t>От Карпусь А.</t>
+  </si>
+  <si>
+    <t>Расчет материалов</t>
+  </si>
+  <si>
+    <t>Мои</t>
+  </si>
+  <si>
+    <t>Брус 50*200</t>
+  </si>
+  <si>
+    <t>Уголок 90*90*65*2</t>
+  </si>
+  <si>
+    <t>Брус 50*50</t>
+  </si>
+  <si>
+    <t>Шпилька</t>
+  </si>
+  <si>
+    <t>Гайка</t>
+  </si>
+  <si>
+    <t>Шайба</t>
+  </si>
+  <si>
+    <t>Гвозди</t>
+  </si>
+  <si>
+    <t>Саморезы по дереву 51мм</t>
+  </si>
+  <si>
+    <t>КРОВЛЯ</t>
+  </si>
+  <si>
+    <t>"ДРОВА"</t>
+  </si>
+  <si>
+    <t>Профлист НС-35</t>
+  </si>
+  <si>
+    <t>Саморез кровельный</t>
+  </si>
+  <si>
+    <t>Карнизная планка</t>
+  </si>
+  <si>
+    <t>Фронтальная планка</t>
+  </si>
+  <si>
+    <t>Пристенок</t>
+  </si>
+  <si>
+    <t>Профлист С-8</t>
+  </si>
+  <si>
+    <t>Угол 30*30</t>
+  </si>
+  <si>
+    <t>G-профиль</t>
+  </si>
+  <si>
+    <t>Утеплитель рулонный</t>
+  </si>
+  <si>
+    <t>Пленка Фастбонд</t>
+  </si>
+  <si>
+    <t>Пленка Руфбонд</t>
+  </si>
+  <si>
+    <t>Ед.изм.</t>
+  </si>
+  <si>
+    <t>Доска 30*100</t>
+  </si>
+  <si>
+    <t>6 м шт.</t>
+  </si>
+  <si>
+    <t>шт.</t>
+  </si>
+  <si>
+    <t>м.п.</t>
+  </si>
+  <si>
+    <t>кг</t>
+  </si>
+  <si>
+    <t>2м шт.</t>
+  </si>
+  <si>
+    <t>3м шт.</t>
+  </si>
+  <si>
+    <t>Стоимость</t>
+  </si>
+  <si>
+    <t>6м листы</t>
+  </si>
+  <si>
+    <t>5.95м шт.</t>
+  </si>
+  <si>
+    <t>Брус 100*150</t>
+  </si>
 </sst>
 </file>
 
@@ -1056,7 +1173,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1238,8 +1355,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1347,8 +1473,20 @@
         <fgColor theme="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1439,8 +1577,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1464,8 +1659,11 @@
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -1568,6 +1766,9 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1596,8 +1797,37 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="15" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="14" borderId="5" xfId="21" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="25"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="8" xfId="23" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="23" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="25" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="24"/>
+    <xf numFmtId="164" fontId="3" fillId="20" borderId="12" xfId="21" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="26">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
     <cellStyle name="20% - Акцент3" xfId="11" builtinId="38"/>
     <cellStyle name="20% - Акцент4" xfId="19" builtinId="42"/>
@@ -1606,6 +1836,8 @@
     <cellStyle name="40% - Акцент2" xfId="14" builtinId="35"/>
     <cellStyle name="40% - Акцент3" xfId="18" builtinId="39"/>
     <cellStyle name="40% - Акцент5" xfId="20" builtinId="47"/>
+    <cellStyle name="40% - Акцент6" xfId="25" builtinId="51"/>
+    <cellStyle name="60% - Акцент1" xfId="24" builtinId="32"/>
     <cellStyle name="60% - Акцент2" xfId="6" builtinId="36"/>
     <cellStyle name="60% - Акцент3" xfId="7" builtinId="40"/>
     <cellStyle name="60% - Акцент4" xfId="4" builtinId="44"/>
@@ -1613,6 +1845,7 @@
     <cellStyle name="Акцент2" xfId="10" builtinId="33"/>
     <cellStyle name="Акцент3" xfId="13" builtinId="37"/>
     <cellStyle name="Акцент5" xfId="22" builtinId="45"/>
+    <cellStyle name="Вывод" xfId="23" builtinId="21"/>
     <cellStyle name="Вычисление" xfId="16" builtinId="22"/>
     <cellStyle name="Денежный" xfId="21" builtinId="4"/>
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
@@ -2402,14 +2635,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>18679.452054794521</v>
+        <v>18832.876712328769</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2437,14 +2670,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="J4" s="14">
         <v>170000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*L1/365*I4</f>
-        <v>5961.6438356164381</v>
+        <v>6054.7945205479446</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3180,10 +3413,10 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="77" t="s">
+      <c r="C46" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="78"/>
+      <c r="D46" s="79"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
@@ -3304,14 +3537,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="76" t="s">
+      <c r="C57" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76" t="s">
+      <c r="D57" s="77"/>
+      <c r="E57" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="76"/>
+      <c r="F57" s="77"/>
       <c r="I57" s="17" t="s">
         <v>84</v>
       </c>
@@ -3631,12 +3864,12 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
@@ -3652,10 +3885,10 @@
         <f t="shared" si="0"/>
         <v>8946</v>
       </c>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="80" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="79"/>
+      <c r="H9" s="80"/>
     </row>
     <row r="10" spans="1:13" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
@@ -3785,12 +4018,12 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
       <c r="F14" s="9" t="s">
         <v>208</v>
       </c>
@@ -3943,12 +4176,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="86" t="s">
+      <c r="A24" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4187,12 +4420,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="87" t="s">
+      <c r="A41" s="88" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="87"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="87"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -4315,12 +4548,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="80" t="s">
+      <c r="A50" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="80"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -4368,12 +4601,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="80" t="s">
+      <c r="A54" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="81"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="81"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -4784,12 +5017,12 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="82" t="s">
+      <c r="A83" s="83" t="s">
         <v>196</v>
       </c>
-      <c r="B83" s="82"/>
-      <c r="C83" s="82"/>
-      <c r="D83" s="82"/>
+      <c r="B83" s="83"/>
+      <c r="C83" s="83"/>
+      <c r="D83" s="83"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -6085,10 +6318,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6099,32 +6332,37 @@
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" customWidth="1"/>
+    <col min="8" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="68" t="s">
         <v>128</v>
       </c>
       <c r="B1" s="68"/>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="89" t="s">
         <v>278</v>
       </c>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
         <v>107</v>
       </c>
@@ -6140,20 +6378,22 @@
       <c r="E2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-    </row>
-    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+    </row>
+    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>292</v>
       </c>
@@ -6170,20 +6410,22 @@
         <f t="shared" ref="E3:E11" si="0">C3*D3</f>
         <v>17500</v>
       </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>279</v>
       </c>
@@ -6197,20 +6439,22 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>264</v>
       </c>
@@ -6224,20 +6468,22 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="89"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>280</v>
       </c>
@@ -6251,20 +6497,22 @@
         <f t="shared" si="0"/>
         <v>8800</v>
       </c>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>283</v>
       </c>
@@ -6278,20 +6526,22 @@
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="89"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>282</v>
       </c>
@@ -6300,20 +6550,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>270</v>
       </c>
@@ -6327,20 +6579,22 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="88"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>289</v>
       </c>
@@ -6352,20 +6606,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="88"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>271</v>
       </c>
@@ -6374,31 +6630,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="88"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="89" t="s">
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="90" t="s">
         <v>293</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
       <c r="G12" s="73"/>
       <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
       <c r="K12" s="73"/>
       <c r="L12" s="73"/>
       <c r="M12" s="73"/>
@@ -6407,8 +6665,10 @@
       <c r="P12" s="73"/>
       <c r="Q12" s="73"/>
       <c r="R12" s="73"/>
-    </row>
-    <row r="13" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="S12" s="73"/>
+      <c r="T12" s="73"/>
+    </row>
+    <row r="13" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>284</v>
       </c>
@@ -6424,8 +6684,8 @@
       </c>
       <c r="G13" s="72"/>
       <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
       <c r="K13" s="72"/>
       <c r="L13" s="72"/>
       <c r="M13" s="72"/>
@@ -6434,8 +6694,10 @@
       <c r="P13" s="72"/>
       <c r="Q13" s="72"/>
       <c r="R13" s="72"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
         <v>7</v>
       </c>
@@ -6451,13 +6713,13 @@
         <v>35200</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="68" t="s">
         <v>157</v>
       </c>
       <c r="B16" s="68"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
         <v>107</v>
       </c>
@@ -6476,8 +6738,21 @@
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="M17" s="91" t="s">
+        <v>313</v>
+      </c>
+      <c r="N17" s="91"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q17" s="39" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>281</v>
       </c>
@@ -6497,11 +6772,21 @@
       <c r="H18" t="s">
         <v>297</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M18" s="92" t="s">
+        <v>315</v>
+      </c>
+      <c r="N18" s="92"/>
+      <c r="P18" s="75">
+        <v>600</v>
+      </c>
+      <c r="Q18" s="75">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>265</v>
       </c>
@@ -6521,12 +6806,24 @@
       <c r="H19" s="75">
         <v>450</v>
       </c>
-      <c r="I19" s="74">
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="74">
         <f>H19*1.06</f>
         <v>477</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M19" s="93" t="s">
+        <v>316</v>
+      </c>
+      <c r="N19" s="93"/>
+      <c r="P19" s="75">
+        <v>1140</v>
+      </c>
+      <c r="Q19" s="75">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>273</v>
       </c>
@@ -6541,12 +6838,14 @@
       <c r="H20" s="75">
         <v>425</v>
       </c>
-      <c r="I20" s="74">
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="74">
         <f>H20*1.051</f>
         <v>446.67499999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>272</v>
       </c>
@@ -6559,7 +6858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>266</v>
       </c>
@@ -6572,7 +6871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>267</v>
       </c>
@@ -6585,7 +6884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>290</v>
       </c>
@@ -6598,7 +6897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>268</v>
       </c>
@@ -6611,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>269</v>
       </c>
@@ -6624,7 +6923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>277</v>
       </c>
@@ -6634,7 +6933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>276</v>
       </c>
@@ -6644,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>275</v>
       </c>
@@ -6654,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>274</v>
       </c>
@@ -6664,22 +6963,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="89" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="90" t="s">
         <v>293</v>
       </c>
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>285</v>
       </c>
       <c r="D32" s="69"/>
       <c r="E32" s="69">
-        <f>C32*D32</f>
+        <f t="shared" ref="E32:E48" si="2">C32*D32</f>
         <v>0</v>
       </c>
     </row>
@@ -6689,7 +6988,7 @@
       </c>
       <c r="D33" s="69"/>
       <c r="E33" s="69">
-        <f>C33*D33</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6699,7 +6998,7 @@
       </c>
       <c r="D34" s="69"/>
       <c r="E34" s="69">
-        <f>C34*D34</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6709,7 +7008,7 @@
       </c>
       <c r="D35" s="69"/>
       <c r="E35" s="69">
-        <f>C35*D35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6719,7 +7018,7 @@
       </c>
       <c r="D36" s="69"/>
       <c r="E36" s="69">
-        <f>C36*D36</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6729,7 +7028,7 @@
       </c>
       <c r="D37" s="69"/>
       <c r="E37" s="69">
-        <f>C37*D37</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6739,7 +7038,7 @@
       </c>
       <c r="D38" s="69"/>
       <c r="E38" s="69">
-        <f>C38*D38</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6749,17 +7048,17 @@
       </c>
       <c r="D39" s="69"/>
       <c r="E39" s="69">
-        <f>C39*D39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>308</v>
       </c>
       <c r="D40" s="69"/>
       <c r="E40" s="69">
-        <f>C40*D40</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6769,7 +7068,7 @@
       </c>
       <c r="D41" s="69"/>
       <c r="E41" s="69">
-        <f>C41*D41</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6779,7 +7078,7 @@
       </c>
       <c r="D42" s="69"/>
       <c r="E42" s="69">
-        <f>C42*D42</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6789,7 +7088,7 @@
       </c>
       <c r="D43" s="69"/>
       <c r="E43" s="69">
-        <f>C43*D43</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6799,7 +7098,7 @@
       </c>
       <c r="D44" s="69"/>
       <c r="E44" s="69">
-        <f>C44*D44</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6809,7 +7108,7 @@
       </c>
       <c r="D45" s="69"/>
       <c r="E45" s="69">
-        <f>C45*D45</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6819,7 +7118,7 @@
       </c>
       <c r="D46" s="69"/>
       <c r="E46" s="69">
-        <f>C46*D46</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6829,7 +7128,7 @@
       </c>
       <c r="D47" s="69"/>
       <c r="E47" s="69">
-        <f>C47*D47</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6839,11 +7138,11 @@
       </c>
       <c r="D48" s="69"/>
       <c r="E48" s="69">
-        <f>C48*D48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="70" t="s">
         <v>7</v>
       </c>
@@ -6855,11 +7154,341 @@
         <v>23034</v>
       </c>
     </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="94" t="s">
+        <v>317</v>
+      </c>
+      <c r="B53" s="94"/>
+      <c r="C53" s="98" t="s">
+        <v>291</v>
+      </c>
+      <c r="D53" s="98" t="s">
+        <v>340</v>
+      </c>
+      <c r="E53" s="94" t="s">
+        <v>315</v>
+      </c>
+      <c r="F53" s="94" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="96" t="s">
+        <v>328</v>
+      </c>
+      <c r="B54" s="96"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="96"/>
+      <c r="F54" s="96"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="100" t="s">
+        <v>319</v>
+      </c>
+      <c r="B55" s="100"/>
+      <c r="D55" t="s">
+        <v>342</v>
+      </c>
+      <c r="E55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="105" t="s">
+        <v>351</v>
+      </c>
+      <c r="B56" s="105"/>
+      <c r="D56" t="s">
+        <v>342</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="95" t="s">
+        <v>341</v>
+      </c>
+      <c r="B57" s="95"/>
+      <c r="D57" t="s">
+        <v>342</v>
+      </c>
+      <c r="E57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="95" t="s">
+        <v>320</v>
+      </c>
+      <c r="B58" s="95"/>
+      <c r="D58" t="s">
+        <v>343</v>
+      </c>
+      <c r="E58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="95" t="s">
+        <v>321</v>
+      </c>
+      <c r="B59" s="95"/>
+      <c r="D59" t="s">
+        <v>344</v>
+      </c>
+      <c r="E59">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="95" t="s">
+        <v>322</v>
+      </c>
+      <c r="B60" s="95"/>
+      <c r="D60" t="s">
+        <v>344</v>
+      </c>
+      <c r="E60">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="95" t="s">
+        <v>323</v>
+      </c>
+      <c r="B61" s="95"/>
+      <c r="D61" t="s">
+        <v>343</v>
+      </c>
+      <c r="E61">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="95" t="s">
+        <v>324</v>
+      </c>
+      <c r="B62" s="95"/>
+      <c r="D62" t="s">
+        <v>343</v>
+      </c>
+      <c r="E62">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="B63" s="95"/>
+      <c r="D63" t="s">
+        <v>345</v>
+      </c>
+      <c r="E63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="102" t="s">
+        <v>326</v>
+      </c>
+      <c r="B64" s="102"/>
+      <c r="D64" t="s">
+        <v>343</v>
+      </c>
+      <c r="E64">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="97" t="s">
+        <v>327</v>
+      </c>
+      <c r="B65" s="97"/>
+      <c r="C65" s="97"/>
+      <c r="D65" s="97"/>
+      <c r="E65" s="97"/>
+      <c r="F65" s="97"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="99" t="s">
+        <v>329</v>
+      </c>
+      <c r="B66" s="99"/>
+      <c r="C66" t="s">
+        <v>349</v>
+      </c>
+      <c r="D66" t="s">
+        <v>350</v>
+      </c>
+      <c r="E66">
+        <v>8</v>
+      </c>
+      <c r="F66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="101" t="s">
+        <v>330</v>
+      </c>
+      <c r="B67" s="101"/>
+      <c r="D67" t="s">
+        <v>343</v>
+      </c>
+      <c r="E67">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="B68" s="95"/>
+      <c r="D68" t="s">
+        <v>343</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="B69" s="95"/>
+      <c r="D69" t="s">
+        <v>343</v>
+      </c>
+      <c r="E69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="95" t="s">
+        <v>333</v>
+      </c>
+      <c r="B70" s="95"/>
+      <c r="D70" t="s">
+        <v>343</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="95" t="s">
+        <v>334</v>
+      </c>
+      <c r="B71" s="95"/>
+      <c r="D71" t="s">
+        <v>346</v>
+      </c>
+      <c r="E71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="95" t="s">
+        <v>335</v>
+      </c>
+      <c r="B72" s="95"/>
+      <c r="D72" t="s">
+        <v>347</v>
+      </c>
+      <c r="E72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="95" t="s">
+        <v>336</v>
+      </c>
+      <c r="B73" s="95"/>
+      <c r="D73" t="s">
+        <v>347</v>
+      </c>
+      <c r="E73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="95" t="s">
+        <v>337</v>
+      </c>
+      <c r="B74" s="95"/>
+      <c r="D74" t="s">
+        <v>343</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="95" t="s">
+        <v>338</v>
+      </c>
+      <c r="B75" s="95"/>
+      <c r="D75" t="s">
+        <v>343</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="95" t="s">
+        <v>339</v>
+      </c>
+      <c r="B76" s="95"/>
+      <c r="D76" t="s">
+        <v>343</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="103" t="s">
+        <v>348</v>
+      </c>
+      <c r="B78" s="103"/>
+      <c r="C78" s="103"/>
+      <c r="D78" s="104">
+        <v>39800</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G1:R11"/>
+  <mergeCells count="27">
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="G1:T11"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A31:E31"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="A54:F54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="357">
   <si>
     <t>Помещение</t>
   </si>
@@ -1056,15 +1056,9 @@
     <t>От Карпусь А.</t>
   </si>
   <si>
-    <t>Расчет материалов</t>
-  </si>
-  <si>
     <t>Мои</t>
   </si>
   <si>
-    <t>Брус 50*200</t>
-  </si>
-  <si>
     <t>Уголок 90*90*65*2</t>
   </si>
   <si>
@@ -1086,9 +1080,6 @@
     <t>Саморезы по дереву 51мм</t>
   </si>
   <si>
-    <t>КРОВЛЯ</t>
-  </si>
-  <si>
     <t>"ДРОВА"</t>
   </si>
   <si>
@@ -1149,16 +1140,40 @@
     <t>3м шт.</t>
   </si>
   <si>
-    <t>Стоимость</t>
-  </si>
-  <si>
-    <t>6м листы</t>
-  </si>
-  <si>
     <t>5.95м шт.</t>
   </si>
   <si>
-    <t>Брус 100*150</t>
+    <t>Расчет материалов (Для Ивана)</t>
+  </si>
+  <si>
+    <t>Брус 100*150 (мауэрлат)</t>
+  </si>
+  <si>
+    <t>Брус 50*200 (стропила)</t>
+  </si>
+  <si>
+    <t>Лист 6 м.</t>
+  </si>
+  <si>
+    <t>КРОВЛЯ (S = (7.43+1.4+0.1)*(5.13+0.8+0,1) = 8.93*6.03 = 53.85м2)</t>
+  </si>
+  <si>
+    <t>Лист ОСБ-3(9мм)</t>
+  </si>
+  <si>
+    <t>Объем, м3</t>
+  </si>
+  <si>
+    <t>2,5*1,2 шт.</t>
+  </si>
+  <si>
+    <t>40шт(238м)</t>
+  </si>
+  <si>
+    <t>Стоимость материалов</t>
+  </si>
+  <si>
+    <t>Дрова объем</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1380,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1483,6 +1498,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1663,7 +1684,7 @@
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -1769,6 +1790,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="14" borderId="5" xfId="21" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="25"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="25" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="24"/>
+    <xf numFmtId="164" fontId="3" fillId="20" borderId="12" xfId="21" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1791,41 +1818,37 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="8" xfId="23" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="15" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="14" borderId="5" xfId="21" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="25"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="21" fillId="14" borderId="8" xfId="23" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="23" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="25" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="24"/>
-    <xf numFmtId="164" fontId="3" fillId="20" borderId="12" xfId="21" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="26">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
@@ -2635,14 +2658,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>18832.876712328769</v>
+        <v>18871.232876712329</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2670,14 +2693,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J4" s="14">
         <v>170000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*L1/365*I4</f>
-        <v>6054.7945205479446</v>
+        <v>6078.0821917808216</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3413,10 +3436,10 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="78" t="s">
+      <c r="C46" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="79"/>
+      <c r="D46" s="85"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
@@ -3537,14 +3560,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="77" t="s">
+      <c r="C57" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77" t="s">
+      <c r="D57" s="83"/>
+      <c r="E57" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="77"/>
+      <c r="F57" s="83"/>
       <c r="I57" s="17" t="s">
         <v>84</v>
       </c>
@@ -3864,12 +3887,12 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
@@ -3885,10 +3908,10 @@
         <f t="shared" si="0"/>
         <v>8946</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="86" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="80"/>
+      <c r="H9" s="86"/>
     </row>
     <row r="10" spans="1:13" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
@@ -4018,12 +4041,12 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
       <c r="F14" s="9" t="s">
         <v>208</v>
       </c>
@@ -4176,12 +4199,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4420,12 +4443,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="88" t="s">
+      <c r="A41" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="94"/>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -4548,12 +4571,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="81" t="s">
+      <c r="A50" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="81"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="81"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="87"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -4601,12 +4624,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="81" t="s">
+      <c r="A54" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="82"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="88"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -5017,12 +5040,12 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="83" t="s">
+      <c r="A83" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="B83" s="83"/>
-      <c r="C83" s="83"/>
-      <c r="D83" s="83"/>
+      <c r="B83" s="89"/>
+      <c r="C83" s="89"/>
+      <c r="D83" s="89"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -6318,10 +6341,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T78"/>
+  <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:B66"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6331,8 +6354,10 @@
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="9" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
     <col min="10" max="10" width="12.140625" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" customWidth="1"/>
@@ -6345,22 +6370,22 @@
         <v>128</v>
       </c>
       <c r="B1" s="68"/>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="96" t="s">
         <v>278</v>
       </c>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
@@ -6378,20 +6403,20 @@
       <c r="E2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
     </row>
     <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -6410,20 +6435,20 @@
         <f t="shared" ref="E3:E11" si="0">C3*D3</f>
         <v>17500</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -6439,20 +6464,20 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -6468,20 +6493,20 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="89"/>
-      <c r="T5" s="89"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -6497,20 +6522,20 @@
         <f t="shared" si="0"/>
         <v>8800</v>
       </c>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="89"/>
-      <c r="T6" s="89"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="96"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -6526,20 +6551,20 @@
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
-      <c r="S7" s="89"/>
-      <c r="T7" s="89"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
+      <c r="S7" s="96"/>
+      <c r="T7" s="96"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -6550,20 +6575,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="89"/>
-      <c r="S8" s="89"/>
-      <c r="T8" s="89"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="96"/>
+      <c r="S8" s="96"/>
+      <c r="T8" s="96"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -6579,20 +6604,20 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="89"/>
-      <c r="T9" s="89"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="96"/>
+      <c r="R9" s="96"/>
+      <c r="S9" s="96"/>
+      <c r="T9" s="96"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -6606,20 +6631,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="89"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="96"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="96"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -6630,29 +6655,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="89"/>
-      <c r="S11" s="89"/>
-      <c r="T11" s="89"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="96"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="97" t="s">
         <v>293</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
       <c r="G12" s="73"/>
       <c r="H12" s="73"/>
       <c r="I12" s="76"/>
@@ -6740,10 +6765,10 @@
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
       <c r="K17" s="39"/>
-      <c r="M17" s="91" t="s">
+      <c r="M17" s="77" t="s">
         <v>313</v>
       </c>
-      <c r="N17" s="91"/>
+      <c r="N17" s="77"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39" t="s">
         <v>157</v>
@@ -6775,10 +6800,10 @@
       <c r="K18" t="s">
         <v>298</v>
       </c>
-      <c r="M18" s="92" t="s">
+      <c r="M18" s="99" t="s">
         <v>315</v>
       </c>
-      <c r="N18" s="92"/>
+      <c r="N18" s="99"/>
       <c r="P18" s="75">
         <v>600</v>
       </c>
@@ -6812,10 +6837,10 @@
         <f>H19*1.06</f>
         <v>477</v>
       </c>
-      <c r="M19" s="93" t="s">
+      <c r="M19" s="98" t="s">
         <v>316</v>
       </c>
-      <c r="N19" s="93"/>
+      <c r="N19" s="98"/>
       <c r="P19" s="75">
         <v>1140</v>
       </c>
@@ -6964,13 +6989,13 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="90" t="s">
+      <c r="A31" s="97" t="s">
         <v>293</v>
       </c>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -7142,7 +7167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="70" t="s">
         <v>7</v>
       </c>
@@ -7154,328 +7179,378 @@
         <v>23034</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="94" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="79" t="s">
+        <v>346</v>
+      </c>
+      <c r="B53" s="78"/>
+      <c r="C53" s="79" t="s">
+        <v>315</v>
+      </c>
+      <c r="D53" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="E53" s="79" t="s">
+        <v>352</v>
+      </c>
+      <c r="F53" s="78" t="s">
         <v>317</v>
       </c>
-      <c r="B53" s="94"/>
-      <c r="C53" s="98" t="s">
-        <v>291</v>
-      </c>
-      <c r="D53" s="98" t="s">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="B54" s="95"/>
+      <c r="C54" s="95"/>
+      <c r="D54" s="95"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="95"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="101" t="s">
+        <v>348</v>
+      </c>
+      <c r="B55" s="101"/>
+      <c r="C55">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>339</v>
+      </c>
+      <c r="E55">
+        <v>1.92</v>
+      </c>
+      <c r="F55">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="106" t="s">
+        <v>347</v>
+      </c>
+      <c r="B56" s="106"/>
+      <c r="C56" s="107"/>
+      <c r="D56" s="107" t="s">
+        <v>339</v>
+      </c>
+      <c r="E56" s="107">
+        <v>0.27</v>
+      </c>
+      <c r="F56" s="107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="106" t="s">
+        <v>351</v>
+      </c>
+      <c r="B57" s="106"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="107" t="s">
+        <v>353</v>
+      </c>
+      <c r="E57" s="107"/>
+      <c r="F57" s="107">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="102" t="s">
+        <v>338</v>
+      </c>
+      <c r="B58" s="102"/>
+      <c r="C58">
+        <v>56</v>
+      </c>
+      <c r="D58" t="s">
+        <v>339</v>
+      </c>
+      <c r="E58">
+        <f>0.1*0.03*238</f>
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="F58" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="102" t="s">
+        <v>318</v>
+      </c>
+      <c r="B59" s="102"/>
+      <c r="C59">
+        <v>50</v>
+      </c>
+      <c r="D59" t="s">
         <v>340</v>
       </c>
-      <c r="E53" s="94" t="s">
-        <v>315</v>
-      </c>
-      <c r="F53" s="94" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="96" t="s">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="102" t="s">
+        <v>319</v>
+      </c>
+      <c r="B60" s="102"/>
+      <c r="C60">
+        <v>66</v>
+      </c>
+      <c r="D60" t="s">
+        <v>341</v>
+      </c>
+      <c r="E60">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F60">
+        <v>70</v>
+      </c>
+      <c r="H60" t="s">
+        <v>356</v>
+      </c>
+      <c r="I60">
+        <f>SUM(E58,E56,E55,E60)</f>
+        <v>3.0789999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="102" t="s">
+        <v>320</v>
+      </c>
+      <c r="B61" s="102"/>
+      <c r="C61">
+        <v>16</v>
+      </c>
+      <c r="D61" t="s">
+        <v>341</v>
+      </c>
+      <c r="H61" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" s="75">
+        <f>I60*8500</f>
+        <v>26171.499999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="102" t="s">
+        <v>321</v>
+      </c>
+      <c r="B62" s="102"/>
+      <c r="C62">
+        <v>144</v>
+      </c>
+      <c r="D62" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="102" t="s">
+        <v>322</v>
+      </c>
+      <c r="B63" s="102"/>
+      <c r="C63">
+        <v>144</v>
+      </c>
+      <c r="D63" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="102" t="s">
+        <v>323</v>
+      </c>
+      <c r="B64" s="102"/>
+      <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="103" t="s">
+        <v>324</v>
+      </c>
+      <c r="B65" s="103"/>
+      <c r="C65">
+        <v>1000</v>
+      </c>
+      <c r="D65" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="100" t="s">
+        <v>350</v>
+      </c>
+      <c r="B66" s="100"/>
+      <c r="C66" s="100"/>
+      <c r="D66" s="100"/>
+      <c r="E66" s="100"/>
+      <c r="F66" s="100"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="104" t="s">
+        <v>326</v>
+      </c>
+      <c r="B67" s="104"/>
+      <c r="C67">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>345</v>
+      </c>
+      <c r="E67" t="s">
+        <v>349</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="105" t="s">
+        <v>327</v>
+      </c>
+      <c r="B68" s="105"/>
+      <c r="C68">
+        <v>500</v>
+      </c>
+      <c r="D68" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="102" t="s">
         <v>328</v>
       </c>
-      <c r="B54" s="96"/>
-      <c r="C54" s="96"/>
-      <c r="D54" s="96"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="96"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="100" t="s">
-        <v>319</v>
-      </c>
-      <c r="B55" s="100"/>
-      <c r="D55" t="s">
-        <v>342</v>
-      </c>
-      <c r="E55">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="105" t="s">
-        <v>351</v>
-      </c>
-      <c r="B56" s="105"/>
-      <c r="D56" t="s">
-        <v>342</v>
-      </c>
-      <c r="E56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="95" t="s">
-        <v>341</v>
-      </c>
-      <c r="B57" s="95"/>
-      <c r="D57" t="s">
-        <v>342</v>
-      </c>
-      <c r="E57">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="95" t="s">
-        <v>320</v>
-      </c>
-      <c r="B58" s="95"/>
-      <c r="D58" t="s">
+      <c r="B69" s="102"/>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="102" t="s">
+        <v>329</v>
+      </c>
+      <c r="B70" s="102"/>
+      <c r="C70">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="102" t="s">
+        <v>330</v>
+      </c>
+      <c r="B71" s="102"/>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="102" t="s">
+        <v>331</v>
+      </c>
+      <c r="B72" s="102"/>
+      <c r="C72">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
         <v>343</v>
       </c>
-      <c r="E58">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="95" t="s">
-        <v>321</v>
-      </c>
-      <c r="B59" s="95"/>
-      <c r="D59" t="s">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="102" t="s">
+        <v>332</v>
+      </c>
+      <c r="B73" s="102"/>
+      <c r="C73">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
         <v>344</v>
       </c>
-      <c r="E59">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="95" t="s">
-        <v>322</v>
-      </c>
-      <c r="B60" s="95"/>
-      <c r="D60" t="s">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="102" t="s">
+        <v>333</v>
+      </c>
+      <c r="B74" s="102"/>
+      <c r="C74">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
         <v>344</v>
       </c>
-      <c r="E60">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="95" t="s">
-        <v>323</v>
-      </c>
-      <c r="B61" s="95"/>
-      <c r="D61" t="s">
-        <v>343</v>
-      </c>
-      <c r="E61">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="95" t="s">
-        <v>324</v>
-      </c>
-      <c r="B62" s="95"/>
-      <c r="D62" t="s">
-        <v>343</v>
-      </c>
-      <c r="E62">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="95" t="s">
-        <v>325</v>
-      </c>
-      <c r="B63" s="95"/>
-      <c r="D63" t="s">
-        <v>345</v>
-      </c>
-      <c r="E63">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="102" t="s">
-        <v>326</v>
-      </c>
-      <c r="B64" s="102"/>
-      <c r="D64" t="s">
-        <v>343</v>
-      </c>
-      <c r="E64">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="97" t="s">
-        <v>327</v>
-      </c>
-      <c r="B65" s="97"/>
-      <c r="C65" s="97"/>
-      <c r="D65" s="97"/>
-      <c r="E65" s="97"/>
-      <c r="F65" s="97"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="99" t="s">
-        <v>329</v>
-      </c>
-      <c r="B66" s="99"/>
-      <c r="C66" t="s">
-        <v>349</v>
-      </c>
-      <c r="D66" t="s">
-        <v>350</v>
-      </c>
-      <c r="E66">
-        <v>8</v>
-      </c>
-      <c r="F66">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="101" t="s">
-        <v>330</v>
-      </c>
-      <c r="B67" s="101"/>
-      <c r="D67" t="s">
-        <v>343</v>
-      </c>
-      <c r="E67">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="95" t="s">
-        <v>331</v>
-      </c>
-      <c r="B68" s="95"/>
-      <c r="D68" t="s">
-        <v>343</v>
-      </c>
-      <c r="E68">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="102" t="s">
+        <v>334</v>
+      </c>
+      <c r="B75" s="102"/>
+      <c r="C75">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="95" t="s">
-        <v>332</v>
-      </c>
-      <c r="B69" s="95"/>
-      <c r="D69" t="s">
-        <v>343</v>
-      </c>
-      <c r="E69">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="95" t="s">
-        <v>333</v>
-      </c>
-      <c r="B70" s="95"/>
-      <c r="D70" t="s">
-        <v>343</v>
-      </c>
-      <c r="E70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="95" t="s">
-        <v>334</v>
-      </c>
-      <c r="B71" s="95"/>
-      <c r="D71" t="s">
-        <v>346</v>
-      </c>
-      <c r="E71">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="95" t="s">
+      <c r="D75" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="102" t="s">
         <v>335</v>
       </c>
-      <c r="B72" s="95"/>
-      <c r="D72" t="s">
-        <v>347</v>
-      </c>
-      <c r="E72">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="95" t="s">
+      <c r="B76" s="102"/>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="102" t="s">
         <v>336</v>
       </c>
-      <c r="B73" s="95"/>
-      <c r="D73" t="s">
-        <v>347</v>
-      </c>
-      <c r="E73">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="95" t="s">
-        <v>337</v>
-      </c>
-      <c r="B74" s="95"/>
-      <c r="D74" t="s">
-        <v>343</v>
-      </c>
-      <c r="E74">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="95" t="s">
-        <v>338</v>
-      </c>
-      <c r="B75" s="95"/>
-      <c r="D75" t="s">
-        <v>343</v>
-      </c>
-      <c r="E75">
+      <c r="B77" s="102"/>
+      <c r="C77">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="95" t="s">
-        <v>339</v>
-      </c>
-      <c r="B76" s="95"/>
-      <c r="D76" t="s">
-        <v>343</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="103" t="s">
-        <v>348</v>
-      </c>
-      <c r="B78" s="103"/>
-      <c r="C78" s="103"/>
-      <c r="D78" s="104">
+      <c r="D77" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="80" t="s">
+        <v>355</v>
+      </c>
+      <c r="B79" s="80"/>
+      <c r="C79" s="80"/>
+      <c r="D79" s="81">
         <v>39800</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A77:B77"/>
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A76:B76"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A66:F66"/>
     <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A57:B57"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A60:B60"/>
@@ -7483,12 +7558,13 @@
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A54:F54"/>
     <mergeCell ref="G1:T11"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="M18:N18"/>
-    <mergeCell ref="A54:F54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -1083,21 +1083,9 @@
     <t>"ДРОВА"</t>
   </si>
   <si>
-    <t>Профлист НС-35</t>
-  </si>
-  <si>
     <t>Саморез кровельный</t>
   </si>
   <si>
-    <t>Карнизная планка</t>
-  </si>
-  <si>
-    <t>Фронтальная планка</t>
-  </si>
-  <si>
-    <t>Пристенок</t>
-  </si>
-  <si>
     <t>Профлист С-8</t>
   </si>
   <si>
@@ -1174,6 +1162,18 @@
   </si>
   <si>
     <t>Дрова объем</t>
+  </si>
+  <si>
+    <t>Профлист НС-35 (C-21)</t>
+  </si>
+  <si>
+    <t>Карнизная планка (2м)</t>
+  </si>
+  <si>
+    <t>Фронтальная (торцевая) планка (2м)</t>
+  </si>
+  <si>
+    <t>Пристенок (2м)</t>
   </si>
 </sst>
 </file>
@@ -1796,6 +1796,10 @@
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="24"/>
     <xf numFmtId="164" fontId="3" fillId="20" borderId="12" xfId="21" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1818,6 +1822,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="23" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="21" fillId="14" borderId="8" xfId="23" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1833,22 +1849,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="23" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="26">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
@@ -3436,10 +3436,10 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="84" t="s">
+      <c r="C46" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="85"/>
+      <c r="D46" s="87"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
@@ -3560,14 +3560,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="83" t="s">
+      <c r="C57" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="83"/>
-      <c r="E57" s="83" t="s">
+      <c r="D57" s="85"/>
+      <c r="E57" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="83"/>
+      <c r="F57" s="85"/>
       <c r="I57" s="17" t="s">
         <v>84</v>
       </c>
@@ -3887,12 +3887,12 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
@@ -3908,10 +3908,10 @@
         <f t="shared" si="0"/>
         <v>8946</v>
       </c>
-      <c r="G9" s="86" t="s">
+      <c r="G9" s="88" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="86"/>
+      <c r="H9" s="88"/>
     </row>
     <row r="10" spans="1:13" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
@@ -4041,12 +4041,12 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
       <c r="F14" s="9" t="s">
         <v>208</v>
       </c>
@@ -4199,12 +4199,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4443,12 +4443,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="94" t="s">
+      <c r="A41" s="96" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="94"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -4571,12 +4571,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="87" t="s">
+      <c r="A50" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -4624,12 +4624,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="87" t="s">
+      <c r="A54" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="88"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="88"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="90"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -5040,12 +5040,12 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="89" t="s">
+      <c r="A83" s="91" t="s">
         <v>196</v>
       </c>
-      <c r="B83" s="89"/>
-      <c r="C83" s="89"/>
-      <c r="D83" s="89"/>
+      <c r="B83" s="91"/>
+      <c r="C83" s="91"/>
+      <c r="D83" s="91"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -6344,7 +6344,7 @@
   <dimension ref="A1:T79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+      <selection activeCell="A74" sqref="A74:B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6370,22 +6370,22 @@
         <v>128</v>
       </c>
       <c r="B1" s="68"/>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="104" t="s">
         <v>278</v>
       </c>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
@@ -6403,20 +6403,20 @@
       <c r="E2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
     </row>
     <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -6435,20 +6435,20 @@
         <f t="shared" ref="E3:E11" si="0">C3*D3</f>
         <v>17500</v>
       </c>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -6464,20 +6464,20 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -6493,20 +6493,20 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="96"/>
-      <c r="T5" s="96"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -6522,20 +6522,20 @@
         <f t="shared" si="0"/>
         <v>8800</v>
       </c>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="96"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -6551,20 +6551,20 @@
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="96"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="104"/>
+      <c r="S7" s="104"/>
+      <c r="T7" s="104"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -6575,20 +6575,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="96"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -6604,20 +6604,20 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -6631,20 +6631,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -6655,29 +6655,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="104"/>
+      <c r="T11" s="104"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="105" t="s">
         <v>293</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
       <c r="G12" s="73"/>
       <c r="H12" s="73"/>
       <c r="I12" s="76"/>
@@ -6800,10 +6800,10 @@
       <c r="K18" t="s">
         <v>298</v>
       </c>
-      <c r="M18" s="99" t="s">
+      <c r="M18" s="107" t="s">
         <v>315</v>
       </c>
-      <c r="N18" s="99"/>
+      <c r="N18" s="107"/>
       <c r="P18" s="75">
         <v>600</v>
       </c>
@@ -6837,10 +6837,10 @@
         <f>H19*1.06</f>
         <v>477</v>
       </c>
-      <c r="M19" s="98" t="s">
+      <c r="M19" s="106" t="s">
         <v>316</v>
       </c>
-      <c r="N19" s="98"/>
+      <c r="N19" s="106"/>
       <c r="P19" s="75">
         <v>1140</v>
       </c>
@@ -6989,13 +6989,13 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="97" t="s">
+      <c r="A31" s="105" t="s">
         <v>293</v>
       </c>
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -7181,42 +7181,42 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="79" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B53" s="78"/>
       <c r="C53" s="79" t="s">
         <v>315</v>
       </c>
       <c r="D53" s="79" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E53" s="79" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F53" s="78" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="95" t="s">
+      <c r="A54" s="103" t="s">
         <v>325</v>
       </c>
-      <c r="B54" s="95"/>
-      <c r="C54" s="95"/>
-      <c r="D54" s="95"/>
-      <c r="E54" s="95"/>
-      <c r="F54" s="95"/>
+      <c r="B54" s="103"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="103"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="101" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B55" s="101"/>
       <c r="C55">
         <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E55">
         <v>1.92</v>
@@ -7226,76 +7226,76 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="106" t="s">
+      <c r="A56" s="83" t="s">
+        <v>343</v>
+      </c>
+      <c r="B56" s="83"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84" t="s">
+        <v>335</v>
+      </c>
+      <c r="E56" s="84">
+        <v>0.27</v>
+      </c>
+      <c r="F56" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="83" t="s">
         <v>347</v>
       </c>
-      <c r="B56" s="106"/>
-      <c r="C56" s="107"/>
-      <c r="D56" s="107" t="s">
-        <v>339</v>
-      </c>
-      <c r="E56" s="107">
-        <v>0.27</v>
-      </c>
-      <c r="F56" s="107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="106" t="s">
-        <v>351</v>
-      </c>
-      <c r="B57" s="106"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="107" t="s">
-        <v>353</v>
-      </c>
-      <c r="E57" s="107"/>
-      <c r="F57" s="107">
+      <c r="B57" s="83"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="84" t="s">
+        <v>349</v>
+      </c>
+      <c r="E57" s="84"/>
+      <c r="F57" s="84">
         <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="102" t="s">
-        <v>338</v>
-      </c>
-      <c r="B58" s="102"/>
+      <c r="A58" s="97" t="s">
+        <v>334</v>
+      </c>
+      <c r="B58" s="97"/>
       <c r="C58">
         <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E58">
         <f>0.1*0.03*238</f>
         <v>0.71399999999999997</v>
       </c>
       <c r="F58" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="102" t="s">
+      <c r="A59" s="97" t="s">
         <v>318</v>
       </c>
-      <c r="B59" s="102"/>
+      <c r="B59" s="97"/>
       <c r="C59">
         <v>50</v>
       </c>
       <c r="D59" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="102" t="s">
+      <c r="A60" s="97" t="s">
         <v>319</v>
       </c>
-      <c r="B60" s="102"/>
+      <c r="B60" s="97"/>
       <c r="C60">
         <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E60">
         <v>0.17499999999999999</v>
@@ -7304,7 +7304,7 @@
         <v>70</v>
       </c>
       <c r="H60" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I60">
         <f>SUM(E58,E56,E55,E60)</f>
@@ -7312,15 +7312,15 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="102" t="s">
+      <c r="A61" s="97" t="s">
         <v>320</v>
       </c>
-      <c r="B61" s="102"/>
+      <c r="B61" s="97"/>
       <c r="C61">
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H61" t="s">
         <v>19</v>
@@ -7331,56 +7331,56 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="102" t="s">
+      <c r="A62" s="97" t="s">
         <v>321</v>
       </c>
-      <c r="B62" s="102"/>
+      <c r="B62" s="97"/>
       <c r="C62">
         <v>144</v>
       </c>
       <c r="D62" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="102" t="s">
+      <c r="A63" s="97" t="s">
         <v>322</v>
       </c>
-      <c r="B63" s="102"/>
+      <c r="B63" s="97"/>
       <c r="C63">
         <v>144</v>
       </c>
       <c r="D63" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="102" t="s">
+      <c r="A64" s="97" t="s">
         <v>323</v>
       </c>
-      <c r="B64" s="102"/>
+      <c r="B64" s="97"/>
       <c r="C64">
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="103" t="s">
+      <c r="A65" s="102" t="s">
         <v>324</v>
       </c>
-      <c r="B65" s="103"/>
+      <c r="B65" s="102"/>
       <c r="C65">
         <v>1000</v>
       </c>
       <c r="D65" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="100" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B66" s="100"/>
       <c r="C66" s="100"/>
@@ -7389,146 +7389,146 @@
       <c r="F66" s="100"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="104" t="s">
-        <v>326</v>
-      </c>
-      <c r="B67" s="104"/>
+      <c r="A67" s="98" t="s">
+        <v>353</v>
+      </c>
+      <c r="B67" s="98"/>
       <c r="C67">
         <v>8</v>
       </c>
       <c r="D67" t="s">
+        <v>341</v>
+      </c>
+      <c r="E67" t="s">
         <v>345</v>
-      </c>
-      <c r="E67" t="s">
-        <v>349</v>
       </c>
       <c r="F67">
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="105" t="s">
-        <v>327</v>
-      </c>
-      <c r="B68" s="105"/>
+      <c r="A68" s="99" t="s">
+        <v>326</v>
+      </c>
+      <c r="B68" s="99"/>
       <c r="C68">
         <v>500</v>
       </c>
       <c r="D68" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="102" t="s">
-        <v>328</v>
-      </c>
-      <c r="B69" s="102"/>
+      <c r="A69" s="97" t="s">
+        <v>354</v>
+      </c>
+      <c r="B69" s="97"/>
       <c r="C69">
         <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="102" t="s">
-        <v>329</v>
-      </c>
-      <c r="B70" s="102"/>
+      <c r="A70" s="97" t="s">
+        <v>355</v>
+      </c>
+      <c r="B70" s="97"/>
       <c r="C70">
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="102" t="s">
-        <v>330</v>
-      </c>
-      <c r="B71" s="102"/>
+      <c r="A71" s="97" t="s">
+        <v>356</v>
+      </c>
+      <c r="B71" s="97"/>
       <c r="C71">
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="102" t="s">
-        <v>331</v>
-      </c>
-      <c r="B72" s="102"/>
+      <c r="A72" s="97" t="s">
+        <v>327</v>
+      </c>
+      <c r="B72" s="97"/>
       <c r="C72">
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="102" t="s">
-        <v>332</v>
-      </c>
-      <c r="B73" s="102"/>
+      <c r="A73" s="97" t="s">
+        <v>328</v>
+      </c>
+      <c r="B73" s="97"/>
       <c r="C73">
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="102" t="s">
-        <v>333</v>
-      </c>
-      <c r="B74" s="102"/>
+      <c r="A74" s="97" t="s">
+        <v>329</v>
+      </c>
+      <c r="B74" s="97"/>
       <c r="C74">
         <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="102" t="s">
-        <v>334</v>
-      </c>
-      <c r="B75" s="102"/>
+      <c r="A75" s="97" t="s">
+        <v>330</v>
+      </c>
+      <c r="B75" s="97"/>
       <c r="C75">
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="102" t="s">
-        <v>335</v>
-      </c>
-      <c r="B76" s="102"/>
+      <c r="A76" s="97" t="s">
+        <v>331</v>
+      </c>
+      <c r="B76" s="97"/>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="102" t="s">
-        <v>336</v>
-      </c>
-      <c r="B77" s="102"/>
+      <c r="A77" s="97" t="s">
+        <v>332</v>
+      </c>
+      <c r="B77" s="97"/>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="80" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B79" s="80"/>
       <c r="C79" s="80"/>
@@ -7538,17 +7538,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G1:T11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M18:N18"/>
     <mergeCell ref="A66:F66"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A58:B58"/>
@@ -7559,12 +7554,17 @@
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G1:T11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -1181,8 +1181,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot;р.&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
@@ -1678,7 +1678,7 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1786,15 +1786,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="14" borderId="5" xfId="21" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="14" borderId="5" xfId="21" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="25"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="25" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="24"/>
-    <xf numFmtId="164" fontId="3" fillId="20" borderId="12" xfId="21" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="20" borderId="12" xfId="21" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1821,20 +1821,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="23" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="21" fillId="14" borderId="8" xfId="23" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="21" fillId="14" borderId="8" xfId="23" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1848,6 +1836,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="23" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -2658,14 +2658,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>18871.232876712329</v>
+        <v>19216.438356164384</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2693,14 +2693,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="J4" s="14">
         <v>170000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*L1/365*I4</f>
-        <v>6078.0821917808216</v>
+        <v>6287.6712328767117</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -6343,8 +6343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:B74"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6370,22 +6370,22 @@
         <v>128</v>
       </c>
       <c r="B1" s="68"/>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="98" t="s">
         <v>278</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
@@ -6403,20 +6403,20 @@
       <c r="E2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -6435,20 +6435,20 @@
         <f t="shared" ref="E3:E11" si="0">C3*D3</f>
         <v>17500</v>
       </c>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -6464,20 +6464,20 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="98"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -6493,20 +6493,20 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="104"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="98"/>
+      <c r="T5" s="98"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -6522,20 +6522,20 @@
         <f t="shared" si="0"/>
         <v>8800</v>
       </c>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="98"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -6551,20 +6551,20 @@
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="98"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -6575,20 +6575,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="98"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="98"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -6604,20 +6604,20 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -6631,20 +6631,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -6655,29 +6655,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="104"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="104"/>
-      <c r="T11" s="104"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="105" t="s">
+      <c r="A12" s="99" t="s">
         <v>293</v>
       </c>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
       <c r="G12" s="73"/>
       <c r="H12" s="73"/>
       <c r="I12" s="76"/>
@@ -6800,10 +6800,10 @@
       <c r="K18" t="s">
         <v>298</v>
       </c>
-      <c r="M18" s="107" t="s">
+      <c r="M18" s="101" t="s">
         <v>315</v>
       </c>
-      <c r="N18" s="107"/>
+      <c r="N18" s="101"/>
       <c r="P18" s="75">
         <v>600</v>
       </c>
@@ -6837,10 +6837,10 @@
         <f>H19*1.06</f>
         <v>477</v>
       </c>
-      <c r="M19" s="106" t="s">
+      <c r="M19" s="100" t="s">
         <v>316</v>
       </c>
-      <c r="N19" s="106"/>
+      <c r="N19" s="100"/>
       <c r="P19" s="75">
         <v>1140</v>
       </c>
@@ -6989,13 +6989,13 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="105" t="s">
+      <c r="A31" s="99" t="s">
         <v>293</v>
       </c>
-      <c r="B31" s="105"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -7198,20 +7198,20 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="103" t="s">
+      <c r="A54" s="97" t="s">
         <v>325</v>
       </c>
-      <c r="B54" s="103"/>
-      <c r="C54" s="103"/>
-      <c r="D54" s="103"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="103"/>
+      <c r="B54" s="97"/>
+      <c r="C54" s="97"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="97"/>
+      <c r="F54" s="97"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="101" t="s">
+      <c r="A55" s="103" t="s">
         <v>344</v>
       </c>
-      <c r="B55" s="101"/>
+      <c r="B55" s="103"/>
       <c r="C55">
         <v>25</v>
       </c>
@@ -7256,10 +7256,10 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="97" t="s">
+      <c r="A58" s="104" t="s">
         <v>334</v>
       </c>
-      <c r="B58" s="97"/>
+      <c r="B58" s="104"/>
       <c r="C58">
         <v>56</v>
       </c>
@@ -7275,10 +7275,10 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="97" t="s">
+      <c r="A59" s="104" t="s">
         <v>318</v>
       </c>
-      <c r="B59" s="97"/>
+      <c r="B59" s="104"/>
       <c r="C59">
         <v>50</v>
       </c>
@@ -7287,10 +7287,10 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="97" t="s">
+      <c r="A60" s="104" t="s">
         <v>319</v>
       </c>
-      <c r="B60" s="97"/>
+      <c r="B60" s="104"/>
       <c r="C60">
         <v>66</v>
       </c>
@@ -7312,10 +7312,10 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="97" t="s">
+      <c r="A61" s="104" t="s">
         <v>320</v>
       </c>
-      <c r="B61" s="97"/>
+      <c r="B61" s="104"/>
       <c r="C61">
         <v>16</v>
       </c>
@@ -7331,10 +7331,10 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="97" t="s">
+      <c r="A62" s="104" t="s">
         <v>321</v>
       </c>
-      <c r="B62" s="97"/>
+      <c r="B62" s="104"/>
       <c r="C62">
         <v>144</v>
       </c>
@@ -7343,10 +7343,10 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="97" t="s">
+      <c r="A63" s="104" t="s">
         <v>322</v>
       </c>
-      <c r="B63" s="97"/>
+      <c r="B63" s="104"/>
       <c r="C63">
         <v>144</v>
       </c>
@@ -7355,10 +7355,10 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="97" t="s">
+      <c r="A64" s="104" t="s">
         <v>323</v>
       </c>
-      <c r="B64" s="97"/>
+      <c r="B64" s="104"/>
       <c r="C64">
         <v>10</v>
       </c>
@@ -7367,10 +7367,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="102" t="s">
+      <c r="A65" s="105" t="s">
         <v>324</v>
       </c>
-      <c r="B65" s="102"/>
+      <c r="B65" s="105"/>
       <c r="C65">
         <v>1000</v>
       </c>
@@ -7379,20 +7379,20 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="100" t="s">
+      <c r="A66" s="102" t="s">
         <v>346</v>
       </c>
-      <c r="B66" s="100"/>
-      <c r="C66" s="100"/>
-      <c r="D66" s="100"/>
-      <c r="E66" s="100"/>
-      <c r="F66" s="100"/>
+      <c r="B66" s="102"/>
+      <c r="C66" s="102"/>
+      <c r="D66" s="102"/>
+      <c r="E66" s="102"/>
+      <c r="F66" s="102"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="98" t="s">
+      <c r="A67" s="106" t="s">
         <v>353</v>
       </c>
-      <c r="B67" s="98"/>
+      <c r="B67" s="106"/>
       <c r="C67">
         <v>8</v>
       </c>
@@ -7407,10 +7407,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="99" t="s">
+      <c r="A68" s="107" t="s">
         <v>326</v>
       </c>
-      <c r="B68" s="99"/>
+      <c r="B68" s="107"/>
       <c r="C68">
         <v>500</v>
       </c>
@@ -7419,10 +7419,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="97" t="s">
+      <c r="A69" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="B69" s="97"/>
+      <c r="B69" s="104"/>
       <c r="C69">
         <v>5</v>
       </c>
@@ -7431,10 +7431,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="97" t="s">
+      <c r="A70" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="B70" s="97"/>
+      <c r="B70" s="104"/>
       <c r="C70">
         <v>7</v>
       </c>
@@ -7443,10 +7443,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="97" t="s">
+      <c r="A71" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="B71" s="97"/>
+      <c r="B71" s="104"/>
       <c r="C71">
         <v>2</v>
       </c>
@@ -7455,10 +7455,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="97" t="s">
+      <c r="A72" s="104" t="s">
         <v>327</v>
       </c>
-      <c r="B72" s="97"/>
+      <c r="B72" s="104"/>
       <c r="C72">
         <v>9</v>
       </c>
@@ -7467,10 +7467,10 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="97" t="s">
+      <c r="A73" s="104" t="s">
         <v>328</v>
       </c>
-      <c r="B73" s="97"/>
+      <c r="B73" s="104"/>
       <c r="C73">
         <v>9</v>
       </c>
@@ -7479,10 +7479,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="97" t="s">
+      <c r="A74" s="104" t="s">
         <v>329</v>
       </c>
-      <c r="B74" s="97"/>
+      <c r="B74" s="104"/>
       <c r="C74">
         <v>9</v>
       </c>
@@ -7491,10 +7491,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="97" t="s">
+      <c r="A75" s="104" t="s">
         <v>330</v>
       </c>
-      <c r="B75" s="97"/>
+      <c r="B75" s="104"/>
       <c r="C75">
         <v>5</v>
       </c>
@@ -7503,10 +7503,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="97" t="s">
+      <c r="A76" s="104" t="s">
         <v>331</v>
       </c>
-      <c r="B76" s="97"/>
+      <c r="B76" s="104"/>
       <c r="C76">
         <v>1</v>
       </c>
@@ -7515,10 +7515,10 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="97" t="s">
+      <c r="A77" s="104" t="s">
         <v>332</v>
       </c>
-      <c r="B77" s="97"/>
+      <c r="B77" s="104"/>
       <c r="C77">
         <v>1</v>
       </c>
@@ -7538,12 +7538,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G1:T11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
     <mergeCell ref="A66:F66"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A58:B58"/>
@@ -7554,17 +7559,12 @@
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G1:T11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M18:N18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="368">
   <si>
     <t>Помещение</t>
   </si>
@@ -1174,6 +1174,39 @@
   </si>
   <si>
     <t>Пристенок (2м)</t>
+  </si>
+  <si>
+    <t>Маглин</t>
+  </si>
+  <si>
+    <t>А-Блок</t>
+  </si>
+  <si>
+    <t>Размер 1бл</t>
+  </si>
+  <si>
+    <t>Объем 1бл</t>
+  </si>
+  <si>
+    <t>195*195*395</t>
+  </si>
+  <si>
+    <t>188*190*390</t>
+  </si>
+  <si>
+    <t>Цена 30%</t>
+  </si>
+  <si>
+    <t>Рубл</t>
+  </si>
+  <si>
+    <t>Рубл угл</t>
+  </si>
+  <si>
+    <t>Штук в уп</t>
+  </si>
+  <si>
+    <t>Ц за м3</t>
   </si>
 </sst>
 </file>
@@ -1684,7 +1717,7 @@
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -1800,6 +1833,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1822,6 +1856,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="23" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="21" fillId="14" borderId="8" xfId="23" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1836,18 +1882,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="23" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -2658,14 +2692,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>19216.438356164384</v>
+        <v>19331.506849315072</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2693,14 +2727,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="J4" s="14">
         <v>170000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*L1/365*I4</f>
-        <v>6287.6712328767117</v>
+        <v>6357.534246575342</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3436,10 +3470,10 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="86" t="s">
+      <c r="C46" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="87"/>
+      <c r="D46" s="88"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
@@ -3560,14 +3594,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="85" t="s">
+      <c r="C57" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85" t="s">
+      <c r="D57" s="86"/>
+      <c r="E57" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="85"/>
+      <c r="F57" s="86"/>
       <c r="I57" s="17" t="s">
         <v>84</v>
       </c>
@@ -3887,12 +3921,12 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
@@ -3908,10 +3942,10 @@
         <f t="shared" si="0"/>
         <v>8946</v>
       </c>
-      <c r="G9" s="88" t="s">
+      <c r="G9" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="88"/>
+      <c r="H9" s="89"/>
     </row>
     <row r="10" spans="1:13" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
@@ -4041,12 +4075,12 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
       <c r="F14" s="9" t="s">
         <v>208</v>
       </c>
@@ -4199,12 +4233,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4443,12 +4477,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="96" t="s">
+      <c r="A41" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="96"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -4571,12 +4605,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="89" t="s">
+      <c r="A50" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="89"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="89"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="90"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -4624,12 +4658,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="89" t="s">
+      <c r="A54" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="90"/>
-      <c r="C54" s="90"/>
-      <c r="D54" s="90"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -5040,12 +5074,12 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="91" t="s">
+      <c r="A83" s="92" t="s">
         <v>196</v>
       </c>
-      <c r="B83" s="91"/>
-      <c r="C83" s="91"/>
-      <c r="D83" s="91"/>
+      <c r="B83" s="92"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="92"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -6343,8 +6377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:T11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6355,12 +6389,13 @@
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
     <col min="10" max="10" width="12.140625" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -6370,22 +6405,22 @@
         <v>128</v>
       </c>
       <c r="B1" s="68"/>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="105" t="s">
         <v>278</v>
       </c>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
@@ -6403,20 +6438,20 @@
       <c r="E2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
     </row>
     <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -6435,20 +6470,20 @@
         <f t="shared" ref="E3:E11" si="0">C3*D3</f>
         <v>17500</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -6464,20 +6499,20 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -6493,20 +6528,20 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="105"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -6522,20 +6557,20 @@
         <f t="shared" si="0"/>
         <v>8800</v>
       </c>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="105"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="105"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -6551,20 +6586,20 @@
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="98"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -6575,20 +6610,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="98"/>
-      <c r="S8" s="98"/>
-      <c r="T8" s="98"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -6604,20 +6639,20 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -6631,20 +6666,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="98"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="98"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="105"/>
+      <c r="T10" s="105"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -6655,29 +6690,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="98"/>
-      <c r="S11" s="98"/>
-      <c r="T11" s="98"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="105"/>
+      <c r="S11" s="105"/>
+      <c r="T11" s="105"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="106" t="s">
         <v>293</v>
       </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
       <c r="G12" s="73"/>
       <c r="H12" s="73"/>
       <c r="I12" s="76"/>
@@ -6707,14 +6742,30 @@
         <f>C13*D13</f>
         <v>21000</v>
       </c>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
+      <c r="G13" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="72" t="s">
+        <v>359</v>
+      </c>
+      <c r="I13" s="76" t="s">
+        <v>360</v>
+      </c>
+      <c r="J13" s="76" t="s">
+        <v>366</v>
+      </c>
+      <c r="K13" s="72" t="s">
+        <v>363</v>
+      </c>
+      <c r="L13" s="72" t="s">
+        <v>364</v>
+      </c>
+      <c r="M13" s="72" t="s">
+        <v>365</v>
+      </c>
+      <c r="N13" s="72" t="s">
+        <v>367</v>
+      </c>
       <c r="O13" s="72"/>
       <c r="P13" s="72"/>
       <c r="Q13" s="72"/>
@@ -6737,6 +6788,76 @@
         <f>SUM(E3:E11)</f>
         <v>35200</v>
       </c>
+      <c r="G14" t="s">
+        <v>357</v>
+      </c>
+      <c r="H14" t="s">
+        <v>361</v>
+      </c>
+      <c r="I14">
+        <f>0.195*0.195*0.395</f>
+        <v>1.5019875000000002E-2</v>
+      </c>
+      <c r="J14">
+        <v>62.5</v>
+      </c>
+      <c r="K14">
+        <v>1750</v>
+      </c>
+      <c r="L14">
+        <v>2675</v>
+      </c>
+      <c r="M14">
+        <v>2895</v>
+      </c>
+      <c r="N14">
+        <f>(K14/(I14*J14))*1</f>
+        <v>1864.1966061634996</v>
+      </c>
+      <c r="O14" s="85">
+        <f>(L14/(I14*J14))*1</f>
+        <v>2849.5576694213496</v>
+      </c>
+      <c r="P14" s="85">
+        <f>(M14/(I14*J14))*1</f>
+        <v>3083.9138141961894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>358</v>
+      </c>
+      <c r="H15" t="s">
+        <v>362</v>
+      </c>
+      <c r="I15">
+        <f>0.188*0.19*0.39</f>
+        <v>1.3930800000000002E-2</v>
+      </c>
+      <c r="J15">
+        <v>60</v>
+      </c>
+      <c r="K15">
+        <v>1700</v>
+      </c>
+      <c r="L15">
+        <v>2500</v>
+      </c>
+      <c r="M15">
+        <v>2950</v>
+      </c>
+      <c r="N15" s="85">
+        <f>(K15/(I15*J15))*1</f>
+        <v>2033.8626161694467</v>
+      </c>
+      <c r="O15" s="85">
+        <f>(L15/(I15*J15))*1</f>
+        <v>2990.974435543304</v>
+      </c>
+      <c r="P15" s="85">
+        <f>(M15/(I15*J15))*1</f>
+        <v>3529.3498339410985</v>
+      </c>
     </row>
     <row r="16" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="68" t="s">
@@ -6800,10 +6921,10 @@
       <c r="K18" t="s">
         <v>298</v>
       </c>
-      <c r="M18" s="101" t="s">
+      <c r="M18" s="108" t="s">
         <v>315</v>
       </c>
-      <c r="N18" s="101"/>
+      <c r="N18" s="108"/>
       <c r="P18" s="75">
         <v>600</v>
       </c>
@@ -6837,10 +6958,10 @@
         <f>H19*1.06</f>
         <v>477</v>
       </c>
-      <c r="M19" s="100" t="s">
+      <c r="M19" s="107" t="s">
         <v>316</v>
       </c>
-      <c r="N19" s="100"/>
+      <c r="N19" s="107"/>
       <c r="P19" s="75">
         <v>1140</v>
       </c>
@@ -6989,13 +7110,13 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="99" t="s">
+      <c r="A31" s="106" t="s">
         <v>293</v>
       </c>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -7198,20 +7319,20 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="97" t="s">
+      <c r="A54" s="104" t="s">
         <v>325</v>
       </c>
-      <c r="B54" s="97"/>
-      <c r="C54" s="97"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="97"/>
-      <c r="F54" s="97"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="104"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="103" t="s">
+      <c r="A55" s="102" t="s">
         <v>344</v>
       </c>
-      <c r="B55" s="103"/>
+      <c r="B55" s="102"/>
       <c r="C55">
         <v>25</v>
       </c>
@@ -7256,10 +7377,10 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="104" t="s">
+      <c r="A58" s="98" t="s">
         <v>334</v>
       </c>
-      <c r="B58" s="104"/>
+      <c r="B58" s="98"/>
       <c r="C58">
         <v>56</v>
       </c>
@@ -7275,10 +7396,10 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="104" t="s">
+      <c r="A59" s="98" t="s">
         <v>318</v>
       </c>
-      <c r="B59" s="104"/>
+      <c r="B59" s="98"/>
       <c r="C59">
         <v>50</v>
       </c>
@@ -7287,10 +7408,10 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="104" t="s">
+      <c r="A60" s="98" t="s">
         <v>319</v>
       </c>
-      <c r="B60" s="104"/>
+      <c r="B60" s="98"/>
       <c r="C60">
         <v>66</v>
       </c>
@@ -7312,10 +7433,10 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="104" t="s">
+      <c r="A61" s="98" t="s">
         <v>320</v>
       </c>
-      <c r="B61" s="104"/>
+      <c r="B61" s="98"/>
       <c r="C61">
         <v>16</v>
       </c>
@@ -7331,10 +7452,10 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="104" t="s">
+      <c r="A62" s="98" t="s">
         <v>321</v>
       </c>
-      <c r="B62" s="104"/>
+      <c r="B62" s="98"/>
       <c r="C62">
         <v>144</v>
       </c>
@@ -7343,10 +7464,10 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="104" t="s">
+      <c r="A63" s="98" t="s">
         <v>322</v>
       </c>
-      <c r="B63" s="104"/>
+      <c r="B63" s="98"/>
       <c r="C63">
         <v>144</v>
       </c>
@@ -7355,10 +7476,10 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="104" t="s">
+      <c r="A64" s="98" t="s">
         <v>323</v>
       </c>
-      <c r="B64" s="104"/>
+      <c r="B64" s="98"/>
       <c r="C64">
         <v>10</v>
       </c>
@@ -7367,10 +7488,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="105" t="s">
+      <c r="A65" s="103" t="s">
         <v>324</v>
       </c>
-      <c r="B65" s="105"/>
+      <c r="B65" s="103"/>
       <c r="C65">
         <v>1000</v>
       </c>
@@ -7379,20 +7500,20 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="102" t="s">
+      <c r="A66" s="101" t="s">
         <v>346</v>
       </c>
-      <c r="B66" s="102"/>
-      <c r="C66" s="102"/>
-      <c r="D66" s="102"/>
-      <c r="E66" s="102"/>
-      <c r="F66" s="102"/>
+      <c r="B66" s="101"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="101"/>
+      <c r="E66" s="101"/>
+      <c r="F66" s="101"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="106" t="s">
+      <c r="A67" s="99" t="s">
         <v>353</v>
       </c>
-      <c r="B67" s="106"/>
+      <c r="B67" s="99"/>
       <c r="C67">
         <v>8</v>
       </c>
@@ -7407,10 +7528,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="107" t="s">
+      <c r="A68" s="100" t="s">
         <v>326</v>
       </c>
-      <c r="B68" s="107"/>
+      <c r="B68" s="100"/>
       <c r="C68">
         <v>500</v>
       </c>
@@ -7419,10 +7540,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="104" t="s">
+      <c r="A69" s="98" t="s">
         <v>354</v>
       </c>
-      <c r="B69" s="104"/>
+      <c r="B69" s="98"/>
       <c r="C69">
         <v>5</v>
       </c>
@@ -7431,10 +7552,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="104" t="s">
+      <c r="A70" s="98" t="s">
         <v>355</v>
       </c>
-      <c r="B70" s="104"/>
+      <c r="B70" s="98"/>
       <c r="C70">
         <v>7</v>
       </c>
@@ -7443,10 +7564,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="104" t="s">
+      <c r="A71" s="98" t="s">
         <v>356</v>
       </c>
-      <c r="B71" s="104"/>
+      <c r="B71" s="98"/>
       <c r="C71">
         <v>2</v>
       </c>
@@ -7455,10 +7576,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="104" t="s">
+      <c r="A72" s="98" t="s">
         <v>327</v>
       </c>
-      <c r="B72" s="104"/>
+      <c r="B72" s="98"/>
       <c r="C72">
         <v>9</v>
       </c>
@@ -7467,10 +7588,10 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="104" t="s">
+      <c r="A73" s="98" t="s">
         <v>328</v>
       </c>
-      <c r="B73" s="104"/>
+      <c r="B73" s="98"/>
       <c r="C73">
         <v>9</v>
       </c>
@@ -7479,10 +7600,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="104" t="s">
+      <c r="A74" s="98" t="s">
         <v>329</v>
       </c>
-      <c r="B74" s="104"/>
+      <c r="B74" s="98"/>
       <c r="C74">
         <v>9</v>
       </c>
@@ -7491,10 +7612,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="104" t="s">
+      <c r="A75" s="98" t="s">
         <v>330</v>
       </c>
-      <c r="B75" s="104"/>
+      <c r="B75" s="98"/>
       <c r="C75">
         <v>5</v>
       </c>
@@ -7503,10 +7624,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="104" t="s">
+      <c r="A76" s="98" t="s">
         <v>331</v>
       </c>
-      <c r="B76" s="104"/>
+      <c r="B76" s="98"/>
       <c r="C76">
         <v>1</v>
       </c>
@@ -7515,10 +7636,10 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="104" t="s">
+      <c r="A77" s="98" t="s">
         <v>332</v>
       </c>
-      <c r="B77" s="104"/>
+      <c r="B77" s="98"/>
       <c r="C77">
         <v>1</v>
       </c>
@@ -7538,17 +7659,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G1:T11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M18:N18"/>
     <mergeCell ref="A66:F66"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A58:B58"/>
@@ -7559,12 +7675,17 @@
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G1:T11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="372">
   <si>
     <t>Помещение</t>
   </si>
@@ -888,10 +888,6 @@
   </si>
   <si>
     <t>Капельник</t>
-  </si>
-  <si>
-    <t>Гидроизоляция между фундаментом и шлакоблоком. Верхний ряд шб под мауэрлат дополнительно укрепить арматурой 2 нитки и замонолитить
-Перемычка над воротами Ж/Б или монолитная.</t>
   </si>
   <si>
     <t>Поддоны</t>
@@ -987,9 +983,6 @@
     <t>РАБОТА</t>
   </si>
   <si>
-    <t>12,34 или 13,72м3</t>
-  </si>
-  <si>
     <t>Цены на материалы</t>
   </si>
   <si>
@@ -1197,16 +1190,34 @@
     <t>Цена 30%</t>
   </si>
   <si>
-    <t>Рубл</t>
-  </si>
-  <si>
-    <t>Рубл угл</t>
-  </si>
-  <si>
     <t>Штук в уп</t>
   </si>
   <si>
     <t>Ц за м3</t>
+  </si>
+  <si>
+    <t>Цена Рубл</t>
+  </si>
+  <si>
+    <t>Цена Рбл уг</t>
+  </si>
+  <si>
+    <t>На гараж</t>
+  </si>
+  <si>
+    <t>Угловой</t>
+  </si>
+  <si>
+    <t>Облицовочный</t>
+  </si>
+  <si>
+    <t>Стеновой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,34 м3 </t>
+  </si>
+  <si>
+    <t>Перемычка над воротами Ж/Б или монолитная.</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1424,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1537,6 +1548,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -1689,7 +1706,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1716,8 +1733,9 @@
     <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -1856,18 +1874,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="23" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="21" fillId="14" borderId="8" xfId="23" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1883,8 +1889,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="23" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="23" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="26">
+  <cellStyles count="27">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
     <cellStyle name="20% - Акцент3" xfId="11" builtinId="38"/>
     <cellStyle name="20% - Акцент4" xfId="19" builtinId="42"/>
@@ -1892,6 +1919,7 @@
     <cellStyle name="40% - Акцент1" xfId="9" builtinId="31"/>
     <cellStyle name="40% - Акцент2" xfId="14" builtinId="35"/>
     <cellStyle name="40% - Акцент3" xfId="18" builtinId="39"/>
+    <cellStyle name="40% - Акцент4" xfId="26" builtinId="43"/>
     <cellStyle name="40% - Акцент5" xfId="20" builtinId="47"/>
     <cellStyle name="40% - Акцент6" xfId="25" builtinId="51"/>
     <cellStyle name="60% - Акцент1" xfId="24" builtinId="32"/>
@@ -2692,14 +2720,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>19331.506849315072</v>
+        <v>19369.863013698632</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2727,14 +2755,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J4" s="14">
         <v>170000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*L1/365*I4</f>
-        <v>6357.534246575342</v>
+        <v>6380.821917808219</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -6375,10 +6403,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T79"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6395,39 +6423,43 @@
     <col min="10" max="10" width="12.140625" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
     <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" customWidth="1"/>
+    <col min="20" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="68" t="s">
         <v>128</v>
       </c>
       <c r="B1" s="68"/>
-      <c r="G1" s="105" t="s">
-        <v>278</v>
-      </c>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G1" s="99" t="s">
+        <v>371</v>
+      </c>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C2" s="61" t="s">
         <v>108</v>
@@ -6438,27 +6470,27 @@
       <c r="E2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-    </row>
-    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>294</v>
+        <v>370</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -6470,24 +6502,24 @@
         <f t="shared" ref="E3:E11" si="0">C3*D3</f>
         <v>17500</v>
       </c>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -6499,22 +6531,22 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>264</v>
       </c>
@@ -6528,24 +6560,24 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="99"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C6">
         <v>40</v>
@@ -6557,24 +6589,24 @@
         <f t="shared" si="0"/>
         <v>8800</v>
       </c>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="105"/>
-      <c r="P6" s="105"/>
-      <c r="Q6" s="105"/>
-      <c r="R6" s="105"/>
-      <c r="S6" s="105"/>
-      <c r="T6" s="105"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="99"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -6586,46 +6618,46 @@
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="105"/>
-      <c r="R7" s="105"/>
-      <c r="S7" s="105"/>
-      <c r="T7" s="105"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="99"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="99"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D8" s="69"/>
       <c r="E8" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="99"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>270</v>
       </c>
@@ -6639,24 +6671,24 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="105"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="99"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -6666,22 +6698,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="105"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="99"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="99"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>271</v>
       </c>
@@ -6690,47 +6722,69 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="105"/>
-      <c r="O11" s="105"/>
-      <c r="P11" s="105"/>
-      <c r="Q11" s="105"/>
-      <c r="R11" s="105"/>
-      <c r="S11" s="105"/>
-      <c r="T11" s="105"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="106" t="s">
-        <v>293</v>
-      </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="99"/>
+    </row>
+    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="100" t="s">
+        <v>292</v>
+      </c>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="G12" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="72" t="s">
+        <v>357</v>
+      </c>
+      <c r="I12" s="76" t="s">
+        <v>358</v>
+      </c>
+      <c r="J12" s="76" t="s">
+        <v>362</v>
+      </c>
+      <c r="K12" s="72" t="s">
+        <v>361</v>
+      </c>
+      <c r="L12" s="72" t="s">
+        <v>364</v>
+      </c>
+      <c r="M12" s="72" t="s">
+        <v>365</v>
+      </c>
+      <c r="N12" s="72" t="s">
+        <v>363</v>
+      </c>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
       <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="73"/>
-    </row>
-    <row r="13" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="R12" s="110" t="s">
+        <v>366</v>
+      </c>
+      <c r="S12" s="111" t="s">
+        <v>369</v>
+      </c>
+      <c r="T12" s="110" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C13">
         <v>14</v>
@@ -6742,38 +6796,58 @@
         <f>C13*D13</f>
         <v>21000</v>
       </c>
-      <c r="G13" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="72" t="s">
+      <c r="G13" t="s">
+        <v>355</v>
+      </c>
+      <c r="H13" t="s">
         <v>359</v>
       </c>
-      <c r="I13" s="76" t="s">
-        <v>360</v>
-      </c>
-      <c r="J13" s="76" t="s">
-        <v>366</v>
-      </c>
-      <c r="K13" s="72" t="s">
-        <v>363</v>
-      </c>
-      <c r="L13" s="72" t="s">
-        <v>364</v>
-      </c>
-      <c r="M13" s="72" t="s">
-        <v>365</v>
-      </c>
-      <c r="N13" s="72" t="s">
-        <v>367</v>
-      </c>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
+      <c r="I13">
+        <f>0.195*0.195*0.395</f>
+        <v>1.5019875000000002E-2</v>
+      </c>
+      <c r="J13">
+        <v>62.5</v>
+      </c>
+      <c r="K13">
+        <v>1750</v>
+      </c>
+      <c r="L13">
+        <v>2675</v>
+      </c>
+      <c r="M13">
+        <v>2895</v>
+      </c>
+      <c r="N13">
+        <f>(K13/(I13*J13))*1</f>
+        <v>1864.1966061634996</v>
+      </c>
+      <c r="O13" s="85">
+        <f>(L13/(I13*J13))*1</f>
+        <v>2849.5576694213496</v>
+      </c>
+      <c r="P13" s="85">
+        <f>(M13/(I13*J13))*1</f>
+        <v>3083.9138141961894</v>
+      </c>
       <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="72"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R13" s="109">
+        <v>0.3</v>
+      </c>
+      <c r="S13" s="72">
+        <f>12.34+0.63</f>
+        <v>12.97</v>
+      </c>
+      <c r="T13" s="72">
+        <f>0.19+1.24</f>
+        <v>1.43</v>
+      </c>
+      <c r="U13">
+        <f>2*1700</f>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
         <v>7</v>
       </c>
@@ -6789,77 +6863,71 @@
         <v>35200</v>
       </c>
       <c r="G14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I14">
-        <f>0.195*0.195*0.395</f>
-        <v>1.5019875000000002E-2</v>
+        <f>0.188*0.19*0.39</f>
+        <v>1.3930800000000002E-2</v>
       </c>
       <c r="J14">
-        <v>62.5</v>
+        <v>60</v>
       </c>
       <c r="K14">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="L14">
-        <v>2675</v>
+        <v>2500</v>
       </c>
       <c r="M14">
-        <v>2895</v>
-      </c>
-      <c r="N14">
+        <v>2950</v>
+      </c>
+      <c r="N14" s="85">
         <f>(K14/(I14*J14))*1</f>
-        <v>1864.1966061634996</v>
+        <v>2033.8626161694467</v>
       </c>
       <c r="O14" s="85">
         <f>(L14/(I14*J14))*1</f>
-        <v>2849.5576694213496</v>
+        <v>2990.974435543304</v>
       </c>
       <c r="P14" s="85">
         <f>(M14/(I14*J14))*1</f>
-        <v>3083.9138141961894</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G15" t="s">
-        <v>358</v>
-      </c>
-      <c r="H15" t="s">
-        <v>362</v>
-      </c>
-      <c r="I15">
-        <f>0.188*0.19*0.39</f>
-        <v>1.3930800000000002E-2</v>
-      </c>
-      <c r="J15">
-        <v>60</v>
-      </c>
-      <c r="K15">
-        <v>1700</v>
-      </c>
-      <c r="L15">
-        <v>2500</v>
-      </c>
-      <c r="M15">
-        <v>2950</v>
-      </c>
-      <c r="N15" s="85">
-        <f>(K15/(I15*J15))*1</f>
-        <v>2033.8626161694467</v>
-      </c>
-      <c r="O15" s="85">
-        <f>(L15/(I15*J15))*1</f>
-        <v>2990.974435543304</v>
-      </c>
-      <c r="P15" s="85">
-        <f>(M15/(I15*J15))*1</f>
         <v>3529.3498339410985</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="R14" t="s">
+        <v>368</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f>S13-T13</f>
+        <v>11.540000000000001</v>
+      </c>
+      <c r="U14">
+        <f>12*2200</f>
+        <v>26400</v>
+      </c>
+      <c r="V14">
+        <f>13*1700</f>
+        <v>22100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R15" t="s">
+        <v>367</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f>SUM(U13:U14)</f>
+        <v>29800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="68" t="s">
         <v>157</v>
       </c>
@@ -6880,14 +6948,14 @@
         <v>19</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
       <c r="K17" s="39"/>
       <c r="M17" s="77" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N17" s="77"/>
       <c r="O17" s="39"/>
@@ -6895,12 +6963,12 @@
         <v>157</v>
       </c>
       <c r="Q17" s="39" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C18">
         <v>42</v>
@@ -6916,15 +6984,15 @@
         <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K18" t="s">
-        <v>298</v>
-      </c>
-      <c r="M18" s="108" t="s">
-        <v>315</v>
-      </c>
-      <c r="N18" s="108"/>
+        <v>296</v>
+      </c>
+      <c r="M18" s="102" t="s">
+        <v>313</v>
+      </c>
+      <c r="N18" s="102"/>
       <c r="P18" s="75">
         <v>600</v>
       </c>
@@ -6947,7 +7015,7 @@
         <v>3000</v>
       </c>
       <c r="G19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H19" s="75">
         <v>450</v>
@@ -6958,10 +7026,10 @@
         <f>H19*1.06</f>
         <v>477</v>
       </c>
-      <c r="M19" s="107" t="s">
-        <v>316</v>
-      </c>
-      <c r="N19" s="107"/>
+      <c r="M19" s="101" t="s">
+        <v>314</v>
+      </c>
+      <c r="N19" s="101"/>
       <c r="P19" s="75">
         <v>1140</v>
       </c>
@@ -6979,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H20" s="75">
         <v>425</v>
@@ -7032,7 +7100,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C24">
         <v>56</v>
@@ -7110,17 +7178,17 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="106" t="s">
-        <v>293</v>
-      </c>
-      <c r="B31" s="106"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
+      <c r="A31" s="100" t="s">
+        <v>292</v>
+      </c>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D32" s="69"/>
       <c r="E32" s="69">
@@ -7130,7 +7198,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D33" s="69"/>
       <c r="E33" s="69">
@@ -7140,7 +7208,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D34" s="69"/>
       <c r="E34" s="69">
@@ -7150,7 +7218,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D35" s="69"/>
       <c r="E35" s="69">
@@ -7160,7 +7228,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D36" s="69"/>
       <c r="E36" s="69">
@@ -7170,7 +7238,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D37" s="69"/>
       <c r="E37" s="69">
@@ -7180,7 +7248,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D38" s="69"/>
       <c r="E38" s="69">
@@ -7190,7 +7258,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D39" s="69"/>
       <c r="E39" s="69">
@@ -7200,7 +7268,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D40" s="69"/>
       <c r="E40" s="69">
@@ -7210,7 +7278,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D41" s="69"/>
       <c r="E41" s="69">
@@ -7220,7 +7288,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D42" s="69"/>
       <c r="E42" s="69">
@@ -7230,7 +7298,7 @@
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D43" s="69"/>
       <c r="E43" s="69">
@@ -7240,7 +7308,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D44" s="69"/>
       <c r="E44" s="69">
@@ -7250,7 +7318,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D45" s="69"/>
       <c r="E45" s="69">
@@ -7260,7 +7328,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D46" s="69"/>
       <c r="E46" s="69">
@@ -7270,7 +7338,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D47" s="69"/>
       <c r="E47" s="69">
@@ -7280,7 +7348,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D48" s="69"/>
       <c r="E48" s="69">
@@ -7302,42 +7370,42 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="79" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B53" s="78"/>
       <c r="C53" s="79" t="s">
+        <v>313</v>
+      </c>
+      <c r="D53" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="E53" s="79" t="s">
+        <v>346</v>
+      </c>
+      <c r="F53" s="78" t="s">
         <v>315</v>
       </c>
-      <c r="D53" s="79" t="s">
-        <v>333</v>
-      </c>
-      <c r="E53" s="79" t="s">
-        <v>348</v>
-      </c>
-      <c r="F53" s="78" t="s">
-        <v>317</v>
-      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="104" t="s">
-        <v>325</v>
-      </c>
-      <c r="B54" s="104"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="104"/>
-      <c r="E54" s="104"/>
-      <c r="F54" s="104"/>
+      <c r="A54" s="98" t="s">
+        <v>323</v>
+      </c>
+      <c r="B54" s="98"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="98"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="98"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="102" t="s">
-        <v>344</v>
-      </c>
-      <c r="B55" s="102"/>
+      <c r="A55" s="104" t="s">
+        <v>342</v>
+      </c>
+      <c r="B55" s="104"/>
       <c r="C55">
         <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E55">
         <v>1.92</v>
@@ -7348,12 +7416,12 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="83" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B56" s="83"/>
       <c r="C56" s="84"/>
       <c r="D56" s="84" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E56" s="84">
         <v>0.27</v>
@@ -7364,12 +7432,12 @@
     </row>
     <row r="57" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="83" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B57" s="83"/>
       <c r="C57" s="84"/>
       <c r="D57" s="84" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E57" s="84"/>
       <c r="F57" s="84">
@@ -7377,46 +7445,46 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="98" t="s">
-        <v>334</v>
-      </c>
-      <c r="B58" s="98"/>
+      <c r="A58" s="105" t="s">
+        <v>332</v>
+      </c>
+      <c r="B58" s="105"/>
       <c r="C58">
         <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E58">
         <f>0.1*0.03*238</f>
         <v>0.71399999999999997</v>
       </c>
       <c r="F58" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="98" t="s">
-        <v>318</v>
-      </c>
-      <c r="B59" s="98"/>
+      <c r="A59" s="105" t="s">
+        <v>316</v>
+      </c>
+      <c r="B59" s="105"/>
       <c r="C59">
         <v>50</v>
       </c>
       <c r="D59" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="98" t="s">
-        <v>319</v>
-      </c>
-      <c r="B60" s="98"/>
+      <c r="A60" s="105" t="s">
+        <v>317</v>
+      </c>
+      <c r="B60" s="105"/>
       <c r="C60">
         <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E60">
         <v>0.17499999999999999</v>
@@ -7425,7 +7493,7 @@
         <v>70</v>
       </c>
       <c r="H60" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I60">
         <f>SUM(E58,E56,E55,E60)</f>
@@ -7433,15 +7501,15 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="98" t="s">
-        <v>320</v>
-      </c>
-      <c r="B61" s="98"/>
+      <c r="A61" s="105" t="s">
+        <v>318</v>
+      </c>
+      <c r="B61" s="105"/>
       <c r="C61">
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H61" t="s">
         <v>19</v>
@@ -7452,204 +7520,204 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="98" t="s">
-        <v>321</v>
-      </c>
-      <c r="B62" s="98"/>
+      <c r="A62" s="105" t="s">
+        <v>319</v>
+      </c>
+      <c r="B62" s="105"/>
       <c r="C62">
         <v>144</v>
       </c>
       <c r="D62" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="98" t="s">
-        <v>322</v>
-      </c>
-      <c r="B63" s="98"/>
+      <c r="A63" s="105" t="s">
+        <v>320</v>
+      </c>
+      <c r="B63" s="105"/>
       <c r="C63">
         <v>144</v>
       </c>
       <c r="D63" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="98" t="s">
-        <v>323</v>
-      </c>
-      <c r="B64" s="98"/>
+      <c r="A64" s="105" t="s">
+        <v>321</v>
+      </c>
+      <c r="B64" s="105"/>
       <c r="C64">
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="103" t="s">
-        <v>324</v>
-      </c>
-      <c r="B65" s="103"/>
+      <c r="A65" s="106" t="s">
+        <v>322</v>
+      </c>
+      <c r="B65" s="106"/>
       <c r="C65">
         <v>1000</v>
       </c>
       <c r="D65" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="101" t="s">
-        <v>346</v>
-      </c>
-      <c r="B66" s="101"/>
-      <c r="C66" s="101"/>
-      <c r="D66" s="101"/>
-      <c r="E66" s="101"/>
-      <c r="F66" s="101"/>
+      <c r="A66" s="103" t="s">
+        <v>344</v>
+      </c>
+      <c r="B66" s="103"/>
+      <c r="C66" s="103"/>
+      <c r="D66" s="103"/>
+      <c r="E66" s="103"/>
+      <c r="F66" s="103"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="99" t="s">
-        <v>353</v>
-      </c>
-      <c r="B67" s="99"/>
+      <c r="A67" s="107" t="s">
+        <v>351</v>
+      </c>
+      <c r="B67" s="107"/>
       <c r="C67">
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E67" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F67">
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="100" t="s">
-        <v>326</v>
-      </c>
-      <c r="B68" s="100"/>
+      <c r="A68" s="108" t="s">
+        <v>324</v>
+      </c>
+      <c r="B68" s="108"/>
       <c r="C68">
         <v>500</v>
       </c>
       <c r="D68" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="98" t="s">
-        <v>354</v>
-      </c>
-      <c r="B69" s="98"/>
+      <c r="A69" s="105" t="s">
+        <v>352</v>
+      </c>
+      <c r="B69" s="105"/>
       <c r="C69">
         <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="98" t="s">
-        <v>355</v>
-      </c>
-      <c r="B70" s="98"/>
+      <c r="A70" s="105" t="s">
+        <v>353</v>
+      </c>
+      <c r="B70" s="105"/>
       <c r="C70">
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="98" t="s">
-        <v>356</v>
-      </c>
-      <c r="B71" s="98"/>
+      <c r="A71" s="105" t="s">
+        <v>354</v>
+      </c>
+      <c r="B71" s="105"/>
       <c r="C71">
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="98" t="s">
-        <v>327</v>
-      </c>
-      <c r="B72" s="98"/>
+      <c r="A72" s="105" t="s">
+        <v>325</v>
+      </c>
+      <c r="B72" s="105"/>
       <c r="C72">
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="98" t="s">
-        <v>328</v>
-      </c>
-      <c r="B73" s="98"/>
+      <c r="A73" s="105" t="s">
+        <v>326</v>
+      </c>
+      <c r="B73" s="105"/>
       <c r="C73">
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="98" t="s">
-        <v>329</v>
-      </c>
-      <c r="B74" s="98"/>
+      <c r="A74" s="105" t="s">
+        <v>327</v>
+      </c>
+      <c r="B74" s="105"/>
       <c r="C74">
         <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="98" t="s">
-        <v>330</v>
-      </c>
-      <c r="B75" s="98"/>
+      <c r="A75" s="105" t="s">
+        <v>328</v>
+      </c>
+      <c r="B75" s="105"/>
       <c r="C75">
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B76" s="98"/>
+      <c r="A76" s="105" t="s">
+        <v>329</v>
+      </c>
+      <c r="B76" s="105"/>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="98" t="s">
-        <v>332</v>
-      </c>
-      <c r="B77" s="98"/>
+      <c r="A77" s="105" t="s">
+        <v>330</v>
+      </c>
+      <c r="B77" s="105"/>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="80" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B79" s="80"/>
       <c r="C79" s="80"/>
@@ -7659,12 +7727,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G1:T11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
     <mergeCell ref="A66:F66"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A58:B58"/>
@@ -7675,17 +7748,12 @@
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G1:T11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M18:N18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="375">
   <si>
     <t>Помещение</t>
   </si>
@@ -1202,22 +1202,31 @@
     <t>Цена Рбл уг</t>
   </si>
   <si>
-    <t>На гараж</t>
-  </si>
-  <si>
     <t>Угловой</t>
   </si>
   <si>
     <t>Облицовочный</t>
   </si>
   <si>
-    <t>Стеновой</t>
-  </si>
-  <si>
     <t xml:space="preserve">12,34 м3 </t>
   </si>
   <si>
     <t>Перемычка над воротами Ж/Б или монолитная.</t>
+  </si>
+  <si>
+    <t>Из cтенового</t>
+  </si>
+  <si>
+    <t>Стеновой 30%</t>
+  </si>
+  <si>
+    <t>Потребность</t>
+  </si>
+  <si>
+    <t>Из Облицовочного</t>
+  </si>
+  <si>
+    <t>Стоимость</t>
   </si>
 </sst>
 </file>
@@ -1225,8 +1234,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot;р.&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
@@ -1728,14 +1737,14 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -1837,21 +1846,30 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="14" borderId="5" xfId="21" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="14" borderId="5" xfId="21" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="25"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="25" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="24"/>
-    <xf numFmtId="44" fontId="3" fillId="20" borderId="12" xfId="21" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="20" borderId="12" xfId="21" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="23" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1873,8 +1891,20 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="21" fillId="14" borderId="8" xfId="23" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="23" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="8" xfId="23" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1889,26 +1919,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="23" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="23" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="26" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -2720,14 +2732,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>19369.863013698632</v>
+        <v>19408.219178082192</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2755,14 +2767,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J4" s="14">
         <v>170000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*L1/365*I4</f>
-        <v>6380.821917808219</v>
+        <v>6404.1095890410952</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3498,10 +3510,10 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="87" t="s">
+      <c r="C46" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="88"/>
+      <c r="D46" s="91"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
@@ -3622,14 +3634,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="86" t="s">
+      <c r="C57" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="86"/>
-      <c r="E57" s="86" t="s">
+      <c r="D57" s="89"/>
+      <c r="E57" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="86"/>
+      <c r="F57" s="89"/>
       <c r="I57" s="17" t="s">
         <v>84</v>
       </c>
@@ -3949,12 +3961,12 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
@@ -3970,10 +3982,10 @@
         <f t="shared" si="0"/>
         <v>8946</v>
       </c>
-      <c r="G9" s="89" t="s">
+      <c r="G9" s="92" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="89"/>
+      <c r="H9" s="92"/>
     </row>
     <row r="10" spans="1:13" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
@@ -4103,12 +4115,12 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
       <c r="F14" s="9" t="s">
         <v>208</v>
       </c>
@@ -4261,12 +4273,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="96" t="s">
+      <c r="A24" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4505,12 +4517,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="97" t="s">
+      <c r="A41" s="100" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="97"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -4633,12 +4645,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="90" t="s">
+      <c r="A50" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="90"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="93"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -4686,12 +4698,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="90" t="s">
+      <c r="A54" s="93" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="91"/>
-      <c r="C54" s="91"/>
-      <c r="D54" s="91"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="94"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -5102,12 +5114,12 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="92" t="s">
+      <c r="A83" s="95" t="s">
         <v>196</v>
       </c>
-      <c r="B83" s="92"/>
-      <c r="C83" s="92"/>
-      <c r="D83" s="92"/>
+      <c r="B83" s="95"/>
+      <c r="C83" s="95"/>
+      <c r="D83" s="95"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -6403,10 +6415,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6429,32 +6441,33 @@
     <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.5703125" customWidth="1"/>
     <col min="19" max="19" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="15" customWidth="1"/>
+    <col min="20" max="20" width="19" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="68" t="s">
         <v>128</v>
       </c>
       <c r="B1" s="68"/>
-      <c r="G1" s="99" t="s">
-        <v>371</v>
-      </c>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G1" s="108" t="s">
+        <v>369</v>
+      </c>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
         <v>107</v>
       </c>
@@ -6470,27 +6483,27 @@
       <c r="E2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>291</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -6502,22 +6515,22 @@
         <f t="shared" ref="E3:E11" si="0">C3*D3</f>
         <v>17500</v>
       </c>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>278</v>
       </c>
@@ -6531,22 +6544,22 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>264</v>
       </c>
@@ -6560,22 +6573,22 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="99"/>
-      <c r="T5" s="99"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>279</v>
       </c>
@@ -6589,22 +6602,22 @@
         <f t="shared" si="0"/>
         <v>8800</v>
       </c>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="108"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>282</v>
       </c>
@@ -6618,22 +6631,22 @@
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
-      <c r="S7" s="99"/>
-      <c r="T7" s="99"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="108"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>281</v>
       </c>
@@ -6642,22 +6655,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="99"/>
-      <c r="S8" s="99"/>
-      <c r="T8" s="99"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>270</v>
       </c>
@@ -6671,22 +6684,22 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="99"/>
-      <c r="T9" s="99"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>288</v>
       </c>
@@ -6698,22 +6711,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="99"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="99"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>271</v>
       </c>
@@ -6722,29 +6735,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="99"/>
-    </row>
-    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="100" t="s">
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="108"/>
+      <c r="Q11" s="108"/>
+      <c r="R11" s="108"/>
+      <c r="S11" s="108"/>
+      <c r="T11" s="108"/>
+    </row>
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="109" t="s">
         <v>292</v>
       </c>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
       <c r="G12" s="72" t="s">
         <v>18</v>
       </c>
@@ -6772,17 +6785,20 @@
       <c r="O12" s="72"/>
       <c r="P12" s="72"/>
       <c r="Q12" s="73"/>
-      <c r="R12" s="110" t="s">
-        <v>366</v>
-      </c>
-      <c r="S12" s="111" t="s">
-        <v>369</v>
-      </c>
-      <c r="T12" s="110" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="R12" s="87" t="s">
+        <v>372</v>
+      </c>
+      <c r="S12" s="88" t="s">
+        <v>370</v>
+      </c>
+      <c r="T12" s="87" t="s">
+        <v>373</v>
+      </c>
+      <c r="U12" s="112" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>283</v>
       </c>
@@ -6831,8 +6847,8 @@
         <v>3083.9138141961894</v>
       </c>
       <c r="Q13" s="72"/>
-      <c r="R13" s="109">
-        <v>0.3</v>
+      <c r="R13" s="86" t="s">
+        <v>371</v>
       </c>
       <c r="S13" s="72">
         <f>12.34+0.63</f>
@@ -6847,7 +6863,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
         <v>7</v>
       </c>
@@ -6897,7 +6913,7 @@
         <v>3529.3498339410985</v>
       </c>
       <c r="R14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -6910,16 +6926,15 @@
         <f>12*2200</f>
         <v>26400</v>
       </c>
-      <c r="V14">
-        <f>13*1700</f>
-        <v>22100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="R15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <v>0</v>
       </c>
       <c r="U15">
@@ -6927,7 +6942,7 @@
         <v>29800</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="68" t="s">
         <v>157</v>
       </c>
@@ -6989,10 +7004,10 @@
       <c r="K18" t="s">
         <v>296</v>
       </c>
-      <c r="M18" s="102" t="s">
+      <c r="M18" s="111" t="s">
         <v>313</v>
       </c>
-      <c r="N18" s="102"/>
+      <c r="N18" s="111"/>
       <c r="P18" s="75">
         <v>600</v>
       </c>
@@ -7026,10 +7041,10 @@
         <f>H19*1.06</f>
         <v>477</v>
       </c>
-      <c r="M19" s="101" t="s">
+      <c r="M19" s="110" t="s">
         <v>314</v>
       </c>
-      <c r="N19" s="101"/>
+      <c r="N19" s="110"/>
       <c r="P19" s="75">
         <v>1140</v>
       </c>
@@ -7178,13 +7193,13 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="100" t="s">
+      <c r="A31" s="109" t="s">
         <v>292</v>
       </c>
-      <c r="B31" s="100"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -7387,20 +7402,20 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="98" t="s">
+      <c r="A54" s="107" t="s">
         <v>323</v>
       </c>
-      <c r="B54" s="98"/>
-      <c r="C54" s="98"/>
-      <c r="D54" s="98"/>
-      <c r="E54" s="98"/>
-      <c r="F54" s="98"/>
+      <c r="B54" s="107"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="107"/>
+      <c r="E54" s="107"/>
+      <c r="F54" s="107"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="104" t="s">
+      <c r="A55" s="105" t="s">
         <v>342</v>
       </c>
-      <c r="B55" s="104"/>
+      <c r="B55" s="105"/>
       <c r="C55">
         <v>25</v>
       </c>
@@ -7445,10 +7460,10 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="105" t="s">
+      <c r="A58" s="101" t="s">
         <v>332</v>
       </c>
-      <c r="B58" s="105"/>
+      <c r="B58" s="101"/>
       <c r="C58">
         <v>56</v>
       </c>
@@ -7464,10 +7479,10 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="105" t="s">
+      <c r="A59" s="101" t="s">
         <v>316</v>
       </c>
-      <c r="B59" s="105"/>
+      <c r="B59" s="101"/>
       <c r="C59">
         <v>50</v>
       </c>
@@ -7476,10 +7491,10 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="105" t="s">
+      <c r="A60" s="101" t="s">
         <v>317</v>
       </c>
-      <c r="B60" s="105"/>
+      <c r="B60" s="101"/>
       <c r="C60">
         <v>66</v>
       </c>
@@ -7501,10 +7516,10 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="105" t="s">
+      <c r="A61" s="101" t="s">
         <v>318</v>
       </c>
-      <c r="B61" s="105"/>
+      <c r="B61" s="101"/>
       <c r="C61">
         <v>16</v>
       </c>
@@ -7520,10 +7535,10 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="105" t="s">
+      <c r="A62" s="101" t="s">
         <v>319</v>
       </c>
-      <c r="B62" s="105"/>
+      <c r="B62" s="101"/>
       <c r="C62">
         <v>144</v>
       </c>
@@ -7532,10 +7547,10 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="105" t="s">
+      <c r="A63" s="101" t="s">
         <v>320</v>
       </c>
-      <c r="B63" s="105"/>
+      <c r="B63" s="101"/>
       <c r="C63">
         <v>144</v>
       </c>
@@ -7544,10 +7559,10 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="105" t="s">
+      <c r="A64" s="101" t="s">
         <v>321</v>
       </c>
-      <c r="B64" s="105"/>
+      <c r="B64" s="101"/>
       <c r="C64">
         <v>10</v>
       </c>
@@ -7568,20 +7583,20 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="103" t="s">
+      <c r="A66" s="104" t="s">
         <v>344</v>
       </c>
-      <c r="B66" s="103"/>
-      <c r="C66" s="103"/>
-      <c r="D66" s="103"/>
-      <c r="E66" s="103"/>
-      <c r="F66" s="103"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="104"/>
+      <c r="D66" s="104"/>
+      <c r="E66" s="104"/>
+      <c r="F66" s="104"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="107" t="s">
+      <c r="A67" s="102" t="s">
         <v>351</v>
       </c>
-      <c r="B67" s="107"/>
+      <c r="B67" s="102"/>
       <c r="C67">
         <v>8</v>
       </c>
@@ -7596,10 +7611,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="108" t="s">
+      <c r="A68" s="103" t="s">
         <v>324</v>
       </c>
-      <c r="B68" s="108"/>
+      <c r="B68" s="103"/>
       <c r="C68">
         <v>500</v>
       </c>
@@ -7608,10 +7623,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="105" t="s">
+      <c r="A69" s="101" t="s">
         <v>352</v>
       </c>
-      <c r="B69" s="105"/>
+      <c r="B69" s="101"/>
       <c r="C69">
         <v>5</v>
       </c>
@@ -7620,10 +7635,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="105" t="s">
+      <c r="A70" s="101" t="s">
         <v>353</v>
       </c>
-      <c r="B70" s="105"/>
+      <c r="B70" s="101"/>
       <c r="C70">
         <v>7</v>
       </c>
@@ -7632,10 +7647,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="105" t="s">
+      <c r="A71" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="B71" s="105"/>
+      <c r="B71" s="101"/>
       <c r="C71">
         <v>2</v>
       </c>
@@ -7644,10 +7659,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="105" t="s">
+      <c r="A72" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="B72" s="105"/>
+      <c r="B72" s="101"/>
       <c r="C72">
         <v>9</v>
       </c>
@@ -7656,10 +7671,10 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="105" t="s">
+      <c r="A73" s="101" t="s">
         <v>326</v>
       </c>
-      <c r="B73" s="105"/>
+      <c r="B73" s="101"/>
       <c r="C73">
         <v>9</v>
       </c>
@@ -7668,10 +7683,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="105" t="s">
+      <c r="A74" s="101" t="s">
         <v>327</v>
       </c>
-      <c r="B74" s="105"/>
+      <c r="B74" s="101"/>
       <c r="C74">
         <v>9</v>
       </c>
@@ -7680,10 +7695,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="105" t="s">
+      <c r="A75" s="101" t="s">
         <v>328</v>
       </c>
-      <c r="B75" s="105"/>
+      <c r="B75" s="101"/>
       <c r="C75">
         <v>5</v>
       </c>
@@ -7692,10 +7707,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="105" t="s">
+      <c r="A76" s="101" t="s">
         <v>329</v>
       </c>
-      <c r="B76" s="105"/>
+      <c r="B76" s="101"/>
       <c r="C76">
         <v>1</v>
       </c>
@@ -7704,10 +7719,10 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="105" t="s">
+      <c r="A77" s="101" t="s">
         <v>330</v>
       </c>
-      <c r="B77" s="105"/>
+      <c r="B77" s="101"/>
       <c r="C77">
         <v>1</v>
       </c>
@@ -7727,17 +7742,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G1:T11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M18:N18"/>
     <mergeCell ref="A66:F66"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A58:B58"/>
@@ -7748,12 +7758,17 @@
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G1:T11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="377">
   <si>
     <t>Помещение</t>
   </si>
@@ -1226,7 +1226,13 @@
     <t>Из Облицовочного</t>
   </si>
   <si>
-    <t>Стоимость</t>
+    <t>Из рубленого</t>
+  </si>
+  <si>
+    <t>Стоимость облиц</t>
+  </si>
+  <si>
+    <t>Стоимость рубл</t>
   </si>
 </sst>
 </file>
@@ -1744,7 +1750,7 @@
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -1870,6 +1876,13 @@
     <xf numFmtId="9" fontId="6" fillId="23" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1918,9 +1931,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="26" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -2732,14 +2742,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>19408.219178082192</v>
+        <v>19484.931506849316</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2767,14 +2777,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J4" s="14">
         <v>170000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*L1/365*I4</f>
-        <v>6404.1095890410952</v>
+        <v>6450.6849315068494</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3510,10 +3520,10 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="90" t="s">
+      <c r="C46" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="91"/>
+      <c r="D46" s="94"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
@@ -3634,14 +3644,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="89" t="s">
+      <c r="C57" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="89"/>
-      <c r="E57" s="89" t="s">
+      <c r="D57" s="92"/>
+      <c r="E57" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="89"/>
+      <c r="F57" s="92"/>
       <c r="I57" s="17" t="s">
         <v>84</v>
       </c>
@@ -3961,12 +3971,12 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
@@ -3982,10 +3992,10 @@
         <f t="shared" si="0"/>
         <v>8946</v>
       </c>
-      <c r="G9" s="92" t="s">
+      <c r="G9" s="95" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="92"/>
+      <c r="H9" s="95"/>
     </row>
     <row r="10" spans="1:13" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
@@ -4115,12 +4125,12 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
       <c r="F14" s="9" t="s">
         <v>208</v>
       </c>
@@ -4273,12 +4283,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="99" t="s">
+      <c r="A24" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4517,12 +4527,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100" t="s">
+      <c r="A41" s="103" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -4645,12 +4655,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="93" t="s">
+      <c r="A50" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="93"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="93"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="96"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -4698,12 +4708,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="93" t="s">
+      <c r="A54" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="94"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
+      <c r="B54" s="97"/>
+      <c r="C54" s="97"/>
+      <c r="D54" s="97"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -5114,12 +5124,12 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="95" t="s">
+      <c r="A83" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="B83" s="95"/>
-      <c r="C83" s="95"/>
-      <c r="D83" s="95"/>
+      <c r="B83" s="98"/>
+      <c r="C83" s="98"/>
+      <c r="D83" s="98"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -6415,10 +6425,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U79"/>
+  <dimension ref="A1:W79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6442,32 +6452,35 @@
     <col min="18" max="18" width="14.5703125" customWidth="1"/>
     <col min="19" max="19" width="12.7109375" customWidth="1"/>
     <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" style="89" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="68" t="s">
         <v>128</v>
       </c>
       <c r="B1" s="68"/>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="111" t="s">
         <v>369</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="90"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
         <v>107</v>
       </c>
@@ -6483,22 +6496,23 @@
       <c r="E2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="90"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>291</v>
       </c>
@@ -6515,22 +6529,23 @@
         <f t="shared" ref="E3:E11" si="0">C3*D3</f>
         <v>17500</v>
       </c>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="90"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>278</v>
       </c>
@@ -6544,22 +6559,23 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="90"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>264</v>
       </c>
@@ -6573,22 +6589,23 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="90"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>279</v>
       </c>
@@ -6602,22 +6619,23 @@
         <f t="shared" si="0"/>
         <v>8800</v>
       </c>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="90"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>282</v>
       </c>
@@ -6631,22 +6649,23 @@
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="108"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="90"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>281</v>
       </c>
@@ -6655,22 +6674,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="90"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>270</v>
       </c>
@@ -6684,22 +6704,23 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="108"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="90"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>288</v>
       </c>
@@ -6711,22 +6732,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="108"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="108"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="90"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>271</v>
       </c>
@@ -6735,29 +6757,30 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="108"/>
-      <c r="S11" s="108"/>
-      <c r="T11" s="108"/>
-    </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="109" t="s">
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="90"/>
+    </row>
+    <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="112" t="s">
         <v>292</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
       <c r="G12" s="72" t="s">
         <v>18</v>
       </c>
@@ -6794,11 +6817,17 @@
       <c r="T12" s="87" t="s">
         <v>373</v>
       </c>
-      <c r="U12" s="112" t="s">
+      <c r="U12" s="87" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="V12" s="91" t="s">
+        <v>375</v>
+      </c>
+      <c r="W12" s="87" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>283</v>
       </c>
@@ -6826,25 +6855,25 @@
         <v>62.5</v>
       </c>
       <c r="K13">
-        <v>1750</v>
+        <v>1795</v>
       </c>
       <c r="L13">
-        <v>2675</v>
+        <v>2770</v>
       </c>
       <c r="M13">
-        <v>2895</v>
+        <v>2980</v>
       </c>
       <c r="N13">
         <f>(K13/(I13*J13))*1</f>
-        <v>1864.1966061634996</v>
+        <v>1912.1330903219898</v>
       </c>
       <c r="O13" s="85">
         <f>(L13/(I13*J13))*1</f>
-        <v>2849.5576694213496</v>
+        <v>2950.7569137559394</v>
       </c>
       <c r="P13" s="85">
         <f>(M13/(I13*J13))*1</f>
-        <v>3083.9138141961894</v>
+        <v>3174.4605064955595</v>
       </c>
       <c r="Q13" s="72"/>
       <c r="R13" s="86" t="s">
@@ -6858,12 +6887,19 @@
         <f>0.19+1.24</f>
         <v>1.43</v>
       </c>
-      <c r="U13">
-        <f>2*1700</f>
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U13" s="90">
+        <v>1.43</v>
+      </c>
+      <c r="V13">
+        <f>T13*1700</f>
+        <v>2431</v>
+      </c>
+      <c r="W13">
+        <f>1.44*1795</f>
+        <v>2584.7999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
         <v>7</v>
       </c>
@@ -6922,12 +6958,20 @@
         <f>S13-T13</f>
         <v>11.540000000000001</v>
       </c>
-      <c r="U14">
-        <f>12*2200</f>
-        <v>26400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U14" s="89">
+        <f>T14-U15</f>
+        <v>10.9</v>
+      </c>
+      <c r="V14">
+        <f>T14*2200</f>
+        <v>25388.000000000004</v>
+      </c>
+      <c r="W14">
+        <f>U14*2770</f>
+        <v>30193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="R15" t="s">
         <v>366</v>
       </c>
@@ -6937,16 +6981,45 @@
       <c r="T15">
         <v>0</v>
       </c>
-      <c r="U15">
-        <f>SUM(U13:U14)</f>
-        <v>29800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="U15" s="89">
+        <v>0.64</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f>U15*2980</f>
+        <v>1907.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="68" t="s">
         <v>157</v>
       </c>
       <c r="B16" s="68"/>
+      <c r="R16" t="s">
+        <v>7</v>
+      </c>
+      <c r="S16">
+        <f>SUM(S13:S15)</f>
+        <v>12.97</v>
+      </c>
+      <c r="T16" s="89">
+        <f>SUM(T13:T15)</f>
+        <v>12.97</v>
+      </c>
+      <c r="U16" s="89">
+        <f>SUM(U13:U15)</f>
+        <v>12.97</v>
+      </c>
+      <c r="V16" s="89">
+        <f>SUM(V13:V15)</f>
+        <v>27819.000000000004</v>
+      </c>
+      <c r="W16" s="89">
+        <f>SUM(W13:W15)</f>
+        <v>34685</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
@@ -7004,10 +7077,10 @@
       <c r="K18" t="s">
         <v>296</v>
       </c>
-      <c r="M18" s="111" t="s">
+      <c r="M18" s="114" t="s">
         <v>313</v>
       </c>
-      <c r="N18" s="111"/>
+      <c r="N18" s="114"/>
       <c r="P18" s="75">
         <v>600</v>
       </c>
@@ -7041,10 +7114,10 @@
         <f>H19*1.06</f>
         <v>477</v>
       </c>
-      <c r="M19" s="110" t="s">
+      <c r="M19" s="113" t="s">
         <v>314</v>
       </c>
-      <c r="N19" s="110"/>
+      <c r="N19" s="113"/>
       <c r="P19" s="75">
         <v>1140</v>
       </c>
@@ -7193,13 +7266,13 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="109" t="s">
+      <c r="A31" s="112" t="s">
         <v>292</v>
       </c>
-      <c r="B31" s="109"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -7371,7 +7444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="70" t="s">
         <v>7</v>
       </c>
@@ -7383,7 +7456,7 @@
         <v>23034</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="79" t="s">
         <v>340</v>
       </c>
@@ -7401,21 +7474,21 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="107" t="s">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="110" t="s">
         <v>323</v>
       </c>
-      <c r="B54" s="107"/>
-      <c r="C54" s="107"/>
-      <c r="D54" s="107"/>
-      <c r="E54" s="107"/>
-      <c r="F54" s="107"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="105" t="s">
+      <c r="B54" s="110"/>
+      <c r="C54" s="110"/>
+      <c r="D54" s="110"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="110"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="108" t="s">
         <v>342</v>
       </c>
-      <c r="B55" s="105"/>
+      <c r="B55" s="108"/>
       <c r="C55">
         <v>25</v>
       </c>
@@ -7429,7 +7502,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="83" t="s">
         <v>341</v>
       </c>
@@ -7445,7 +7518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="83" t="s">
         <v>345</v>
       </c>
@@ -7458,12 +7531,13 @@
       <c r="F57" s="84">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="101" t="s">
+      <c r="U57" s="89"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="104" t="s">
         <v>332</v>
       </c>
-      <c r="B58" s="101"/>
+      <c r="B58" s="104"/>
       <c r="C58">
         <v>56</v>
       </c>
@@ -7478,11 +7552,11 @@
         <v>348</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="101" t="s">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="104" t="s">
         <v>316</v>
       </c>
-      <c r="B59" s="101"/>
+      <c r="B59" s="104"/>
       <c r="C59">
         <v>50</v>
       </c>
@@ -7490,11 +7564,11 @@
         <v>334</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="101" t="s">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="104" t="s">
         <v>317</v>
       </c>
-      <c r="B60" s="101"/>
+      <c r="B60" s="104"/>
       <c r="C60">
         <v>66</v>
       </c>
@@ -7515,11 +7589,11 @@
         <v>3.0789999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="101" t="s">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="104" t="s">
         <v>318</v>
       </c>
-      <c r="B61" s="101"/>
+      <c r="B61" s="104"/>
       <c r="C61">
         <v>16</v>
       </c>
@@ -7534,11 +7608,11 @@
         <v>26171.499999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="101" t="s">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="104" t="s">
         <v>319</v>
       </c>
-      <c r="B62" s="101"/>
+      <c r="B62" s="104"/>
       <c r="C62">
         <v>144</v>
       </c>
@@ -7546,11 +7620,11 @@
         <v>334</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="101" t="s">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="104" t="s">
         <v>320</v>
       </c>
-      <c r="B63" s="101"/>
+      <c r="B63" s="104"/>
       <c r="C63">
         <v>144</v>
       </c>
@@ -7558,11 +7632,11 @@
         <v>334</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="101" t="s">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="104" t="s">
         <v>321</v>
       </c>
-      <c r="B64" s="101"/>
+      <c r="B64" s="104"/>
       <c r="C64">
         <v>10</v>
       </c>
@@ -7571,10 +7645,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="106" t="s">
+      <c r="A65" s="109" t="s">
         <v>322</v>
       </c>
-      <c r="B65" s="106"/>
+      <c r="B65" s="109"/>
       <c r="C65">
         <v>1000</v>
       </c>
@@ -7583,20 +7657,20 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="104" t="s">
+      <c r="A66" s="107" t="s">
         <v>344</v>
       </c>
-      <c r="B66" s="104"/>
-      <c r="C66" s="104"/>
-      <c r="D66" s="104"/>
-      <c r="E66" s="104"/>
-      <c r="F66" s="104"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="107"/>
+      <c r="D66" s="107"/>
+      <c r="E66" s="107"/>
+      <c r="F66" s="107"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="102" t="s">
+      <c r="A67" s="105" t="s">
         <v>351</v>
       </c>
-      <c r="B67" s="102"/>
+      <c r="B67" s="105"/>
       <c r="C67">
         <v>8</v>
       </c>
@@ -7611,10 +7685,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="103" t="s">
+      <c r="A68" s="106" t="s">
         <v>324</v>
       </c>
-      <c r="B68" s="103"/>
+      <c r="B68" s="106"/>
       <c r="C68">
         <v>500</v>
       </c>
@@ -7623,10 +7697,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="101" t="s">
+      <c r="A69" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="B69" s="101"/>
+      <c r="B69" s="104"/>
       <c r="C69">
         <v>5</v>
       </c>
@@ -7635,10 +7709,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="101" t="s">
+      <c r="A70" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="B70" s="101"/>
+      <c r="B70" s="104"/>
       <c r="C70">
         <v>7</v>
       </c>
@@ -7647,10 +7721,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="101" t="s">
+      <c r="A71" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="B71" s="101"/>
+      <c r="B71" s="104"/>
       <c r="C71">
         <v>2</v>
       </c>
@@ -7659,10 +7733,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="101" t="s">
+      <c r="A72" s="104" t="s">
         <v>325</v>
       </c>
-      <c r="B72" s="101"/>
+      <c r="B72" s="104"/>
       <c r="C72">
         <v>9</v>
       </c>
@@ -7671,10 +7745,10 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="101" t="s">
+      <c r="A73" s="104" t="s">
         <v>326</v>
       </c>
-      <c r="B73" s="101"/>
+      <c r="B73" s="104"/>
       <c r="C73">
         <v>9</v>
       </c>
@@ -7683,10 +7757,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="101" t="s">
+      <c r="A74" s="104" t="s">
         <v>327</v>
       </c>
-      <c r="B74" s="101"/>
+      <c r="B74" s="104"/>
       <c r="C74">
         <v>9</v>
       </c>
@@ -7695,10 +7769,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="101" t="s">
+      <c r="A75" s="104" t="s">
         <v>328</v>
       </c>
-      <c r="B75" s="101"/>
+      <c r="B75" s="104"/>
       <c r="C75">
         <v>5</v>
       </c>
@@ -7707,10 +7781,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="101" t="s">
+      <c r="A76" s="104" t="s">
         <v>329</v>
       </c>
-      <c r="B76" s="101"/>
+      <c r="B76" s="104"/>
       <c r="C76">
         <v>1</v>
       </c>
@@ -7719,10 +7793,10 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="101" t="s">
+      <c r="A77" s="104" t="s">
         <v>330</v>
       </c>
-      <c r="B77" s="101"/>
+      <c r="B77" s="104"/>
       <c r="C77">
         <v>1</v>
       </c>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -1247,7 +1247,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1438,8 +1438,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1569,6 +1577,11 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1721,7 +1734,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1749,8 +1762,9 @@
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -1880,9 +1894,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1932,8 +1943,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="23" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="19" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" xfId="27"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="28">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
     <cellStyle name="20% - Акцент3" xfId="11" builtinId="38"/>
     <cellStyle name="20% - Акцент4" xfId="19" builtinId="42"/>
@@ -1958,6 +1976,7 @@
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
     <cellStyle name="Заголовок 2" xfId="2" builtinId="17"/>
     <cellStyle name="Контрольная ячейка" xfId="17" builtinId="23"/>
+    <cellStyle name="Нейтральный" xfId="27" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="12" builtinId="5"/>
     <cellStyle name="Хороший" xfId="15" builtinId="26"/>
@@ -3520,10 +3539,10 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="93" t="s">
+      <c r="C46" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="94"/>
+      <c r="D46" s="93"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
@@ -3644,14 +3663,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="92" t="s">
+      <c r="C57" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="92"/>
-      <c r="E57" s="92" t="s">
+      <c r="D57" s="91"/>
+      <c r="E57" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="92"/>
+      <c r="F57" s="91"/>
       <c r="I57" s="17" t="s">
         <v>84</v>
       </c>
@@ -3971,12 +3990,12 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
@@ -3992,10 +4011,10 @@
         <f t="shared" si="0"/>
         <v>8946</v>
       </c>
-      <c r="G9" s="95" t="s">
+      <c r="G9" s="94" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="95"/>
+      <c r="H9" s="94"/>
     </row>
     <row r="10" spans="1:13" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
@@ -4125,12 +4144,12 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
       <c r="F14" s="9" t="s">
         <v>208</v>
       </c>
@@ -4283,12 +4302,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="102" t="s">
+      <c r="A24" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4527,12 +4546,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="103" t="s">
+      <c r="A41" s="102" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="103"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -4655,12 +4674,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="96" t="s">
+      <c r="A50" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="96"/>
-      <c r="C50" s="96"/>
-      <c r="D50" s="96"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="95"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -4708,12 +4727,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="96" t="s">
+      <c r="A54" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="97"/>
-      <c r="C54" s="97"/>
-      <c r="D54" s="97"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="96"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -5124,12 +5143,12 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="98" t="s">
+      <c r="A83" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="B83" s="98"/>
-      <c r="C83" s="98"/>
-      <c r="D83" s="98"/>
+      <c r="B83" s="97"/>
+      <c r="C83" s="97"/>
+      <c r="D83" s="97"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -6428,7 +6447,7 @@
   <dimension ref="A1:W79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6450,10 +6469,10 @@
     <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.5703125" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" style="89" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" style="89" customWidth="1"/>
     <col min="23" max="23" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6462,23 +6481,23 @@
         <v>128</v>
       </c>
       <c r="B1" s="68"/>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="110" t="s">
         <v>369</v>
       </c>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="90"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="V1" s="90"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
@@ -6496,21 +6515,21 @@
       <c r="E2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="90"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="V2" s="90"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -6529,21 +6548,21 @@
         <f t="shared" ref="E3:E11" si="0">C3*D3</f>
         <v>17500</v>
       </c>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="90"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="V3" s="90"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -6559,21 +6578,21 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="111"/>
-      <c r="T4" s="111"/>
-      <c r="U4" s="90"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="V4" s="90"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -6589,21 +6608,21 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="111"/>
-      <c r="S5" s="111"/>
-      <c r="T5" s="111"/>
-      <c r="U5" s="90"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="110"/>
+      <c r="V5" s="90"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -6619,21 +6638,21 @@
         <f t="shared" si="0"/>
         <v>8800</v>
       </c>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="90"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="110"/>
+      <c r="Q6" s="110"/>
+      <c r="R6" s="110"/>
+      <c r="S6" s="110"/>
+      <c r="T6" s="110"/>
+      <c r="V6" s="90"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -6649,21 +6668,21 @@
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="111"/>
-      <c r="U7" s="90"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="110"/>
+      <c r="S7" s="110"/>
+      <c r="T7" s="110"/>
+      <c r="V7" s="90"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -6674,21 +6693,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="111"/>
-      <c r="U8" s="90"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="110"/>
+      <c r="S8" s="110"/>
+      <c r="T8" s="110"/>
+      <c r="V8" s="90"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -6704,21 +6723,21 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="111"/>
-      <c r="U9" s="90"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="110"/>
+      <c r="S9" s="110"/>
+      <c r="T9" s="110"/>
+      <c r="V9" s="90"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -6732,21 +6751,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="90"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="110"/>
+      <c r="V10" s="90"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -6757,30 +6776,30 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
-      <c r="S11" s="111"/>
-      <c r="T11" s="111"/>
-      <c r="U11" s="90"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="110"/>
+      <c r="T11" s="110"/>
+      <c r="V11" s="90"/>
     </row>
     <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="111" t="s">
         <v>292</v>
       </c>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
       <c r="G12" s="72" t="s">
         <v>18</v>
       </c>
@@ -6814,16 +6833,16 @@
       <c r="S12" s="88" t="s">
         <v>370</v>
       </c>
-      <c r="T12" s="87" t="s">
+      <c r="T12" s="114" t="s">
         <v>373</v>
       </c>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="114" t="s">
+        <v>375</v>
+      </c>
+      <c r="V12" s="115" t="s">
         <v>374</v>
       </c>
-      <c r="V12" s="91" t="s">
-        <v>375</v>
-      </c>
-      <c r="W12" s="87" t="s">
+      <c r="W12" s="115" t="s">
         <v>376</v>
       </c>
     </row>
@@ -6887,12 +6906,12 @@
         <f>0.19+1.24</f>
         <v>1.43</v>
       </c>
-      <c r="U13" s="90">
-        <v>1.43</v>
-      </c>
-      <c r="V13">
+      <c r="U13">
         <f>T13*1700</f>
         <v>2431</v>
+      </c>
+      <c r="V13" s="90">
+        <v>1.43</v>
       </c>
       <c r="W13">
         <f>1.44*1795</f>
@@ -6958,16 +6977,16 @@
         <f>S13-T13</f>
         <v>11.540000000000001</v>
       </c>
-      <c r="U14" s="89">
-        <f>T14-U15</f>
-        <v>10.9</v>
-      </c>
-      <c r="V14">
+      <c r="U14">
         <f>T14*2200</f>
         <v>25388.000000000004</v>
       </c>
+      <c r="V14" s="89">
+        <f>T14-V15</f>
+        <v>10.9</v>
+      </c>
       <c r="W14">
-        <f>U14*2770</f>
+        <f>V14*2770</f>
         <v>30193</v>
       </c>
     </row>
@@ -6981,14 +7000,14 @@
       <c r="T15">
         <v>0</v>
       </c>
-      <c r="U15" s="89">
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15" s="89">
         <v>0.64</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
       <c r="W15">
-        <f>U15*2980</f>
+        <f>V15*2980</f>
         <v>1907.2</v>
       </c>
     </row>
@@ -6997,26 +7016,26 @@
         <v>157</v>
       </c>
       <c r="B16" s="68"/>
-      <c r="R16" t="s">
+      <c r="R16" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="116">
         <f>SUM(S13:S15)</f>
         <v>12.97</v>
       </c>
-      <c r="T16" s="89">
+      <c r="T16" s="116">
         <f>SUM(T13:T15)</f>
         <v>12.97</v>
       </c>
-      <c r="U16" s="89">
+      <c r="U16" s="116">
         <f>SUM(U13:U15)</f>
+        <v>27819.000000000004</v>
+      </c>
+      <c r="V16" s="116">
+        <f>SUM(V13:V15)</f>
         <v>12.97</v>
       </c>
-      <c r="V16" s="89">
-        <f>SUM(V13:V15)</f>
-        <v>27819.000000000004</v>
-      </c>
-      <c r="W16" s="89">
+      <c r="W16" s="116">
         <f>SUM(W13:W15)</f>
         <v>34685</v>
       </c>
@@ -7077,10 +7096,10 @@
       <c r="K18" t="s">
         <v>296</v>
       </c>
-      <c r="M18" s="114" t="s">
+      <c r="M18" s="113" t="s">
         <v>313</v>
       </c>
-      <c r="N18" s="114"/>
+      <c r="N18" s="113"/>
       <c r="P18" s="75">
         <v>600</v>
       </c>
@@ -7114,10 +7133,10 @@
         <f>H19*1.06</f>
         <v>477</v>
       </c>
-      <c r="M19" s="113" t="s">
+      <c r="M19" s="112" t="s">
         <v>314</v>
       </c>
-      <c r="N19" s="113"/>
+      <c r="N19" s="112"/>
       <c r="P19" s="75">
         <v>1140</v>
       </c>
@@ -7266,13 +7285,13 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="112" t="s">
+      <c r="A31" s="111" t="s">
         <v>292</v>
       </c>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -7444,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="70" t="s">
         <v>7</v>
       </c>
@@ -7456,7 +7475,7 @@
         <v>23034</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="79" t="s">
         <v>340</v>
       </c>
@@ -7474,21 +7493,21 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="110" t="s">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" s="109" t="s">
         <v>323</v>
       </c>
-      <c r="B54" s="110"/>
-      <c r="C54" s="110"/>
-      <c r="D54" s="110"/>
-      <c r="E54" s="110"/>
-      <c r="F54" s="110"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="108" t="s">
+      <c r="B54" s="109"/>
+      <c r="C54" s="109"/>
+      <c r="D54" s="109"/>
+      <c r="E54" s="109"/>
+      <c r="F54" s="109"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55" s="107" t="s">
         <v>342</v>
       </c>
-      <c r="B55" s="108"/>
+      <c r="B55" s="107"/>
       <c r="C55">
         <v>25</v>
       </c>
@@ -7502,7 +7521,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="83" t="s">
         <v>341</v>
       </c>
@@ -7518,7 +7537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="83" t="s">
         <v>345</v>
       </c>
@@ -7531,13 +7550,13 @@
       <c r="F57" s="84">
         <v>7</v>
       </c>
-      <c r="U57" s="89"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="104" t="s">
+      <c r="V57" s="89"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A58" s="103" t="s">
         <v>332</v>
       </c>
-      <c r="B58" s="104"/>
+      <c r="B58" s="103"/>
       <c r="C58">
         <v>56</v>
       </c>
@@ -7552,11 +7571,11 @@
         <v>348</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="104" t="s">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A59" s="103" t="s">
         <v>316</v>
       </c>
-      <c r="B59" s="104"/>
+      <c r="B59" s="103"/>
       <c r="C59">
         <v>50</v>
       </c>
@@ -7564,11 +7583,11 @@
         <v>334</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="104" t="s">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A60" s="103" t="s">
         <v>317</v>
       </c>
-      <c r="B60" s="104"/>
+      <c r="B60" s="103"/>
       <c r="C60">
         <v>66</v>
       </c>
@@ -7589,11 +7608,11 @@
         <v>3.0789999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="104" t="s">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A61" s="103" t="s">
         <v>318</v>
       </c>
-      <c r="B61" s="104"/>
+      <c r="B61" s="103"/>
       <c r="C61">
         <v>16</v>
       </c>
@@ -7608,11 +7627,11 @@
         <v>26171.499999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" s="104" t="s">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62" s="103" t="s">
         <v>319</v>
       </c>
-      <c r="B62" s="104"/>
+      <c r="B62" s="103"/>
       <c r="C62">
         <v>144</v>
       </c>
@@ -7620,11 +7639,11 @@
         <v>334</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A63" s="104" t="s">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A63" s="103" t="s">
         <v>320</v>
       </c>
-      <c r="B63" s="104"/>
+      <c r="B63" s="103"/>
       <c r="C63">
         <v>144</v>
       </c>
@@ -7632,11 +7651,11 @@
         <v>334</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="104" t="s">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A64" s="103" t="s">
         <v>321</v>
       </c>
-      <c r="B64" s="104"/>
+      <c r="B64" s="103"/>
       <c r="C64">
         <v>10</v>
       </c>
@@ -7645,10 +7664,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="109" t="s">
+      <c r="A65" s="108" t="s">
         <v>322</v>
       </c>
-      <c r="B65" s="109"/>
+      <c r="B65" s="108"/>
       <c r="C65">
         <v>1000</v>
       </c>
@@ -7657,20 +7676,20 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="107" t="s">
+      <c r="A66" s="106" t="s">
         <v>344</v>
       </c>
-      <c r="B66" s="107"/>
-      <c r="C66" s="107"/>
-      <c r="D66" s="107"/>
-      <c r="E66" s="107"/>
-      <c r="F66" s="107"/>
+      <c r="B66" s="106"/>
+      <c r="C66" s="106"/>
+      <c r="D66" s="106"/>
+      <c r="E66" s="106"/>
+      <c r="F66" s="106"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="105" t="s">
+      <c r="A67" s="104" t="s">
         <v>351</v>
       </c>
-      <c r="B67" s="105"/>
+      <c r="B67" s="104"/>
       <c r="C67">
         <v>8</v>
       </c>
@@ -7685,10 +7704,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="106" t="s">
+      <c r="A68" s="105" t="s">
         <v>324</v>
       </c>
-      <c r="B68" s="106"/>
+      <c r="B68" s="105"/>
       <c r="C68">
         <v>500</v>
       </c>
@@ -7697,10 +7716,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="104" t="s">
+      <c r="A69" s="103" t="s">
         <v>352</v>
       </c>
-      <c r="B69" s="104"/>
+      <c r="B69" s="103"/>
       <c r="C69">
         <v>5</v>
       </c>
@@ -7709,10 +7728,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="104" t="s">
+      <c r="A70" s="103" t="s">
         <v>353</v>
       </c>
-      <c r="B70" s="104"/>
+      <c r="B70" s="103"/>
       <c r="C70">
         <v>7</v>
       </c>
@@ -7721,10 +7740,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="104" t="s">
+      <c r="A71" s="103" t="s">
         <v>354</v>
       </c>
-      <c r="B71" s="104"/>
+      <c r="B71" s="103"/>
       <c r="C71">
         <v>2</v>
       </c>
@@ -7733,10 +7752,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="104" t="s">
+      <c r="A72" s="103" t="s">
         <v>325</v>
       </c>
-      <c r="B72" s="104"/>
+      <c r="B72" s="103"/>
       <c r="C72">
         <v>9</v>
       </c>
@@ -7745,10 +7764,10 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="104" t="s">
+      <c r="A73" s="103" t="s">
         <v>326</v>
       </c>
-      <c r="B73" s="104"/>
+      <c r="B73" s="103"/>
       <c r="C73">
         <v>9</v>
       </c>
@@ -7757,10 +7776,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="104" t="s">
+      <c r="A74" s="103" t="s">
         <v>327</v>
       </c>
-      <c r="B74" s="104"/>
+      <c r="B74" s="103"/>
       <c r="C74">
         <v>9</v>
       </c>
@@ -7769,10 +7788,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="104" t="s">
+      <c r="A75" s="103" t="s">
         <v>328</v>
       </c>
-      <c r="B75" s="104"/>
+      <c r="B75" s="103"/>
       <c r="C75">
         <v>5</v>
       </c>
@@ -7781,10 +7800,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="104" t="s">
+      <c r="A76" s="103" t="s">
         <v>329</v>
       </c>
-      <c r="B76" s="104"/>
+      <c r="B76" s="103"/>
       <c r="C76">
         <v>1</v>
       </c>
@@ -7793,10 +7812,10 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="104" t="s">
+      <c r="A77" s="103" t="s">
         <v>330</v>
       </c>
-      <c r="B77" s="104"/>
+      <c r="B77" s="103"/>
       <c r="C77">
         <v>1</v>
       </c>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -40,12 +40,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="A88" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1. На 1м3 кладки ШБ требуется 0,25м3 раствора
+2. 1м3 раствора = 1м3 песка + 0,3м3 или 466кг цемента
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="396">
   <si>
     <t>Помещение</t>
   </si>
@@ -1234,20 +1250,77 @@
   <si>
     <t>Стоимость рубл</t>
   </si>
+  <si>
+    <t>РАБОТЫ ОТ МАРАТА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шлакоблок </t>
+  </si>
+  <si>
+    <t>13 м3</t>
+  </si>
+  <si>
+    <t>Уголок L100 под перемычки</t>
+  </si>
+  <si>
+    <t>Уголок L75 под перемычки</t>
+  </si>
+  <si>
+    <t>Песок, (мытый или отсев доломитовый) Камаз</t>
+  </si>
+  <si>
+    <t>Цемент доставка</t>
+  </si>
+  <si>
+    <t>Доставка уголок сетка рубероид</t>
+  </si>
+  <si>
+    <t>Кладка Ш/Б облицовка</t>
+  </si>
+  <si>
+    <t>Кладка Ш/Б черновая</t>
+  </si>
+  <si>
+    <t>Монтаж перемычек (сварка, монтаж, покраска)</t>
+  </si>
+  <si>
+    <t>Подшив потолка</t>
+  </si>
+  <si>
+    <t>Брус 100*200 (стропила)</t>
+  </si>
+  <si>
+    <t>Доска 30*100 (обрешетка)</t>
+  </si>
+  <si>
+    <t>Брус 50*50 (контробрешетка)</t>
+  </si>
+  <si>
+    <t>Стоимость</t>
+  </si>
+  <si>
+    <t>Итого материалы</t>
+  </si>
+  <si>
+    <t>Итого работа</t>
+  </si>
+  <si>
+    <t>Услуги прораба (5% от стоимости работ)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot;р.&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1446,6 +1519,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="25">
     <fill>
@@ -1585,7 +1667,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1733,6 +1815,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1756,7 +1862,7 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1764,7 +1870,7 @@
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -1866,15 +1972,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="14" borderId="5" xfId="21" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="14" borderId="5" xfId="21" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="25"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="25" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="24"/>
-    <xf numFmtId="164" fontId="3" fillId="20" borderId="12" xfId="21" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="20" borderId="12" xfId="21" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1894,6 +2000,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="23" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="19" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" xfId="27"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1915,27 +2030,27 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="15" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="23" applyAlignment="1">
+    <xf numFmtId="44" fontId="21" fillId="14" borderId="8" xfId="23" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="21" fillId="14" borderId="8" xfId="23" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="23" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="15" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1943,13 +2058,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="23" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="13" xfId="27" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="19" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="14" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" xfId="27"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="22" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="19" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
@@ -2761,14 +2880,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>19484.931506849316</v>
+        <v>19830.136986301372</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2796,14 +2915,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="J4" s="14">
         <v>170000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*L1/365*I4</f>
-        <v>6450.6849315068494</v>
+        <v>6660.2739726027394</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3539,10 +3658,10 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="92" t="s">
+      <c r="C46" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="93"/>
+      <c r="D46" s="98"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
@@ -3663,14 +3782,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="91" t="s">
+      <c r="C57" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="91"/>
-      <c r="E57" s="91" t="s">
+      <c r="D57" s="96"/>
+      <c r="E57" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="91"/>
+      <c r="F57" s="96"/>
       <c r="I57" s="17" t="s">
         <v>84</v>
       </c>
@@ -3784,8 +3903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView topLeftCell="A54" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3990,12 +4109,12 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
@@ -4011,10 +4130,10 @@
         <f t="shared" si="0"/>
         <v>8946</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="G9" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="94"/>
+      <c r="H9" s="99"/>
     </row>
     <row r="10" spans="1:13" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
@@ -4144,12 +4263,12 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
       <c r="F14" s="9" t="s">
         <v>208</v>
       </c>
@@ -4302,12 +4421,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="101" t="s">
+      <c r="A24" s="106" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4546,12 +4665,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="102" t="s">
+      <c r="A41" s="107" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="102"/>
-      <c r="C41" s="102"/>
-      <c r="D41" s="102"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="107"/>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -4674,12 +4793,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="95" t="s">
+      <c r="A50" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="95"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="95"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -4727,12 +4846,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="95" t="s">
+      <c r="A54" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="96"/>
-      <c r="C54" s="96"/>
-      <c r="D54" s="96"/>
+      <c r="B54" s="101"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="101"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -5143,12 +5262,12 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="97" t="s">
+      <c r="A83" s="102" t="s">
         <v>196</v>
       </c>
-      <c r="B83" s="97"/>
-      <c r="C83" s="97"/>
-      <c r="D83" s="97"/>
+      <c r="B83" s="102"/>
+      <c r="C83" s="102"/>
+      <c r="D83" s="102"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -6444,10 +6563,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W79"/>
+  <dimension ref="A1:W134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6457,7 +6576,7 @@
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
@@ -6481,22 +6600,22 @@
         <v>128</v>
       </c>
       <c r="B1" s="68"/>
-      <c r="G1" s="110" t="s">
+      <c r="G1" s="116" t="s">
         <v>369</v>
       </c>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
       <c r="V1" s="90"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -6515,20 +6634,20 @@
       <c r="E2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
       <c r="V2" s="90"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -6548,20 +6667,20 @@
         <f t="shared" ref="E3:E11" si="0">C3*D3</f>
         <v>17500</v>
       </c>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
       <c r="V3" s="90"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -6578,20 +6697,20 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
       <c r="V4" s="90"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -6608,20 +6727,20 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="110"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
       <c r="V5" s="90"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -6638,20 +6757,20 @@
         <f t="shared" si="0"/>
         <v>8800</v>
       </c>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="110"/>
-      <c r="S6" s="110"/>
-      <c r="T6" s="110"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
       <c r="V6" s="90"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -6668,20 +6787,20 @@
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="110"/>
-      <c r="S7" s="110"/>
-      <c r="T7" s="110"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
       <c r="V7" s="90"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -6693,20 +6812,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="110"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
       <c r="V8" s="90"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -6723,20 +6842,20 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="110"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="110"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
       <c r="V9" s="90"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -6751,20 +6870,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="110"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="110"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
       <c r="V10" s="90"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -6776,30 +6895,30 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="110"/>
-      <c r="S11" s="110"/>
-      <c r="T11" s="110"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="116"/>
+      <c r="Q11" s="116"/>
+      <c r="R11" s="116"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="116"/>
       <c r="V11" s="90"/>
     </row>
     <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="108" t="s">
         <v>292</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
       <c r="G12" s="72" t="s">
         <v>18</v>
       </c>
@@ -6833,16 +6952,16 @@
       <c r="S12" s="88" t="s">
         <v>370</v>
       </c>
-      <c r="T12" s="114" t="s">
+      <c r="T12" s="92" t="s">
         <v>373</v>
       </c>
-      <c r="U12" s="114" t="s">
+      <c r="U12" s="92" t="s">
         <v>375</v>
       </c>
-      <c r="V12" s="115" t="s">
+      <c r="V12" s="93" t="s">
         <v>374</v>
       </c>
-      <c r="W12" s="115" t="s">
+      <c r="W12" s="93" t="s">
         <v>376</v>
       </c>
     </row>
@@ -7016,26 +7135,26 @@
         <v>157</v>
       </c>
       <c r="B16" s="68"/>
-      <c r="R16" s="116" t="s">
+      <c r="R16" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="S16" s="116">
+      <c r="S16" s="94">
         <f>SUM(S13:S15)</f>
         <v>12.97</v>
       </c>
-      <c r="T16" s="116">
+      <c r="T16" s="94">
         <f>SUM(T13:T15)</f>
         <v>12.97</v>
       </c>
-      <c r="U16" s="116">
+      <c r="U16" s="94">
         <f>SUM(U13:U15)</f>
         <v>27819.000000000004</v>
       </c>
-      <c r="V16" s="116">
+      <c r="V16" s="94">
         <f>SUM(V13:V15)</f>
         <v>12.97</v>
       </c>
-      <c r="W16" s="116">
+      <c r="W16" s="94">
         <f>SUM(W13:W15)</f>
         <v>34685</v>
       </c>
@@ -7096,10 +7215,10 @@
       <c r="K18" t="s">
         <v>296</v>
       </c>
-      <c r="M18" s="113" t="s">
+      <c r="M18" s="118" t="s">
         <v>313</v>
       </c>
-      <c r="N18" s="113"/>
+      <c r="N18" s="118"/>
       <c r="P18" s="75">
         <v>600</v>
       </c>
@@ -7133,10 +7252,10 @@
         <f>H19*1.06</f>
         <v>477</v>
       </c>
-      <c r="M19" s="112" t="s">
+      <c r="M19" s="117" t="s">
         <v>314</v>
       </c>
-      <c r="N19" s="112"/>
+      <c r="N19" s="117"/>
       <c r="P19" s="75">
         <v>1140</v>
       </c>
@@ -7285,13 +7404,13 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="111" t="s">
+      <c r="A31" s="108" t="s">
         <v>292</v>
       </c>
-      <c r="B31" s="111"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -7494,20 +7613,20 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="109" t="s">
+      <c r="A54" s="110" t="s">
         <v>323</v>
       </c>
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
+      <c r="B54" s="110"/>
+      <c r="C54" s="110"/>
+      <c r="D54" s="110"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="110"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="107" t="s">
+      <c r="A55" s="111" t="s">
         <v>342</v>
       </c>
-      <c r="B55" s="107"/>
+      <c r="B55" s="111"/>
       <c r="C55">
         <v>25</v>
       </c>
@@ -7553,10 +7672,10 @@
       <c r="V57" s="89"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="103" t="s">
+      <c r="A58" s="109" t="s">
         <v>332</v>
       </c>
-      <c r="B58" s="103"/>
+      <c r="B58" s="109"/>
       <c r="C58">
         <v>56</v>
       </c>
@@ -7572,10 +7691,10 @@
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" s="103" t="s">
+      <c r="A59" s="109" t="s">
         <v>316</v>
       </c>
-      <c r="B59" s="103"/>
+      <c r="B59" s="109"/>
       <c r="C59">
         <v>50</v>
       </c>
@@ -7584,10 +7703,10 @@
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="103" t="s">
+      <c r="A60" s="109" t="s">
         <v>317</v>
       </c>
-      <c r="B60" s="103"/>
+      <c r="B60" s="109"/>
       <c r="C60">
         <v>66</v>
       </c>
@@ -7609,10 +7728,10 @@
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" s="103" t="s">
+      <c r="A61" s="109" t="s">
         <v>318</v>
       </c>
-      <c r="B61" s="103"/>
+      <c r="B61" s="109"/>
       <c r="C61">
         <v>16</v>
       </c>
@@ -7628,10 +7747,10 @@
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="103" t="s">
+      <c r="A62" s="109" t="s">
         <v>319</v>
       </c>
-      <c r="B62" s="103"/>
+      <c r="B62" s="109"/>
       <c r="C62">
         <v>144</v>
       </c>
@@ -7640,10 +7759,10 @@
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" s="103" t="s">
+      <c r="A63" s="109" t="s">
         <v>320</v>
       </c>
-      <c r="B63" s="103"/>
+      <c r="B63" s="109"/>
       <c r="C63">
         <v>144</v>
       </c>
@@ -7652,10 +7771,10 @@
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" s="103" t="s">
+      <c r="A64" s="109" t="s">
         <v>321</v>
       </c>
-      <c r="B64" s="103"/>
+      <c r="B64" s="109"/>
       <c r="C64">
         <v>10</v>
       </c>
@@ -7664,10 +7783,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="108" t="s">
+      <c r="A65" s="115" t="s">
         <v>322</v>
       </c>
-      <c r="B65" s="108"/>
+      <c r="B65" s="115"/>
       <c r="C65">
         <v>1000</v>
       </c>
@@ -7676,20 +7795,20 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="106" t="s">
+      <c r="A66" s="112" t="s">
         <v>344</v>
       </c>
-      <c r="B66" s="106"/>
-      <c r="C66" s="106"/>
-      <c r="D66" s="106"/>
-      <c r="E66" s="106"/>
-      <c r="F66" s="106"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="112"/>
+      <c r="D66" s="112"/>
+      <c r="E66" s="112"/>
+      <c r="F66" s="112"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="104" t="s">
+      <c r="A67" s="113" t="s">
         <v>351</v>
       </c>
-      <c r="B67" s="104"/>
+      <c r="B67" s="113"/>
       <c r="C67">
         <v>8</v>
       </c>
@@ -7704,10 +7823,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="105" t="s">
+      <c r="A68" s="114" t="s">
         <v>324</v>
       </c>
-      <c r="B68" s="105"/>
+      <c r="B68" s="114"/>
       <c r="C68">
         <v>500</v>
       </c>
@@ -7716,10 +7835,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="103" t="s">
+      <c r="A69" s="109" t="s">
         <v>352</v>
       </c>
-      <c r="B69" s="103"/>
+      <c r="B69" s="109"/>
       <c r="C69">
         <v>5</v>
       </c>
@@ -7728,10 +7847,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="103" t="s">
+      <c r="A70" s="109" t="s">
         <v>353</v>
       </c>
-      <c r="B70" s="103"/>
+      <c r="B70" s="109"/>
       <c r="C70">
         <v>7</v>
       </c>
@@ -7740,10 +7859,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="103" t="s">
+      <c r="A71" s="109" t="s">
         <v>354</v>
       </c>
-      <c r="B71" s="103"/>
+      <c r="B71" s="109"/>
       <c r="C71">
         <v>2</v>
       </c>
@@ -7752,10 +7871,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="103" t="s">
+      <c r="A72" s="109" t="s">
         <v>325</v>
       </c>
-      <c r="B72" s="103"/>
+      <c r="B72" s="109"/>
       <c r="C72">
         <v>9</v>
       </c>
@@ -7764,10 +7883,10 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="103" t="s">
+      <c r="A73" s="109" t="s">
         <v>326</v>
       </c>
-      <c r="B73" s="103"/>
+      <c r="B73" s="109"/>
       <c r="C73">
         <v>9</v>
       </c>
@@ -7776,10 +7895,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="103" t="s">
+      <c r="A74" s="109" t="s">
         <v>327</v>
       </c>
-      <c r="B74" s="103"/>
+      <c r="B74" s="109"/>
       <c r="C74">
         <v>9</v>
       </c>
@@ -7788,10 +7907,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="103" t="s">
+      <c r="A75" s="109" t="s">
         <v>328</v>
       </c>
-      <c r="B75" s="103"/>
+      <c r="B75" s="109"/>
       <c r="C75">
         <v>5</v>
       </c>
@@ -7800,10 +7919,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="103" t="s">
+      <c r="A76" s="109" t="s">
         <v>329</v>
       </c>
-      <c r="B76" s="103"/>
+      <c r="B76" s="109"/>
       <c r="C76">
         <v>1</v>
       </c>
@@ -7812,10 +7931,10 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="103" t="s">
+      <c r="A77" s="109" t="s">
         <v>330</v>
       </c>
-      <c r="B77" s="103"/>
+      <c r="B77" s="109"/>
       <c r="C77">
         <v>1</v>
       </c>
@@ -7833,8 +7952,743 @@
         <v>39800</v>
       </c>
     </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="119" t="s">
+        <v>377</v>
+      </c>
+      <c r="B82" s="119"/>
+      <c r="C82" s="119"/>
+      <c r="D82" s="119"/>
+      <c r="E82" s="119"/>
+    </row>
+    <row r="83" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A83" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" s="68"/>
+      <c r="C83" s="91"/>
+      <c r="D83" s="91"/>
+      <c r="E83" s="91"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" s="61" t="s">
+        <v>290</v>
+      </c>
+      <c r="C84" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="D84" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="E84" s="61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="C85" s="91">
+        <v>13.06</v>
+      </c>
+      <c r="D85" s="69">
+        <v>2200</v>
+      </c>
+      <c r="E85" s="69">
+        <f t="shared" ref="E85:E95" si="3">C85*D85</f>
+        <v>28732</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="91" t="s">
+        <v>278</v>
+      </c>
+      <c r="B86" s="91"/>
+      <c r="C86" s="91">
+        <v>13</v>
+      </c>
+      <c r="D86" s="69">
+        <v>200</v>
+      </c>
+      <c r="E86" s="69">
+        <f t="shared" si="3"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="91" t="s">
+        <v>264</v>
+      </c>
+      <c r="B87" s="91"/>
+      <c r="C87" s="91">
+        <v>1</v>
+      </c>
+      <c r="D87" s="69">
+        <v>8000</v>
+      </c>
+      <c r="E87" s="69">
+        <f t="shared" si="3"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="91" t="s">
+        <v>279</v>
+      </c>
+      <c r="C88" s="91">
+        <v>38</v>
+      </c>
+      <c r="D88" s="69">
+        <v>210</v>
+      </c>
+      <c r="E88" s="69">
+        <f t="shared" ref="E88" si="4">C88*D88</f>
+        <v>7980</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="91" t="s">
+        <v>383</v>
+      </c>
+      <c r="B89" s="91"/>
+      <c r="C89" s="91">
+        <v>1</v>
+      </c>
+      <c r="D89" s="69">
+        <v>1500</v>
+      </c>
+      <c r="E89" s="69">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="91" t="s">
+        <v>382</v>
+      </c>
+      <c r="B90" s="91"/>
+      <c r="C90" s="91">
+        <v>1</v>
+      </c>
+      <c r="D90" s="69">
+        <v>6000</v>
+      </c>
+      <c r="E90" s="69">
+        <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="91" t="s">
+        <v>281</v>
+      </c>
+      <c r="B91" s="91"/>
+      <c r="C91" s="91">
+        <v>9</v>
+      </c>
+      <c r="D91" s="69">
+        <v>220</v>
+      </c>
+      <c r="E91" s="69">
+        <f t="shared" si="3"/>
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="91" t="s">
+        <v>270</v>
+      </c>
+      <c r="B92" s="91"/>
+      <c r="C92" s="91">
+        <v>1</v>
+      </c>
+      <c r="D92" s="69">
+        <v>400</v>
+      </c>
+      <c r="E92" s="69">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="91" t="s">
+        <v>380</v>
+      </c>
+      <c r="B93" s="91"/>
+      <c r="C93" s="91">
+        <v>14.4</v>
+      </c>
+      <c r="D93" s="69">
+        <v>600</v>
+      </c>
+      <c r="E93" s="69">
+        <f t="shared" si="3"/>
+        <v>8640</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="91" t="s">
+        <v>381</v>
+      </c>
+      <c r="C94" s="91">
+        <v>8.4</v>
+      </c>
+      <c r="D94" s="69">
+        <v>400</v>
+      </c>
+      <c r="E94" s="69">
+        <f t="shared" ref="E94" si="5">C94*D94</f>
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="91" t="s">
+        <v>384</v>
+      </c>
+      <c r="B95" s="91"/>
+      <c r="C95" s="91">
+        <v>1</v>
+      </c>
+      <c r="D95" s="69">
+        <v>600</v>
+      </c>
+      <c r="E95" s="69">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="120" t="s">
+        <v>393</v>
+      </c>
+      <c r="B96" s="120"/>
+      <c r="C96" s="120"/>
+      <c r="D96" s="121"/>
+      <c r="E96" s="125">
+        <f>SUM(E85:E95)</f>
+        <v>69792</v>
+      </c>
+      <c r="F96" s="74"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="122" t="s">
+        <v>292</v>
+      </c>
+      <c r="B97" s="122"/>
+      <c r="C97" s="122"/>
+      <c r="D97" s="122"/>
+      <c r="E97" s="122"/>
+    </row>
+    <row r="98" spans="1:6" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="91" t="s">
+        <v>385</v>
+      </c>
+      <c r="C98" s="91">
+        <f>61-7</f>
+        <v>54</v>
+      </c>
+      <c r="D98" s="69">
+        <v>500</v>
+      </c>
+      <c r="E98" s="69">
+        <f>C98*D98</f>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="91" t="s">
+        <v>386</v>
+      </c>
+      <c r="C99" s="91">
+        <f>8+7</f>
+        <v>15</v>
+      </c>
+      <c r="D99" s="69">
+        <v>400</v>
+      </c>
+      <c r="E99" s="69">
+        <f>C99*D99</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="91" t="s">
+        <v>387</v>
+      </c>
+      <c r="B100" s="91"/>
+      <c r="C100" s="91">
+        <v>1</v>
+      </c>
+      <c r="D100" s="69">
+        <v>3500</v>
+      </c>
+      <c r="E100" s="69">
+        <f>C100*D100</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="120" t="s">
+        <v>394</v>
+      </c>
+      <c r="B101" s="120"/>
+      <c r="C101" s="120"/>
+      <c r="D101" s="121"/>
+      <c r="E101" s="125">
+        <f>SUM(E98:E100)</f>
+        <v>36500</v>
+      </c>
+      <c r="F101" s="74">
+        <f>SUM(E101:E102)</f>
+        <v>41813</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>395</v>
+      </c>
+      <c r="E102" s="74">
+        <f>FLOOR((E96+E101)*0.05,3)</f>
+        <v>5313</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="123" t="s">
+        <v>189</v>
+      </c>
+      <c r="B103" s="123"/>
+      <c r="C103" s="123">
+        <v>51</v>
+      </c>
+      <c r="D103" s="123">
+        <v>1</v>
+      </c>
+      <c r="E103" s="124">
+        <f>E96+E101+E102</f>
+        <v>111605</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A104" s="68" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" s="78"/>
+      <c r="C105" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="D105" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="E105" s="79" t="s">
+        <v>346</v>
+      </c>
+      <c r="F105" s="79" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="110" t="s">
+        <v>323</v>
+      </c>
+      <c r="B106" s="110"/>
+      <c r="C106" s="110"/>
+      <c r="D106" s="110"/>
+      <c r="E106" s="110"/>
+      <c r="F106" s="110"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="111" t="s">
+        <v>389</v>
+      </c>
+      <c r="B107" s="111"/>
+      <c r="C107" s="91">
+        <v>16</v>
+      </c>
+      <c r="D107" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="E107" s="91">
+        <v>1.92</v>
+      </c>
+      <c r="F107" s="91">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="109" t="s">
+        <v>390</v>
+      </c>
+      <c r="B108" s="109"/>
+      <c r="C108" s="91">
+        <v>56</v>
+      </c>
+      <c r="D108" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="E108" s="91">
+        <f>0.1*0.03*238</f>
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="F108" s="91" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="109" t="s">
+        <v>391</v>
+      </c>
+      <c r="B109" s="109"/>
+      <c r="C109" s="91">
+        <v>70</v>
+      </c>
+      <c r="D109" s="91" t="s">
+        <v>335</v>
+      </c>
+      <c r="E109" s="91">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F109" s="91">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="109" t="s">
+        <v>316</v>
+      </c>
+      <c r="B110" s="109"/>
+      <c r="C110" s="91">
+        <v>50</v>
+      </c>
+      <c r="D110" s="91" t="s">
+        <v>334</v>
+      </c>
+      <c r="E110" s="91"/>
+      <c r="F110" s="91"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="109" t="s">
+        <v>318</v>
+      </c>
+      <c r="B111" s="109"/>
+      <c r="C111" s="91">
+        <v>16</v>
+      </c>
+      <c r="D111" s="91" t="s">
+        <v>335</v>
+      </c>
+      <c r="E111" s="91"/>
+      <c r="F111" s="91"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="109" t="s">
+        <v>319</v>
+      </c>
+      <c r="B112" s="109"/>
+      <c r="C112" s="91">
+        <v>144</v>
+      </c>
+      <c r="D112" s="91" t="s">
+        <v>334</v>
+      </c>
+      <c r="E112" s="91"/>
+      <c r="F112" s="91"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="109" t="s">
+        <v>320</v>
+      </c>
+      <c r="B113" s="109"/>
+      <c r="C113" s="91">
+        <v>144</v>
+      </c>
+      <c r="D113" s="91" t="s">
+        <v>334</v>
+      </c>
+      <c r="E113" s="91"/>
+      <c r="F113" s="91"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="109" t="s">
+        <v>321</v>
+      </c>
+      <c r="B114" s="109"/>
+      <c r="C114" s="91">
+        <v>10</v>
+      </c>
+      <c r="D114" s="91" t="s">
+        <v>336</v>
+      </c>
+      <c r="E114" s="91"/>
+      <c r="F114" s="91"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="115" t="s">
+        <v>322</v>
+      </c>
+      <c r="B115" s="115"/>
+      <c r="C115" s="91">
+        <v>1000</v>
+      </c>
+      <c r="D115" s="91" t="s">
+        <v>334</v>
+      </c>
+      <c r="E115" s="91"/>
+      <c r="F115" s="91"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="112" t="s">
+        <v>344</v>
+      </c>
+      <c r="B116" s="112"/>
+      <c r="C116" s="112"/>
+      <c r="D116" s="112"/>
+      <c r="E116" s="112"/>
+      <c r="F116" s="112"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="113" t="s">
+        <v>351</v>
+      </c>
+      <c r="B117" s="113"/>
+      <c r="C117" s="91">
+        <v>9</v>
+      </c>
+      <c r="D117" s="91" t="s">
+        <v>339</v>
+      </c>
+      <c r="E117" s="91" t="s">
+        <v>343</v>
+      </c>
+      <c r="F117" s="91">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="114" t="s">
+        <v>324</v>
+      </c>
+      <c r="B118" s="114"/>
+      <c r="C118" s="91">
+        <v>500</v>
+      </c>
+      <c r="D118" s="91" t="s">
+        <v>334</v>
+      </c>
+      <c r="E118" s="91"/>
+      <c r="F118" s="91"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="109" t="s">
+        <v>352</v>
+      </c>
+      <c r="B119" s="109"/>
+      <c r="C119" s="91">
+        <v>5</v>
+      </c>
+      <c r="D119" s="91" t="s">
+        <v>334</v>
+      </c>
+      <c r="E119" s="91"/>
+      <c r="F119" s="91"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="109" t="s">
+        <v>353</v>
+      </c>
+      <c r="B120" s="109"/>
+      <c r="C120" s="91">
+        <v>7</v>
+      </c>
+      <c r="D120" s="91" t="s">
+        <v>334</v>
+      </c>
+      <c r="E120" s="91"/>
+      <c r="F120" s="91"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="109" t="s">
+        <v>354</v>
+      </c>
+      <c r="B121" s="109"/>
+      <c r="C121" s="91">
+        <v>2</v>
+      </c>
+      <c r="D121" s="91" t="s">
+        <v>334</v>
+      </c>
+      <c r="E121" s="91"/>
+      <c r="F121" s="91"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="109" t="s">
+        <v>325</v>
+      </c>
+      <c r="B122" s="109"/>
+      <c r="C122" s="91">
+        <v>9</v>
+      </c>
+      <c r="D122" s="91" t="s">
+        <v>337</v>
+      </c>
+      <c r="E122" s="91"/>
+      <c r="F122" s="91"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="109" t="s">
+        <v>326</v>
+      </c>
+      <c r="B123" s="109"/>
+      <c r="C123" s="91">
+        <v>9</v>
+      </c>
+      <c r="D123" s="91" t="s">
+        <v>338</v>
+      </c>
+      <c r="E123" s="91"/>
+      <c r="F123" s="91"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="109" t="s">
+        <v>327</v>
+      </c>
+      <c r="B124" s="109"/>
+      <c r="C124" s="91">
+        <v>9</v>
+      </c>
+      <c r="D124" s="91" t="s">
+        <v>338</v>
+      </c>
+      <c r="E124" s="91"/>
+      <c r="F124" s="91"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="109" t="s">
+        <v>328</v>
+      </c>
+      <c r="B125" s="109"/>
+      <c r="C125" s="91">
+        <v>5</v>
+      </c>
+      <c r="D125" s="91" t="s">
+        <v>334</v>
+      </c>
+      <c r="E125" s="91"/>
+      <c r="F125" s="91"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="109" t="s">
+        <v>329</v>
+      </c>
+      <c r="B126" s="109"/>
+      <c r="C126" s="91">
+        <v>1</v>
+      </c>
+      <c r="D126" s="91" t="s">
+        <v>334</v>
+      </c>
+      <c r="E126" s="91"/>
+      <c r="F126" s="91"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="109" t="s">
+        <v>330</v>
+      </c>
+      <c r="B127" s="109"/>
+      <c r="C127" s="91">
+        <v>1</v>
+      </c>
+      <c r="D127" s="91" t="s">
+        <v>334</v>
+      </c>
+      <c r="E127" s="91"/>
+      <c r="F127" s="91"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="108" t="s">
+        <v>292</v>
+      </c>
+      <c r="B130" s="108"/>
+      <c r="C130" s="108"/>
+      <c r="D130" s="108"/>
+      <c r="E130" s="108"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="B131" s="91"/>
+      <c r="C131" s="91">
+        <v>53</v>
+      </c>
+      <c r="D131" s="69">
+        <v>500</v>
+      </c>
+      <c r="E131" s="69">
+        <f>C131*D131</f>
+        <v>26500</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="91" t="s">
+        <v>312</v>
+      </c>
+      <c r="B132" s="91"/>
+      <c r="C132" s="91">
+        <v>27</v>
+      </c>
+      <c r="D132" s="69">
+        <v>550</v>
+      </c>
+      <c r="E132" s="69">
+        <f>C132*D132</f>
+        <v>14850</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="91" t="s">
+        <v>388</v>
+      </c>
+      <c r="B133" s="91"/>
+      <c r="C133" s="91">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="D133" s="69">
+        <v>300</v>
+      </c>
+      <c r="E133" s="69">
+        <f>C133*D133</f>
+        <v>9690</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" s="70"/>
+      <c r="C134" s="70">
+        <v>51</v>
+      </c>
+      <c r="D134" s="70">
+        <v>1</v>
+      </c>
+      <c r="E134" s="71">
+        <f>SUM(E131:E133)</f>
+        <v>51040</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="52">
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="G1:T11"/>
     <mergeCell ref="A12:E12"/>
@@ -7856,12 +8710,37 @@
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A82:E82"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="402">
   <si>
     <t>Помещение</t>
   </si>
@@ -1005,9 +1005,6 @@
     <t>НС-35</t>
   </si>
   <si>
-    <t>Цена за м3</t>
-  </si>
-  <si>
     <t>Цена за м.п.</t>
   </si>
   <si>
@@ -1306,6 +1303,27 @@
   </si>
   <si>
     <t>Услуги прораба (5% от стоимости работ)</t>
+  </si>
+  <si>
+    <t>шт. 6 м</t>
+  </si>
+  <si>
+    <t>Профлист НС-35 (C-21) 5.60м - 3 шт. 6м - 6 шт.</t>
+  </si>
+  <si>
+    <t>шт. 2м</t>
+  </si>
+  <si>
+    <t>шт. 3м</t>
+  </si>
+  <si>
+    <t>Доска 30*100 (подшива потолка)</t>
+  </si>
+  <si>
+    <t>Цена за м2</t>
+  </si>
+  <si>
+    <t>от Марата</t>
   </si>
 </sst>
 </file>
@@ -1313,8 +1331,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot;р.&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
@@ -1667,7 +1685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1839,6 +1857,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1862,7 +1917,7 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1870,7 +1925,7 @@
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -1972,15 +2027,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="14" borderId="5" xfId="21" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="14" borderId="5" xfId="21" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="25"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="25" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="24"/>
-    <xf numFmtId="44" fontId="3" fillId="20" borderId="12" xfId="21" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="20" borderId="12" xfId="21" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2009,6 +2064,15 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" xfId="27"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="8" xfId="23" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="14" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="22" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="19" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2030,27 +2094,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="8" xfId="23" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="15" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="21" fillId="14" borderId="8" xfId="23" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="23" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2058,17 +2110,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="23" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="13" xfId="27" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="14" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="15" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="22" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="19" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="16" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="17" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
@@ -2880,14 +2948,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>19830.136986301372</v>
+        <v>19868.493150684935</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2915,14 +2983,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J4" s="14">
         <v>170000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*L1/365*I4</f>
-        <v>6660.2739726027394</v>
+        <v>6683.5616438356165</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3658,10 +3726,10 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="97" t="s">
+      <c r="C46" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="98"/>
+      <c r="D46" s="105"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
@@ -3782,14 +3850,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="96" t="s">
+      <c r="C57" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="96"/>
-      <c r="E57" s="96" t="s">
+      <c r="D57" s="103"/>
+      <c r="E57" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="96"/>
+      <c r="F57" s="103"/>
       <c r="I57" s="17" t="s">
         <v>84</v>
       </c>
@@ -4109,12 +4177,12 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="110" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
@@ -4130,10 +4198,10 @@
         <f t="shared" si="0"/>
         <v>8946</v>
       </c>
-      <c r="G9" s="99" t="s">
+      <c r="G9" s="106" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="99"/>
+      <c r="H9" s="106"/>
     </row>
     <row r="10" spans="1:13" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
@@ -4263,12 +4331,12 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
       <c r="F14" s="9" t="s">
         <v>208</v>
       </c>
@@ -4421,12 +4489,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="106" t="s">
+      <c r="A24" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4665,12 +4733,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="107" t="s">
+      <c r="A41" s="114" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -4793,12 +4861,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="100" t="s">
+      <c r="A50" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="100"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="100"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="107"/>
+      <c r="D50" s="107"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -4846,12 +4914,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="100" t="s">
+      <c r="A54" s="107" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="101"/>
-      <c r="C54" s="101"/>
-      <c r="D54" s="101"/>
+      <c r="B54" s="108"/>
+      <c r="C54" s="108"/>
+      <c r="D54" s="108"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -5262,12 +5330,12 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="102" t="s">
+      <c r="A83" s="109" t="s">
         <v>196</v>
       </c>
-      <c r="B83" s="102"/>
-      <c r="C83" s="102"/>
-      <c r="D83" s="102"/>
+      <c r="B83" s="109"/>
+      <c r="C83" s="109"/>
+      <c r="D83" s="109"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -6563,10 +6631,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W134"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:W132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:E103"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6601,7 +6672,7 @@
       </c>
       <c r="B1" s="68"/>
       <c r="G1" s="116" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1" s="116"/>
       <c r="I1" s="116"/>
@@ -6655,7 +6726,7 @@
         <v>291</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -6912,57 +6983,57 @@
       <c r="V11" s="90"/>
     </row>
     <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="117" t="s">
         <v>292</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
       <c r="G12" s="72" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="72" t="s">
+        <v>356</v>
+      </c>
+      <c r="I12" s="76" t="s">
         <v>357</v>
       </c>
-      <c r="I12" s="76" t="s">
-        <v>358</v>
-      </c>
       <c r="J12" s="76" t="s">
+        <v>361</v>
+      </c>
+      <c r="K12" s="72" t="s">
+        <v>360</v>
+      </c>
+      <c r="L12" s="72" t="s">
+        <v>363</v>
+      </c>
+      <c r="M12" s="72" t="s">
+        <v>364</v>
+      </c>
+      <c r="N12" s="72" t="s">
         <v>362</v>
-      </c>
-      <c r="K12" s="72" t="s">
-        <v>361</v>
-      </c>
-      <c r="L12" s="72" t="s">
-        <v>364</v>
-      </c>
-      <c r="M12" s="72" t="s">
-        <v>365</v>
-      </c>
-      <c r="N12" s="72" t="s">
-        <v>363</v>
       </c>
       <c r="O12" s="72"/>
       <c r="P12" s="72"/>
       <c r="Q12" s="73"/>
       <c r="R12" s="87" t="s">
+        <v>371</v>
+      </c>
+      <c r="S12" s="88" t="s">
+        <v>369</v>
+      </c>
+      <c r="T12" s="92" t="s">
         <v>372</v>
       </c>
-      <c r="S12" s="88" t="s">
-        <v>370</v>
-      </c>
-      <c r="T12" s="92" t="s">
+      <c r="U12" s="92" t="s">
+        <v>374</v>
+      </c>
+      <c r="V12" s="93" t="s">
         <v>373</v>
       </c>
-      <c r="U12" s="92" t="s">
+      <c r="W12" s="93" t="s">
         <v>375</v>
-      </c>
-      <c r="V12" s="93" t="s">
-        <v>374</v>
-      </c>
-      <c r="W12" s="93" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
@@ -6980,10 +7051,10 @@
         <v>21000</v>
       </c>
       <c r="G13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I13">
         <f>0.195*0.195*0.395</f>
@@ -7015,7 +7086,7 @@
       </c>
       <c r="Q13" s="72"/>
       <c r="R13" s="86" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="S13" s="72">
         <f>12.34+0.63</f>
@@ -7053,10 +7124,10 @@
         <v>35200</v>
       </c>
       <c r="G14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I14">
         <f>0.188*0.19*0.39</f>
@@ -7087,7 +7158,7 @@
         <v>3529.3498339410985</v>
       </c>
       <c r="R14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -7111,7 +7182,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="R15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -7181,7 +7252,7 @@
       <c r="J17" s="39"/>
       <c r="K17" s="39"/>
       <c r="M17" s="77" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N17" s="77"/>
       <c r="O17" s="39"/>
@@ -7189,7 +7260,7 @@
         <v>157</v>
       </c>
       <c r="Q17" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -7210,15 +7281,15 @@
         <v>18</v>
       </c>
       <c r="H18" t="s">
+        <v>400</v>
+      </c>
+      <c r="K18" t="s">
         <v>295</v>
       </c>
-      <c r="K18" t="s">
-        <v>296</v>
-      </c>
-      <c r="M18" s="118" t="s">
-        <v>313</v>
-      </c>
-      <c r="N18" s="118"/>
+      <c r="M18" s="119" t="s">
+        <v>312</v>
+      </c>
+      <c r="N18" s="119"/>
       <c r="P18" s="75">
         <v>600</v>
       </c>
@@ -7252,10 +7323,10 @@
         <f>H19*1.06</f>
         <v>477</v>
       </c>
-      <c r="M19" s="117" t="s">
-        <v>314</v>
-      </c>
-      <c r="N19" s="117"/>
+      <c r="M19" s="118" t="s">
+        <v>313</v>
+      </c>
+      <c r="N19" s="118"/>
       <c r="P19" s="75">
         <v>1140</v>
       </c>
@@ -7273,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H20" s="75">
         <v>425</v>
@@ -7284,6 +7355,15 @@
         <f>H20*1.051</f>
         <v>446.67499999999995</v>
       </c>
+      <c r="M20" t="s">
+        <v>401</v>
+      </c>
+      <c r="P20" s="75">
+        <v>500</v>
+      </c>
+      <c r="Q20" s="75">
+        <v>550</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -7404,13 +7484,13 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="108" t="s">
+      <c r="A31" s="117" t="s">
         <v>292</v>
       </c>
-      <c r="B31" s="108"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -7424,7 +7504,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D33" s="69"/>
       <c r="E33" s="69">
@@ -7434,7 +7514,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D34" s="69"/>
       <c r="E34" s="69">
@@ -7444,7 +7524,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D35" s="69"/>
       <c r="E35" s="69">
@@ -7454,7 +7534,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D36" s="69"/>
       <c r="E36" s="69">
@@ -7464,7 +7544,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D37" s="69"/>
       <c r="E37" s="69">
@@ -7474,7 +7554,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D38" s="69"/>
       <c r="E38" s="69">
@@ -7484,7 +7564,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D39" s="69"/>
       <c r="E39" s="69">
@@ -7494,7 +7574,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D40" s="69"/>
       <c r="E40" s="69">
@@ -7504,7 +7584,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D41" s="69"/>
       <c r="E41" s="69">
@@ -7514,7 +7594,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D42" s="69"/>
       <c r="E42" s="69">
@@ -7524,7 +7604,7 @@
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D43" s="69"/>
       <c r="E43" s="69">
@@ -7534,7 +7614,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D44" s="69"/>
       <c r="E44" s="69">
@@ -7564,7 +7644,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D47" s="69"/>
       <c r="E47" s="69">
@@ -7596,42 +7676,42 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="79" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B53" s="78"/>
       <c r="C53" s="79" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D53" s="79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E53" s="79" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F53" s="78" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="110" t="s">
-        <v>323</v>
-      </c>
-      <c r="B54" s="110"/>
-      <c r="C54" s="110"/>
-      <c r="D54" s="110"/>
-      <c r="E54" s="110"/>
-      <c r="F54" s="110"/>
+      <c r="A54" s="115" t="s">
+        <v>322</v>
+      </c>
+      <c r="B54" s="115"/>
+      <c r="C54" s="115"/>
+      <c r="D54" s="115"/>
+      <c r="E54" s="115"/>
+      <c r="F54" s="115"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="111" t="s">
-        <v>342</v>
-      </c>
-      <c r="B55" s="111"/>
+      <c r="A55" s="121" t="s">
+        <v>341</v>
+      </c>
+      <c r="B55" s="121"/>
       <c r="C55">
         <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E55">
         <v>1.92</v>
@@ -7642,12 +7722,12 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="83" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B56" s="83"/>
       <c r="C56" s="84"/>
       <c r="D56" s="84" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E56" s="84">
         <v>0.27</v>
@@ -7658,12 +7738,12 @@
     </row>
     <row r="57" spans="1:22" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="83" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B57" s="83"/>
       <c r="C57" s="84"/>
       <c r="D57" s="84" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E57" s="84"/>
       <c r="F57" s="84">
@@ -7672,46 +7752,46 @@
       <c r="V57" s="89"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="109" t="s">
-        <v>332</v>
-      </c>
-      <c r="B58" s="109"/>
+      <c r="A58" s="122" t="s">
+        <v>331</v>
+      </c>
+      <c r="B58" s="122"/>
       <c r="C58">
         <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E58">
         <f>0.1*0.03*238</f>
         <v>0.71399999999999997</v>
       </c>
       <c r="F58" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" s="109" t="s">
-        <v>316</v>
-      </c>
-      <c r="B59" s="109"/>
+      <c r="A59" s="122" t="s">
+        <v>315</v>
+      </c>
+      <c r="B59" s="122"/>
       <c r="C59">
         <v>50</v>
       </c>
       <c r="D59" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="109" t="s">
-        <v>317</v>
-      </c>
-      <c r="B60" s="109"/>
+      <c r="A60" s="122" t="s">
+        <v>316</v>
+      </c>
+      <c r="B60" s="122"/>
       <c r="C60">
         <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E60">
         <v>0.17499999999999999</v>
@@ -7720,7 +7800,7 @@
         <v>70</v>
       </c>
       <c r="H60" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I60">
         <f>SUM(E58,E56,E55,E60)</f>
@@ -7728,15 +7808,15 @@
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" s="109" t="s">
-        <v>318</v>
-      </c>
-      <c r="B61" s="109"/>
+      <c r="A61" s="122" t="s">
+        <v>317</v>
+      </c>
+      <c r="B61" s="122"/>
       <c r="C61">
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H61" t="s">
         <v>19</v>
@@ -7747,204 +7827,204 @@
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="109" t="s">
-        <v>319</v>
-      </c>
-      <c r="B62" s="109"/>
+      <c r="A62" s="122" t="s">
+        <v>318</v>
+      </c>
+      <c r="B62" s="122"/>
       <c r="C62">
         <v>144</v>
       </c>
       <c r="D62" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" s="109" t="s">
-        <v>320</v>
-      </c>
-      <c r="B63" s="109"/>
+      <c r="A63" s="122" t="s">
+        <v>319</v>
+      </c>
+      <c r="B63" s="122"/>
       <c r="C63">
         <v>144</v>
       </c>
       <c r="D63" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" s="109" t="s">
-        <v>321</v>
-      </c>
-      <c r="B64" s="109"/>
+      <c r="A64" s="122" t="s">
+        <v>320</v>
+      </c>
+      <c r="B64" s="122"/>
       <c r="C64">
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="115" t="s">
-        <v>322</v>
-      </c>
-      <c r="B65" s="115"/>
+      <c r="A65" s="123" t="s">
+        <v>321</v>
+      </c>
+      <c r="B65" s="123"/>
       <c r="C65">
         <v>1000</v>
       </c>
       <c r="D65" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="112" t="s">
-        <v>344</v>
-      </c>
-      <c r="B66" s="112"/>
-      <c r="C66" s="112"/>
-      <c r="D66" s="112"/>
-      <c r="E66" s="112"/>
-      <c r="F66" s="112"/>
+      <c r="A66" s="120" t="s">
+        <v>343</v>
+      </c>
+      <c r="B66" s="120"/>
+      <c r="C66" s="120"/>
+      <c r="D66" s="120"/>
+      <c r="E66" s="120"/>
+      <c r="F66" s="120"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="113" t="s">
-        <v>351</v>
-      </c>
-      <c r="B67" s="113"/>
+      <c r="A67" s="124" t="s">
+        <v>350</v>
+      </c>
+      <c r="B67" s="124"/>
       <c r="C67">
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E67" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F67">
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="114" t="s">
-        <v>324</v>
-      </c>
-      <c r="B68" s="114"/>
+      <c r="A68" s="125" t="s">
+        <v>323</v>
+      </c>
+      <c r="B68" s="125"/>
       <c r="C68">
         <v>500</v>
       </c>
       <c r="D68" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="109" t="s">
-        <v>352</v>
-      </c>
-      <c r="B69" s="109"/>
+      <c r="A69" s="122" t="s">
+        <v>351</v>
+      </c>
+      <c r="B69" s="122"/>
       <c r="C69">
         <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="109" t="s">
-        <v>353</v>
-      </c>
-      <c r="B70" s="109"/>
+      <c r="A70" s="122" t="s">
+        <v>352</v>
+      </c>
+      <c r="B70" s="122"/>
       <c r="C70">
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="109" t="s">
-        <v>354</v>
-      </c>
-      <c r="B71" s="109"/>
+      <c r="A71" s="122" t="s">
+        <v>353</v>
+      </c>
+      <c r="B71" s="122"/>
       <c r="C71">
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="109" t="s">
-        <v>325</v>
-      </c>
-      <c r="B72" s="109"/>
+      <c r="A72" s="122" t="s">
+        <v>324</v>
+      </c>
+      <c r="B72" s="122"/>
       <c r="C72">
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="109" t="s">
-        <v>326</v>
-      </c>
-      <c r="B73" s="109"/>
+      <c r="A73" s="122" t="s">
+        <v>325</v>
+      </c>
+      <c r="B73" s="122"/>
       <c r="C73">
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="109" t="s">
-        <v>327</v>
-      </c>
-      <c r="B74" s="109"/>
+      <c r="A74" s="122" t="s">
+        <v>326</v>
+      </c>
+      <c r="B74" s="122"/>
       <c r="C74">
         <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="109" t="s">
-        <v>328</v>
-      </c>
-      <c r="B75" s="109"/>
+      <c r="A75" s="122" t="s">
+        <v>327</v>
+      </c>
+      <c r="B75" s="122"/>
       <c r="C75">
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="109" t="s">
-        <v>329</v>
-      </c>
-      <c r="B76" s="109"/>
+      <c r="A76" s="122" t="s">
+        <v>328</v>
+      </c>
+      <c r="B76" s="122"/>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="109" t="s">
-        <v>330</v>
-      </c>
-      <c r="B77" s="109"/>
+      <c r="A77" s="122" t="s">
+        <v>329</v>
+      </c>
+      <c r="B77" s="122"/>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="80" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B79" s="80"/>
       <c r="C79" s="80"/>
@@ -7953,13 +8033,13 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="119" t="s">
-        <v>377</v>
-      </c>
-      <c r="B82" s="119"/>
-      <c r="C82" s="119"/>
-      <c r="D82" s="119"/>
-      <c r="E82" s="119"/>
+      <c r="A82" s="127" t="s">
+        <v>376</v>
+      </c>
+      <c r="B82" s="127"/>
+      <c r="C82" s="127"/>
+      <c r="D82" s="127"/>
+      <c r="E82" s="127"/>
     </row>
     <row r="83" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A83" s="68" t="s">
@@ -7989,10 +8069,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B85" s="9" t="s">
         <v>378</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>379</v>
       </c>
       <c r="C85" s="91">
         <v>13.06</v>
@@ -8054,7 +8134,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="91" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B89" s="91"/>
       <c r="C89" s="91">
@@ -8070,7 +8150,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="91" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B90" s="91"/>
       <c r="C90" s="91">
@@ -8118,7 +8198,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="91" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B93" s="91"/>
       <c r="C93" s="91">
@@ -8134,7 +8214,7 @@
     </row>
     <row r="94" spans="1:6" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="91" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C94" s="91">
         <v>8.4</v>
@@ -8149,7 +8229,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="91" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B95" s="91"/>
       <c r="C95" s="91">
@@ -8164,30 +8244,30 @@
       </c>
     </row>
     <row r="96" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="120" t="s">
-        <v>393</v>
-      </c>
-      <c r="B96" s="120"/>
-      <c r="C96" s="120"/>
-      <c r="D96" s="121"/>
-      <c r="E96" s="125">
+      <c r="A96" s="98" t="s">
+        <v>392</v>
+      </c>
+      <c r="B96" s="98"/>
+      <c r="C96" s="98"/>
+      <c r="D96" s="99"/>
+      <c r="E96" s="102">
         <f>SUM(E85:E95)</f>
         <v>69792</v>
       </c>
       <c r="F96" s="74"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="122" t="s">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="126" t="s">
         <v>292</v>
       </c>
-      <c r="B97" s="122"/>
-      <c r="C97" s="122"/>
-      <c r="D97" s="122"/>
-      <c r="E97" s="122"/>
-    </row>
-    <row r="98" spans="1:6" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="126"/>
+      <c r="C97" s="126"/>
+      <c r="D97" s="126"/>
+      <c r="E97" s="126"/>
+    </row>
+    <row r="98" spans="1:7" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="91" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C98" s="91">
         <f>61-7</f>
@@ -8201,9 +8281,9 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="91" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="91" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C99" s="91">
         <f>8+7</f>
@@ -8217,9 +8297,9 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="91" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B100" s="91"/>
       <c r="C100" s="91">
@@ -8233,14 +8313,14 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="120" t="s">
-        <v>394</v>
-      </c>
-      <c r="B101" s="120"/>
-      <c r="C101" s="120"/>
-      <c r="D101" s="121"/>
-      <c r="E101" s="125">
+    <row r="101" spans="1:7" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="98" t="s">
+        <v>393</v>
+      </c>
+      <c r="B101" s="98"/>
+      <c r="C101" s="98"/>
+      <c r="D101" s="99"/>
+      <c r="E101" s="102">
         <f>SUM(E98:E100)</f>
         <v>36500</v>
       </c>
@@ -8249,37 +8329,37 @@
         <v>41813</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E102" s="74">
         <f>FLOOR((E96+E101)*0.05,3)</f>
         <v>5313</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="123" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="100" t="s">
         <v>189</v>
       </c>
-      <c r="B103" s="123"/>
-      <c r="C103" s="123">
+      <c r="B103" s="100"/>
+      <c r="C103" s="100">
         <v>51</v>
       </c>
-      <c r="D103" s="123">
+      <c r="D103" s="100">
         <v>1</v>
       </c>
-      <c r="E103" s="124">
+      <c r="E103" s="101">
         <f>E96+E101+E102</f>
         <v>111605</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A104" s="68" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="79" t="s">
         <v>107</v>
       </c>
@@ -8288,413 +8368,421 @@
         <v>108</v>
       </c>
       <c r="D105" s="79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E105" s="79" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F105" s="79" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="110" t="s">
-        <v>323</v>
-      </c>
-      <c r="B106" s="110"/>
-      <c r="C106" s="110"/>
-      <c r="D106" s="110"/>
-      <c r="E106" s="110"/>
-      <c r="F106" s="110"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="111" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="128" t="s">
+        <v>322</v>
+      </c>
+      <c r="B106" s="129"/>
+      <c r="C106" s="129"/>
+      <c r="D106" s="129"/>
+      <c r="E106" s="130"/>
+      <c r="F106" s="97">
+        <v>8200</v>
+      </c>
+      <c r="G106" s="75">
+        <f>SUM(E107:E110)*F106</f>
+        <v>28634.400000000005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="121" t="s">
+        <v>388</v>
+      </c>
+      <c r="B107" s="121"/>
+      <c r="C107" s="91">
+        <v>15</v>
+      </c>
+      <c r="D107" s="91" t="s">
+        <v>395</v>
+      </c>
+      <c r="E107" s="96">
+        <f>0.1*0.2*6*C107</f>
+        <v>1.8000000000000003</v>
+      </c>
+      <c r="F107" s="75"/>
+    </row>
+    <row r="108" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="122" t="s">
         <v>389</v>
       </c>
-      <c r="B107" s="111"/>
-      <c r="C107" s="91">
-        <v>16</v>
-      </c>
-      <c r="D107" s="91" t="s">
-        <v>333</v>
-      </c>
-      <c r="E107" s="91">
-        <v>1.92</v>
-      </c>
-      <c r="F107" s="91">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="109" t="s">
+      <c r="B108" s="122"/>
+      <c r="C108" s="96">
+        <v>30</v>
+      </c>
+      <c r="D108" s="96" t="s">
+        <v>395</v>
+      </c>
+      <c r="E108" s="96">
+        <f>0.1*0.03*6*C108</f>
+        <v>0.54</v>
+      </c>
+      <c r="F108" s="75"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="122" t="s">
+        <v>399</v>
+      </c>
+      <c r="B109" s="122"/>
+      <c r="C109" s="91">
+        <v>54</v>
+      </c>
+      <c r="D109" s="91" t="s">
+        <v>395</v>
+      </c>
+      <c r="E109" s="91">
+        <f>0.1*0.03*6*C109</f>
+        <v>0.97200000000000009</v>
+      </c>
+      <c r="F109" s="75"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="122" t="s">
         <v>390</v>
       </c>
-      <c r="B108" s="109"/>
-      <c r="C108" s="91">
-        <v>56</v>
-      </c>
-      <c r="D108" s="91" t="s">
-        <v>333</v>
-      </c>
-      <c r="E108" s="91">
-        <f>0.1*0.03*238</f>
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="F108" s="91" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="109" t="s">
-        <v>391</v>
-      </c>
-      <c r="B109" s="109"/>
-      <c r="C109" s="91">
-        <v>70</v>
-      </c>
-      <c r="D109" s="91" t="s">
-        <v>335</v>
-      </c>
-      <c r="E109" s="91">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="F109" s="91">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="109" t="s">
-        <v>316</v>
-      </c>
-      <c r="B110" s="109"/>
+      <c r="B110" s="122"/>
       <c r="C110" s="91">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D110" s="91" t="s">
         <v>334</v>
       </c>
-      <c r="E110" s="91"/>
-      <c r="F110" s="91"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="109" t="s">
-        <v>318</v>
-      </c>
-      <c r="B111" s="109"/>
+      <c r="E110" s="91">
+        <f>0.05*0.05*C110</f>
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="F110" s="75"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="122" t="s">
+        <v>315</v>
+      </c>
+      <c r="B111" s="122"/>
       <c r="C111" s="91">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D111" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="E111" s="91"/>
+      <c r="F111" s="75"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="122" t="s">
+        <v>320</v>
+      </c>
+      <c r="B112" s="122"/>
+      <c r="C112" s="91">
+        <v>10</v>
+      </c>
+      <c r="D112" s="91" t="s">
         <v>335</v>
       </c>
-      <c r="E111" s="91"/>
-      <c r="F111" s="91"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="109" t="s">
-        <v>319</v>
-      </c>
-      <c r="B112" s="109"/>
-      <c r="C112" s="91">
-        <v>144</v>
-      </c>
-      <c r="D112" s="91" t="s">
-        <v>334</v>
-      </c>
       <c r="E112" s="91"/>
-      <c r="F112" s="91"/>
+      <c r="F112" s="75"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="109" t="s">
-        <v>320</v>
-      </c>
-      <c r="B113" s="109"/>
+      <c r="A113" s="123" t="s">
+        <v>321</v>
+      </c>
+      <c r="B113" s="123"/>
       <c r="C113" s="91">
-        <v>144</v>
+        <v>1000</v>
       </c>
       <c r="D113" s="91" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E113" s="91"/>
-      <c r="F113" s="91"/>
+      <c r="F113" s="75"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="109" t="s">
-        <v>321</v>
-      </c>
-      <c r="B114" s="109"/>
-      <c r="C114" s="91">
-        <v>10</v>
-      </c>
-      <c r="D114" s="91" t="s">
-        <v>336</v>
-      </c>
-      <c r="E114" s="91"/>
-      <c r="F114" s="91"/>
+      <c r="A114" s="120" t="s">
+        <v>343</v>
+      </c>
+      <c r="B114" s="120"/>
+      <c r="C114" s="120"/>
+      <c r="D114" s="120"/>
+      <c r="E114" s="120"/>
+      <c r="F114" s="120"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="115" t="s">
-        <v>322</v>
-      </c>
-      <c r="B115" s="115"/>
+      <c r="A115" s="124" t="s">
+        <v>396</v>
+      </c>
+      <c r="B115" s="124"/>
       <c r="C115" s="91">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="D115" s="91" t="s">
-        <v>334</v>
-      </c>
-      <c r="E115" s="91"/>
-      <c r="F115" s="91"/>
+        <v>338</v>
+      </c>
+      <c r="E115" s="91" t="s">
+        <v>342</v>
+      </c>
+      <c r="F115" s="75"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="112" t="s">
-        <v>344</v>
-      </c>
-      <c r="B116" s="112"/>
-      <c r="C116" s="112"/>
-      <c r="D116" s="112"/>
-      <c r="E116" s="112"/>
-      <c r="F116" s="112"/>
+      <c r="A116" s="125" t="s">
+        <v>323</v>
+      </c>
+      <c r="B116" s="125"/>
+      <c r="C116" s="91">
+        <v>500</v>
+      </c>
+      <c r="D116" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="E116" s="91"/>
+      <c r="F116" s="75"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="113" t="s">
+      <c r="A117" s="122" t="s">
         <v>351</v>
       </c>
-      <c r="B117" s="113"/>
+      <c r="B117" s="122"/>
       <c r="C117" s="91">
+        <v>5</v>
+      </c>
+      <c r="D117" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="E117" s="91"/>
+      <c r="F117" s="75"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="122" t="s">
+        <v>352</v>
+      </c>
+      <c r="B118" s="122"/>
+      <c r="C118" s="91">
+        <v>7</v>
+      </c>
+      <c r="D118" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="E118" s="91"/>
+      <c r="F118" s="75"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="122" t="s">
+        <v>353</v>
+      </c>
+      <c r="B119" s="122"/>
+      <c r="C119" s="91">
+        <v>2</v>
+      </c>
+      <c r="D119" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="E119" s="91"/>
+      <c r="F119" s="75"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="122" t="s">
+        <v>324</v>
+      </c>
+      <c r="B120" s="122"/>
+      <c r="C120" s="91">
         <v>9</v>
       </c>
-      <c r="D117" s="91" t="s">
-        <v>339</v>
-      </c>
-      <c r="E117" s="91" t="s">
-        <v>343</v>
-      </c>
-      <c r="F117" s="91">
+      <c r="D120" s="91" t="s">
+        <v>397</v>
+      </c>
+      <c r="E120" s="91"/>
+      <c r="F120" s="75"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="122" t="s">
+        <v>325</v>
+      </c>
+      <c r="B121" s="122"/>
+      <c r="C121" s="91">
         <v>9</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="114" t="s">
-        <v>324</v>
-      </c>
-      <c r="B118" s="114"/>
-      <c r="C118" s="91">
-        <v>500</v>
-      </c>
-      <c r="D118" s="91" t="s">
-        <v>334</v>
-      </c>
-      <c r="E118" s="91"/>
-      <c r="F118" s="91"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="109" t="s">
-        <v>352</v>
-      </c>
-      <c r="B119" s="109"/>
-      <c r="C119" s="91">
-        <v>5</v>
-      </c>
-      <c r="D119" s="91" t="s">
-        <v>334</v>
-      </c>
-      <c r="E119" s="91"/>
-      <c r="F119" s="91"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="109" t="s">
-        <v>353</v>
-      </c>
-      <c r="B120" s="109"/>
-      <c r="C120" s="91">
-        <v>7</v>
-      </c>
-      <c r="D120" s="91" t="s">
-        <v>334</v>
-      </c>
-      <c r="E120" s="91"/>
-      <c r="F120" s="91"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="109" t="s">
-        <v>354</v>
-      </c>
-      <c r="B121" s="109"/>
-      <c r="C121" s="91">
-        <v>2</v>
-      </c>
       <c r="D121" s="91" t="s">
-        <v>334</v>
+        <v>398</v>
       </c>
       <c r="E121" s="91"/>
-      <c r="F121" s="91"/>
+      <c r="F121" s="75"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="109" t="s">
-        <v>325</v>
-      </c>
-      <c r="B122" s="109"/>
+      <c r="A122" s="122" t="s">
+        <v>326</v>
+      </c>
+      <c r="B122" s="122"/>
       <c r="C122" s="91">
         <v>9</v>
       </c>
       <c r="D122" s="91" t="s">
-        <v>337</v>
+        <v>398</v>
       </c>
       <c r="E122" s="91"/>
-      <c r="F122" s="91"/>
+      <c r="F122" s="75"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="109" t="s">
-        <v>326</v>
-      </c>
-      <c r="B123" s="109"/>
+      <c r="A123" s="122" t="s">
+        <v>327</v>
+      </c>
+      <c r="B123" s="122"/>
       <c r="C123" s="91">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D123" s="91" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E123" s="91"/>
-      <c r="F123" s="91"/>
+      <c r="F123" s="75"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="109" t="s">
-        <v>327</v>
-      </c>
-      <c r="B124" s="109"/>
+      <c r="A124" s="122" t="s">
+        <v>328</v>
+      </c>
+      <c r="B124" s="122"/>
       <c r="C124" s="91">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D124" s="91" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E124" s="91"/>
-      <c r="F124" s="91"/>
+      <c r="F124" s="75"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="109" t="s">
-        <v>328</v>
-      </c>
-      <c r="B125" s="109"/>
+      <c r="A125" s="122" t="s">
+        <v>329</v>
+      </c>
+      <c r="B125" s="122"/>
       <c r="C125" s="91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D125" s="91" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E125" s="91"/>
-      <c r="F125" s="91"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="109" t="s">
-        <v>329</v>
-      </c>
-      <c r="B126" s="109"/>
-      <c r="C126" s="91">
-        <v>1</v>
-      </c>
-      <c r="D126" s="91" t="s">
-        <v>334</v>
-      </c>
-      <c r="E126" s="91"/>
-      <c r="F126" s="91"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="109" t="s">
-        <v>330</v>
-      </c>
-      <c r="B127" s="109"/>
-      <c r="C127" s="91">
-        <v>1</v>
-      </c>
-      <c r="D127" s="91" t="s">
-        <v>334</v>
-      </c>
-      <c r="E127" s="91"/>
-      <c r="F127" s="91"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="108" t="s">
+      <c r="F125" s="75"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="117" t="s">
         <v>292</v>
       </c>
-      <c r="B130" s="108"/>
-      <c r="C130" s="108"/>
-      <c r="D130" s="108"/>
-      <c r="E130" s="108"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B128" s="117"/>
+      <c r="C128" s="117"/>
+      <c r="D128" s="117"/>
+      <c r="E128" s="117"/>
+      <c r="F128" s="33"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="B129" s="91"/>
+      <c r="C129" s="91">
+        <v>53</v>
+      </c>
+      <c r="D129" s="69">
+        <v>500</v>
+      </c>
+      <c r="E129" s="69">
+        <f>C129*D129</f>
+        <v>26500</v>
+      </c>
+      <c r="F129" s="75"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="91" t="s">
+        <v>311</v>
+      </c>
+      <c r="B130" s="91"/>
+      <c r="C130" s="91">
+        <v>27</v>
+      </c>
+      <c r="D130" s="69">
+        <v>550</v>
+      </c>
+      <c r="E130" s="69">
+        <f>C130*D130</f>
+        <v>14850</v>
+      </c>
+      <c r="F130" s="75"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="91" t="s">
-        <v>157</v>
+        <v>387</v>
       </c>
       <c r="B131" s="91"/>
       <c r="C131" s="91">
-        <v>53</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="D131" s="69">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E131" s="69">
         <f>C131*D131</f>
-        <v>26500</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="91" t="s">
-        <v>312</v>
-      </c>
-      <c r="B132" s="91"/>
-      <c r="C132" s="91">
-        <v>27</v>
-      </c>
-      <c r="D132" s="69">
-        <v>550</v>
-      </c>
-      <c r="E132" s="69">
-        <f>C132*D132</f>
-        <v>14850</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="91" t="s">
-        <v>388</v>
-      </c>
-      <c r="B133" s="91"/>
-      <c r="C133" s="91">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="D133" s="69">
-        <v>300</v>
-      </c>
-      <c r="E133" s="69">
-        <f>C133*D133</f>
         <v>9690</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="70" t="s">
+      <c r="F131" s="75"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B134" s="70"/>
-      <c r="C134" s="70">
+      <c r="B132" s="70"/>
+      <c r="C132" s="70">
         <v>51</v>
       </c>
-      <c r="D134" s="70">
+      <c r="D132" s="70">
         <v>1</v>
       </c>
-      <c r="E134" s="71">
-        <f>SUM(E131:E133)</f>
+      <c r="E132" s="71">
+        <f>SUM(E129:E131)</f>
         <v>51040</v>
       </c>
+      <c r="F132" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G1:T11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M18:N18"/>
+  <mergeCells count="50">
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
     <mergeCell ref="A66:F66"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A58:B58"/>
@@ -8705,45 +8793,15 @@
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A130:E130"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G1:T11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M18:N18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="40" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="413">
   <si>
     <t>Помещение</t>
   </si>
@@ -1324,6 +1324,39 @@
   </si>
   <si>
     <t>от Марата</t>
+  </si>
+  <si>
+    <t>Кровля (мой расчет)</t>
+  </si>
+  <si>
+    <t>ВСЕГО (+5% работа прораба)</t>
+  </si>
+  <si>
+    <t>Доска 30*100 (обрешетка,карниз)</t>
+  </si>
+  <si>
+    <t>Пароизоляция Пленка Руфбонд</t>
+  </si>
+  <si>
+    <t>Доска 200*30</t>
+  </si>
+  <si>
+    <t>Огнебиозащита</t>
+  </si>
+  <si>
+    <t>Скрепки, валики, нить</t>
+  </si>
+  <si>
+    <t>Уголки</t>
+  </si>
+  <si>
+    <t>Анкера</t>
+  </si>
+  <si>
+    <t>Герметик</t>
+  </si>
+  <si>
+    <t>Стоимсость</t>
   </si>
 </sst>
 </file>
@@ -1925,7 +1958,7 @@
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -2073,6 +2106,11 @@
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="22" applyFont="1"/>
     <xf numFmtId="168" fontId="4" fillId="19" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2095,39 +2133,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="21" fillId="14" borderId="8" xfId="23" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="15" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="23" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="13" xfId="27" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="21" fillId="14" borderId="15" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2137,6 +2142,45 @@
     <xf numFmtId="164" fontId="21" fillId="14" borderId="17" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="15" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="23" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="13" xfId="27" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="8" xfId="23" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
@@ -2948,14 +2992,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>19868.493150684935</v>
+        <v>19945.205479452055</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2983,14 +3027,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J4" s="14">
         <v>170000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*L1/365*I4</f>
-        <v>6683.5616438356165</v>
+        <v>6730.1369863013697</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3726,10 +3770,10 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="104" t="s">
+      <c r="C46" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="105"/>
+      <c r="D46" s="108"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
@@ -3850,14 +3894,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="103" t="s">
+      <c r="C57" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="103"/>
-      <c r="E57" s="103" t="s">
+      <c r="D57" s="106"/>
+      <c r="E57" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="103"/>
+      <c r="F57" s="106"/>
       <c r="I57" s="17" t="s">
         <v>84</v>
       </c>
@@ -4177,12 +4221,12 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
@@ -4198,10 +4242,10 @@
         <f t="shared" si="0"/>
         <v>8946</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="109" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="106"/>
+      <c r="H9" s="109"/>
     </row>
     <row r="10" spans="1:13" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
@@ -4331,12 +4375,12 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="111" t="s">
+      <c r="A14" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
       <c r="F14" s="9" t="s">
         <v>208</v>
       </c>
@@ -4489,12 +4533,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="113" t="s">
+      <c r="A24" s="116" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4733,12 +4777,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="114" t="s">
+      <c r="A41" s="117" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="114"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -4861,12 +4905,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="107" t="s">
+      <c r="A50" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="107"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="107"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="110"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -4914,12 +4958,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="107" t="s">
+      <c r="A54" s="110" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="108"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="108"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -5330,12 +5374,12 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="109" t="s">
+      <c r="A83" s="112" t="s">
         <v>196</v>
       </c>
-      <c r="B83" s="109"/>
-      <c r="C83" s="109"/>
-      <c r="D83" s="109"/>
+      <c r="B83" s="112"/>
+      <c r="C83" s="112"/>
+      <c r="D83" s="112"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -6634,10 +6678,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W132"/>
+  <dimension ref="A1:W159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104:F125"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6671,22 +6715,22 @@
         <v>128</v>
       </c>
       <c r="B1" s="68"/>
-      <c r="G1" s="116" t="s">
+      <c r="G1" s="131" t="s">
         <v>368</v>
       </c>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
       <c r="V1" s="90"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -6705,20 +6749,20 @@
       <c r="E2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
       <c r="V2" s="90"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -6738,20 +6782,20 @@
         <f t="shared" ref="E3:E11" si="0">C3*D3</f>
         <v>17500</v>
       </c>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="116"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="131"/>
       <c r="V3" s="90"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -6768,20 +6812,20 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="131"/>
+      <c r="S4" s="131"/>
+      <c r="T4" s="131"/>
       <c r="V4" s="90"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -6798,20 +6842,20 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="131"/>
+      <c r="P5" s="131"/>
+      <c r="Q5" s="131"/>
+      <c r="R5" s="131"/>
+      <c r="S5" s="131"/>
+      <c r="T5" s="131"/>
       <c r="V5" s="90"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -6828,20 +6872,20 @@
         <f t="shared" si="0"/>
         <v>8800</v>
       </c>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="116"/>
-      <c r="Q6" s="116"/>
-      <c r="R6" s="116"/>
-      <c r="S6" s="116"/>
-      <c r="T6" s="116"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="131"/>
+      <c r="P6" s="131"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="131"/>
+      <c r="T6" s="131"/>
       <c r="V6" s="90"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -6858,20 +6902,20 @@
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="116"/>
-      <c r="R7" s="116"/>
-      <c r="S7" s="116"/>
-      <c r="T7" s="116"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="131"/>
+      <c r="N7" s="131"/>
+      <c r="O7" s="131"/>
+      <c r="P7" s="131"/>
+      <c r="Q7" s="131"/>
+      <c r="R7" s="131"/>
+      <c r="S7" s="131"/>
+      <c r="T7" s="131"/>
       <c r="V7" s="90"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -6883,20 +6927,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="131"/>
+      <c r="M8" s="131"/>
+      <c r="N8" s="131"/>
+      <c r="O8" s="131"/>
+      <c r="P8" s="131"/>
+      <c r="Q8" s="131"/>
+      <c r="R8" s="131"/>
+      <c r="S8" s="131"/>
+      <c r="T8" s="131"/>
       <c r="V8" s="90"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -6913,20 +6957,20 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="131"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="131"/>
+      <c r="M9" s="131"/>
+      <c r="N9" s="131"/>
+      <c r="O9" s="131"/>
+      <c r="P9" s="131"/>
+      <c r="Q9" s="131"/>
+      <c r="R9" s="131"/>
+      <c r="S9" s="131"/>
+      <c r="T9" s="131"/>
       <c r="V9" s="90"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -6941,20 +6985,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="131"/>
+      <c r="P10" s="131"/>
+      <c r="Q10" s="131"/>
+      <c r="R10" s="131"/>
+      <c r="S10" s="131"/>
+      <c r="T10" s="131"/>
       <c r="V10" s="90"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -6966,30 +7010,30 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="116"/>
-      <c r="T11" s="116"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="131"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="131"/>
+      <c r="P11" s="131"/>
+      <c r="Q11" s="131"/>
+      <c r="R11" s="131"/>
+      <c r="S11" s="131"/>
+      <c r="T11" s="131"/>
       <c r="V11" s="90"/>
     </row>
     <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="121" t="s">
         <v>292</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
       <c r="G12" s="72" t="s">
         <v>18</v>
       </c>
@@ -7286,10 +7330,10 @@
       <c r="K18" t="s">
         <v>295</v>
       </c>
-      <c r="M18" s="119" t="s">
+      <c r="M18" s="133" t="s">
         <v>312</v>
       </c>
-      <c r="N18" s="119"/>
+      <c r="N18" s="133"/>
       <c r="P18" s="75">
         <v>600</v>
       </c>
@@ -7323,10 +7367,10 @@
         <f>H19*1.06</f>
         <v>477</v>
       </c>
-      <c r="M19" s="118" t="s">
+      <c r="M19" s="132" t="s">
         <v>313</v>
       </c>
-      <c r="N19" s="118"/>
+      <c r="N19" s="132"/>
       <c r="P19" s="75">
         <v>1140</v>
       </c>
@@ -7484,13 +7528,13 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="117" t="s">
+      <c r="A31" s="121" t="s">
         <v>292</v>
       </c>
-      <c r="B31" s="117"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -7693,20 +7737,20 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="115" t="s">
+      <c r="A54" s="130" t="s">
         <v>322</v>
       </c>
-      <c r="B54" s="115"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="115"/>
-      <c r="E54" s="115"/>
-      <c r="F54" s="115"/>
+      <c r="B54" s="130"/>
+      <c r="C54" s="130"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="130"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="121" t="s">
+      <c r="A55" s="123" t="s">
         <v>341</v>
       </c>
-      <c r="B55" s="121"/>
+      <c r="B55" s="123"/>
       <c r="C55">
         <v>25</v>
       </c>
@@ -7863,10 +7907,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="123" t="s">
+      <c r="A65" s="127" t="s">
         <v>321</v>
       </c>
-      <c r="B65" s="123"/>
+      <c r="B65" s="127"/>
       <c r="C65">
         <v>1000</v>
       </c>
@@ -7875,20 +7919,20 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="120" t="s">
+      <c r="A66" s="124" t="s">
         <v>343</v>
       </c>
-      <c r="B66" s="120"/>
-      <c r="C66" s="120"/>
-      <c r="D66" s="120"/>
-      <c r="E66" s="120"/>
-      <c r="F66" s="120"/>
+      <c r="B66" s="124"/>
+      <c r="C66" s="124"/>
+      <c r="D66" s="124"/>
+      <c r="E66" s="124"/>
+      <c r="F66" s="124"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="124" t="s">
+      <c r="A67" s="125" t="s">
         <v>350</v>
       </c>
-      <c r="B67" s="124"/>
+      <c r="B67" s="125"/>
       <c r="C67">
         <v>8</v>
       </c>
@@ -7903,10 +7947,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="125" t="s">
+      <c r="A68" s="126" t="s">
         <v>323</v>
       </c>
-      <c r="B68" s="125"/>
+      <c r="B68" s="126"/>
       <c r="C68">
         <v>500</v>
       </c>
@@ -8033,13 +8077,13 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="127" t="s">
+      <c r="A82" s="129" t="s">
         <v>376</v>
       </c>
-      <c r="B82" s="127"/>
-      <c r="C82" s="127"/>
-      <c r="D82" s="127"/>
-      <c r="E82" s="127"/>
+      <c r="B82" s="129"/>
+      <c r="C82" s="129"/>
+      <c r="D82" s="129"/>
+      <c r="E82" s="129"/>
     </row>
     <row r="83" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A83" s="68" t="s">
@@ -8256,16 +8300,16 @@
       </c>
       <c r="F96" s="74"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="126" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="128" t="s">
         <v>292</v>
       </c>
-      <c r="B97" s="126"/>
-      <c r="C97" s="126"/>
-      <c r="D97" s="126"/>
-      <c r="E97" s="126"/>
-    </row>
-    <row r="98" spans="1:7" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="128"/>
+      <c r="C97" s="128"/>
+      <c r="D97" s="128"/>
+      <c r="E97" s="128"/>
+    </row>
+    <row r="98" spans="1:6" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="91" t="s">
         <v>384</v>
       </c>
@@ -8281,7 +8325,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="91" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="91" t="s">
         <v>385</v>
       </c>
@@ -8297,7 +8341,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="91" t="s">
         <v>386</v>
       </c>
@@ -8313,7 +8357,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="95" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="98" t="s">
         <v>393</v>
       </c>
@@ -8329,7 +8373,7 @@
         <v>41813</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>394</v>
       </c>
@@ -8338,7 +8382,7 @@
         <v>5313</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="100" t="s">
         <v>189</v>
       </c>
@@ -8354,12 +8398,17 @@
         <v>111605</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A104" s="68" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="104"/>
+      <c r="C104" s="104"/>
+      <c r="D104" s="104"/>
+      <c r="E104" s="104"/>
+      <c r="F104" s="104"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="79" t="s">
         <v>107</v>
       </c>
@@ -8368,7 +8417,7 @@
         <v>108</v>
       </c>
       <c r="D105" s="79" t="s">
-        <v>330</v>
+        <v>109</v>
       </c>
       <c r="E105" s="79" t="s">
         <v>345</v>
@@ -8377,412 +8426,799 @@
         <v>391</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="128" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="134" t="s">
+        <v>388</v>
+      </c>
+      <c r="B106" s="134"/>
+      <c r="C106" s="104">
+        <v>14</v>
+      </c>
+      <c r="D106" s="75">
+        <v>8200</v>
+      </c>
+      <c r="E106" s="104">
+        <f>0.1*0.2*6*C106</f>
+        <v>1.6800000000000004</v>
+      </c>
+      <c r="F106" s="75">
+        <f>D106*E106</f>
+        <v>13776.000000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="103" t="s">
+        <v>390</v>
+      </c>
+      <c r="B107" s="103"/>
+      <c r="C107" s="104">
+        <v>84</v>
+      </c>
+      <c r="D107" s="75">
+        <v>60</v>
+      </c>
+      <c r="E107" s="104"/>
+      <c r="F107" s="75">
+        <f>D107*C107</f>
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="103" t="s">
+        <v>404</v>
+      </c>
+      <c r="B108" s="103"/>
+      <c r="C108" s="104">
+        <v>1</v>
+      </c>
+      <c r="D108" s="75">
+        <v>8200</v>
+      </c>
+      <c r="E108" s="104">
+        <f>0.1*0.03*6*C108</f>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="F108" s="75">
+        <f>D108*C108</f>
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="103" t="s">
+        <v>406</v>
+      </c>
+      <c r="B109" s="103"/>
+      <c r="C109" s="104">
+        <v>1</v>
+      </c>
+      <c r="D109" s="75">
+        <v>1500</v>
+      </c>
+      <c r="F109" s="75">
+        <f>D109*C109</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="137" t="s">
+        <v>120</v>
+      </c>
+      <c r="B110" s="137"/>
+      <c r="C110" s="17">
+        <v>1</v>
+      </c>
+      <c r="D110" s="138">
+        <v>2500</v>
+      </c>
+      <c r="E110" s="17"/>
+      <c r="F110" s="138">
+        <f>D110*C110</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="103" t="s">
+        <v>407</v>
+      </c>
+      <c r="B111" s="103"/>
+      <c r="C111" s="104">
+        <v>1</v>
+      </c>
+      <c r="D111" s="75">
+        <v>14000</v>
+      </c>
+      <c r="F111" s="75">
+        <f>D111*C111</f>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="103" t="s">
+        <v>405</v>
+      </c>
+      <c r="B112" s="103"/>
+      <c r="C112" s="104">
+        <v>1</v>
+      </c>
+      <c r="D112" s="75">
+        <v>2000</v>
+      </c>
+      <c r="E112" s="104"/>
+      <c r="F112" s="75">
+        <f>D112*C112</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="103" t="s">
+        <v>408</v>
+      </c>
+      <c r="B113" s="103"/>
+      <c r="C113" s="104">
+        <v>1</v>
+      </c>
+      <c r="D113" s="75">
+        <v>1000</v>
+      </c>
+      <c r="F113" s="75">
+        <f>D113*C113</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="105" t="s">
+        <v>161</v>
+      </c>
+      <c r="B114" s="105"/>
+      <c r="C114" s="104">
+        <v>1</v>
+      </c>
+      <c r="D114" s="75">
+        <v>3500</v>
+      </c>
+      <c r="E114" s="104"/>
+      <c r="F114" s="75">
+        <f>D114*C114</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="103" t="s">
+        <v>409</v>
+      </c>
+      <c r="B115" s="103"/>
+      <c r="C115" s="104">
+        <v>1</v>
+      </c>
+      <c r="D115" s="75">
+        <v>2500</v>
+      </c>
+      <c r="E115" s="104"/>
+      <c r="F115" s="75">
+        <f>D115*C115</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="103" t="s">
+        <v>159</v>
+      </c>
+      <c r="B116" s="103"/>
+      <c r="C116" s="104">
+        <v>1</v>
+      </c>
+      <c r="D116" s="75">
+        <v>1000</v>
+      </c>
+      <c r="F116" s="75">
+        <f>D116*C116</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="103" t="s">
+        <v>410</v>
+      </c>
+      <c r="B117" s="103"/>
+      <c r="C117" s="104">
+        <v>1</v>
+      </c>
+      <c r="D117" s="75">
+        <v>1000</v>
+      </c>
+      <c r="F117" s="75">
+        <f>D117*C117</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="137" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" s="137"/>
+      <c r="C118" s="17">
+        <v>1</v>
+      </c>
+      <c r="D118" s="138">
+        <v>500</v>
+      </c>
+      <c r="E118" s="17"/>
+      <c r="F118" s="138">
+        <f>D118*C118</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="104" t="s">
+        <v>411</v>
+      </c>
+      <c r="C119" s="104">
+        <v>1</v>
+      </c>
+      <c r="D119" s="104">
+        <v>1000</v>
+      </c>
+      <c r="F119" s="75">
+        <f>D119*C119</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="135" t="s">
+        <v>396</v>
+      </c>
+      <c r="B120" s="135"/>
+      <c r="C120" s="104">
+        <v>1</v>
+      </c>
+      <c r="D120" s="75">
+        <v>22000</v>
+      </c>
+      <c r="E120" s="104"/>
+      <c r="F120" s="75">
+        <f>D120*C120</f>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="139" t="s">
+        <v>145</v>
+      </c>
+      <c r="B121" s="135"/>
+      <c r="C121" s="104">
+        <v>1</v>
+      </c>
+      <c r="D121" s="75">
+        <v>1500</v>
+      </c>
+      <c r="F121" s="75">
+        <f>D121*C121</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="103" t="s">
+        <v>351</v>
+      </c>
+      <c r="B122" s="103"/>
+      <c r="C122" s="104">
+        <v>20</v>
+      </c>
+      <c r="D122" s="75">
+        <v>120</v>
+      </c>
+      <c r="E122" s="104"/>
+      <c r="F122" s="75">
+        <f>D122*C122</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="103" t="s">
+        <v>352</v>
+      </c>
+      <c r="B123" s="103"/>
+      <c r="C123" s="104">
+        <v>12</v>
+      </c>
+      <c r="D123" s="75">
+        <v>180</v>
+      </c>
+      <c r="E123" s="104"/>
+      <c r="F123" s="75">
+        <f>D123*C123</f>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="103" t="s">
+        <v>120</v>
+      </c>
+      <c r="B124" s="103"/>
+      <c r="C124" s="104">
+        <v>1</v>
+      </c>
+      <c r="D124" s="75">
+        <v>2000</v>
+      </c>
+      <c r="E124" s="104"/>
+      <c r="F124" s="75">
+        <f>D124*C124</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="104"/>
+      <c r="B125" s="104"/>
+      <c r="C125" s="104"/>
+      <c r="D125" s="75"/>
+      <c r="E125" s="104"/>
+      <c r="F125" s="104"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" s="104"/>
+      <c r="C126" s="104"/>
+      <c r="D126" s="75"/>
+      <c r="E126" s="104"/>
+      <c r="F126" s="136">
+        <f>SUM(F106:F125)</f>
+        <v>87576</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="121" t="s">
+        <v>292</v>
+      </c>
+      <c r="B127" s="121"/>
+      <c r="C127" s="121"/>
+      <c r="D127" s="121"/>
+      <c r="E127" s="121"/>
+      <c r="F127" s="33"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="104" t="s">
+        <v>157</v>
+      </c>
+      <c r="B128" s="104"/>
+      <c r="C128" s="104">
+        <v>53</v>
+      </c>
+      <c r="D128" s="69">
+        <v>500</v>
+      </c>
+      <c r="E128" s="69"/>
+      <c r="F128" s="75">
+        <f>D128*C128</f>
+        <v>26500</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" s="70"/>
+      <c r="C129" s="70"/>
+      <c r="D129" s="70"/>
+      <c r="E129" s="71"/>
+      <c r="F129" s="71">
+        <f>SUM(F127:F128)</f>
+        <v>26500</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="70" t="s">
+        <v>403</v>
+      </c>
+      <c r="B130" s="70"/>
+      <c r="C130" s="70"/>
+      <c r="D130" s="70"/>
+      <c r="E130" s="71"/>
+      <c r="F130" s="71">
+        <f>(F129+F126)*1.05</f>
+        <v>119779.8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A131" s="68" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="B132" s="78"/>
+      <c r="C132" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="D132" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="E132" s="79" t="s">
+        <v>345</v>
+      </c>
+      <c r="F132" s="75" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="118" t="s">
         <v>322</v>
       </c>
-      <c r="B106" s="129"/>
-      <c r="C106" s="129"/>
-      <c r="D106" s="129"/>
-      <c r="E106" s="130"/>
-      <c r="F106" s="97">
+      <c r="B133" s="119"/>
+      <c r="C133" s="119"/>
+      <c r="D133" s="119"/>
+      <c r="E133" s="120"/>
+      <c r="F133" s="97">
         <v>8200</v>
       </c>
-      <c r="G106" s="75">
-        <f>SUM(E107:E110)*F106</f>
-        <v>28634.400000000005</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="121" t="s">
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="123" t="s">
         <v>388</v>
       </c>
-      <c r="B107" s="121"/>
-      <c r="C107" s="91">
+      <c r="B134" s="123"/>
+      <c r="C134" s="91">
         <v>15</v>
       </c>
-      <c r="D107" s="91" t="s">
+      <c r="D134" s="91" t="s">
         <v>395</v>
       </c>
-      <c r="E107" s="96">
-        <f>0.1*0.2*6*C107</f>
+      <c r="E134" s="96">
+        <f>0.1*0.2*6*C134</f>
         <v>1.8000000000000003</v>
       </c>
-      <c r="F107" s="75"/>
-    </row>
-    <row r="108" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="122" t="s">
+      <c r="F134" s="75"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="122" t="s">
         <v>389</v>
       </c>
-      <c r="B108" s="122"/>
-      <c r="C108" s="96">
+      <c r="B135" s="122"/>
+      <c r="C135" s="96">
         <v>30</v>
       </c>
-      <c r="D108" s="96" t="s">
+      <c r="D135" s="96" t="s">
         <v>395</v>
       </c>
-      <c r="E108" s="96">
-        <f>0.1*0.03*6*C108</f>
+      <c r="E135" s="96">
+        <f>0.1*0.03*6*C135</f>
         <v>0.54</v>
       </c>
-      <c r="F108" s="75"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="122" t="s">
+      <c r="F135" s="75"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="122" t="s">
         <v>399</v>
       </c>
-      <c r="B109" s="122"/>
-      <c r="C109" s="91">
+      <c r="B136" s="122"/>
+      <c r="C136" s="91">
         <v>54</v>
       </c>
-      <c r="D109" s="91" t="s">
+      <c r="D136" s="91" t="s">
         <v>395</v>
       </c>
-      <c r="E109" s="91">
-        <f>0.1*0.03*6*C109</f>
+      <c r="E136" s="91">
+        <f>0.1*0.03*6*C136</f>
         <v>0.97200000000000009</v>
       </c>
-      <c r="F109" s="75"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="122" t="s">
+      <c r="F136" s="75"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="122" t="s">
         <v>390</v>
       </c>
-      <c r="B110" s="122"/>
-      <c r="C110" s="91">
+      <c r="B137" s="122"/>
+      <c r="C137" s="91">
         <v>72</v>
       </c>
-      <c r="D110" s="91" t="s">
+      <c r="D137" s="91" t="s">
         <v>334</v>
       </c>
-      <c r="E110" s="91">
-        <f>0.05*0.05*C110</f>
+      <c r="E137" s="91">
+        <f>0.05*0.05*C137</f>
         <v>0.18000000000000005</v>
       </c>
-      <c r="F110" s="75"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="122" t="s">
+      <c r="F137" s="75"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="122" t="s">
         <v>315</v>
       </c>
-      <c r="B111" s="122"/>
-      <c r="C111" s="91">
+      <c r="B138" s="122"/>
+      <c r="C138" s="91">
         <v>50</v>
       </c>
-      <c r="D111" s="91" t="s">
+      <c r="D138" s="91" t="s">
         <v>333</v>
       </c>
-      <c r="E111" s="91"/>
-      <c r="F111" s="75"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="122" t="s">
+      <c r="E138" s="91"/>
+      <c r="F138" s="75"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="122" t="s">
         <v>320</v>
       </c>
-      <c r="B112" s="122"/>
-      <c r="C112" s="91">
+      <c r="B139" s="122"/>
+      <c r="C139" s="91">
         <v>10</v>
       </c>
-      <c r="D112" s="91" t="s">
+      <c r="D139" s="91" t="s">
         <v>335</v>
       </c>
-      <c r="E112" s="91"/>
-      <c r="F112" s="75"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="123" t="s">
+      <c r="E139" s="91"/>
+      <c r="F139" s="75"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="127" t="s">
         <v>321</v>
       </c>
-      <c r="B113" s="123"/>
-      <c r="C113" s="91">
+      <c r="B140" s="127"/>
+      <c r="C140" s="91">
         <v>1000</v>
       </c>
-      <c r="D113" s="91" t="s">
+      <c r="D140" s="91" t="s">
         <v>333</v>
       </c>
-      <c r="E113" s="91"/>
-      <c r="F113" s="75"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="120" t="s">
+      <c r="E140" s="91"/>
+      <c r="F140" s="75"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="124" t="s">
         <v>343</v>
       </c>
-      <c r="B114" s="120"/>
-      <c r="C114" s="120"/>
-      <c r="D114" s="120"/>
-      <c r="E114" s="120"/>
-      <c r="F114" s="120"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="124" t="s">
+      <c r="B141" s="124"/>
+      <c r="C141" s="124"/>
+      <c r="D141" s="124"/>
+      <c r="E141" s="124"/>
+      <c r="F141" s="124"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="125" t="s">
         <v>396</v>
       </c>
-      <c r="B115" s="124"/>
-      <c r="C115" s="91">
+      <c r="B142" s="125"/>
+      <c r="C142" s="91">
         <v>9</v>
       </c>
-      <c r="D115" s="91" t="s">
+      <c r="D142" s="91" t="s">
         <v>338</v>
       </c>
-      <c r="E115" s="91" t="s">
+      <c r="E142" s="91" t="s">
         <v>342</v>
       </c>
-      <c r="F115" s="75"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="125" t="s">
+      <c r="F142" s="75"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="126" t="s">
         <v>323</v>
       </c>
-      <c r="B116" s="125"/>
-      <c r="C116" s="91">
+      <c r="B143" s="126"/>
+      <c r="C143" s="91">
         <v>500</v>
       </c>
-      <c r="D116" s="91" t="s">
+      <c r="D143" s="91" t="s">
         <v>333</v>
       </c>
-      <c r="E116" s="91"/>
-      <c r="F116" s="75"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="122" t="s">
+      <c r="E143" s="91"/>
+      <c r="F143" s="75"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="122" t="s">
         <v>351</v>
       </c>
-      <c r="B117" s="122"/>
-      <c r="C117" s="91">
+      <c r="B144" s="122"/>
+      <c r="C144" s="91">
         <v>5</v>
       </c>
-      <c r="D117" s="91" t="s">
+      <c r="D144" s="91" t="s">
         <v>333</v>
       </c>
-      <c r="E117" s="91"/>
-      <c r="F117" s="75"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="122" t="s">
+      <c r="E144" s="91"/>
+      <c r="F144" s="75"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="122" t="s">
         <v>352</v>
       </c>
-      <c r="B118" s="122"/>
-      <c r="C118" s="91">
+      <c r="B145" s="122"/>
+      <c r="C145" s="91">
         <v>7</v>
       </c>
-      <c r="D118" s="91" t="s">
+      <c r="D145" s="91" t="s">
         <v>333</v>
       </c>
-      <c r="E118" s="91"/>
-      <c r="F118" s="75"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="122" t="s">
+      <c r="E145" s="91"/>
+      <c r="F145" s="75"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="122" t="s">
         <v>353</v>
       </c>
-      <c r="B119" s="122"/>
-      <c r="C119" s="91">
+      <c r="B146" s="122"/>
+      <c r="C146" s="91">
         <v>2</v>
       </c>
-      <c r="D119" s="91" t="s">
+      <c r="D146" s="91" t="s">
         <v>333</v>
       </c>
-      <c r="E119" s="91"/>
-      <c r="F119" s="75"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="122" t="s">
+      <c r="E146" s="91"/>
+      <c r="F146" s="75"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="122" t="s">
         <v>324</v>
       </c>
-      <c r="B120" s="122"/>
-      <c r="C120" s="91">
+      <c r="B147" s="122"/>
+      <c r="C147" s="91">
         <v>9</v>
       </c>
-      <c r="D120" s="91" t="s">
+      <c r="D147" s="91" t="s">
         <v>397</v>
       </c>
-      <c r="E120" s="91"/>
-      <c r="F120" s="75"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="122" t="s">
+      <c r="E147" s="91"/>
+      <c r="F147" s="75"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="122" t="s">
         <v>325</v>
       </c>
-      <c r="B121" s="122"/>
-      <c r="C121" s="91">
+      <c r="B148" s="122"/>
+      <c r="C148" s="91">
         <v>9</v>
       </c>
-      <c r="D121" s="91" t="s">
+      <c r="D148" s="91" t="s">
         <v>398</v>
       </c>
-      <c r="E121" s="91"/>
-      <c r="F121" s="75"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="122" t="s">
+      <c r="E148" s="91"/>
+      <c r="F148" s="75"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="122" t="s">
         <v>326</v>
       </c>
-      <c r="B122" s="122"/>
-      <c r="C122" s="91">
+      <c r="B149" s="122"/>
+      <c r="C149" s="91">
         <v>9</v>
       </c>
-      <c r="D122" s="91" t="s">
+      <c r="D149" s="91" t="s">
         <v>398</v>
       </c>
-      <c r="E122" s="91"/>
-      <c r="F122" s="75"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="122" t="s">
+      <c r="E149" s="91"/>
+      <c r="F149" s="75"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="122" t="s">
         <v>327</v>
       </c>
-      <c r="B123" s="122"/>
-      <c r="C123" s="91">
+      <c r="B150" s="122"/>
+      <c r="C150" s="91">
         <v>5</v>
       </c>
-      <c r="D123" s="91" t="s">
+      <c r="D150" s="91" t="s">
         <v>333</v>
       </c>
-      <c r="E123" s="91"/>
-      <c r="F123" s="75"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="122" t="s">
+      <c r="E150" s="91"/>
+      <c r="F150" s="75"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="122" t="s">
         <v>328</v>
       </c>
-      <c r="B124" s="122"/>
-      <c r="C124" s="91">
+      <c r="B151" s="122"/>
+      <c r="C151" s="91">
         <v>1</v>
       </c>
-      <c r="D124" s="91" t="s">
+      <c r="D151" s="91" t="s">
         <v>333</v>
       </c>
-      <c r="E124" s="91"/>
-      <c r="F124" s="75"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="122" t="s">
+      <c r="E151" s="91"/>
+      <c r="F151" s="75"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="122" t="s">
         <v>329</v>
       </c>
-      <c r="B125" s="122"/>
-      <c r="C125" s="91">
+      <c r="B152" s="122"/>
+      <c r="C152" s="91">
         <v>1</v>
       </c>
-      <c r="D125" s="91" t="s">
+      <c r="D152" s="91" t="s">
         <v>333</v>
       </c>
-      <c r="E125" s="91"/>
-      <c r="F125" s="75"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="117" t="s">
+      <c r="E152" s="91"/>
+      <c r="F152" s="75"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="121" t="s">
         <v>292</v>
       </c>
-      <c r="B128" s="117"/>
-      <c r="C128" s="117"/>
-      <c r="D128" s="117"/>
-      <c r="E128" s="117"/>
-      <c r="F128" s="33"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="91" t="s">
+      <c r="B155" s="121"/>
+      <c r="C155" s="121"/>
+      <c r="D155" s="121"/>
+      <c r="E155" s="121"/>
+      <c r="F155" s="33"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="B129" s="91"/>
-      <c r="C129" s="91">
+      <c r="B156" s="91"/>
+      <c r="C156" s="91">
         <v>53</v>
       </c>
-      <c r="D129" s="69">
+      <c r="D156" s="69">
         <v>500</v>
       </c>
-      <c r="E129" s="69">
-        <f>C129*D129</f>
+      <c r="E156" s="69">
+        <f>C156*D156</f>
         <v>26500</v>
       </c>
-      <c r="F129" s="75"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="91" t="s">
+      <c r="F156" s="75"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="91" t="s">
         <v>311</v>
       </c>
-      <c r="B130" s="91"/>
-      <c r="C130" s="91">
+      <c r="B157" s="91"/>
+      <c r="C157" s="91">
         <v>27</v>
       </c>
-      <c r="D130" s="69">
+      <c r="D157" s="69">
         <v>550</v>
       </c>
-      <c r="E130" s="69">
-        <f>C130*D130</f>
+      <c r="E157" s="69">
+        <f>C157*D157</f>
         <v>14850</v>
       </c>
-      <c r="F130" s="75"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="91" t="s">
+      <c r="F157" s="75"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="91" t="s">
         <v>387</v>
       </c>
-      <c r="B131" s="91"/>
-      <c r="C131" s="91">
+      <c r="B158" s="91"/>
+      <c r="C158" s="91">
         <v>32.299999999999997</v>
       </c>
-      <c r="D131" s="69">
+      <c r="D158" s="69">
         <v>300</v>
       </c>
-      <c r="E131" s="69">
-        <f>C131*D131</f>
+      <c r="E158" s="69">
+        <f>C158*D158</f>
         <v>9690</v>
       </c>
-      <c r="F131" s="75"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="70" t="s">
+      <c r="F158" s="75"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B132" s="70"/>
-      <c r="C132" s="70">
+      <c r="B159" s="70"/>
+      <c r="C159" s="70">
         <v>51</v>
       </c>
-      <c r="D132" s="70">
+      <c r="D159" s="70">
         <v>1</v>
       </c>
-      <c r="E132" s="71">
-        <f>SUM(E129:E131)</f>
+      <c r="E159" s="71">
+        <f>SUM(E156:E158)</f>
         <v>51040</v>
       </c>
-      <c r="F132" s="70"/>
+      <c r="F159" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
+  <mergeCells count="51">
+    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G1:T11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M18:N18"/>
     <mergeCell ref="A66:F66"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A58:B58"/>
@@ -8793,12 +9229,40 @@
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G1:T11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A133:E133"/>
+    <mergeCell ref="A155:E155"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A141:F141"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A146:B146"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="40" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="413">
   <si>
     <t>Помещение</t>
   </si>
@@ -1335,28 +1335,28 @@
     <t>Доска 30*100 (обрешетка,карниз)</t>
   </si>
   <si>
-    <t>Пароизоляция Пленка Руфбонд</t>
-  </si>
-  <si>
-    <t>Доска 200*30</t>
-  </si>
-  <si>
     <t>Огнебиозащита</t>
   </si>
   <si>
-    <t>Скрепки, валики, нить</t>
-  </si>
-  <si>
     <t>Уголки</t>
   </si>
   <si>
     <t>Анкера</t>
   </si>
   <si>
-    <t>Герметик</t>
-  </si>
-  <si>
     <t>Стоимсость</t>
+  </si>
+  <si>
+    <t>Профлист НС-35-1050 0.5мм  5.60м - 3 шт. 6м - 6 шт.</t>
+  </si>
+  <si>
+    <t>Герметик, лента Герлент</t>
+  </si>
+  <si>
+    <t>Пароизоляция с клейкой лентой</t>
+  </si>
+  <si>
+    <t>Скрепки, валики, кисть</t>
   </si>
 </sst>
 </file>
@@ -1958,7 +1958,7 @@
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -2111,6 +2111,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2133,34 +2139,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="21" fillId="14" borderId="15" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="14" borderId="16" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="14" borderId="17" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="15" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="23" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="13" xfId="27" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="14" borderId="8" xfId="23" applyNumberFormat="1" applyAlignment="1">
@@ -2175,12 +2154,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="8" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="23" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="13" xfId="27" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="15" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="16" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="17" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="19" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="13" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="11" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
@@ -2992,14 +2995,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>19945.205479452055</v>
+        <v>19983.561643835619</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3027,14 +3030,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J4" s="14">
         <v>170000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*L1/365*I4</f>
-        <v>6730.1369863013697</v>
+        <v>6753.4246575342459</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3770,10 +3773,10 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="107" t="s">
+      <c r="C46" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="108"/>
+      <c r="D46" s="114"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
@@ -3894,14 +3897,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="106" t="s">
+      <c r="C57" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="106"/>
-      <c r="E57" s="106" t="s">
+      <c r="D57" s="112"/>
+      <c r="E57" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="106"/>
+      <c r="F57" s="112"/>
       <c r="I57" s="17" t="s">
         <v>84</v>
       </c>
@@ -4221,12 +4224,12 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
@@ -4242,10 +4245,10 @@
         <f t="shared" si="0"/>
         <v>8946</v>
       </c>
-      <c r="G9" s="109" t="s">
+      <c r="G9" s="115" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="109"/>
+      <c r="H9" s="115"/>
     </row>
     <row r="10" spans="1:13" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
@@ -4375,12 +4378,12 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="120" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
       <c r="F14" s="9" t="s">
         <v>208</v>
       </c>
@@ -4533,12 +4536,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="116" t="s">
+      <c r="A24" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4777,12 +4780,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="117" t="s">
+      <c r="A41" s="123" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="117"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="117"/>
+      <c r="B41" s="123"/>
+      <c r="C41" s="123"/>
+      <c r="D41" s="123"/>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -4905,12 +4908,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="110" t="s">
+      <c r="A50" s="116" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="110"/>
-      <c r="C50" s="110"/>
-      <c r="D50" s="110"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="116"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -4958,12 +4961,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="110" t="s">
+      <c r="A54" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="111"/>
-      <c r="C54" s="111"/>
-      <c r="D54" s="111"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="117"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -5374,12 +5377,12 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="112" t="s">
+      <c r="A83" s="118" t="s">
         <v>196</v>
       </c>
-      <c r="B83" s="112"/>
-      <c r="C83" s="112"/>
-      <c r="D83" s="112"/>
+      <c r="B83" s="118"/>
+      <c r="C83" s="118"/>
+      <c r="D83" s="118"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -6678,18 +6681,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W159"/>
+  <dimension ref="A1:W157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" customWidth="1"/>
@@ -6715,22 +6718,22 @@
         <v>128</v>
       </c>
       <c r="B1" s="68"/>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="126" t="s">
         <v>368</v>
       </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
       <c r="V1" s="90"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -6749,20 +6752,20 @@
       <c r="E2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="131"/>
-      <c r="T2" s="131"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
       <c r="V2" s="90"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -6782,20 +6785,20 @@
         <f t="shared" ref="E3:E11" si="0">C3*D3</f>
         <v>17500</v>
       </c>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="131"/>
-      <c r="S3" s="131"/>
-      <c r="T3" s="131"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
       <c r="V3" s="90"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -6812,20 +6815,20 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
-      <c r="N4" s="131"/>
-      <c r="O4" s="131"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="131"/>
-      <c r="S4" s="131"/>
-      <c r="T4" s="131"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="126"/>
+      <c r="O4" s="126"/>
+      <c r="P4" s="126"/>
+      <c r="Q4" s="126"/>
+      <c r="R4" s="126"/>
+      <c r="S4" s="126"/>
+      <c r="T4" s="126"/>
       <c r="V4" s="90"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -6842,20 +6845,20 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="131"/>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="131"/>
-      <c r="R5" s="131"/>
-      <c r="S5" s="131"/>
-      <c r="T5" s="131"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="126"/>
       <c r="V5" s="90"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -6872,20 +6875,20 @@
         <f t="shared" si="0"/>
         <v>8800</v>
       </c>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="131"/>
-      <c r="P6" s="131"/>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="131"/>
-      <c r="S6" s="131"/>
-      <c r="T6" s="131"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
       <c r="V6" s="90"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -6902,20 +6905,20 @@
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131"/>
-      <c r="M7" s="131"/>
-      <c r="N7" s="131"/>
-      <c r="O7" s="131"/>
-      <c r="P7" s="131"/>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="131"/>
-      <c r="S7" s="131"/>
-      <c r="T7" s="131"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
       <c r="V7" s="90"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -6927,20 +6930,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="131"/>
-      <c r="K8" s="131"/>
-      <c r="L8" s="131"/>
-      <c r="M8" s="131"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="131"/>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="131"/>
-      <c r="R8" s="131"/>
-      <c r="S8" s="131"/>
-      <c r="T8" s="131"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
+      <c r="T8" s="126"/>
       <c r="V8" s="90"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -6957,20 +6960,20 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="131"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="131"/>
-      <c r="M9" s="131"/>
-      <c r="N9" s="131"/>
-      <c r="O9" s="131"/>
-      <c r="P9" s="131"/>
-      <c r="Q9" s="131"/>
-      <c r="R9" s="131"/>
-      <c r="S9" s="131"/>
-      <c r="T9" s="131"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="126"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="126"/>
+      <c r="S9" s="126"/>
+      <c r="T9" s="126"/>
       <c r="V9" s="90"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -6985,20 +6988,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="131"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="131"/>
-      <c r="P10" s="131"/>
-      <c r="Q10" s="131"/>
-      <c r="R10" s="131"/>
-      <c r="S10" s="131"/>
-      <c r="T10" s="131"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="126"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="126"/>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="126"/>
+      <c r="R10" s="126"/>
+      <c r="S10" s="126"/>
+      <c r="T10" s="126"/>
       <c r="V10" s="90"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -7010,30 +7013,30 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="131"/>
-      <c r="M11" s="131"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="131"/>
-      <c r="P11" s="131"/>
-      <c r="Q11" s="131"/>
-      <c r="R11" s="131"/>
-      <c r="S11" s="131"/>
-      <c r="T11" s="131"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="126"/>
+      <c r="R11" s="126"/>
+      <c r="S11" s="126"/>
+      <c r="T11" s="126"/>
       <c r="V11" s="90"/>
     </row>
     <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="121" t="s">
+      <c r="A12" s="124" t="s">
         <v>292</v>
       </c>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
       <c r="G12" s="72" t="s">
         <v>18</v>
       </c>
@@ -7330,10 +7333,10 @@
       <c r="K18" t="s">
         <v>295</v>
       </c>
-      <c r="M18" s="133" t="s">
+      <c r="M18" s="128" t="s">
         <v>312</v>
       </c>
-      <c r="N18" s="133"/>
+      <c r="N18" s="128"/>
       <c r="P18" s="75">
         <v>600</v>
       </c>
@@ -7367,10 +7370,10 @@
         <f>H19*1.06</f>
         <v>477</v>
       </c>
-      <c r="M19" s="132" t="s">
+      <c r="M19" s="127" t="s">
         <v>313</v>
       </c>
-      <c r="N19" s="132"/>
+      <c r="N19" s="127"/>
       <c r="P19" s="75">
         <v>1140</v>
       </c>
@@ -7528,13 +7531,13 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="121" t="s">
+      <c r="A31" s="124" t="s">
         <v>292</v>
       </c>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="124"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -7737,20 +7740,20 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="130" t="s">
+      <c r="A54" s="125" t="s">
         <v>322</v>
       </c>
-      <c r="B54" s="130"/>
-      <c r="C54" s="130"/>
-      <c r="D54" s="130"/>
-      <c r="E54" s="130"/>
-      <c r="F54" s="130"/>
+      <c r="B54" s="125"/>
+      <c r="C54" s="125"/>
+      <c r="D54" s="125"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="125"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="123" t="s">
+      <c r="A55" s="130" t="s">
         <v>341</v>
       </c>
-      <c r="B55" s="123"/>
+      <c r="B55" s="130"/>
       <c r="C55">
         <v>25</v>
       </c>
@@ -7796,10 +7799,10 @@
       <c r="V57" s="89"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="122" t="s">
+      <c r="A58" s="131" t="s">
         <v>331</v>
       </c>
-      <c r="B58" s="122"/>
+      <c r="B58" s="131"/>
       <c r="C58">
         <v>56</v>
       </c>
@@ -7815,10 +7818,10 @@
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" s="122" t="s">
+      <c r="A59" s="131" t="s">
         <v>315</v>
       </c>
-      <c r="B59" s="122"/>
+      <c r="B59" s="131"/>
       <c r="C59">
         <v>50</v>
       </c>
@@ -7827,10 +7830,10 @@
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="122" t="s">
+      <c r="A60" s="131" t="s">
         <v>316</v>
       </c>
-      <c r="B60" s="122"/>
+      <c r="B60" s="131"/>
       <c r="C60">
         <v>66</v>
       </c>
@@ -7852,10 +7855,10 @@
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" s="122" t="s">
+      <c r="A61" s="131" t="s">
         <v>317</v>
       </c>
-      <c r="B61" s="122"/>
+      <c r="B61" s="131"/>
       <c r="C61">
         <v>16</v>
       </c>
@@ -7871,10 +7874,10 @@
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="122" t="s">
+      <c r="A62" s="131" t="s">
         <v>318</v>
       </c>
-      <c r="B62" s="122"/>
+      <c r="B62" s="131"/>
       <c r="C62">
         <v>144</v>
       </c>
@@ -7883,10 +7886,10 @@
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" s="122" t="s">
+      <c r="A63" s="131" t="s">
         <v>319</v>
       </c>
-      <c r="B63" s="122"/>
+      <c r="B63" s="131"/>
       <c r="C63">
         <v>144</v>
       </c>
@@ -7895,10 +7898,10 @@
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" s="122" t="s">
+      <c r="A64" s="131" t="s">
         <v>320</v>
       </c>
-      <c r="B64" s="122"/>
+      <c r="B64" s="131"/>
       <c r="C64">
         <v>10</v>
       </c>
@@ -7907,10 +7910,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="127" t="s">
+      <c r="A65" s="132" t="s">
         <v>321</v>
       </c>
-      <c r="B65" s="127"/>
+      <c r="B65" s="132"/>
       <c r="C65">
         <v>1000</v>
       </c>
@@ -7919,20 +7922,20 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="124" t="s">
+      <c r="A66" s="129" t="s">
         <v>343</v>
       </c>
-      <c r="B66" s="124"/>
-      <c r="C66" s="124"/>
-      <c r="D66" s="124"/>
-      <c r="E66" s="124"/>
-      <c r="F66" s="124"/>
+      <c r="B66" s="129"/>
+      <c r="C66" s="129"/>
+      <c r="D66" s="129"/>
+      <c r="E66" s="129"/>
+      <c r="F66" s="129"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="125" t="s">
+      <c r="A67" s="133" t="s">
         <v>350</v>
       </c>
-      <c r="B67" s="125"/>
+      <c r="B67" s="133"/>
       <c r="C67">
         <v>8</v>
       </c>
@@ -7947,10 +7950,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="126" t="s">
+      <c r="A68" s="134" t="s">
         <v>323</v>
       </c>
-      <c r="B68" s="126"/>
+      <c r="B68" s="134"/>
       <c r="C68">
         <v>500</v>
       </c>
@@ -7959,10 +7962,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="122" t="s">
+      <c r="A69" s="131" t="s">
         <v>351</v>
       </c>
-      <c r="B69" s="122"/>
+      <c r="B69" s="131"/>
       <c r="C69">
         <v>5</v>
       </c>
@@ -7971,10 +7974,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="122" t="s">
+      <c r="A70" s="131" t="s">
         <v>352</v>
       </c>
-      <c r="B70" s="122"/>
+      <c r="B70" s="131"/>
       <c r="C70">
         <v>7</v>
       </c>
@@ -7983,10 +7986,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="122" t="s">
+      <c r="A71" s="131" t="s">
         <v>353</v>
       </c>
-      <c r="B71" s="122"/>
+      <c r="B71" s="131"/>
       <c r="C71">
         <v>2</v>
       </c>
@@ -7995,10 +7998,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="122" t="s">
+      <c r="A72" s="131" t="s">
         <v>324</v>
       </c>
-      <c r="B72" s="122"/>
+      <c r="B72" s="131"/>
       <c r="C72">
         <v>9</v>
       </c>
@@ -8007,10 +8010,10 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="122" t="s">
+      <c r="A73" s="131" t="s">
         <v>325</v>
       </c>
-      <c r="B73" s="122"/>
+      <c r="B73" s="131"/>
       <c r="C73">
         <v>9</v>
       </c>
@@ -8019,10 +8022,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="122" t="s">
+      <c r="A74" s="131" t="s">
         <v>326</v>
       </c>
-      <c r="B74" s="122"/>
+      <c r="B74" s="131"/>
       <c r="C74">
         <v>9</v>
       </c>
@@ -8031,10 +8034,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="122" t="s">
+      <c r="A75" s="131" t="s">
         <v>327</v>
       </c>
-      <c r="B75" s="122"/>
+      <c r="B75" s="131"/>
       <c r="C75">
         <v>5</v>
       </c>
@@ -8043,10 +8046,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="122" t="s">
+      <c r="A76" s="131" t="s">
         <v>328</v>
       </c>
-      <c r="B76" s="122"/>
+      <c r="B76" s="131"/>
       <c r="C76">
         <v>1</v>
       </c>
@@ -8055,10 +8058,10 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="122" t="s">
+      <c r="A77" s="131" t="s">
         <v>329</v>
       </c>
-      <c r="B77" s="122"/>
+      <c r="B77" s="131"/>
       <c r="C77">
         <v>1</v>
       </c>
@@ -8077,13 +8080,13 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="129" t="s">
+      <c r="A82" s="136" t="s">
         <v>376</v>
       </c>
-      <c r="B82" s="129"/>
-      <c r="C82" s="129"/>
-      <c r="D82" s="129"/>
-      <c r="E82" s="129"/>
+      <c r="B82" s="136"/>
+      <c r="C82" s="136"/>
+      <c r="D82" s="136"/>
+      <c r="E82" s="136"/>
     </row>
     <row r="83" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A83" s="68" t="s">
@@ -8300,16 +8303,16 @@
       </c>
       <c r="F96" s="74"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="128" t="s">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A97" s="135" t="s">
         <v>292</v>
       </c>
-      <c r="B97" s="128"/>
-      <c r="C97" s="128"/>
-      <c r="D97" s="128"/>
-      <c r="E97" s="128"/>
-    </row>
-    <row r="98" spans="1:6" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="135"/>
+      <c r="C97" s="135"/>
+      <c r="D97" s="135"/>
+      <c r="E97" s="135"/>
+    </row>
+    <row r="98" spans="1:22" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="91" t="s">
         <v>384</v>
       </c>
@@ -8325,7 +8328,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="91" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="91" t="s">
         <v>385</v>
       </c>
@@ -8341,7 +8344,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="91" t="s">
         <v>386</v>
       </c>
@@ -8357,7 +8360,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="98" t="s">
         <v>393</v>
       </c>
@@ -8373,7 +8376,7 @@
         <v>41813</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>394</v>
       </c>
@@ -8382,7 +8385,7 @@
         <v>5313</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="100" t="s">
         <v>189</v>
       </c>
@@ -8398,7 +8401,7 @@
         <v>111605</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A104" s="68" t="s">
         <v>157</v>
       </c>
@@ -8406,531 +8409,539 @@
       <c r="C104" s="104"/>
       <c r="D104" s="104"/>
       <c r="E104" s="104"/>
-      <c r="F104" s="104"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="U104" s="89"/>
+      <c r="V104"/>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="78"/>
+      <c r="B105" s="79" t="s">
+        <v>108</v>
+      </c>
       <c r="C105" s="79" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D105" s="79" t="s">
-        <v>109</v>
+        <v>345</v>
       </c>
       <c r="E105" s="79" t="s">
-        <v>345</v>
-      </c>
-      <c r="F105" s="79" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="134" t="s">
+      <c r="U105" s="89"/>
+      <c r="V105"/>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A106" s="107" t="s">
         <v>388</v>
       </c>
-      <c r="B106" s="134"/>
-      <c r="C106" s="104">
+      <c r="B106" s="104">
         <v>14</v>
       </c>
-      <c r="D106" s="75">
+      <c r="C106" s="75">
         <v>8200</v>
       </c>
-      <c r="E106" s="104">
-        <f>0.1*0.2*6*C106</f>
+      <c r="D106" s="104">
+        <f>0.1*0.2*6*B106</f>
         <v>1.6800000000000004</v>
       </c>
-      <c r="F106" s="75">
-        <f>D106*E106</f>
+      <c r="E106" s="75">
+        <f>C106*D106</f>
         <v>13776.000000000004</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="U106" s="89"/>
+      <c r="V106"/>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" s="103" t="s">
         <v>390</v>
       </c>
-      <c r="B107" s="103"/>
-      <c r="C107" s="104">
+      <c r="B107" s="104">
         <v>84</v>
       </c>
-      <c r="D107" s="75">
+      <c r="C107" s="75">
         <v>60</v>
       </c>
-      <c r="E107" s="104"/>
-      <c r="F107" s="75">
-        <f>D107*C107</f>
+      <c r="D107" s="104"/>
+      <c r="E107" s="75">
+        <f t="shared" ref="E107:E123" si="6">C107*B107</f>
         <v>5040</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U107" s="89"/>
+      <c r="V107"/>
+    </row>
+    <row r="108" spans="1:22" s="96" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="103" t="s">
         <v>404</v>
       </c>
-      <c r="B108" s="103"/>
-      <c r="C108" s="104">
+      <c r="B108" s="104">
         <v>1</v>
       </c>
-      <c r="D108" s="75">
+      <c r="C108" s="75">
         <v>8200</v>
       </c>
-      <c r="E108" s="104">
-        <f>0.1*0.03*6*C108</f>
-        <v>1.8000000000000002E-2</v>
-      </c>
-      <c r="F108" s="75">
-        <f>D108*C108</f>
+      <c r="D108" s="104"/>
+      <c r="E108" s="75">
+        <f t="shared" si="6"/>
         <v>8200</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="103" t="s">
+    <row r="109" spans="1:22" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109" s="17">
+        <v>1</v>
+      </c>
+      <c r="C109" s="110">
+        <v>2000</v>
+      </c>
+      <c r="D109" s="17"/>
+      <c r="E109" s="110">
+        <f t="shared" si="6"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="103" t="s">
+        <v>405</v>
+      </c>
+      <c r="B110" s="104">
+        <v>1</v>
+      </c>
+      <c r="C110" s="75">
+        <v>9000</v>
+      </c>
+      <c r="E110" s="75">
+        <f t="shared" si="6"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A111" s="103" t="s">
+        <v>411</v>
+      </c>
+      <c r="B111" s="104">
+        <v>1</v>
+      </c>
+      <c r="C111" s="75">
+        <v>2000</v>
+      </c>
+      <c r="D111" s="104"/>
+      <c r="E111" s="75">
+        <f t="shared" si="6"/>
+        <v>2000</v>
+      </c>
+      <c r="U111" s="89"/>
+      <c r="V111"/>
+    </row>
+    <row r="112" spans="1:22" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="103" t="s">
+        <v>412</v>
+      </c>
+      <c r="B112" s="104">
+        <v>1</v>
+      </c>
+      <c r="C112" s="75">
+        <v>800</v>
+      </c>
+      <c r="E112" s="75">
+        <f t="shared" si="6"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A113" s="105" t="s">
+        <v>161</v>
+      </c>
+      <c r="B113" s="104">
+        <v>1</v>
+      </c>
+      <c r="C113" s="75">
+        <v>2700</v>
+      </c>
+      <c r="D113" s="104"/>
+      <c r="E113" s="75">
+        <f t="shared" si="6"/>
+        <v>2700</v>
+      </c>
+      <c r="U113" s="89"/>
+      <c r="V113"/>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A114" s="103" t="s">
         <v>406</v>
       </c>
-      <c r="B109" s="103"/>
-      <c r="C109" s="104">
+      <c r="B114" s="104">
         <v>1</v>
       </c>
-      <c r="D109" s="75">
+      <c r="C114" s="75">
+        <v>2500</v>
+      </c>
+      <c r="D114" s="104"/>
+      <c r="E114" s="75">
+        <f t="shared" si="6"/>
+        <v>2500</v>
+      </c>
+      <c r="U114" s="89"/>
+      <c r="V114"/>
+    </row>
+    <row r="115" spans="1:22" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="103" t="s">
+        <v>159</v>
+      </c>
+      <c r="B115" s="104">
+        <v>1</v>
+      </c>
+      <c r="C115" s="75">
+        <v>1000</v>
+      </c>
+      <c r="E115" s="75">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="103" t="s">
+        <v>407</v>
+      </c>
+      <c r="B116" s="104">
+        <v>1</v>
+      </c>
+      <c r="C116" s="75">
+        <v>1000</v>
+      </c>
+      <c r="E116" s="75">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A117" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="17">
+        <v>1</v>
+      </c>
+      <c r="C117" s="110">
+        <v>500</v>
+      </c>
+      <c r="D117" s="17"/>
+      <c r="E117" s="110">
+        <f t="shared" si="6"/>
+        <v>500</v>
+      </c>
+      <c r="U117" s="89"/>
+      <c r="V117"/>
+    </row>
+    <row r="118" spans="1:22" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="104" t="s">
+        <v>410</v>
+      </c>
+      <c r="B118" s="104">
+        <v>1</v>
+      </c>
+      <c r="C118" s="75">
+        <v>1000</v>
+      </c>
+      <c r="E118" s="75">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A119" s="108" t="s">
+        <v>409</v>
+      </c>
+      <c r="B119" s="104">
+        <v>1</v>
+      </c>
+      <c r="C119" s="75">
+        <v>22000</v>
+      </c>
+      <c r="D119" s="104"/>
+      <c r="E119" s="75">
+        <f t="shared" si="6"/>
+        <v>22000</v>
+      </c>
+      <c r="U119" s="89"/>
+      <c r="V119"/>
+    </row>
+    <row r="120" spans="1:22" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="111" t="s">
+        <v>145</v>
+      </c>
+      <c r="B120" s="104">
+        <v>1</v>
+      </c>
+      <c r="C120" s="75">
         <v>1500</v>
       </c>
-      <c r="F109" s="75">
-        <f>D109*C109</f>
+      <c r="E120" s="75">
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="137" t="s">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A121" s="103" t="s">
+        <v>351</v>
+      </c>
+      <c r="B121" s="104">
+        <v>20</v>
+      </c>
+      <c r="C121" s="75">
         <v>120</v>
       </c>
-      <c r="B110" s="137"/>
-      <c r="C110" s="17">
+      <c r="D121" s="104"/>
+      <c r="E121" s="75">
+        <f t="shared" si="6"/>
+        <v>2400</v>
+      </c>
+      <c r="U121" s="89"/>
+      <c r="V121"/>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A122" s="103" t="s">
+        <v>352</v>
+      </c>
+      <c r="B122" s="104">
+        <v>12</v>
+      </c>
+      <c r="C122" s="75">
+        <v>180</v>
+      </c>
+      <c r="D122" s="104"/>
+      <c r="E122" s="75">
+        <f t="shared" si="6"/>
+        <v>2160</v>
+      </c>
+      <c r="U122" s="89"/>
+      <c r="V122"/>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A123" s="103" t="s">
+        <v>120</v>
+      </c>
+      <c r="B123" s="104">
         <v>1</v>
       </c>
-      <c r="D110" s="138">
-        <v>2500</v>
-      </c>
-      <c r="E110" s="17"/>
-      <c r="F110" s="138">
-        <f>D110*C110</f>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="103" t="s">
-        <v>407</v>
-      </c>
-      <c r="B111" s="103"/>
-      <c r="C111" s="104">
-        <v>1</v>
-      </c>
-      <c r="D111" s="75">
-        <v>14000</v>
-      </c>
-      <c r="F111" s="75">
-        <f>D111*C111</f>
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="103" t="s">
-        <v>405</v>
-      </c>
-      <c r="B112" s="103"/>
-      <c r="C112" s="104">
-        <v>1</v>
-      </c>
-      <c r="D112" s="75">
+      <c r="C123" s="75">
         <v>2000</v>
       </c>
-      <c r="E112" s="104"/>
-      <c r="F112" s="75">
-        <f>D112*C112</f>
+      <c r="D123" s="104"/>
+      <c r="E123" s="75">
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="103" t="s">
+      <c r="U123" s="89"/>
+      <c r="V123"/>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A124" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="100"/>
+      <c r="C124" s="140"/>
+      <c r="D124" s="100"/>
+      <c r="E124" s="140">
+        <f>SUM(E106:E123)</f>
+        <v>79576</v>
+      </c>
+      <c r="U124" s="89"/>
+      <c r="V124"/>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A125" s="124" t="s">
+        <v>292</v>
+      </c>
+      <c r="B125" s="124"/>
+      <c r="C125" s="124"/>
+      <c r="D125" s="124"/>
+      <c r="E125" s="124"/>
+      <c r="F125" s="106"/>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A126" s="104" t="s">
+        <v>157</v>
+      </c>
+      <c r="B126" s="104">
+        <v>53</v>
+      </c>
+      <c r="C126" s="69">
+        <v>500</v>
+      </c>
+      <c r="D126" s="69"/>
+      <c r="E126" s="75">
+        <f>C126*B126</f>
+        <v>26500</v>
+      </c>
+      <c r="U126" s="89"/>
+      <c r="V126"/>
+    </row>
+    <row r="127" spans="1:22" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" s="100"/>
+      <c r="C127" s="100"/>
+      <c r="D127" s="101"/>
+      <c r="E127" s="101">
+        <f>SUM(E126)</f>
+        <v>26500</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A128" s="141" t="s">
+        <v>403</v>
+      </c>
+      <c r="B128" s="141"/>
+      <c r="C128" s="141"/>
+      <c r="D128" s="142"/>
+      <c r="E128" s="142">
+        <f>FLOOR((E127+E124)*1.05,2)</f>
+        <v>111378</v>
+      </c>
+      <c r="U128" s="89"/>
+      <c r="V128"/>
+    </row>
+    <row r="129" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A129" s="68" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="B130" s="78"/>
+      <c r="C130" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="D130" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="E130" s="79" t="s">
+        <v>345</v>
+      </c>
+      <c r="F130" s="75" t="s">
         <v>408</v>
       </c>
-      <c r="B113" s="103"/>
-      <c r="C113" s="104">
-        <v>1</v>
-      </c>
-      <c r="D113" s="75">
-        <v>1000</v>
-      </c>
-      <c r="F113" s="75">
-        <f>D113*C113</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="105" t="s">
-        <v>161</v>
-      </c>
-      <c r="B114" s="105"/>
-      <c r="C114" s="104">
-        <v>1</v>
-      </c>
-      <c r="D114" s="75">
-        <v>3500</v>
-      </c>
-      <c r="E114" s="104"/>
-      <c r="F114" s="75">
-        <f>D114*C114</f>
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="103" t="s">
-        <v>409</v>
-      </c>
-      <c r="B115" s="103"/>
-      <c r="C115" s="104">
-        <v>1</v>
-      </c>
-      <c r="D115" s="75">
-        <v>2500</v>
-      </c>
-      <c r="E115" s="104"/>
-      <c r="F115" s="75">
-        <f>D115*C115</f>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="103" t="s">
-        <v>159</v>
-      </c>
-      <c r="B116" s="103"/>
-      <c r="C116" s="104">
-        <v>1</v>
-      </c>
-      <c r="D116" s="75">
-        <v>1000</v>
-      </c>
-      <c r="F116" s="75">
-        <f>D116*C116</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="103" t="s">
-        <v>410</v>
-      </c>
-      <c r="B117" s="103"/>
-      <c r="C117" s="104">
-        <v>1</v>
-      </c>
-      <c r="D117" s="75">
-        <v>1000</v>
-      </c>
-      <c r="F117" s="75">
-        <f>D117*C117</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="137" t="s">
-        <v>120</v>
-      </c>
-      <c r="B118" s="137"/>
-      <c r="C118" s="17">
-        <v>1</v>
-      </c>
-      <c r="D118" s="138">
-        <v>500</v>
-      </c>
-      <c r="E118" s="17"/>
-      <c r="F118" s="138">
-        <f>D118*C118</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="104" t="s">
-        <v>411</v>
-      </c>
-      <c r="C119" s="104">
-        <v>1</v>
-      </c>
-      <c r="D119" s="104">
-        <v>1000</v>
-      </c>
-      <c r="F119" s="75">
-        <f>D119*C119</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="135" t="s">
-        <v>396</v>
-      </c>
-      <c r="B120" s="135"/>
-      <c r="C120" s="104">
-        <v>1</v>
-      </c>
-      <c r="D120" s="75">
-        <v>22000</v>
-      </c>
-      <c r="E120" s="104"/>
-      <c r="F120" s="75">
-        <f>D120*C120</f>
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="139" t="s">
-        <v>145</v>
-      </c>
-      <c r="B121" s="135"/>
-      <c r="C121" s="104">
-        <v>1</v>
-      </c>
-      <c r="D121" s="75">
-        <v>1500</v>
-      </c>
-      <c r="F121" s="75">
-        <f>D121*C121</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="103" t="s">
-        <v>351</v>
-      </c>
-      <c r="B122" s="103"/>
-      <c r="C122" s="104">
-        <v>20</v>
-      </c>
-      <c r="D122" s="75">
-        <v>120</v>
-      </c>
-      <c r="E122" s="104"/>
-      <c r="F122" s="75">
-        <f>D122*C122</f>
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="103" t="s">
-        <v>352</v>
-      </c>
-      <c r="B123" s="103"/>
-      <c r="C123" s="104">
-        <v>12</v>
-      </c>
-      <c r="D123" s="75">
-        <v>180</v>
-      </c>
-      <c r="E123" s="104"/>
-      <c r="F123" s="75">
-        <f>D123*C123</f>
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="B124" s="103"/>
-      <c r="C124" s="104">
-        <v>1</v>
-      </c>
-      <c r="D124" s="75">
-        <v>2000</v>
-      </c>
-      <c r="E124" s="104"/>
-      <c r="F124" s="75">
-        <f>D124*C124</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="104"/>
-      <c r="B125" s="104"/>
-      <c r="C125" s="104"/>
-      <c r="D125" s="75"/>
-      <c r="E125" s="104"/>
-      <c r="F125" s="104"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="104" t="s">
-        <v>7</v>
-      </c>
-      <c r="B126" s="104"/>
-      <c r="C126" s="104"/>
-      <c r="D126" s="75"/>
-      <c r="E126" s="104"/>
-      <c r="F126" s="136">
-        <f>SUM(F106:F125)</f>
-        <v>87576</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="121" t="s">
-        <v>292</v>
-      </c>
-      <c r="B127" s="121"/>
-      <c r="C127" s="121"/>
-      <c r="D127" s="121"/>
-      <c r="E127" s="121"/>
-      <c r="F127" s="33"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="104" t="s">
-        <v>157</v>
-      </c>
-      <c r="B128" s="104"/>
-      <c r="C128" s="104">
-        <v>53</v>
-      </c>
-      <c r="D128" s="69">
-        <v>500</v>
-      </c>
-      <c r="E128" s="69"/>
-      <c r="F128" s="75">
-        <f>D128*C128</f>
-        <v>26500</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="B129" s="70"/>
-      <c r="C129" s="70"/>
-      <c r="D129" s="70"/>
-      <c r="E129" s="71"/>
-      <c r="F129" s="71">
-        <f>SUM(F127:F128)</f>
-        <v>26500</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="70" t="s">
-        <v>403</v>
-      </c>
-      <c r="B130" s="70"/>
-      <c r="C130" s="70"/>
-      <c r="D130" s="70"/>
-      <c r="E130" s="71"/>
-      <c r="F130" s="71">
-        <f>(F129+F126)*1.05</f>
-        <v>119779.8</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A131" s="68" t="s">
-        <v>402</v>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="137" t="s">
+        <v>322</v>
+      </c>
+      <c r="B131" s="138"/>
+      <c r="C131" s="138"/>
+      <c r="D131" s="138"/>
+      <c r="E131" s="139"/>
+      <c r="F131" s="97">
+        <v>8200</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="B132" s="78"/>
-      <c r="C132" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="D132" s="79" t="s">
-        <v>330</v>
-      </c>
-      <c r="E132" s="79" t="s">
-        <v>345</v>
-      </c>
-      <c r="F132" s="75" t="s">
-        <v>412</v>
-      </c>
+      <c r="A132" s="130" t="s">
+        <v>388</v>
+      </c>
+      <c r="B132" s="130"/>
+      <c r="C132" s="91">
+        <v>15</v>
+      </c>
+      <c r="D132" s="91" t="s">
+        <v>395</v>
+      </c>
+      <c r="E132" s="96">
+        <f>0.1*0.2*6*C132</f>
+        <v>1.8000000000000003</v>
+      </c>
+      <c r="F132" s="75"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="118" t="s">
-        <v>322</v>
-      </c>
-      <c r="B133" s="119"/>
-      <c r="C133" s="119"/>
-      <c r="D133" s="119"/>
-      <c r="E133" s="120"/>
-      <c r="F133" s="97">
-        <v>8200</v>
-      </c>
+      <c r="A133" s="131" t="s">
+        <v>389</v>
+      </c>
+      <c r="B133" s="131"/>
+      <c r="C133" s="96">
+        <v>30</v>
+      </c>
+      <c r="D133" s="96" t="s">
+        <v>395</v>
+      </c>
+      <c r="E133" s="96">
+        <f>0.1*0.03*6*C133</f>
+        <v>0.54</v>
+      </c>
+      <c r="F133" s="75"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="123" t="s">
-        <v>388</v>
-      </c>
-      <c r="B134" s="123"/>
+      <c r="A134" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="B134" s="131"/>
       <c r="C134" s="91">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D134" s="91" t="s">
         <v>395</v>
       </c>
-      <c r="E134" s="96">
-        <f>0.1*0.2*6*C134</f>
-        <v>1.8000000000000003</v>
+      <c r="E134" s="91">
+        <f>0.1*0.03*6*C134</f>
+        <v>0.97200000000000009</v>
       </c>
       <c r="F134" s="75"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="122" t="s">
-        <v>389</v>
-      </c>
-      <c r="B135" s="122"/>
-      <c r="C135" s="96">
-        <v>30</v>
-      </c>
-      <c r="D135" s="96" t="s">
-        <v>395</v>
-      </c>
-      <c r="E135" s="96">
-        <f>0.1*0.03*6*C135</f>
-        <v>0.54</v>
+      <c r="A135" s="131" t="s">
+        <v>390</v>
+      </c>
+      <c r="B135" s="131"/>
+      <c r="C135" s="91">
+        <v>72</v>
+      </c>
+      <c r="D135" s="91" t="s">
+        <v>334</v>
+      </c>
+      <c r="E135" s="91">
+        <f>0.05*0.05*C135</f>
+        <v>0.18000000000000005</v>
       </c>
       <c r="F135" s="75"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="122" t="s">
-        <v>399</v>
-      </c>
-      <c r="B136" s="122"/>
+      <c r="A136" s="131" t="s">
+        <v>315</v>
+      </c>
+      <c r="B136" s="131"/>
       <c r="C136" s="91">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D136" s="91" t="s">
-        <v>395</v>
-      </c>
-      <c r="E136" s="91">
-        <f>0.1*0.03*6*C136</f>
-        <v>0.97200000000000009</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="E136" s="91"/>
       <c r="F136" s="75"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="122" t="s">
-        <v>390</v>
-      </c>
-      <c r="B137" s="122"/>
+      <c r="A137" s="131" t="s">
+        <v>320</v>
+      </c>
+      <c r="B137" s="131"/>
       <c r="C137" s="91">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="D137" s="91" t="s">
-        <v>334</v>
-      </c>
-      <c r="E137" s="91">
-        <f>0.05*0.05*C137</f>
-        <v>0.18000000000000005</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="E137" s="91"/>
       <c r="F137" s="75"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="122" t="s">
-        <v>315</v>
-      </c>
-      <c r="B138" s="122"/>
+      <c r="A138" s="132" t="s">
+        <v>321</v>
+      </c>
+      <c r="B138" s="132"/>
       <c r="C138" s="91">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D138" s="91" t="s">
         <v>333</v>
@@ -8939,66 +8950,66 @@
       <c r="F138" s="75"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="122" t="s">
-        <v>320</v>
-      </c>
-      <c r="B139" s="122"/>
-      <c r="C139" s="91">
-        <v>10</v>
-      </c>
-      <c r="D139" s="91" t="s">
-        <v>335</v>
-      </c>
-      <c r="E139" s="91"/>
-      <c r="F139" s="75"/>
+      <c r="A139" s="129" t="s">
+        <v>343</v>
+      </c>
+      <c r="B139" s="129"/>
+      <c r="C139" s="129"/>
+      <c r="D139" s="129"/>
+      <c r="E139" s="129"/>
+      <c r="F139" s="129"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="127" t="s">
-        <v>321</v>
-      </c>
-      <c r="B140" s="127"/>
+      <c r="A140" s="133" t="s">
+        <v>396</v>
+      </c>
+      <c r="B140" s="133"/>
       <c r="C140" s="91">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="D140" s="91" t="s">
+        <v>338</v>
+      </c>
+      <c r="E140" s="91" t="s">
+        <v>342</v>
+      </c>
+      <c r="F140" s="75"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="134" t="s">
+        <v>323</v>
+      </c>
+      <c r="B141" s="134"/>
+      <c r="C141" s="91">
+        <v>500</v>
+      </c>
+      <c r="D141" s="91" t="s">
         <v>333</v>
       </c>
-      <c r="E140" s="91"/>
-      <c r="F140" s="75"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="124" t="s">
-        <v>343</v>
-      </c>
-      <c r="B141" s="124"/>
-      <c r="C141" s="124"/>
-      <c r="D141" s="124"/>
-      <c r="E141" s="124"/>
-      <c r="F141" s="124"/>
+      <c r="E141" s="91"/>
+      <c r="F141" s="75"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="125" t="s">
-        <v>396</v>
-      </c>
-      <c r="B142" s="125"/>
+      <c r="A142" s="131" t="s">
+        <v>351</v>
+      </c>
+      <c r="B142" s="131"/>
       <c r="C142" s="91">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D142" s="91" t="s">
-        <v>338</v>
-      </c>
-      <c r="E142" s="91" t="s">
-        <v>342</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="E142" s="91"/>
       <c r="F142" s="75"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="126" t="s">
-        <v>323</v>
-      </c>
-      <c r="B143" s="126"/>
+      <c r="A143" s="131" t="s">
+        <v>352</v>
+      </c>
+      <c r="B143" s="131"/>
       <c r="C143" s="91">
-        <v>500</v>
+        <v>7</v>
       </c>
       <c r="D143" s="91" t="s">
         <v>333</v>
@@ -9007,12 +9018,12 @@
       <c r="F143" s="75"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="122" t="s">
-        <v>351</v>
-      </c>
-      <c r="B144" s="122"/>
+      <c r="A144" s="131" t="s">
+        <v>353</v>
+      </c>
+      <c r="B144" s="131"/>
       <c r="C144" s="91">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D144" s="91" t="s">
         <v>333</v>
@@ -9021,82 +9032,82 @@
       <c r="F144" s="75"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="122" t="s">
-        <v>352</v>
-      </c>
-      <c r="B145" s="122"/>
+      <c r="A145" s="131" t="s">
+        <v>324</v>
+      </c>
+      <c r="B145" s="131"/>
       <c r="C145" s="91">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D145" s="91" t="s">
-        <v>333</v>
+        <v>397</v>
       </c>
       <c r="E145" s="91"/>
       <c r="F145" s="75"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="122" t="s">
-        <v>353</v>
-      </c>
-      <c r="B146" s="122"/>
+      <c r="A146" s="131" t="s">
+        <v>325</v>
+      </c>
+      <c r="B146" s="131"/>
       <c r="C146" s="91">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D146" s="91" t="s">
-        <v>333</v>
+        <v>398</v>
       </c>
       <c r="E146" s="91"/>
       <c r="F146" s="75"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="122" t="s">
-        <v>324</v>
-      </c>
-      <c r="B147" s="122"/>
+      <c r="A147" s="131" t="s">
+        <v>326</v>
+      </c>
+      <c r="B147" s="131"/>
       <c r="C147" s="91">
         <v>9</v>
       </c>
       <c r="D147" s="91" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E147" s="91"/>
       <c r="F147" s="75"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="122" t="s">
-        <v>325</v>
-      </c>
-      <c r="B148" s="122"/>
+      <c r="A148" s="131" t="s">
+        <v>327</v>
+      </c>
+      <c r="B148" s="131"/>
       <c r="C148" s="91">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D148" s="91" t="s">
-        <v>398</v>
+        <v>333</v>
       </c>
       <c r="E148" s="91"/>
       <c r="F148" s="75"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="122" t="s">
-        <v>326</v>
-      </c>
-      <c r="B149" s="122"/>
+      <c r="A149" s="131" t="s">
+        <v>328</v>
+      </c>
+      <c r="B149" s="131"/>
       <c r="C149" s="91">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D149" s="91" t="s">
-        <v>398</v>
+        <v>333</v>
       </c>
       <c r="E149" s="91"/>
       <c r="F149" s="75"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="122" t="s">
-        <v>327</v>
-      </c>
-      <c r="B150" s="122"/>
+      <c r="A150" s="131" t="s">
+        <v>329</v>
+      </c>
+      <c r="B150" s="131"/>
       <c r="C150" s="91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D150" s="91" t="s">
         <v>333</v>
@@ -9104,115 +9115,122 @@
       <c r="E150" s="91"/>
       <c r="F150" s="75"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="122" t="s">
-        <v>328</v>
-      </c>
-      <c r="B151" s="122"/>
-      <c r="C151" s="91">
-        <v>1</v>
-      </c>
-      <c r="D151" s="91" t="s">
-        <v>333</v>
-      </c>
-      <c r="E151" s="91"/>
-      <c r="F151" s="75"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="122" t="s">
-        <v>329</v>
-      </c>
-      <c r="B152" s="122"/>
-      <c r="C152" s="91">
-        <v>1</v>
-      </c>
-      <c r="D152" s="91" t="s">
-        <v>333</v>
-      </c>
-      <c r="E152" s="91"/>
-      <c r="F152" s="75"/>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="124" t="s">
+        <v>292</v>
+      </c>
+      <c r="B153" s="124"/>
+      <c r="C153" s="124"/>
+      <c r="D153" s="124"/>
+      <c r="E153" s="124"/>
+      <c r="F153" s="33"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" s="91"/>
+      <c r="C154" s="91">
+        <v>53</v>
+      </c>
+      <c r="D154" s="69">
+        <v>500</v>
+      </c>
+      <c r="E154" s="69">
+        <f>C154*D154</f>
+        <v>26500</v>
+      </c>
+      <c r="F154" s="75"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="121" t="s">
-        <v>292</v>
-      </c>
-      <c r="B155" s="121"/>
-      <c r="C155" s="121"/>
-      <c r="D155" s="121"/>
-      <c r="E155" s="121"/>
-      <c r="F155" s="33"/>
+      <c r="A155" s="91" t="s">
+        <v>311</v>
+      </c>
+      <c r="B155" s="91"/>
+      <c r="C155" s="91">
+        <v>27</v>
+      </c>
+      <c r="D155" s="69">
+        <v>550</v>
+      </c>
+      <c r="E155" s="69">
+        <f>C155*D155</f>
+        <v>14850</v>
+      </c>
+      <c r="F155" s="75"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="91" t="s">
-        <v>157</v>
+        <v>387</v>
       </c>
       <c r="B156" s="91"/>
       <c r="C156" s="91">
-        <v>53</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="D156" s="69">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E156" s="69">
         <f>C156*D156</f>
-        <v>26500</v>
+        <v>9690</v>
       </c>
       <c r="F156" s="75"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="91" t="s">
-        <v>311</v>
-      </c>
-      <c r="B157" s="91"/>
-      <c r="C157" s="91">
-        <v>27</v>
-      </c>
-      <c r="D157" s="69">
-        <v>550</v>
-      </c>
-      <c r="E157" s="69">
-        <f>C157*D157</f>
-        <v>14850</v>
-      </c>
-      <c r="F157" s="75"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="91" t="s">
-        <v>387</v>
-      </c>
-      <c r="B158" s="91"/>
-      <c r="C158" s="91">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="D158" s="69">
-        <v>300</v>
-      </c>
-      <c r="E158" s="69">
-        <f>C158*D158</f>
-        <v>9690</v>
-      </c>
-      <c r="F158" s="75"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="70" t="s">
+      <c r="A157" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B159" s="70"/>
-      <c r="C159" s="70">
+      <c r="B157" s="70"/>
+      <c r="C157" s="70">
         <v>51</v>
       </c>
-      <c r="D159" s="70">
+      <c r="D157" s="70">
         <v>1</v>
       </c>
-      <c r="E159" s="71">
-        <f>SUM(E156:E158)</f>
+      <c r="E157" s="71">
+        <f>SUM(E154:E156)</f>
         <v>51040</v>
       </c>
-      <c r="F159" s="70"/>
+      <c r="F157" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A153:E153"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A125:E125"/>
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="G1:T11"/>
     <mergeCell ref="A12:E12"/>
@@ -9228,41 +9246,6 @@
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A133:E133"/>
-    <mergeCell ref="A155:E155"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A141:F141"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A146:B146"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="40" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Татьяничевой 25/Расходы на ремонт.xlsx
+++ b/Татьяничевой 25/Расходы на ремонт.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="416">
   <si>
     <t>Помещение</t>
   </si>
@@ -1357,6 +1357,15 @@
   </si>
   <si>
     <t>Скрепки, валики, кисть</t>
+  </si>
+  <si>
+    <t>Всего работа</t>
+  </si>
+  <si>
+    <t>ШТУКАТУРКА ВНУТР.</t>
+  </si>
+  <si>
+    <t>Штукатурка черновая + затирка</t>
   </si>
 </sst>
 </file>
@@ -1718,7 +1727,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1927,6 +1936,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1958,7 +1978,7 @@
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -2117,6 +2137,10 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1"/>
     <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="8" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="19" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="13" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="11" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2139,7 +2163,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="15" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="16" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="17" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="15" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="23" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="13" xfId="27" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="14" borderId="8" xfId="23" applyNumberFormat="1" applyAlignment="1">
@@ -2154,36 +2205,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="23" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="13" xfId="27" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="14" borderId="15" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="14" borderId="16" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="14" borderId="17" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="19" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="13" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="11" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="20% - Акцент1" xfId="5" builtinId="30"/>
@@ -2995,14 +3020,14 @@
       </c>
       <c r="I3" s="29">
         <f ca="1">TODAY()-G3</f>
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="J3" s="14">
         <v>200000</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">J3*K1/365*I3</f>
-        <v>19983.561643835619</v>
+        <v>20405.479452054798</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3030,14 +3055,14 @@
       </c>
       <c r="I4" s="29">
         <f ca="1">TODAY()-G4</f>
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="J4" s="14">
         <v>170000</v>
       </c>
       <c r="K4" s="14">
         <f ca="1">J4*L1/365*I4</f>
-        <v>6753.4246575342459</v>
+        <v>7009.58904109589</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3773,10 +3798,10 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="113" t="s">
+      <c r="C46" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="114"/>
+      <c r="D46" s="118"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
@@ -3897,14 +3922,14 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="112" t="s">
+      <c r="C57" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="112"/>
-      <c r="E57" s="112" t="s">
+      <c r="D57" s="116"/>
+      <c r="E57" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="112"/>
+      <c r="F57" s="116"/>
       <c r="I57" s="17" t="s">
         <v>84</v>
       </c>
@@ -4224,12 +4249,12 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="123" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
@@ -4245,10 +4270,10 @@
         <f t="shared" si="0"/>
         <v>8946</v>
       </c>
-      <c r="G9" s="115" t="s">
+      <c r="G9" s="119" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="115"/>
+      <c r="H9" s="119"/>
     </row>
     <row r="10" spans="1:13" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
@@ -4378,12 +4403,12 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="124" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
       <c r="F14" s="9" t="s">
         <v>208</v>
       </c>
@@ -4536,12 +4561,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="122" t="s">
+      <c r="A24" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="122"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="126"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4780,12 +4805,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="123" t="s">
+      <c r="A41" s="127" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="123"/>
-      <c r="C41" s="123"/>
-      <c r="D41" s="123"/>
+      <c r="B41" s="127"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="127"/>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -4908,12 +4933,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="116" t="s">
+      <c r="A50" s="120" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="116"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="116"/>
+      <c r="B50" s="120"/>
+      <c r="C50" s="120"/>
+      <c r="D50" s="120"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -4961,12 +4986,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="116" t="s">
+      <c r="A54" s="120" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="117"/>
-      <c r="C54" s="117"/>
-      <c r="D54" s="117"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="121"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -5377,12 +5402,12 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="118" t="s">
+      <c r="A83" s="122" t="s">
         <v>196</v>
       </c>
-      <c r="B83" s="118"/>
-      <c r="C83" s="118"/>
-      <c r="D83" s="118"/>
+      <c r="B83" s="122"/>
+      <c r="C83" s="122"/>
+      <c r="D83" s="122"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -6681,10 +6706,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W157"/>
+  <dimension ref="A1:W164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104:E128"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161:E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6718,22 +6743,22 @@
         <v>128</v>
       </c>
       <c r="B1" s="68"/>
-      <c r="G1" s="126" t="s">
+      <c r="G1" s="141" t="s">
         <v>368</v>
       </c>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="141"/>
+      <c r="S1" s="141"/>
+      <c r="T1" s="141"/>
       <c r="V1" s="90"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -6752,20 +6777,20 @@
       <c r="E2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="141"/>
       <c r="V2" s="90"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -6785,20 +6810,20 @@
         <f t="shared" ref="E3:E11" si="0">C3*D3</f>
         <v>17500</v>
       </c>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="141"/>
       <c r="V3" s="90"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -6815,20 +6840,20 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="141"/>
+      <c r="P4" s="141"/>
+      <c r="Q4" s="141"/>
+      <c r="R4" s="141"/>
+      <c r="S4" s="141"/>
+      <c r="T4" s="141"/>
       <c r="V4" s="90"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -6845,20 +6870,20 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="126"/>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="126"/>
-      <c r="S5" s="126"/>
-      <c r="T5" s="126"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="141"/>
+      <c r="P5" s="141"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="141"/>
+      <c r="T5" s="141"/>
       <c r="V5" s="90"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -6875,20 +6900,20 @@
         <f t="shared" si="0"/>
         <v>8800</v>
       </c>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="126"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="141"/>
       <c r="V6" s="90"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -6905,20 +6930,20 @@
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="126"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="141"/>
+      <c r="Q7" s="141"/>
+      <c r="R7" s="141"/>
+      <c r="S7" s="141"/>
+      <c r="T7" s="141"/>
       <c r="V7" s="90"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -6930,20 +6955,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
-      <c r="T8" s="126"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="141"/>
+      <c r="N8" s="141"/>
+      <c r="O8" s="141"/>
+      <c r="P8" s="141"/>
+      <c r="Q8" s="141"/>
+      <c r="R8" s="141"/>
+      <c r="S8" s="141"/>
+      <c r="T8" s="141"/>
       <c r="V8" s="90"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -6960,20 +6985,20 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="126"/>
-      <c r="N9" s="126"/>
-      <c r="O9" s="126"/>
-      <c r="P9" s="126"/>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="126"/>
-      <c r="S9" s="126"/>
-      <c r="T9" s="126"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="141"/>
+      <c r="M9" s="141"/>
+      <c r="N9" s="141"/>
+      <c r="O9" s="141"/>
+      <c r="P9" s="141"/>
+      <c r="Q9" s="141"/>
+      <c r="R9" s="141"/>
+      <c r="S9" s="141"/>
+      <c r="T9" s="141"/>
       <c r="V9" s="90"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -6988,20 +7013,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="126"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="141"/>
+      <c r="M10" s="141"/>
+      <c r="N10" s="141"/>
+      <c r="O10" s="141"/>
+      <c r="P10" s="141"/>
+      <c r="Q10" s="141"/>
+      <c r="R10" s="141"/>
+      <c r="S10" s="141"/>
+      <c r="T10" s="141"/>
       <c r="V10" s="90"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -7013,30 +7038,30 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="126"/>
-      <c r="N11" s="126"/>
-      <c r="O11" s="126"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="126"/>
-      <c r="R11" s="126"/>
-      <c r="S11" s="126"/>
-      <c r="T11" s="126"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="141"/>
+      <c r="L11" s="141"/>
+      <c r="M11" s="141"/>
+      <c r="N11" s="141"/>
+      <c r="O11" s="141"/>
+      <c r="P11" s="141"/>
+      <c r="Q11" s="141"/>
+      <c r="R11" s="141"/>
+      <c r="S11" s="141"/>
+      <c r="T11" s="141"/>
       <c r="V11" s="90"/>
     </row>
     <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="131" t="s">
         <v>292</v>
       </c>
-      <c r="B12" s="124"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
       <c r="G12" s="72" t="s">
         <v>18</v>
       </c>
@@ -7333,10 +7358,10 @@
       <c r="K18" t="s">
         <v>295</v>
       </c>
-      <c r="M18" s="128" t="s">
+      <c r="M18" s="143" t="s">
         <v>312</v>
       </c>
-      <c r="N18" s="128"/>
+      <c r="N18" s="143"/>
       <c r="P18" s="75">
         <v>600</v>
       </c>
@@ -7370,10 +7395,10 @@
         <f>H19*1.06</f>
         <v>477</v>
       </c>
-      <c r="M19" s="127" t="s">
+      <c r="M19" s="142" t="s">
         <v>313</v>
       </c>
-      <c r="N19" s="127"/>
+      <c r="N19" s="142"/>
       <c r="P19" s="75">
         <v>1140</v>
       </c>
@@ -7531,13 +7556,13 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="124" t="s">
+      <c r="A31" s="131" t="s">
         <v>292</v>
       </c>
-      <c r="B31" s="124"/>
-      <c r="C31" s="124"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="124"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -7740,20 +7765,20 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="125" t="s">
+      <c r="A54" s="140" t="s">
         <v>322</v>
       </c>
-      <c r="B54" s="125"/>
-      <c r="C54" s="125"/>
-      <c r="D54" s="125"/>
-      <c r="E54" s="125"/>
-      <c r="F54" s="125"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="140"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="140"/>
+      <c r="F54" s="140"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="130" t="s">
+      <c r="A55" s="133" t="s">
         <v>341</v>
       </c>
-      <c r="B55" s="130"/>
+      <c r="B55" s="133"/>
       <c r="C55">
         <v>25</v>
       </c>
@@ -7799,10 +7824,10 @@
       <c r="V57" s="89"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="131" t="s">
+      <c r="A58" s="132" t="s">
         <v>331</v>
       </c>
-      <c r="B58" s="131"/>
+      <c r="B58" s="132"/>
       <c r="C58">
         <v>56</v>
       </c>
@@ -7818,10 +7843,10 @@
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" s="131" t="s">
+      <c r="A59" s="132" t="s">
         <v>315</v>
       </c>
-      <c r="B59" s="131"/>
+      <c r="B59" s="132"/>
       <c r="C59">
         <v>50</v>
       </c>
@@ -7830,10 +7855,10 @@
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="131" t="s">
+      <c r="A60" s="132" t="s">
         <v>316</v>
       </c>
-      <c r="B60" s="131"/>
+      <c r="B60" s="132"/>
       <c r="C60">
         <v>66</v>
       </c>
@@ -7855,10 +7880,10 @@
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" s="131" t="s">
+      <c r="A61" s="132" t="s">
         <v>317</v>
       </c>
-      <c r="B61" s="131"/>
+      <c r="B61" s="132"/>
       <c r="C61">
         <v>16</v>
       </c>
@@ -7874,10 +7899,10 @@
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="131" t="s">
+      <c r="A62" s="132" t="s">
         <v>318</v>
       </c>
-      <c r="B62" s="131"/>
+      <c r="B62" s="132"/>
       <c r="C62">
         <v>144</v>
       </c>
@@ -7886,10 +7911,10 @@
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" s="131" t="s">
+      <c r="A63" s="132" t="s">
         <v>319</v>
       </c>
-      <c r="B63" s="131"/>
+      <c r="B63" s="132"/>
       <c r="C63">
         <v>144</v>
       </c>
@@ -7898,10 +7923,10 @@
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" s="131" t="s">
+      <c r="A64" s="132" t="s">
         <v>320</v>
       </c>
-      <c r="B64" s="131"/>
+      <c r="B64" s="132"/>
       <c r="C64">
         <v>10</v>
       </c>
@@ -7910,10 +7935,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="132" t="s">
+      <c r="A65" s="137" t="s">
         <v>321</v>
       </c>
-      <c r="B65" s="132"/>
+      <c r="B65" s="137"/>
       <c r="C65">
         <v>1000</v>
       </c>
@@ -7922,20 +7947,20 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="129" t="s">
+      <c r="A66" s="134" t="s">
         <v>343</v>
       </c>
-      <c r="B66" s="129"/>
-      <c r="C66" s="129"/>
-      <c r="D66" s="129"/>
-      <c r="E66" s="129"/>
-      <c r="F66" s="129"/>
+      <c r="B66" s="134"/>
+      <c r="C66" s="134"/>
+      <c r="D66" s="134"/>
+      <c r="E66" s="134"/>
+      <c r="F66" s="134"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="133" t="s">
+      <c r="A67" s="135" t="s">
         <v>350</v>
       </c>
-      <c r="B67" s="133"/>
+      <c r="B67" s="135"/>
       <c r="C67">
         <v>8</v>
       </c>
@@ -7950,10 +7975,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="134" t="s">
+      <c r="A68" s="136" t="s">
         <v>323</v>
       </c>
-      <c r="B68" s="134"/>
+      <c r="B68" s="136"/>
       <c r="C68">
         <v>500</v>
       </c>
@@ -7962,10 +7987,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="131" t="s">
+      <c r="A69" s="132" t="s">
         <v>351</v>
       </c>
-      <c r="B69" s="131"/>
+      <c r="B69" s="132"/>
       <c r="C69">
         <v>5</v>
       </c>
@@ -7974,10 +7999,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="131" t="s">
+      <c r="A70" s="132" t="s">
         <v>352</v>
       </c>
-      <c r="B70" s="131"/>
+      <c r="B70" s="132"/>
       <c r="C70">
         <v>7</v>
       </c>
@@ -7986,10 +8011,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="131" t="s">
+      <c r="A71" s="132" t="s">
         <v>353</v>
       </c>
-      <c r="B71" s="131"/>
+      <c r="B71" s="132"/>
       <c r="C71">
         <v>2</v>
       </c>
@@ -7998,10 +8023,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="131" t="s">
+      <c r="A72" s="132" t="s">
         <v>324</v>
       </c>
-      <c r="B72" s="131"/>
+      <c r="B72" s="132"/>
       <c r="C72">
         <v>9</v>
       </c>
@@ -8010,10 +8035,10 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="131" t="s">
+      <c r="A73" s="132" t="s">
         <v>325</v>
       </c>
-      <c r="B73" s="131"/>
+      <c r="B73" s="132"/>
       <c r="C73">
         <v>9</v>
       </c>
@@ -8022,10 +8047,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="131" t="s">
+      <c r="A74" s="132" t="s">
         <v>326</v>
       </c>
-      <c r="B74" s="131"/>
+      <c r="B74" s="132"/>
       <c r="C74">
         <v>9</v>
       </c>
@@ -8034,10 +8059,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="131" t="s">
+      <c r="A75" s="132" t="s">
         <v>327</v>
       </c>
-      <c r="B75" s="131"/>
+      <c r="B75" s="132"/>
       <c r="C75">
         <v>5</v>
       </c>
@@ -8046,10 +8071,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="131" t="s">
+      <c r="A76" s="132" t="s">
         <v>328</v>
       </c>
-      <c r="B76" s="131"/>
+      <c r="B76" s="132"/>
       <c r="C76">
         <v>1</v>
       </c>
@@ -8058,10 +8083,10 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="131" t="s">
+      <c r="A77" s="132" t="s">
         <v>329</v>
       </c>
-      <c r="B77" s="131"/>
+      <c r="B77" s="132"/>
       <c r="C77">
         <v>1</v>
       </c>
@@ -8080,13 +8105,13 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="136" t="s">
+      <c r="A82" s="139" t="s">
         <v>376</v>
       </c>
-      <c r="B82" s="136"/>
-      <c r="C82" s="136"/>
-      <c r="D82" s="136"/>
-      <c r="E82" s="136"/>
+      <c r="B82" s="139"/>
+      <c r="C82" s="139"/>
+      <c r="D82" s="139"/>
+      <c r="E82" s="139"/>
     </row>
     <row r="83" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A83" s="68" t="s">
@@ -8304,28 +8329,28 @@
       <c r="F96" s="74"/>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A97" s="135" t="s">
+      <c r="A97" s="138" t="s">
         <v>292</v>
       </c>
-      <c r="B97" s="135"/>
-      <c r="C97" s="135"/>
-      <c r="D97" s="135"/>
-      <c r="E97" s="135"/>
+      <c r="B97" s="138"/>
+      <c r="C97" s="138"/>
+      <c r="D97" s="138"/>
+      <c r="E97" s="138"/>
     </row>
     <row r="98" spans="1:22" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="91" t="s">
         <v>384</v>
       </c>
       <c r="C98" s="91">
-        <f>61-7</f>
-        <v>54</v>
+        <f>63-7</f>
+        <v>56</v>
       </c>
       <c r="D98" s="69">
         <v>500</v>
       </c>
       <c r="E98" s="69">
         <f>C98*D98</f>
-        <v>27000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="99" spans="1:22" s="91" customFormat="1" x14ac:dyDescent="0.25">
@@ -8369,12 +8394,9 @@
       <c r="D101" s="99"/>
       <c r="E101" s="102">
         <f>SUM(E98:E100)</f>
-        <v>36500</v>
-      </c>
-      <c r="F101" s="74">
-        <f>SUM(E101:E102)</f>
-        <v>41813</v>
-      </c>
+        <v>37500</v>
+      </c>
+      <c r="F101" s="74"/>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -8382,228 +8404,225 @@
       </c>
       <c r="E102" s="74">
         <f>FLOOR((E96+E101)*0.05,3)</f>
-        <v>5313</v>
-      </c>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A103" s="100" t="s">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="98" t="s">
+        <v>413</v>
+      </c>
+      <c r="B103" s="144"/>
+      <c r="C103" s="144"/>
+      <c r="D103" s="144"/>
+      <c r="E103" s="102">
+        <f>SUM(E101:E102)</f>
+        <v>42864</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A104" s="100" t="s">
         <v>189</v>
       </c>
-      <c r="B103" s="100"/>
-      <c r="C103" s="100">
+      <c r="B104" s="100"/>
+      <c r="C104" s="100">
         <v>51</v>
       </c>
-      <c r="D103" s="100">
+      <c r="D104" s="100">
         <v>1</v>
       </c>
-      <c r="E103" s="101">
+      <c r="E104" s="101">
         <f>E96+E101+E102</f>
-        <v>111605</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A104" s="68" t="s">
+        <v>112656</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A105" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="B104" s="104"/>
-      <c r="C104" s="104"/>
-      <c r="D104" s="104"/>
-      <c r="E104" s="104"/>
-      <c r="U104" s="89"/>
-      <c r="V104"/>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A105" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="C105" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="D105" s="79" t="s">
-        <v>345</v>
-      </c>
-      <c r="E105" s="79" t="s">
-        <v>391</v>
-      </c>
+      <c r="B105" s="104"/>
+      <c r="C105" s="104"/>
+      <c r="D105" s="104"/>
+      <c r="E105" s="104"/>
       <c r="U105" s="89"/>
       <c r="V105"/>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A106" s="107" t="s">
-        <v>388</v>
-      </c>
-      <c r="B106" s="104">
-        <v>14</v>
-      </c>
-      <c r="C106" s="75">
-        <v>8200</v>
-      </c>
-      <c r="D106" s="104">
-        <f>0.1*0.2*6*B106</f>
-        <v>1.6800000000000004</v>
-      </c>
-      <c r="E106" s="75">
-        <f>C106*D106</f>
-        <v>13776.000000000004</v>
+      <c r="A106" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="D106" s="79" t="s">
+        <v>345</v>
+      </c>
+      <c r="E106" s="79" t="s">
+        <v>391</v>
       </c>
       <c r="U106" s="89"/>
       <c r="V106"/>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A107" s="103" t="s">
-        <v>390</v>
+      <c r="A107" s="107" t="s">
+        <v>388</v>
       </c>
       <c r="B107" s="104">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="C107" s="75">
-        <v>60</v>
-      </c>
-      <c r="D107" s="104"/>
+        <v>8200</v>
+      </c>
+      <c r="D107" s="104">
+        <f>0.1*0.2*6*B107</f>
+        <v>1.6800000000000004</v>
+      </c>
       <c r="E107" s="75">
-        <f t="shared" ref="E107:E123" si="6">C107*B107</f>
-        <v>5040</v>
+        <f>C107*D107</f>
+        <v>13776.000000000004</v>
       </c>
       <c r="U107" s="89"/>
       <c r="V107"/>
     </row>
-    <row r="108" spans="1:22" s="96" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" s="103" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="B108" s="104">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C108" s="75">
-        <v>8200</v>
+        <v>60</v>
       </c>
       <c r="D108" s="104"/>
       <c r="E108" s="75">
+        <f t="shared" ref="E108:E124" si="6">C108*B108</f>
+        <v>5040</v>
+      </c>
+      <c r="U108" s="89"/>
+      <c r="V108"/>
+    </row>
+    <row r="109" spans="1:22" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="103" t="s">
+        <v>404</v>
+      </c>
+      <c r="B109" s="104">
+        <v>1</v>
+      </c>
+      <c r="C109" s="75">
+        <v>8200</v>
+      </c>
+      <c r="D109" s="104"/>
+      <c r="E109" s="75">
         <f t="shared" si="6"/>
         <v>8200</v>
       </c>
     </row>
-    <row r="109" spans="1:22" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="109" t="s">
+    <row r="110" spans="1:22" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="109" t="s">
         <v>120</v>
       </c>
-      <c r="B109" s="17">
+      <c r="B110" s="17">
         <v>1</v>
       </c>
-      <c r="C109" s="110">
+      <c r="C110" s="110">
         <v>2000</v>
       </c>
-      <c r="D109" s="17"/>
-      <c r="E109" s="110">
+      <c r="D110" s="17"/>
+      <c r="E110" s="110">
         <f t="shared" si="6"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="110" spans="1:22" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="103" t="s">
+    <row r="111" spans="1:22" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="103" t="s">
         <v>405</v>
       </c>
-      <c r="B110" s="104">
+      <c r="B111" s="104">
         <v>1</v>
       </c>
-      <c r="C110" s="75">
+      <c r="C111" s="75">
         <v>9000</v>
       </c>
-      <c r="E110" s="75">
+      <c r="E111" s="75">
         <f t="shared" si="6"/>
         <v>9000</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A111" s="103" t="s">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A112" s="103" t="s">
         <v>411</v>
       </c>
-      <c r="B111" s="104">
+      <c r="B112" s="104">
         <v>1</v>
       </c>
-      <c r="C111" s="75">
+      <c r="C112" s="75">
         <v>2000</v>
       </c>
-      <c r="D111" s="104"/>
-      <c r="E111" s="75">
+      <c r="D112" s="104"/>
+      <c r="E112" s="75">
         <f t="shared" si="6"/>
         <v>2000</v>
       </c>
-      <c r="U111" s="89"/>
-      <c r="V111"/>
-    </row>
-    <row r="112" spans="1:22" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="103" t="s">
+      <c r="U112" s="89"/>
+      <c r="V112"/>
+    </row>
+    <row r="113" spans="1:22" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="103" t="s">
         <v>412</v>
       </c>
-      <c r="B112" s="104">
+      <c r="B113" s="104">
         <v>1</v>
       </c>
-      <c r="C112" s="75">
+      <c r="C113" s="75">
         <v>800</v>
       </c>
-      <c r="E112" s="75">
+      <c r="E113" s="75">
         <f t="shared" si="6"/>
         <v>800</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A113" s="105" t="s">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A114" s="105" t="s">
         <v>161</v>
-      </c>
-      <c r="B113" s="104">
-        <v>1</v>
-      </c>
-      <c r="C113" s="75">
-        <v>2700</v>
-      </c>
-      <c r="D113" s="104"/>
-      <c r="E113" s="75">
-        <f t="shared" si="6"/>
-        <v>2700</v>
-      </c>
-      <c r="U113" s="89"/>
-      <c r="V113"/>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A114" s="103" t="s">
-        <v>406</v>
       </c>
       <c r="B114" s="104">
         <v>1</v>
       </c>
       <c r="C114" s="75">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="D114" s="104"/>
       <c r="E114" s="75">
         <f t="shared" si="6"/>
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="U114" s="89"/>
       <c r="V114"/>
     </row>
-    <row r="115" spans="1:22" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" s="103" t="s">
-        <v>159</v>
+        <v>406</v>
       </c>
       <c r="B115" s="104">
         <v>1</v>
       </c>
       <c r="C115" s="75">
-        <v>1000</v>
-      </c>
+        <v>2500</v>
+      </c>
+      <c r="D115" s="104"/>
       <c r="E115" s="75">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
+        <v>2500</v>
+      </c>
+      <c r="U115" s="89"/>
+      <c r="V115"/>
     </row>
     <row r="116" spans="1:22" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="103" t="s">
-        <v>407</v>
+        <v>159</v>
       </c>
       <c r="B116" s="104">
         <v>1</v>
@@ -8616,386 +8635,387 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A117" s="109" t="s">
+    <row r="117" spans="1:22" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="103" t="s">
+        <v>407</v>
+      </c>
+      <c r="B117" s="104">
+        <v>1</v>
+      </c>
+      <c r="C117" s="75">
+        <v>1000</v>
+      </c>
+      <c r="E117" s="75">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A118" s="109" t="s">
         <v>120</v>
       </c>
-      <c r="B117" s="17">
+      <c r="B118" s="17">
         <v>1</v>
       </c>
-      <c r="C117" s="110">
+      <c r="C118" s="110">
         <v>500</v>
       </c>
-      <c r="D117" s="17"/>
-      <c r="E117" s="110">
+      <c r="D118" s="17"/>
+      <c r="E118" s="110">
         <f t="shared" si="6"/>
         <v>500</v>
       </c>
-      <c r="U117" s="89"/>
-      <c r="V117"/>
-    </row>
-    <row r="118" spans="1:22" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="104" t="s">
+      <c r="U118" s="89"/>
+      <c r="V118"/>
+    </row>
+    <row r="119" spans="1:22" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="104" t="s">
         <v>410</v>
       </c>
-      <c r="B118" s="104">
+      <c r="B119" s="104">
         <v>1</v>
       </c>
-      <c r="C118" s="75">
+      <c r="C119" s="75">
         <v>1000</v>
       </c>
-      <c r="E118" s="75">
+      <c r="E119" s="75">
         <f t="shared" si="6"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A119" s="108" t="s">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A120" s="108" t="s">
         <v>409</v>
       </c>
-      <c r="B119" s="104">
+      <c r="B120" s="104">
         <v>1</v>
       </c>
-      <c r="C119" s="75">
+      <c r="C120" s="75">
         <v>22000</v>
       </c>
-      <c r="D119" s="104"/>
-      <c r="E119" s="75">
+      <c r="D120" s="104"/>
+      <c r="E120" s="75">
         <f t="shared" si="6"/>
         <v>22000</v>
       </c>
-      <c r="U119" s="89"/>
-      <c r="V119"/>
-    </row>
-    <row r="120" spans="1:22" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="111" t="s">
+      <c r="U120" s="89"/>
+      <c r="V120"/>
+    </row>
+    <row r="121" spans="1:22" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="B120" s="104">
+      <c r="B121" s="104">
         <v>1</v>
       </c>
-      <c r="C120" s="75">
+      <c r="C121" s="75">
         <v>1500</v>
       </c>
-      <c r="E120" s="75">
+      <c r="E121" s="75">
         <f t="shared" si="6"/>
         <v>1500</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A121" s="103" t="s">
-        <v>351</v>
-      </c>
-      <c r="B121" s="104">
-        <v>20</v>
-      </c>
-      <c r="C121" s="75">
-        <v>120</v>
-      </c>
-      <c r="D121" s="104"/>
-      <c r="E121" s="75">
-        <f t="shared" si="6"/>
-        <v>2400</v>
-      </c>
-      <c r="U121" s="89"/>
-      <c r="V121"/>
-    </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" s="103" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B122" s="104">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C122" s="75">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="D122" s="104"/>
       <c r="E122" s="75">
         <f t="shared" si="6"/>
-        <v>2160</v>
+        <v>2400</v>
       </c>
       <c r="U122" s="89"/>
       <c r="V122"/>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" s="103" t="s">
-        <v>120</v>
+        <v>352</v>
       </c>
       <c r="B123" s="104">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C123" s="75">
-        <v>2000</v>
+        <v>180</v>
       </c>
       <c r="D123" s="104"/>
       <c r="E123" s="75">
         <f t="shared" si="6"/>
-        <v>2000</v>
+        <v>2160</v>
       </c>
       <c r="U123" s="89"/>
       <c r="V123"/>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A124" s="100" t="s">
-        <v>7</v>
-      </c>
-      <c r="B124" s="100"/>
-      <c r="C124" s="140"/>
-      <c r="D124" s="100"/>
-      <c r="E124" s="140">
-        <f>SUM(E106:E123)</f>
-        <v>79576</v>
+      <c r="A124" s="103" t="s">
+        <v>120</v>
+      </c>
+      <c r="B124" s="104">
+        <v>1</v>
+      </c>
+      <c r="C124" s="75">
+        <v>2000</v>
+      </c>
+      <c r="D124" s="104"/>
+      <c r="E124" s="75">
+        <f t="shared" si="6"/>
+        <v>2000</v>
       </c>
       <c r="U124" s="89"/>
       <c r="V124"/>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A125" s="124" t="s">
+      <c r="A125" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" s="100"/>
+      <c r="C125" s="113"/>
+      <c r="D125" s="100"/>
+      <c r="E125" s="113">
+        <f>SUM(E107:E124)</f>
+        <v>79576</v>
+      </c>
+      <c r="U125" s="89"/>
+      <c r="V125"/>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A126" s="131" t="s">
         <v>292</v>
       </c>
-      <c r="B125" s="124"/>
-      <c r="C125" s="124"/>
-      <c r="D125" s="124"/>
-      <c r="E125" s="124"/>
-      <c r="F125" s="106"/>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A126" s="104" t="s">
+      <c r="B126" s="131"/>
+      <c r="C126" s="131"/>
+      <c r="D126" s="131"/>
+      <c r="E126" s="131"/>
+      <c r="F126" s="106"/>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A127" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="B126" s="104">
+      <c r="B127" s="104">
         <v>53</v>
       </c>
-      <c r="C126" s="69">
+      <c r="C127" s="69">
         <v>500</v>
       </c>
-      <c r="D126" s="69"/>
-      <c r="E126" s="75">
-        <f>C126*B126</f>
+      <c r="D127" s="69"/>
+      <c r="E127" s="75">
+        <f>C127*B127</f>
         <v>26500</v>
       </c>
-      <c r="U126" s="89"/>
-      <c r="V126"/>
-    </row>
-    <row r="127" spans="1:22" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="100" t="s">
+      <c r="U127" s="89"/>
+      <c r="V127"/>
+    </row>
+    <row r="128" spans="1:22" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B127" s="100"/>
-      <c r="C127" s="100"/>
-      <c r="D127" s="101"/>
-      <c r="E127" s="101">
-        <f>SUM(E126)</f>
+      <c r="B128" s="100"/>
+      <c r="C128" s="100"/>
+      <c r="D128" s="101"/>
+      <c r="E128" s="101">
+        <f>SUM(E127)</f>
         <v>26500</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A128" s="141" t="s">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A129" s="114" t="s">
         <v>403</v>
       </c>
-      <c r="B128" s="141"/>
-      <c r="C128" s="141"/>
-      <c r="D128" s="142"/>
-      <c r="E128" s="142">
-        <f>FLOOR((E127+E124)*1.05,2)</f>
+      <c r="B129" s="114"/>
+      <c r="C129" s="114"/>
+      <c r="D129" s="115"/>
+      <c r="E129" s="115">
+        <f>FLOOR((E128+E125)*1.05,2)</f>
         <v>111378</v>
       </c>
-      <c r="U128" s="89"/>
-      <c r="V128"/>
-    </row>
-    <row r="129" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A129" s="68" t="s">
+      <c r="U129" s="89"/>
+      <c r="V129"/>
+    </row>
+    <row r="130" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A130" s="68" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="79" t="s">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A131" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="B130" s="78"/>
-      <c r="C130" s="79" t="s">
+      <c r="B131" s="78"/>
+      <c r="C131" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="D130" s="79" t="s">
+      <c r="D131" s="79" t="s">
         <v>330</v>
       </c>
-      <c r="E130" s="79" t="s">
+      <c r="E131" s="79" t="s">
         <v>345</v>
       </c>
-      <c r="F130" s="75" t="s">
+      <c r="F131" s="75" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="137" t="s">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A132" s="128" t="s">
         <v>322</v>
       </c>
-      <c r="B131" s="138"/>
-      <c r="C131" s="138"/>
-      <c r="D131" s="138"/>
-      <c r="E131" s="139"/>
-      <c r="F131" s="97">
+      <c r="B132" s="129"/>
+      <c r="C132" s="129"/>
+      <c r="D132" s="129"/>
+      <c r="E132" s="130"/>
+      <c r="F132" s="97">
         <v>8200</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="130" t="s">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A133" s="133" t="s">
         <v>388</v>
       </c>
-      <c r="B132" s="130"/>
-      <c r="C132" s="91">
+      <c r="B133" s="133"/>
+      <c r="C133" s="91">
         <v>15</v>
       </c>
-      <c r="D132" s="91" t="s">
+      <c r="D133" s="91" t="s">
         <v>395</v>
       </c>
-      <c r="E132" s="96">
-        <f>0.1*0.2*6*C132</f>
+      <c r="E133" s="96">
+        <f>0.1*0.2*6*C133</f>
         <v>1.8000000000000003</v>
       </c>
-      <c r="F132" s="75"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="131" t="s">
+      <c r="F133" s="75"/>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A134" s="132" t="s">
         <v>389</v>
       </c>
-      <c r="B133" s="131"/>
-      <c r="C133" s="96">
+      <c r="B134" s="132"/>
+      <c r="C134" s="96">
         <v>30</v>
       </c>
-      <c r="D133" s="96" t="s">
+      <c r="D134" s="96" t="s">
         <v>395</v>
       </c>
-      <c r="E133" s="96">
-        <f>0.1*0.03*6*C133</f>
+      <c r="E134" s="96">
+        <f>0.1*0.03*6*C134</f>
         <v>0.54</v>
       </c>
-      <c r="F133" s="75"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="131" t="s">
+      <c r="F134" s="75"/>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A135" s="132" t="s">
         <v>399</v>
       </c>
-      <c r="B134" s="131"/>
-      <c r="C134" s="91">
+      <c r="B135" s="132"/>
+      <c r="C135" s="91">
         <v>54</v>
       </c>
-      <c r="D134" s="91" t="s">
+      <c r="D135" s="91" t="s">
         <v>395</v>
       </c>
-      <c r="E134" s="91">
-        <f>0.1*0.03*6*C134</f>
+      <c r="E135" s="91">
+        <f>0.1*0.03*6*C135</f>
         <v>0.97200000000000009</v>
       </c>
-      <c r="F134" s="75"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="131" t="s">
+      <c r="F135" s="75"/>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A136" s="132" t="s">
         <v>390</v>
       </c>
-      <c r="B135" s="131"/>
-      <c r="C135" s="91">
+      <c r="B136" s="132"/>
+      <c r="C136" s="91">
         <v>72</v>
       </c>
-      <c r="D135" s="91" t="s">
+      <c r="D136" s="91" t="s">
         <v>334</v>
       </c>
-      <c r="E135" s="91">
-        <f>0.05*0.05*C135</f>
+      <c r="E136" s="91">
+        <f>0.05*0.05*C136</f>
         <v>0.18000000000000005</v>
       </c>
-      <c r="F135" s="75"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="131" t="s">
+      <c r="F136" s="75"/>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A137" s="132" t="s">
         <v>315</v>
       </c>
-      <c r="B136" s="131"/>
-      <c r="C136" s="91">
+      <c r="B137" s="132"/>
+      <c r="C137" s="91">
         <v>50</v>
       </c>
-      <c r="D136" s="91" t="s">
+      <c r="D137" s="91" t="s">
         <v>333</v>
-      </c>
-      <c r="E136" s="91"/>
-      <c r="F136" s="75"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="131" t="s">
-        <v>320</v>
-      </c>
-      <c r="B137" s="131"/>
-      <c r="C137" s="91">
-        <v>10</v>
-      </c>
-      <c r="D137" s="91" t="s">
-        <v>335</v>
       </c>
       <c r="E137" s="91"/>
       <c r="F137" s="75"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138" s="132" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B138" s="132"/>
       <c r="C138" s="91">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="D138" s="91" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E138" s="91"/>
       <c r="F138" s="75"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="129" t="s">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A139" s="137" t="s">
+        <v>321</v>
+      </c>
+      <c r="B139" s="137"/>
+      <c r="C139" s="91">
+        <v>1000</v>
+      </c>
+      <c r="D139" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="E139" s="91"/>
+      <c r="F139" s="75"/>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A140" s="134" t="s">
         <v>343</v>
       </c>
-      <c r="B139" s="129"/>
-      <c r="C139" s="129"/>
-      <c r="D139" s="129"/>
-      <c r="E139" s="129"/>
-      <c r="F139" s="129"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="133" t="s">
+      <c r="B140" s="134"/>
+      <c r="C140" s="134"/>
+      <c r="D140" s="134"/>
+      <c r="E140" s="134"/>
+      <c r="F140" s="134"/>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A141" s="135" t="s">
         <v>396</v>
       </c>
-      <c r="B140" s="133"/>
-      <c r="C140" s="91">
+      <c r="B141" s="135"/>
+      <c r="C141" s="91">
         <v>9</v>
       </c>
-      <c r="D140" s="91" t="s">
+      <c r="D141" s="91" t="s">
         <v>338</v>
       </c>
-      <c r="E140" s="91" t="s">
+      <c r="E141" s="91" t="s">
         <v>342</v>
       </c>
-      <c r="F140" s="75"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="134" t="s">
+      <c r="F141" s="75"/>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A142" s="136" t="s">
         <v>323</v>
       </c>
-      <c r="B141" s="134"/>
-      <c r="C141" s="91">
+      <c r="B142" s="136"/>
+      <c r="C142" s="91">
         <v>500</v>
-      </c>
-      <c r="D141" s="91" t="s">
-        <v>333</v>
-      </c>
-      <c r="E141" s="91"/>
-      <c r="F141" s="75"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="131" t="s">
-        <v>351</v>
-      </c>
-      <c r="B142" s="131"/>
-      <c r="C142" s="91">
-        <v>5</v>
       </c>
       <c r="D142" s="91" t="s">
         <v>333</v>
@@ -9003,13 +9023,13 @@
       <c r="E142" s="91"/>
       <c r="F142" s="75"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="131" t="s">
-        <v>352</v>
-      </c>
-      <c r="B143" s="131"/>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A143" s="132" t="s">
+        <v>351</v>
+      </c>
+      <c r="B143" s="132"/>
       <c r="C143" s="91">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D143" s="91" t="s">
         <v>333</v>
@@ -9017,13 +9037,13 @@
       <c r="E143" s="91"/>
       <c r="F143" s="75"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="131" t="s">
-        <v>353</v>
-      </c>
-      <c r="B144" s="131"/>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A144" s="132" t="s">
+        <v>352</v>
+      </c>
+      <c r="B144" s="132"/>
       <c r="C144" s="91">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D144" s="91" t="s">
         <v>333</v>
@@ -9032,38 +9052,38 @@
       <c r="F144" s="75"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="131" t="s">
-        <v>324</v>
-      </c>
-      <c r="B145" s="131"/>
+      <c r="A145" s="132" t="s">
+        <v>353</v>
+      </c>
+      <c r="B145" s="132"/>
       <c r="C145" s="91">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D145" s="91" t="s">
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="E145" s="91"/>
       <c r="F145" s="75"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="131" t="s">
-        <v>325</v>
-      </c>
-      <c r="B146" s="131"/>
+      <c r="A146" s="132" t="s">
+        <v>324</v>
+      </c>
+      <c r="B146" s="132"/>
       <c r="C146" s="91">
         <v>9</v>
       </c>
       <c r="D146" s="91" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E146" s="91"/>
       <c r="F146" s="75"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="131" t="s">
-        <v>326</v>
-      </c>
-      <c r="B147" s="131"/>
+      <c r="A147" s="132" t="s">
+        <v>325</v>
+      </c>
+      <c r="B147" s="132"/>
       <c r="C147" s="91">
         <v>9</v>
       </c>
@@ -9074,26 +9094,26 @@
       <c r="F147" s="75"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="131" t="s">
-        <v>327</v>
-      </c>
-      <c r="B148" s="131"/>
+      <c r="A148" s="132" t="s">
+        <v>326</v>
+      </c>
+      <c r="B148" s="132"/>
       <c r="C148" s="91">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D148" s="91" t="s">
-        <v>333</v>
+        <v>398</v>
       </c>
       <c r="E148" s="91"/>
       <c r="F148" s="75"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="131" t="s">
-        <v>328</v>
-      </c>
-      <c r="B149" s="131"/>
+      <c r="A149" s="132" t="s">
+        <v>327</v>
+      </c>
+      <c r="B149" s="132"/>
       <c r="C149" s="91">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D149" s="91" t="s">
         <v>333</v>
@@ -9102,10 +9122,10 @@
       <c r="F149" s="75"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="131" t="s">
-        <v>329</v>
-      </c>
-      <c r="B150" s="131"/>
+      <c r="A150" s="132" t="s">
+        <v>328</v>
+      </c>
+      <c r="B150" s="132"/>
       <c r="C150" s="91">
         <v>1</v>
       </c>
@@ -9115,122 +9135,151 @@
       <c r="E150" s="91"/>
       <c r="F150" s="75"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="124" t="s">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="132" t="s">
+        <v>329</v>
+      </c>
+      <c r="B151" s="132"/>
+      <c r="C151" s="91">
+        <v>1</v>
+      </c>
+      <c r="D151" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="E151" s="91"/>
+      <c r="F151" s="75"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="131" t="s">
         <v>292</v>
       </c>
-      <c r="B153" s="124"/>
-      <c r="C153" s="124"/>
-      <c r="D153" s="124"/>
-      <c r="E153" s="124"/>
-      <c r="F153" s="33"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="91" t="s">
-        <v>157</v>
-      </c>
-      <c r="B154" s="91"/>
-      <c r="C154" s="91">
-        <v>53</v>
-      </c>
-      <c r="D154" s="69">
-        <v>500</v>
-      </c>
-      <c r="E154" s="69">
-        <f>C154*D154</f>
-        <v>26500</v>
-      </c>
-      <c r="F154" s="75"/>
+      <c r="B154" s="131"/>
+      <c r="C154" s="131"/>
+      <c r="D154" s="131"/>
+      <c r="E154" s="131"/>
+      <c r="F154" s="33"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="91" t="s">
-        <v>311</v>
+        <v>157</v>
       </c>
       <c r="B155" s="91"/>
       <c r="C155" s="91">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D155" s="69">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E155" s="69">
         <f>C155*D155</f>
-        <v>14850</v>
+        <v>26500</v>
       </c>
       <c r="F155" s="75"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="91" t="s">
-        <v>387</v>
+        <v>311</v>
       </c>
       <c r="B156" s="91"/>
       <c r="C156" s="91">
-        <v>32.299999999999997</v>
+        <v>27</v>
       </c>
       <c r="D156" s="69">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E156" s="69">
         <f>C156*D156</f>
+        <v>14850</v>
+      </c>
+      <c r="F156" s="75"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="91" t="s">
+        <v>387</v>
+      </c>
+      <c r="B157" s="91"/>
+      <c r="C157" s="91">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="D157" s="69">
+        <v>300</v>
+      </c>
+      <c r="E157" s="69">
+        <f>C157*D157</f>
         <v>9690</v>
       </c>
-      <c r="F156" s="75"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="70" t="s">
+      <c r="F157" s="75"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B157" s="70"/>
-      <c r="C157" s="70">
+      <c r="B158" s="70"/>
+      <c r="C158" s="70">
         <v>51</v>
       </c>
-      <c r="D157" s="70">
+      <c r="D158" s="70">
         <v>1</v>
       </c>
-      <c r="E157" s="71">
-        <f>SUM(E154:E156)</f>
+      <c r="E158" s="71">
+        <f>SUM(E155:E157)</f>
         <v>51040</v>
       </c>
-      <c r="F157" s="70"/>
+      <c r="F158" s="70"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="138" t="s">
+        <v>414</v>
+      </c>
+      <c r="B161" s="138"/>
+      <c r="C161" s="138"/>
+      <c r="D161" s="138"/>
+      <c r="E161" s="138"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="112" t="s">
+        <v>415</v>
+      </c>
+      <c r="B162" s="112"/>
+      <c r="C162" s="112">
+        <v>57</v>
+      </c>
+      <c r="D162" s="69">
+        <v>600</v>
+      </c>
+      <c r="E162" s="69">
+        <f>C162*D162</f>
+        <v>34200</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="112" t="s">
+        <v>394</v>
+      </c>
+      <c r="B163" s="112"/>
+      <c r="C163" s="112"/>
+      <c r="D163" s="112"/>
+      <c r="E163" s="74">
+        <f>FLOOR(E162*0.05,3)</f>
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="145" t="s">
+        <v>413</v>
+      </c>
+      <c r="B164" s="146"/>
+      <c r="C164" s="146"/>
+      <c r="D164" s="146"/>
+      <c r="E164" s="147">
+        <f>SUM(E162:E163)</f>
+        <v>35910</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A153:E153"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A125:E125"/>
+  <mergeCells count="52">
+    <mergeCell ref="A161:E161"/>
+    <mergeCell ref="A126:E126"/>
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="G1:T11"/>
     <mergeCell ref="A12:E12"/>
@@ -9246,6 +9295,41 @@
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A132:E132"/>
+    <mergeCell ref="A154:E154"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A145:B145"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="40" fitToHeight="0" orientation="landscape" r:id="rId1"/>
